--- a/Excel/镇魂街/break.玩家等级突破.xlsx
+++ b/Excel/镇魂街/break.玩家等级突破.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -21,222 +21,194 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="163">
   <si>
     <t>sheet名</t>
   </si>
   <si>
     <t>导出客户端文件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>导出服务端文件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
   </si>
   <si>
     <t>是否导出</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>屏蔽字段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>表注释</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>常驻内存</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>地狱道等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>任务1条件ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>任务1参数1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>任务1参数2</t>
   </si>
   <si>
     <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>condition_id:e&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通关指定剧情关卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>地狱道</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>master_hell.lua</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>master_hell.txt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>玩家等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConditionParam[1]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConditionParam[2]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConditionId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>辅助列</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>任务位置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Tasks</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Title</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>灵海修为</t>
   </si>
   <si>
     <t>我们的故事</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>芦花古楼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>风门通关数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Award[1].Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Award[1].Num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>item_id:e&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>奖励道具1ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>奖励道具1数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>抽卡次数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>寻找伙伴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>契约达成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CountType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>计数类型
 1终身，2开起时计数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通关困难剧情关卡次数</t>
   </si>
   <si>
     <t>特定商店进行购买次数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>快速扫荡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Jump.To</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>花门通关数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -252,784 +224,430 @@
       </rPr>
       <t>OSS</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>踏入竞技场</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>个人竞技胜利场数</t>
   </si>
   <si>
     <t>精英部队</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通关困难剧情关卡次数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>守护灵等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>培养守护灵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>特定商店进行购买次数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Jump.Type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>跳转类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>跳转ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BkLv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>突破等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LvLimit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级限制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱道任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BkLv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BkLv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelpCol</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskLoc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家地狱道任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家突破宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>master_hell_task.txt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人BOSS参与次数</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平民</t>
+  </si>
+  <si>
+    <t>等活</t>
+  </si>
+  <si>
+    <t>无间</t>
+  </si>
+  <si>
+    <t>焦热-2</t>
+  </si>
+  <si>
+    <t>焦热-3</t>
+  </si>
+  <si>
+    <t>焦热-4</t>
+  </si>
+  <si>
+    <t>大焦热-2</t>
+  </si>
+  <si>
+    <t>大焦热-3</t>
+  </si>
+  <si>
+    <t>大焦热-4</t>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级2</t>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Pic</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LvLimit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级限制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>pic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>pic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>pic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>pic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>pic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>pic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>pic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>pic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>pic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>pic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>pic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>pic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>pic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>pic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>pic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>pic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>pic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>pic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>pic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>pic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>pic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>钻石</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>地狱道任务</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BkLv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BkLv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BkLv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HelpCol</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>res:&lt;||Art\UI\DynamicTex\#png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Item_1606003</t>
+  </si>
+  <si>
+    <t>ui_dtex_Item_1606004</t>
+  </si>
+  <si>
+    <t>ui_dtex_Item_1606005</t>
+  </si>
+  <si>
+    <t>ui_dtex_Item_1606006</t>
+  </si>
+  <si>
+    <t>ui_dtex_Item_1606007</t>
+  </si>
+  <si>
+    <t>ui_dtex_Item_1606008</t>
+  </si>
+  <si>
+    <t>ui_dtex_Item_1606009</t>
+  </si>
+  <si>
+    <t>ui_dtex_Item_1606010</t>
+  </si>
+  <si>
+    <t>ui_dtex_Item_1606011</t>
+  </si>
+  <si>
+    <t>ui_dtex_Item_1606012</t>
+  </si>
+  <si>
+    <t>ui_dtex_Item_1606013</t>
+  </si>
+  <si>
+    <t>ui_dtex_Item_1606014</t>
+  </si>
+  <si>
+    <t>ui_dtex_Item_1606015</t>
+  </si>
+  <si>
+    <t>ui_dtex_Item_1606016</t>
+  </si>
+  <si>
+    <t>ui_dtex_Item_1606017</t>
+  </si>
+  <si>
+    <t>ui_dtex_Item_1606018</t>
+  </si>
+  <si>
+    <t>ui_dtex_Item_1606019</t>
+  </si>
+  <si>
+    <t>ui_dtex_Item_1606020</t>
+  </si>
+  <si>
+    <t>ui_dtex_Item_1606021</t>
+  </si>
+  <si>
+    <t>ui_dtex_Item_1606022</t>
+  </si>
+  <si>
+    <t>ui_dtex_Item_1606023</t>
+  </si>
+  <si>
+    <t>黑绳</t>
+  </si>
+  <si>
+    <t>黑绳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑绳-2</t>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>众合-1</t>
+  </si>
+  <si>
+    <t>众合-2</t>
+  </si>
+  <si>
+    <t>叫唤-1</t>
+  </si>
+  <si>
+    <t>叫唤-2</t>
+  </si>
+  <si>
+    <t>大叫唤-1</t>
+  </si>
+  <si>
+    <t>大叫唤-2</t>
+  </si>
+  <si>
+    <t>大叫唤-3</t>
+  </si>
+  <si>
+    <t>大叫唤-4</t>
+  </si>
+  <si>
+    <t>焦热-1</t>
+  </si>
+  <si>
+    <t>大焦热-1</t>
+  </si>
+  <si>
+    <t>黑绳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>众合</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>众合</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫唤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大叫唤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大叫唤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦热</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦热</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦热</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦热</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大焦热</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大焦热</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大焦热</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubLv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int:&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TaskLoc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BkLv,HelpCol,TaskLoc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家地狱道任务</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家突破宝箱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>master_hell_task.txt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人BOSS参与次数</t>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>平民</t>
-  </si>
-  <si>
-    <t>等活</t>
-  </si>
-  <si>
-    <t>无间</t>
-  </si>
-  <si>
-    <t>叫唤-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>叫唤-2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>众合-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>众合-2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑绳-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑绳-2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大叫唤-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大叫唤-2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大叫唤-3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大叫唤-4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦热-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦热-2</t>
-  </si>
-  <si>
-    <t>焦热-3</t>
-  </si>
-  <si>
-    <t>焦热-4</t>
-  </si>
-  <si>
-    <t>大焦热-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大焦热-2</t>
-  </si>
-  <si>
-    <t>大焦热-3</t>
-  </si>
-  <si>
-    <t>大焦热-4</t>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BkLv,HelpCol,Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Param[1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Param[2]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Des</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward[1].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward[1].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward[1].Num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockRelic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁神器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockLv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockSys</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1160,7 +778,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1194,63 +812,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyFont="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="13" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="13" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1548,7 +1180,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1597,13 +1229,11 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>99</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1612,18 +1242,18 @@
     </row>
     <row r="3" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -1650,11 +1280,11 @@
     </row>
     <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>24</v>
@@ -1680,7 +1310,7 @@
       <c r="A10" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1688,571 +1318,833 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="4" width="10.125" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="11" max="12" width="15.75" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="3">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="3">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" s="3">
-        <v>15</v>
+      <c r="C5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G5" s="3">
+        <v>40</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J5" s="3">
+        <v>101</v>
+      </c>
+      <c r="K5" s="3">
+        <v>40</v>
+      </c>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="3">
-        <v>30</v>
+      <c r="C6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="G6" s="3">
+        <v>40</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J6" s="3">
+        <v>102</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="C7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="3">
         <v>40</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="H7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J7" s="3">
+        <v>201</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="3">
-        <v>50</v>
+      <c r="C8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="G8" s="3">
+        <v>80</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J8" s="3">
+        <v>202</v>
+      </c>
+      <c r="K8" s="3">
+        <v>80</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="3">
-        <v>60</v>
+      <c r="C9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="G9" s="3">
+        <v>80</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J9" s="3">
+        <v>301</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="3">
         <v>80</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="3">
-        <v>70</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J10" s="3">
+        <v>302</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="C11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="3">
         <v>80</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="H11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J11" s="3">
+        <v>303</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="3">
-        <v>85</v>
+      <c r="C12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="3">
-        <v>90</v>
+      <c r="C13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="G13" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="3">
+        <v>100</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="3">
-        <v>95</v>
+      <c r="C14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="G14" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="3">
+        <v>100</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100</v>
+      <c r="C15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="3">
+        <v>100</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="3">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="3">
-        <v>105</v>
+      <c r="C16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="G16" s="3">
+        <v>120</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3">
+        <v>120</v>
+      </c>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="3">
         <v>14</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="3">
-        <v>110</v>
+      <c r="C17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="G17" s="3">
+        <v>120</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="3">
         <v>15</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="3">
-        <v>115</v>
+      <c r="C18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="G18" s="3">
+        <v>120</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="3">
         <v>16</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="C19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="3">
         <v>120</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="H19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="3">
         <v>17</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="3">
-        <v>125</v>
+      <c r="C20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="G20" s="3">
+        <v>140</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J20" s="3"/>
+      <c r="K20" s="3">
+        <v>140</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="3">
         <v>18</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="3">
-        <v>130</v>
+      <c r="C21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="G21" s="3">
+        <v>140</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="3">
         <v>19</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="3">
-        <v>135</v>
+      <c r="C22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="G22" s="3">
+        <v>140</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="3">
         <v>20</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="C23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="3">
         <v>140</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="3">
         <v>21</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="C24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="3">
         <v>150</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2261,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2274,7 +2166,7 @@
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="29.75" customWidth="1"/>
     <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="11" max="11" width="19.375" customWidth="1"/>
     <col min="12" max="12" width="17.75" customWidth="1"/>
     <col min="13" max="13" width="15.375" customWidth="1"/>
     <col min="14" max="14" width="64" customWidth="1"/>
@@ -2285,57 +2177,57 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -2344,7 +2236,7 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -2353,16 +2245,16 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="N2" t="s">
         <v>17</v>
@@ -2376,10 +2268,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -2388,7 +2280,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>13</v>
@@ -2397,37 +2289,36 @@
         <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B4" s="3">
-        <f>INT((A4-1)/4)+2</f>
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>26</v>
@@ -2448,26 +2339,25 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="str">
-        <f>F4&amp;":"&amp;H4&amp;" "&amp;I4</f>
+        <f t="shared" ref="N4:N14" si="0">F4&amp;":"&amp;H4&amp;" "&amp;I4</f>
         <v xml:space="preserve">玩家等级:5 </v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
+        <v>202</v>
+      </c>
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
-        <f t="shared" ref="B5:B68" si="0">INT((A5-1)/4)+2</f>
-        <v>2</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>
@@ -2490,29 +2380,28 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="str">
-        <f t="shared" ref="N5:N68" si="1">F5&amp;":"&amp;H5&amp;" "&amp;I5</f>
+        <f t="shared" si="0"/>
         <v>通关指定剧情关卡:1 10109</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -2532,38 +2421,37 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>抽卡次数:1 1</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3">
         <v>4</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
         <v>2</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>20</v>
@@ -2574,26 +2462,25 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>抽卡次数:2 1</v>
+        <f t="shared" si="0"/>
+        <v>抽卡次数:1 2</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>26</v>
@@ -2614,29 +2501,28 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">玩家等级:15 </v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>6</v>
+        <v>302</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -2656,29 +2542,28 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>通关困难剧情关卡次数:1 20106</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>7</v>
+        <v>303</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
@@ -2696,38 +2581,37 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">风门通关数:4 </v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>8</v>
+        <v>304</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3">
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G11" s="3">
         <v>2</v>
       </c>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>20</v>
@@ -2738,26 +2622,25 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>抽卡次数:1 2</v>
+        <f t="shared" si="0"/>
+        <v>抽卡次数:2 1</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>9</v>
+        <v>401</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>26</v>
@@ -2778,29 +2661,28 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">玩家等级:30 </v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>10</v>
+        <v>402</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -2818,29 +2700,28 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">个人竞技胜利场数:3 </v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>11</v>
+        <v>403</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>
@@ -2858,38 +2739,37 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">风门通关数:7 </v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>12</v>
+        <v>404</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D15" s="3">
         <v>4</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="8">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
         <v>1103</v>
-      </c>
-      <c r="I15" s="3">
-        <v>5</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>20</v>
@@ -2899,27 +2779,26 @@
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>特定商店进行购买次数:1103 5</v>
+      <c r="N15" s="3" t="e">
+        <f>F15&amp;":"&amp;I15&amp;" "&amp;#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>13</v>
+        <v>501</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>26</v>
@@ -2940,26 +2819,25 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N16:N47" si="1">F16&amp;":"&amp;H16&amp;" "&amp;I16</f>
         <v xml:space="preserve">玩家等级:40 </v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>14</v>
+        <v>502</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>19</v>
@@ -2988,23 +2866,22 @@
     </row>
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>15</v>
+        <v>503</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G18" s="3">
         <v>1</v>
@@ -3028,23 +2905,22 @@
     </row>
     <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>16</v>
+        <v>504</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3">
         <v>4</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
@@ -3068,20 +2944,19 @@
     </row>
     <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>17</v>
+        <v>601</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>19</v>
@@ -3110,23 +2985,22 @@
     </row>
     <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>18</v>
+        <v>602</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D21" s="3">
         <v>2</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
@@ -3152,23 +3026,22 @@
     </row>
     <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>19</v>
+        <v>603</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D22" s="3">
         <v>3</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
@@ -3194,32 +3067,31 @@
     </row>
     <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>20</v>
+        <v>604</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D23" s="3">
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G23" s="3">
         <v>1</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="8">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
         <v>1103</v>
-      </c>
-      <c r="I23" s="3">
-        <v>5</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>20</v>
@@ -3231,25 +3103,24 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>特定商店进行购买次数:1103 5</v>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>21</v>
+        <v>701</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>19</v>
@@ -3278,23 +3149,22 @@
     </row>
     <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>22</v>
+        <v>702</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G25" s="3">
         <v>1</v>
@@ -3320,23 +3190,22 @@
     </row>
     <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>23</v>
+        <v>703</v>
       </c>
       <c r="B26" s="3">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D26" s="3">
         <v>3</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G26" s="3">
         <v>1</v>
@@ -3362,32 +3231,31 @@
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>24</v>
+        <v>704</v>
       </c>
       <c r="B27" s="3">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D27" s="3">
         <v>4</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G27" s="3">
         <v>1</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="8">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
         <v>1103</v>
-      </c>
-      <c r="I27" s="3">
-        <v>5</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>20</v>
@@ -3399,25 +3267,24 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>特定商店进行购买次数:1103 5</v>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>25</v>
+        <v>801</v>
       </c>
       <c r="B28" s="3">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>19</v>
@@ -3446,23 +3313,22 @@
     </row>
     <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>26</v>
+        <v>802</v>
       </c>
       <c r="B29" s="3">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D29" s="3">
         <v>2</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G29" s="3">
         <v>1</v>
@@ -3488,23 +3354,22 @@
     </row>
     <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>27</v>
+        <v>803</v>
       </c>
       <c r="B30" s="3">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D30" s="3">
         <v>3</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G30" s="3">
         <v>1</v>
@@ -3530,32 +3395,31 @@
     </row>
     <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>28</v>
+        <v>804</v>
       </c>
       <c r="B31" s="3">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D31" s="3">
         <v>4</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G31" s="3">
         <v>1</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="8">
+        <v>5</v>
+      </c>
+      <c r="I31" s="3">
         <v>1103</v>
-      </c>
-      <c r="I31" s="3">
-        <v>5</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>20</v>
@@ -3567,25 +3431,24 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>特定商店进行购买次数:1103 5</v>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>29</v>
+        <v>901</v>
       </c>
       <c r="B32" s="3">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>19</v>
@@ -3614,23 +3477,22 @@
     </row>
     <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>30</v>
+        <v>902</v>
       </c>
       <c r="B33" s="3">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D33" s="3">
         <v>2</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -3656,23 +3518,22 @@
     </row>
     <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>31</v>
+        <v>903</v>
       </c>
       <c r="B34" s="3">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D34" s="3">
         <v>3</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
@@ -3698,32 +3559,31 @@
     </row>
     <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>32</v>
+        <v>904</v>
       </c>
       <c r="B35" s="3">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D35" s="3">
         <v>4</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G35" s="3">
         <v>1</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="8">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
         <v>1103</v>
-      </c>
-      <c r="I35" s="3">
-        <v>5</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>20</v>
@@ -3735,25 +3595,24 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>特定商店进行购买次数:1103 5</v>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>33</v>
+        <v>1001</v>
       </c>
       <c r="B36" s="3">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>19</v>
@@ -3782,23 +3641,22 @@
     </row>
     <row r="37" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>34</v>
+        <v>1002</v>
       </c>
       <c r="B37" s="3">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D37" s="3">
         <v>2</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G37" s="3">
         <v>1</v>
@@ -3824,23 +3682,22 @@
     </row>
     <row r="38" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>35</v>
+        <v>1003</v>
       </c>
       <c r="B38" s="3">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D38" s="3">
         <v>3</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G38" s="3">
         <v>1</v>
@@ -3866,32 +3723,31 @@
     </row>
     <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>36</v>
+        <v>1004</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D39" s="3">
         <v>4</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G39" s="3">
         <v>1</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="8">
+        <v>5</v>
+      </c>
+      <c r="I39" s="3">
         <v>1103</v>
-      </c>
-      <c r="I39" s="3">
-        <v>5</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>20</v>
@@ -3903,25 +3759,24 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>特定商店进行购买次数:1103 5</v>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>37</v>
+        <v>1101</v>
       </c>
       <c r="B40" s="3">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>19</v>
@@ -3950,23 +3805,22 @@
     </row>
     <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>38</v>
+        <v>1102</v>
       </c>
       <c r="B41" s="3">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D41" s="3">
         <v>2</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G41" s="3">
         <v>1</v>
@@ -3992,23 +3846,22 @@
     </row>
     <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>39</v>
+        <v>1103</v>
       </c>
       <c r="B42" s="3">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D42" s="3">
         <v>3</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G42" s="3">
         <v>1</v>
@@ -4034,32 +3887,31 @@
     </row>
     <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>40</v>
+        <v>1104</v>
       </c>
       <c r="B43" s="3">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D43" s="3">
         <v>4</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G43" s="3">
         <v>1</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="8">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
         <v>1103</v>
-      </c>
-      <c r="I43" s="3">
-        <v>5</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>20</v>
@@ -4071,25 +3923,24 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>特定商店进行购买次数:1103 5</v>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>41</v>
+        <v>1201</v>
       </c>
       <c r="B44" s="3">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>19</v>
@@ -4118,23 +3969,22 @@
     </row>
     <row r="45" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>42</v>
+        <v>1202</v>
       </c>
       <c r="B45" s="3">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D45" s="3">
         <v>2</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
@@ -4160,23 +4010,22 @@
     </row>
     <row r="46" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>43</v>
+        <v>1203</v>
       </c>
       <c r="B46" s="3">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D46" s="3">
         <v>3</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G46" s="3">
         <v>1</v>
@@ -4202,32 +4051,31 @@
     </row>
     <row r="47" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>44</v>
+        <v>1204</v>
       </c>
       <c r="B47" s="3">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D47" s="3">
         <v>4</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G47" s="3">
         <v>1</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="8">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
         <v>1103</v>
-      </c>
-      <c r="I47" s="3">
-        <v>5</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>20</v>
@@ -4239,25 +4087,24 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>特定商店进行购买次数:1103 5</v>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>45</v>
+        <v>1301</v>
       </c>
       <c r="B48" s="3">
-        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>19</v>
@@ -4280,29 +4127,28 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N48:N83" si="2">F48&amp;":"&amp;H48&amp;" "&amp;I48</f>
         <v>通关指定剧情关卡:1 10815</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>46</v>
+        <v>1302</v>
       </c>
       <c r="B49" s="3">
-        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D49" s="3">
         <v>2</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G49" s="3">
         <v>1</v>
@@ -4322,29 +4168,28 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>通关困难剧情关卡次数:1 20715</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>47</v>
+        <v>1303</v>
       </c>
       <c r="B50" s="3">
-        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D50" s="3">
         <v>3</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G50" s="3">
         <v>1</v>
@@ -4364,38 +4209,37 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>守护灵等级:100 1</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>48</v>
+        <v>1304</v>
       </c>
       <c r="B51" s="3">
-        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D51" s="3">
         <v>4</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G51" s="3">
         <v>1</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="8">
+        <v>5</v>
+      </c>
+      <c r="I51" s="3">
         <v>1103</v>
-      </c>
-      <c r="I51" s="3">
-        <v>5</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>20</v>
@@ -4406,26 +4250,25 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>特定商店进行购买次数:1103 5</v>
+        <f t="shared" si="2"/>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>49</v>
+        <v>1401</v>
       </c>
       <c r="B52" s="3">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>19</v>
@@ -4448,29 +4291,28 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>通关指定剧情关卡:1 10909</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>50</v>
+        <v>1402</v>
       </c>
       <c r="B53" s="3">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D53" s="3">
         <v>2</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G53" s="3">
         <v>1</v>
@@ -4490,29 +4332,28 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>通关困难剧情关卡次数:1 20809</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>51</v>
+        <v>1403</v>
       </c>
       <c r="B54" s="3">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D54" s="3">
         <v>3</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G54" s="3">
         <v>1</v>
@@ -4532,38 +4373,37 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>守护灵等级:105 1</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>52</v>
+        <v>1404</v>
       </c>
       <c r="B55" s="3">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D55" s="3">
         <v>4</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="8">
+        <v>5</v>
+      </c>
+      <c r="I55" s="3">
         <v>1103</v>
-      </c>
-      <c r="I55" s="3">
-        <v>5</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>20</v>
@@ -4574,26 +4414,25 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>特定商店进行购买次数:1103 5</v>
+        <f t="shared" si="2"/>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>53</v>
+        <v>1501</v>
       </c>
       <c r="B56" s="3">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D56" s="3">
         <v>1</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>19</v>
@@ -4616,29 +4455,28 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>通关指定剧情关卡:1 10915</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>54</v>
+        <v>1502</v>
       </c>
       <c r="B57" s="3">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D57" s="3">
         <v>2</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G57" s="3">
         <v>1</v>
@@ -4658,29 +4496,28 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>通关困难剧情关卡次数:1 20815</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>55</v>
+        <v>1503</v>
       </c>
       <c r="B58" s="3">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D58" s="3">
         <v>3</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G58" s="3">
         <v>1</v>
@@ -4700,38 +4537,37 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>守护灵等级:110 1</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>56</v>
+        <v>1504</v>
       </c>
       <c r="B59" s="3">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D59" s="3">
         <v>4</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G59" s="3">
         <v>1</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="8">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>1103</v>
-      </c>
-      <c r="I59" s="3">
-        <v>5</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>20</v>
@@ -4742,26 +4578,25 @@
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>特定商店进行购买次数:1103 5</v>
+        <f t="shared" si="2"/>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>57</v>
+        <v>1601</v>
       </c>
       <c r="B60" s="3">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D60" s="3">
         <v>1</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>19</v>
@@ -4784,29 +4619,28 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>通关指定剧情关卡:1 11009</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>58</v>
+        <v>1602</v>
       </c>
       <c r="B61" s="3">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D61" s="3">
         <v>2</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G61" s="3">
         <v>1</v>
@@ -4826,29 +4660,28 @@
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>通关困难剧情关卡次数:1 20909</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>59</v>
+        <v>1603</v>
       </c>
       <c r="B62" s="3">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D62" s="3">
         <v>3</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G62" s="3">
         <v>1</v>
@@ -4868,38 +4701,37 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>守护灵等级:115 1</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>60</v>
+        <v>1604</v>
       </c>
       <c r="B63" s="3">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D63" s="3">
         <v>4</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G63" s="3">
         <v>1</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="8">
+        <v>5</v>
+      </c>
+      <c r="I63" s="3">
         <v>1103</v>
-      </c>
-      <c r="I63" s="3">
-        <v>5</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>20</v>
@@ -4910,26 +4742,25 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>特定商店进行购买次数:1103 5</v>
+        <f t="shared" si="2"/>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>61</v>
+        <v>1701</v>
       </c>
       <c r="B64" s="3">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>19</v>
@@ -4952,29 +4783,28 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>通关指定剧情关卡:1 11015</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>62</v>
+        <v>1702</v>
       </c>
       <c r="B65" s="3">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D65" s="3">
         <v>2</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G65" s="3">
         <v>1</v>
@@ -4994,29 +4824,28 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>通关困难剧情关卡次数:1 20915</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>63</v>
+        <v>1703</v>
       </c>
       <c r="B66" s="3">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D66" s="3">
         <v>3</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G66" s="3">
         <v>1</v>
@@ -5036,38 +4865,37 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>守护灵等级:120 1</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>64</v>
+        <v>1704</v>
       </c>
       <c r="B67" s="3">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D67" s="3">
         <v>4</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G67" s="3">
         <v>1</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H67" s="8">
+        <v>5</v>
+      </c>
+      <c r="I67" s="3">
         <v>1103</v>
-      </c>
-      <c r="I67" s="3">
-        <v>5</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>20</v>
@@ -5078,26 +4906,25 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>特定商店进行购买次数:1103 5</v>
+        <f t="shared" si="2"/>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>65</v>
+        <v>1801</v>
       </c>
       <c r="B68" s="3">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D68" s="3">
         <v>1</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>19</v>
@@ -5120,29 +4947,28 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>通关指定剧情关卡:1 12009</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>66</v>
+        <v>1802</v>
       </c>
       <c r="B69" s="3">
-        <f t="shared" ref="B69:B83" si="2">INT((A69-1)/4)+2</f>
         <v>18</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D69" s="3">
         <v>2</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G69" s="3">
         <v>1</v>
@@ -5162,29 +4988,28 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3" t="str">
-        <f t="shared" ref="N69:N83" si="3">F69&amp;":"&amp;H69&amp;" "&amp;I69</f>
+        <f t="shared" si="2"/>
         <v>通关困难剧情关卡次数:1 21109</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>67</v>
+        <v>1803</v>
       </c>
       <c r="B70" s="3">
-        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D70" s="3">
         <v>3</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G70" s="3">
         <v>1</v>
@@ -5204,38 +5029,37 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>守护灵等级:125 1</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>68</v>
+        <v>1804</v>
       </c>
       <c r="B71" s="3">
-        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D71" s="3">
         <v>4</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G71" s="3">
         <v>1</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="8">
+        <v>5</v>
+      </c>
+      <c r="I71" s="3">
         <v>1103</v>
-      </c>
-      <c r="I71" s="3">
-        <v>5</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>20</v>
@@ -5246,26 +5070,25 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>特定商店进行购买次数:1103 5</v>
+        <f t="shared" si="2"/>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>69</v>
+        <v>1901</v>
       </c>
       <c r="B72" s="3">
-        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D72" s="3">
         <v>1</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>19</v>
@@ -5288,29 +5111,28 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>通关指定剧情关卡:1 12015</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>70</v>
+        <v>1902</v>
       </c>
       <c r="B73" s="3">
-        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D73" s="3">
         <v>2</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G73" s="3">
         <v>1</v>
@@ -5330,29 +5152,28 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>通关困难剧情关卡次数:1 21115</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>71</v>
+        <v>1903</v>
       </c>
       <c r="B74" s="3">
-        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D74" s="3">
         <v>3</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G74" s="3">
         <v>1</v>
@@ -5372,38 +5193,37 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>守护灵等级:130 1</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>72</v>
+        <v>1904</v>
       </c>
       <c r="B75" s="3">
-        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D75" s="3">
         <v>4</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G75" s="3">
         <v>1</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="8">
+        <v>5</v>
+      </c>
+      <c r="I75" s="3">
         <v>1103</v>
-      </c>
-      <c r="I75" s="3">
-        <v>5</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>20</v>
@@ -5414,26 +5234,25 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>特定商店进行购买次数:1103 5</v>
+        <f t="shared" si="2"/>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>73</v>
+        <v>2001</v>
       </c>
       <c r="B76" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>19</v>
@@ -5456,29 +5275,28 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>通关指定剧情关卡:1 13009</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>74</v>
+        <v>2002</v>
       </c>
       <c r="B77" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D77" s="3">
         <v>2</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G77" s="3">
         <v>1</v>
@@ -5498,29 +5316,28 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>通关困难剧情关卡次数:1 21209</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>75</v>
+        <v>2003</v>
       </c>
       <c r="B78" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D78" s="3">
         <v>3</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G78" s="3">
         <v>1</v>
@@ -5540,38 +5357,37 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>守护灵等级:135 1</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>76</v>
+        <v>2004</v>
       </c>
       <c r="B79" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D79" s="3">
         <v>4</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G79" s="3">
         <v>1</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H79" s="8">
+        <v>5</v>
+      </c>
+      <c r="I79" s="3">
         <v>1103</v>
-      </c>
-      <c r="I79" s="3">
-        <v>5</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>20</v>
@@ -5582,26 +5398,25 @@
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>特定商店进行购买次数:1103 5</v>
+        <f t="shared" si="2"/>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>77</v>
+        <v>2101</v>
       </c>
       <c r="B80" s="3">
-        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D80" s="3">
         <v>1</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>19</v>
@@ -5624,29 +5439,28 @@
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>通关指定剧情关卡:1 13015</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>78</v>
+        <v>2102</v>
       </c>
       <c r="B81" s="3">
-        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D81" s="3">
         <v>2</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G81" s="3">
         <v>1</v>
@@ -5666,29 +5480,28 @@
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>通关困难剧情关卡次数:1 21215</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>79</v>
+        <v>2103</v>
       </c>
       <c r="B82" s="3">
-        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D82" s="3">
         <v>3</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G82" s="3">
         <v>1</v>
@@ -5708,38 +5521,37 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>守护灵等级:140 1</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>80</v>
+        <v>2104</v>
       </c>
       <c r="B83" s="3">
-        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D83" s="3">
         <v>4</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G83" s="3">
         <v>1</v>
       </c>
       <c r="H83" s="3">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
         <v>1103</v>
-      </c>
-      <c r="I83" s="3">
-        <v>5</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>20</v>
@@ -5750,12 +5562,12 @@
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>特定商店进行购买次数:1103 5</v>
+        <f t="shared" si="2"/>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/break.玩家等级突破.xlsx
+++ b/Excel/镇魂街/break.玩家等级突破.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="160">
   <si>
     <t>sheet名</t>
   </si>
@@ -349,9 +349,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>平民</t>
-  </si>
-  <si>
     <t>等活</t>
   </si>
   <si>
@@ -380,88 +377,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>等级1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级2</t>
-  </si>
-  <si>
     <t>int:&lt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Pic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>res:&lt;||Art\UI\DynamicTex\#png</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ui_dtex_Item_1606003</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1606004</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1606005</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1606006</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1606007</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1606008</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1606009</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1606010</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1606011</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1606012</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1606013</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1606014</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1606015</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1606016</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1606017</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1606018</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1606019</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1606020</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1606021</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1606022</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1606023</t>
-  </si>
-  <si>
     <t>黑绳</t>
   </si>
   <si>
@@ -510,18 +433,10 @@
     <t>大焦热-1</t>
   </si>
   <si>
-    <t>黑绳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>众合</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>众合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>叫唤</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -530,38 +445,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>大叫唤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>焦热</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>焦热</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦热</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦热</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>大焦热</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>大焦热</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大焦热</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SubLv</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -636,6 +527,106 @@
   <si>
     <t>int:e&lt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pic[1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pic[2]</t>
+  </si>
+  <si>
+    <t>Pic[3]</t>
+  </si>
+  <si>
+    <t>无间-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_073</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_074</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_075</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_076</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_077</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_078</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_079</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_080</t>
+  </si>
+  <si>
+    <t>ui_t_c2_171</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_t_c2_176</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_t_c2_177</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标图片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称图片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>底板图片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_t_c2_169</t>
+  </si>
+  <si>
+    <t>ui_t_c2_168</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_064</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_065</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_066</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_067</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_068</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_069</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_070</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_071</t>
+  </si>
+  <si>
+    <t>大焦热-5</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1240,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
@@ -1318,28 +1309,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
-    <col min="9" max="9" width="17.625" customWidth="1"/>
-    <col min="10" max="10" width="15.625" customWidth="1"/>
-    <col min="11" max="12" width="15.75" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="3" max="5" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>59</v>
       </c>
@@ -1347,75 +1340,87 @@
         <v>67</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>153</v>
-      </c>
       <c r="J1" s="6" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
@@ -1423,63 +1428,75 @@
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="F3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="3">
+      <c r="I4" s="3">
         <v>15</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1487,35 +1504,41 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="3">
+        <v>135</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="3">
         <v>40</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="3">
+      <c r="K5" s="3">
         <v>100</v>
       </c>
-      <c r="J5" s="3">
+      <c r="L5" s="3">
         <v>101</v>
       </c>
-      <c r="K5" s="3">
+      <c r="M5" s="3">
         <v>40</v>
       </c>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1523,33 +1546,39 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="3">
+        <v>135</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="3">
         <v>40</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="3">
+      <c r="K6" s="3">
         <v>100</v>
       </c>
-      <c r="J6" s="3">
+      <c r="L6" s="3">
         <v>102</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1557,33 +1586,39 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="3">
+        <v>136</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="3">
         <v>40</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="3">
+      <c r="K7" s="3">
         <v>100</v>
       </c>
-      <c r="J7" s="3">
+      <c r="L7" s="3">
         <v>201</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1591,35 +1626,41 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="3">
+        <v>136</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="3">
         <v>80</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>202</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>80</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1627,33 +1668,39 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="3">
+        <v>80</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="3">
-        <v>80</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="3">
-        <v>100</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>301</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1661,33 +1708,39 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="3">
+        <v>137</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="3">
         <v>80</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>302</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1695,33 +1748,39 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="3">
+        <v>138</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="3">
         <v>80</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="3">
+      <c r="K11" s="3">
         <v>100</v>
       </c>
-      <c r="J11" s="3">
+      <c r="L11" s="3">
         <v>303</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1729,33 +1788,39 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G12" s="3">
-        <v>100</v>
+        <v>138</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="K12" s="3">
         <v>100</v>
       </c>
       <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1763,31 +1828,37 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G13" s="3">
-        <v>100</v>
+        <v>138</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="I13" s="3">
         <v>100</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="J13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="3">
+        <v>100</v>
+      </c>
       <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1795,31 +1866,37 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="3">
-        <v>3</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="3">
-        <v>100</v>
+        <v>138</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="J14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="3">
+        <v>100</v>
+      </c>
       <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -1827,31 +1904,37 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="3">
-        <v>4</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" s="3">
-        <v>100</v>
+        <v>139</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="J15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="3">
+        <v>100</v>
+      </c>
       <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -1859,33 +1942,39 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="3">
+        <v>139</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="3">
         <v>120</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="3">
+      <c r="K16" s="3">
         <v>100</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3">
         <v>120</v>
       </c>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -1893,31 +1982,37 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="3">
         <v>120</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1925,31 +2020,37 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>120</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1957,31 +2058,37 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="3">
-        <v>4</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="I19" s="3">
         <v>120</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="3">
+      <c r="K19" s="3">
         <v>100</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -1989,33 +2096,39 @@
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="3">
         <v>140</v>
       </c>
+      <c r="D20" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="H20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="3">
+        <v>140</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3">
+      <c r="L20" s="3"/>
+      <c r="M20" s="3">
         <v>140</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2023,31 +2136,37 @@
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" s="3">
         <v>140</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2055,31 +2174,37 @@
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="3">
-        <v>3</v>
-      </c>
-      <c r="E22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" s="3">
         <v>140</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2087,31 +2212,37 @@
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="3">
-        <v>4</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="3">
+        <v>141</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="3">
         <v>140</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2119,29 +2250,35 @@
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="3">
+        <v>141</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>150</v>
       </c>
+      <c r="E24" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="H24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="3">
+        <v>150</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
       <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2153,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2189,22 +2326,22 @@
         <v>78</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>40</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>56</v>
@@ -2213,7 +2350,7 @@
         <v>46</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -2251,10 +2388,10 @@
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="M2" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="N2" t="s">
         <v>17</v>
@@ -2301,7 +2438,7 @@
         <v>58</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -2779,9 +2916,9 @@
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="3" t="e">
-        <f>F15&amp;":"&amp;I15&amp;" "&amp;#REF!</f>
-        <v>#REF!</v>
+      <c r="N15" s="3" t="str">
+        <f>F15&amp;":"&amp;I15&amp;" "&amp;H15</f>
+        <v>特定商店进行购买次数:1103 5</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">

--- a/Excel/镇魂街/break.玩家等级突破.xlsx
+++ b/Excel/镇魂街/break.玩家等级突破.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -20,8 +20,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 神器
+2 解锁
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="195">
   <si>
     <t>sheet名</t>
   </si>
@@ -168,14 +206,6 @@
   </si>
   <si>
     <t>抽卡次数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻找伙伴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>契约达成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -195,24 +225,543 @@
     <t>通关困难剧情关卡次数</t>
   </si>
   <si>
+    <t>快速扫荡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump.To</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英部队</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关困难剧情关卡次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>培养守护灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>特定商店进行购买次数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>快速扫荡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jump.To</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>花门通关数</t>
+    <t>Jump.Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BkLv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LvLimit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级限制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱道任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BkLv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BkLv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelpCol</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskLoc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家地狱道任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家突破宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>master_hell_task.txt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等活</t>
+  </si>
+  <si>
+    <t>无间</t>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>res:&lt;||Art\UI\DynamicTex\#png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑绳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>众合</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫唤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大叫唤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦热</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大焦热</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubLv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BkLv,HelpCol,Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Param[1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Param[2]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Des</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward[1].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward[1].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward[1].Num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁神器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pic[1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pic[2]</t>
+  </si>
+  <si>
+    <t>Pic[3]</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_073</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_074</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_075</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_076</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_077</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_078</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_079</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_080</t>
+  </si>
+  <si>
+    <t>图标图片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称图片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>底板图片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_064</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_065</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_066</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_067</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_068</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_069</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_070</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_071</t>
+  </si>
+  <si>
+    <t>黑绳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑绳+1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>众合</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>众合+1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫唤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫唤+1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大叫唤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大叫唤+1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大叫唤+2</t>
+  </si>
+  <si>
+    <t>大叫唤+3</t>
+  </si>
+  <si>
+    <t>焦热</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦热+1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦热+2</t>
+  </si>
+  <si>
+    <t>焦热+3</t>
+  </si>
+  <si>
+    <t>大焦热</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大焦热+1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大焦热+2</t>
+  </si>
+  <si>
+    <t>大焦热+3</t>
+  </si>
+  <si>
+    <t>无间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无间+1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockParam</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:ae&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁参数1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁ID2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁参数2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>@ui_t_c2_171</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>@ui_t_c2_171</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>@ui_t_c2_176</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>@ui_t_c2_176</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>@ui_t_c2_177</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>@ui_t_c2_177</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>@i_t_c2_177</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>@ui_t_c2_169</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>@ui_t_c2_169</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>@ui_t_c2_168</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock[1].Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁ID1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock[2].Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁Type2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁ID1
+1神器
+2解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁类型
+1，神器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock[1].Param[1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock[1].Param[2]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock[2].Param[1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock[2].Param[2]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有特定等级守护灵数量</t>
+  </si>
+  <si>
+    <t>精英挑战</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器大点等级</t>
+  </si>
+  <si>
+    <t>激活神器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初涉竞技场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人竞技挑战次数</t>
+  </si>
+  <si>
+    <t>击杀 BOSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀任意BOSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高专属武器等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>签订契约</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>世界B</t>
+      <t>击杀B</t>
     </r>
     <r>
       <rPr>
@@ -227,413 +776,54 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>踏入竞技场</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人竞技胜利场数</t>
-  </si>
-  <si>
-    <t>精英部队</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关困难剧情关卡次数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>培养守护灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>特定商店进行购买次数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jump.Type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BkLv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>突破等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LvLimit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级限制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>地狱道任务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BkLv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BkLv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HelpCol</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TaskLoc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家地狱道任务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家突破宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>master_hell_task.txt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人BOSS参与次数</t>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>等活</t>
-  </si>
-  <si>
-    <t>无间</t>
-  </si>
-  <si>
-    <t>焦热-2</t>
-  </si>
-  <si>
-    <t>焦热-3</t>
-  </si>
-  <si>
-    <t>焦热-4</t>
-  </si>
-  <si>
-    <t>大焦热-2</t>
-  </si>
-  <si>
-    <t>大焦热-3</t>
-  </si>
-  <si>
-    <t>大焦热-4</t>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>res:&lt;||Art\UI\DynamicTex\#png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑绳</t>
-  </si>
-  <si>
-    <t>黑绳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑绳-2</t>
-  </si>
-  <si>
-    <t>#note</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>众合-1</t>
-  </si>
-  <si>
-    <t>众合-2</t>
-  </si>
-  <si>
-    <t>叫唤-1</t>
-  </si>
-  <si>
-    <t>叫唤-2</t>
-  </si>
-  <si>
-    <t>大叫唤-1</t>
-  </si>
-  <si>
-    <t>大叫唤-2</t>
-  </si>
-  <si>
-    <t>大叫唤-3</t>
-  </si>
-  <si>
-    <t>大叫唤-4</t>
-  </si>
-  <si>
-    <t>焦热-1</t>
-  </si>
-  <si>
-    <t>大焦热-1</t>
-  </si>
-  <si>
-    <t>众合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>叫唤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大叫唤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦热</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大焦热</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubLv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BkLv,HelpCol,Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Param[1]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Param[2]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Des</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reward[1].Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reward[1].Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reward[1].Num</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnlockRelic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁神器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnlockLv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnlockSys</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pic[1]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pic[2]</t>
-  </si>
-  <si>
-    <t>Pic[3]</t>
-  </si>
-  <si>
-    <t>无间-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_073</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_074</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_075</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_076</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_077</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_078</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_079</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_080</t>
-  </si>
-  <si>
-    <t>ui_t_c2_171</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_t_c2_176</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_t_c2_177</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标图片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称图片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>底板图片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_t_c2_169</t>
-  </si>
-  <si>
-    <t>ui_t_c2_168</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_064</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_065</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_066</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_067</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_068</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_069</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_070</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_071</t>
-  </si>
-  <si>
-    <t>大焦热-5</t>
+    <t>击杀某章BOSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史最高积分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技分数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器强化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活专属武器的数量</t>
+  </si>
+  <si>
+    <t>玩家等级</t>
+  </si>
+  <si>
+    <t>玩家等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼总通关数</t>
+  </si>
+  <si>
+    <t>击杀某章BOSS</t>
+  </si>
+  <si>
+    <t>最高专属武器等级</t>
+  </si>
+  <si>
+    <t>最高专属武器等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,6 +913,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -849,7 +1054,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -874,6 +1079,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" quotePrefix="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="13" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1220,11 +1431,11 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1233,18 +1444,18 @@
     </row>
     <row r="3" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -1271,11 +1482,11 @@
     </row>
     <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>24</v>
@@ -1308,11 +1519,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1321,88 +1532,108 @@
     <col min="2" max="2" width="9.25" customWidth="1"/>
     <col min="3" max="5" width="28.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="13" max="13" width="21.5" customWidth="1"/>
+    <col min="14" max="14" width="19.5" customWidth="1"/>
+    <col min="15" max="15" width="17.5" customWidth="1"/>
+    <col min="16" max="16" width="19.5" customWidth="1"/>
+    <col min="17" max="17" width="18.875" customWidth="1"/>
+    <col min="18" max="18" width="17.5" customWidth="1"/>
+    <col min="19" max="19" width="14.875" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
         <v>34</v>
@@ -1411,40 +1642,55 @@
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="M2" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="N2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="O2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R2" t="s">
+        <v>143</v>
+      </c>
+      <c r="S2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>35</v>
@@ -1453,16 +1699,31 @@
         <v>36</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1470,22 +1731,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>142</v>
+        <v>100</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I4" s="3">
         <v>15</v>
@@ -1495,8 +1756,13 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1504,41 +1770,56 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>142</v>
+        <v>101</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="I5" s="3">
         <v>40</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K5" s="3">
         <v>100</v>
       </c>
       <c r="L5" s="3">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3">
+        <v>401</v>
+      </c>
+      <c r="N5" s="3">
+        <v>40</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3">
         <v>101</v>
       </c>
-      <c r="M5" s="3">
-        <v>40</v>
-      </c>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1546,39 +1827,50 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>142</v>
+        <v>101</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="F6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="I6" s="3">
         <v>40</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K6" s="3">
         <v>100</v>
       </c>
       <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3">
         <v>102</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1586,39 +1878,56 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>142</v>
+        <v>102</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="F7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="I7" s="3">
         <v>40</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K7" s="3">
         <v>100</v>
       </c>
       <c r="L7" s="3">
-        <v>201</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="M7" s="3">
+        <v>401</v>
+      </c>
+      <c r="N7" s="3">
+        <v>60</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1626,41 +1935,56 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>142</v>
+        <v>102</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="F8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="I8" s="3">
         <v>80</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>202</v>
+        <v>2</v>
       </c>
       <c r="M8" s="3">
+        <v>401</v>
+      </c>
+      <c r="N8" s="3">
         <v>80</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1668,39 +1992,50 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>143</v>
+        <v>103</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="I9" s="3">
         <v>80</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>301</v>
-      </c>
-      <c r="M9" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>5</v>
+      </c>
       <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3">
+        <v>1</v>
+      </c>
+      <c r="S9" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1708,39 +2043,50 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>143</v>
+        <v>103</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="F10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="I10" s="3">
         <v>80</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>302</v>
-      </c>
-      <c r="M10" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>6</v>
+      </c>
       <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3">
+        <v>1</v>
+      </c>
+      <c r="S10" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1748,39 +2094,50 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>144</v>
+        <v>104</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="F11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="I11" s="3">
         <v>80</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K11" s="3">
         <v>100</v>
       </c>
       <c r="L11" s="3">
-        <v>303</v>
-      </c>
-      <c r="M11" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>7</v>
+      </c>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1788,39 +2145,48 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>144</v>
+        <v>104</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3">
+        <v>2</v>
+      </c>
       <c r="M12" s="3">
+        <v>401</v>
+      </c>
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1828,28 +2194,28 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>144</v>
+        <v>104</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="F13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="I13" s="3">
         <v>100</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K13" s="3">
         <v>100</v>
@@ -1857,8 +2223,13 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1866,28 +2237,28 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>144</v>
+        <v>104</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="F14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="I14" s="3">
         <v>100</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K14" s="3">
         <v>100</v>
@@ -1895,8 +2266,13 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -1904,28 +2280,28 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>143</v>
+        <v>105</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="F15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
@@ -1933,8 +2309,13 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -1942,39 +2323,48 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>143</v>
+        <v>105</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="F16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="I16" s="3">
         <v>120</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K16" s="3">
         <v>100</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3">
+        <v>2</v>
+      </c>
       <c r="M16" s="3">
+        <v>401</v>
+      </c>
+      <c r="N16" s="3">
         <v>120</v>
       </c>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -1982,28 +2372,28 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>143</v>
+        <v>105</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="F17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="I17" s="3">
         <v>120</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
@@ -2011,8 +2401,13 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2020,28 +2415,28 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>143</v>
+        <v>105</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="F18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="I18" s="3">
         <v>120</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K18" s="3">
         <v>100</v>
@@ -2049,8 +2444,13 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2058,28 +2458,28 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>149</v>
+        <v>106</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="F19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="I19" s="3">
         <v>120</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K19" s="3">
         <v>100</v>
@@ -2087,8 +2487,13 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2096,39 +2501,48 @@
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>149</v>
+        <v>106</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="F20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="I20" s="3">
         <v>140</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3">
+        <v>2</v>
+      </c>
       <c r="M20" s="3">
+        <v>401</v>
+      </c>
+      <c r="N20" s="3">
         <v>140</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2136,28 +2550,28 @@
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>149</v>
+        <v>106</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="F21" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="I21" s="3">
         <v>140</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K21" s="3">
         <v>100</v>
@@ -2165,8 +2579,13 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2174,28 +2593,28 @@
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>149</v>
+        <v>106</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="F22" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="I22" s="3">
         <v>140</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -2203,8 +2622,13 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2212,28 +2636,28 @@
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>150</v>
+        <v>107</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="F23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="I23" s="3">
         <v>140</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K23" s="3">
         <v>100</v>
@@ -2241,8 +2665,13 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2250,55 +2679,67 @@
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>150</v>
+        <v>107</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="F24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I24" s="3">
         <v>150</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="L24" s="3">
+        <v>2</v>
+      </c>
+      <c r="M24" s="3">
+        <v>401</v>
+      </c>
+      <c r="N24" s="3">
+        <v>150</v>
+      </c>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
     <col min="7" max="7" width="27.875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="29.75" customWidth="1"/>
@@ -2314,43 +2755,43 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -2358,13 +2799,13 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -2373,7 +2814,7 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -2388,10 +2829,10 @@
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="M2" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="N2" t="s">
         <v>17</v>
@@ -2417,7 +2858,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>13</v>
@@ -2432,13 +2873,13 @@
         <v>36</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -2458,15 +2899,17 @@
         <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4" s="3">
-        <v>5</v>
-      </c>
-      <c r="I4" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3</v>
+      </c>
       <c r="J4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2477,7 +2920,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="str">
         <f t="shared" ref="N4:N14" si="0">F4&amp;":"&amp;H4&amp;" "&amp;I4</f>
-        <v xml:space="preserve">玩家等级:5 </v>
+        <v>拥有特定等级守护灵数量:10 3</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -2496,17 +2939,17 @@
       <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
+      <c r="F5" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
       </c>
       <c r="H5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="3">
-        <v>10109</v>
+        <v>3</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>20</v>
@@ -2518,7 +2961,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>通关指定剧情关卡:1 10109</v>
+        <v>抽卡次数:2 3</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -2535,10 +2978,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>37</v>
+        <v>171</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -2547,7 +2990,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="3">
-        <v>1</v>
+        <v>20109</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>20</v>
@@ -2559,7 +3002,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>抽卡次数:1 1</v>
+        <v>通关困难剧情关卡次数:1 20109</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -2576,19 +3019,19 @@
         <v>4</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="3">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>20</v>
@@ -2599,8 +3042,8 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>抽卡次数:1 2</v>
+        <f>F7&amp;":"&amp;I7&amp;" "&amp;H7</f>
+        <v>神器大点等级:101 2</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -2626,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="4" t="s">
@@ -2639,7 +3082,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">玩家等级:15 </v>
+        <v xml:space="preserve">玩家等级:20 </v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -2655,17 +3098,17 @@
       <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>31</v>
+      <c r="E9" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
       </c>
       <c r="H9" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" s="3">
         <v>20106</v>
@@ -2680,7 +3123,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>通关困难剧情关卡次数:1 20106</v>
+        <v>个人竞技挑战次数:5 20106</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -2706,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="4" t="s">
@@ -2719,7 +3162,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">风门通关数:4 </v>
+        <v xml:space="preserve">风门通关数:10 </v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -2736,19 +3179,19 @@
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="G11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3">
         <v>2</v>
       </c>
       <c r="I11" s="3">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>20</v>
@@ -2760,7 +3203,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>抽卡次数:2 1</v>
+        <v>神器大点等级:2 102</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -2816,16 +3259,16 @@
         <v>2</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>50</v>
+        <v>176</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
       </c>
       <c r="H13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="4" t="s">
@@ -2838,7 +3281,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">个人竞技胜利场数:3 </v>
+        <v xml:space="preserve">击杀任意BOSS:2 </v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -2854,19 +3297,21 @@
       <c r="D14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>33</v>
+      <c r="E14" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>
       </c>
       <c r="H14" s="3">
-        <v>7</v>
-      </c>
-      <c r="I14" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
       <c r="J14" s="4" t="s">
         <v>20</v>
       </c>
@@ -2877,7 +3322,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">风门通关数:7 </v>
+        <v>最高专属武器等级:5 1</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -2894,19 +3339,19 @@
         <v>4</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
       </c>
       <c r="H15" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I15" s="3">
-        <v>1103</v>
+        <v>2</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>20</v>
@@ -2916,9 +3361,9 @@
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="3" t="str">
-        <f>F15&amp;":"&amp;I15&amp;" "&amp;H15</f>
-        <v>特定商店进行购买次数:1103 5</v>
+      <c r="N15" s="3" t="e">
+        <f>F15&amp;":"&amp;I15&amp;" "&amp;#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -2956,7 +3401,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="str">
-        <f t="shared" ref="N16:N47" si="1">F16&amp;":"&amp;H16&amp;" "&amp;I16</f>
+        <f t="shared" ref="N16:N50" si="1">F16&amp;":"&amp;H16&amp;" "&amp;I16</f>
         <v xml:space="preserve">玩家等级:40 </v>
       </c>
     </row>
@@ -2973,20 +3418,20 @@
       <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>31</v>
+      <c r="E17" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
       </c>
       <c r="H17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="3">
-        <v>10409</v>
+        <v>3</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>20</v>
@@ -2998,7 +3443,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>通关指定剧情关卡:1 10409</v>
+        <v>击杀某章BOSS:2 3</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -3014,17 +3459,17 @@
       <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>47</v>
+      <c r="E18" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="G18" s="3">
         <v>1</v>
       </c>
       <c r="H18" s="3">
-        <v>5</v>
+        <v>1200</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="4" t="s">
@@ -3037,7 +3482,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">花门通关数:5 </v>
+        <v xml:space="preserve">历史最高积分:1200 </v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -3054,16 +3499,16 @@
         <v>4</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
       </c>
       <c r="H19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="4" t="s">
@@ -3076,7 +3521,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">个人BOSS参与次数:2 </v>
+        <v xml:space="preserve">激活专属武器的数量:1 </v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -3093,20 +3538,18 @@
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3">
-        <v>10515</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I20" s="3"/>
       <c r="J20" s="4" t="s">
         <v>20</v>
       </c>
@@ -3117,7 +3560,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>通关指定剧情关卡:1 10515</v>
+        <v xml:space="preserve">玩家等级:50 </v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -3134,19 +3577,19 @@
         <v>2</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>191</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
       </c>
       <c r="H21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" s="3">
-        <v>20409</v>
+        <v>5</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>20</v>
@@ -3158,7 +3601,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>通关困难剧情关卡次数:1 20409</v>
+        <v>击杀某章BOSS:2 5</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -3175,10 +3618,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>53</v>
+        <v>190</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
@@ -3186,9 +3629,7 @@
       <c r="H22" s="3">
         <v>50</v>
       </c>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
+      <c r="I22" s="3"/>
       <c r="J22" s="4" t="s">
         <v>20</v>
       </c>
@@ -3199,7 +3640,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>守护灵等级:50 1</v>
+        <v xml:space="preserve">芦花古楼总通关数:50 </v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -3216,19 +3657,19 @@
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>55</v>
+        <v>192</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="G23" s="3">
         <v>1</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="3">
+        <v>3</v>
+      </c>
+      <c r="I23" s="3">
         <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1103</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>20</v>
@@ -3240,53 +3681,28 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>特定商店进行购买次数:5 1103</v>
+        <v>最高专属武器等级:3 5</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>701</v>
-      </c>
-      <c r="B24" s="3">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
-      <c r="I24" s="3">
-        <v>10615</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>通关指定剧情关卡:1 10615</v>
-      </c>
+      <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B25" s="3">
         <v>7</v>
@@ -3295,22 +3711,22 @@
         <v>29</v>
       </c>
       <c r="D25" s="3">
-        <v>2</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="G25" s="3">
         <v>1</v>
       </c>
       <c r="H25" s="3">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="I25" s="3">
-        <v>20509</v>
+        <v>10615</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>20</v>
@@ -3322,12 +3738,12 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>通关困难剧情关卡次数:1 20509</v>
+        <v>玩家等级:60 10615</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B26" s="3">
         <v>7</v>
@@ -3336,22 +3752,22 @@
         <v>29</v>
       </c>
       <c r="D26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="G26" s="3">
         <v>1</v>
       </c>
       <c r="H26" s="3">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="I26" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>20</v>
@@ -3363,12 +3779,12 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>守护灵等级:60 1</v>
+        <v>击杀某章BOSS:2 6</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B27" s="3">
         <v>7</v>
@@ -3377,22 +3793,22 @@
         <v>29</v>
       </c>
       <c r="D27" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="G27" s="3">
         <v>1</v>
       </c>
-      <c r="H27" s="8">
-        <v>5</v>
+      <c r="H27" s="3">
+        <v>1</v>
       </c>
       <c r="I27" s="3">
-        <v>1103</v>
+        <v>10</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>20</v>
@@ -3404,37 +3820,35 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>特定商店进行购买次数:5 1103</v>
+        <v>最高专属武器等级:1 10</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>801</v>
+        <v>704</v>
       </c>
       <c r="B28" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="G28" s="3">
         <v>1</v>
       </c>
       <c r="H28" s="3">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3">
-        <v>10515</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I28" s="3"/>
       <c r="J28" s="4" t="s">
         <v>20</v>
       </c>
@@ -3445,53 +3859,28 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>通关指定剧情关卡:1 10515</v>
+        <v xml:space="preserve">抽奖次数:30 </v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>802</v>
-      </c>
-      <c r="B29" s="3">
-        <v>8</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="3">
-        <v>2</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3">
-        <v>20415</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>通关困难剧情关卡次数:1 20415</v>
-      </c>
+      <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B30" s="3">
         <v>8</v>
@@ -3500,22 +3889,22 @@
         <v>29</v>
       </c>
       <c r="D30" s="3">
-        <v>3</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>53</v>
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G30" s="3">
         <v>1</v>
       </c>
       <c r="H30" s="3">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="I30" s="3">
-        <v>1</v>
+        <v>10515</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>20</v>
@@ -3527,12 +3916,12 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>守护灵等级:70 1</v>
+        <v>通关指定剧情关卡:1 10515</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B31" s="3">
         <v>8</v>
@@ -3541,22 +3930,22 @@
         <v>29</v>
       </c>
       <c r="D31" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="G31" s="3">
         <v>1</v>
       </c>
-      <c r="H31" s="8">
-        <v>5</v>
+      <c r="H31" s="3">
+        <v>1</v>
       </c>
       <c r="I31" s="3">
-        <v>1103</v>
+        <v>20415</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>20</v>
@@ -3568,36 +3957,36 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>特定商店进行购买次数:5 1103</v>
+        <v>通关困难剧情关卡次数:1 20415</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>901</v>
+        <v>803</v>
       </c>
       <c r="B32" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G32" s="3">
         <v>1</v>
       </c>
       <c r="H32" s="3">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="I32" s="3">
-        <v>10615</v>
+        <v>1</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>20</v>
@@ -3609,36 +3998,36 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>通关指定剧情关卡:1 10615</v>
+        <v>守护灵等级:70 1</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>902</v>
+        <v>804</v>
       </c>
       <c r="B33" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
       </c>
-      <c r="H33" s="3">
-        <v>1</v>
+      <c r="H33" s="8">
+        <v>5</v>
       </c>
       <c r="I33" s="3">
-        <v>20515</v>
+        <v>1103</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>20</v>
@@ -3650,53 +4039,28 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>通关困难剧情关卡次数:1 20515</v>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>903</v>
-      </c>
-      <c r="B34" s="3">
-        <v>9</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="3">
-        <v>3</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34" s="3">
-        <v>80</v>
-      </c>
-      <c r="I34" s="3">
-        <v>1</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="3">
-        <v>1000</v>
-      </c>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>守护灵等级:80 1</v>
-      </c>
+      <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B35" s="3">
         <v>9</v>
@@ -3705,22 +4069,22 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>4</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G35" s="3">
         <v>1</v>
       </c>
-      <c r="H35" s="8">
-        <v>5</v>
+      <c r="H35" s="3">
+        <v>1</v>
       </c>
       <c r="I35" s="3">
-        <v>1103</v>
+        <v>10615</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>20</v>
@@ -3732,27 +4096,27 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>特定商店进行购买次数:5 1103</v>
+        <v>通关指定剧情关卡:1 10615</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>1001</v>
+        <v>902</v>
       </c>
       <c r="B36" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="G36" s="3">
         <v>1</v>
@@ -3761,7 +4125,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="3">
-        <v>10709</v>
+        <v>20515</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>20</v>
@@ -3773,36 +4137,36 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>通关指定剧情关卡:1 10709</v>
+        <v>通关困难剧情关卡次数:1 20515</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>1002</v>
+        <v>903</v>
       </c>
       <c r="B37" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D37" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G37" s="3">
         <v>1</v>
       </c>
       <c r="H37" s="3">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="I37" s="3">
-        <v>20609</v>
+        <v>1</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>20</v>
@@ -3814,36 +4178,36 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>通关困难剧情关卡次数:1 20609</v>
+        <v>守护灵等级:80 1</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>1003</v>
+        <v>904</v>
       </c>
       <c r="B38" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D38" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="G38" s="3">
         <v>1</v>
       </c>
-      <c r="H38" s="3">
-        <v>85</v>
+      <c r="H38" s="8">
+        <v>5</v>
       </c>
       <c r="I38" s="3">
-        <v>1</v>
+        <v>1103</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>20</v>
@@ -3855,12 +4219,12 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>守护灵等级:85 1</v>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B39" s="3">
         <v>10</v>
@@ -3869,22 +4233,22 @@
         <v>29</v>
       </c>
       <c r="D39" s="3">
-        <v>4</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G39" s="3">
         <v>1</v>
       </c>
-      <c r="H39" s="8">
-        <v>5</v>
+      <c r="H39" s="3">
+        <v>1</v>
       </c>
       <c r="I39" s="3">
-        <v>1103</v>
+        <v>10709</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>20</v>
@@ -3896,27 +4260,27 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>特定商店进行购买次数:5 1103</v>
+        <v>通关指定剧情关卡:1 10709</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>1101</v>
+        <v>1002</v>
       </c>
       <c r="B40" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D40" s="3">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="G40" s="3">
         <v>1</v>
@@ -3925,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="3">
-        <v>10715</v>
+        <v>20609</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>20</v>
@@ -3937,36 +4301,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>通关指定剧情关卡:1 10715</v>
+        <v>通关困难剧情关卡次数:1 20609</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>1102</v>
+        <v>1003</v>
       </c>
       <c r="B41" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D41" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G41" s="3">
         <v>1</v>
       </c>
       <c r="H41" s="3">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="I41" s="3">
-        <v>20615</v>
+        <v>1</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>20</v>
@@ -3978,36 +4342,36 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>通关困难剧情关卡次数:1 20615</v>
+        <v>守护灵等级:85 1</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
+        <v>1004</v>
+      </c>
+      <c r="B42" s="3">
+        <v>10</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="3">
+        <v>4</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+      <c r="H42" s="8">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
         <v>1103</v>
-      </c>
-      <c r="B42" s="3">
-        <v>11</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="3">
-        <v>3</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-      <c r="H42" s="3">
-        <v>90</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>20</v>
@@ -4019,12 +4383,12 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>守护灵等级:90 1</v>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B43" s="3">
         <v>11</v>
@@ -4033,22 +4397,22 @@
         <v>29</v>
       </c>
       <c r="D43" s="3">
-        <v>4</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G43" s="3">
         <v>1</v>
       </c>
-      <c r="H43" s="8">
-        <v>5</v>
+      <c r="H43" s="3">
+        <v>1</v>
       </c>
       <c r="I43" s="3">
-        <v>1103</v>
+        <v>10715</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>20</v>
@@ -4060,27 +4424,27 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>特定商店进行购买次数:5 1103</v>
+        <v>通关指定剧情关卡:1 10715</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>1201</v>
+        <v>1102</v>
       </c>
       <c r="B44" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D44" s="3">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="G44" s="3">
         <v>1</v>
@@ -4089,7 +4453,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="3">
-        <v>10809</v>
+        <v>20615</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>20</v>
@@ -4101,36 +4465,36 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>通关指定剧情关卡:1 10809</v>
+        <v>通关困难剧情关卡次数:1 20615</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>1202</v>
+        <v>1103</v>
       </c>
       <c r="B45" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D45" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
       </c>
       <c r="H45" s="3">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="I45" s="3">
-        <v>20709</v>
+        <v>1</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>20</v>
@@ -4142,36 +4506,36 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>通关困难剧情关卡次数:1 20709</v>
+        <v>守护灵等级:90 1</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>1203</v>
+        <v>1104</v>
       </c>
       <c r="B46" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D46" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="G46" s="3">
         <v>1</v>
       </c>
-      <c r="H46" s="3">
-        <v>95</v>
+      <c r="H46" s="8">
+        <v>5</v>
       </c>
       <c r="I46" s="3">
-        <v>1</v>
+        <v>1103</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>20</v>
@@ -4183,12 +4547,12 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>守护灵等级:95 1</v>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="B47" s="3">
         <v>12</v>
@@ -4197,22 +4561,22 @@
         <v>29</v>
       </c>
       <c r="D47" s="3">
-        <v>4</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G47" s="3">
         <v>1</v>
       </c>
-      <c r="H47" s="8">
-        <v>5</v>
+      <c r="H47" s="3">
+        <v>1</v>
       </c>
       <c r="I47" s="3">
-        <v>1103</v>
+        <v>10809</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>20</v>
@@ -4224,27 +4588,27 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>特定商店进行购买次数:5 1103</v>
+        <v>通关指定剧情关卡:1 10809</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>1301</v>
+        <v>1202</v>
       </c>
       <c r="B48" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="3">
-        <v>1</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="G48" s="3">
         <v>1</v>
@@ -4253,7 +4617,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="3">
-        <v>10815</v>
+        <v>20709</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>20</v>
@@ -4264,37 +4628,37 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3" t="str">
-        <f t="shared" ref="N48:N83" si="2">F48&amp;":"&amp;H48&amp;" "&amp;I48</f>
-        <v>通关指定剧情关卡:1 10815</v>
+        <f t="shared" si="1"/>
+        <v>通关困难剧情关卡次数:1 20709</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>1302</v>
+        <v>1203</v>
       </c>
       <c r="B49" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G49" s="3">
         <v>1</v>
       </c>
       <c r="H49" s="3">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="I49" s="3">
-        <v>20715</v>
+        <v>1</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>20</v>
@@ -4305,37 +4669,37 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>通关困难剧情关卡次数:1 20715</v>
+        <f t="shared" si="1"/>
+        <v>守护灵等级:95 1</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>1303</v>
+        <v>1204</v>
       </c>
       <c r="B50" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D50" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="G50" s="3">
         <v>1</v>
       </c>
-      <c r="H50" s="3">
-        <v>100</v>
+      <c r="H50" s="8">
+        <v>5</v>
       </c>
       <c r="I50" s="3">
-        <v>1</v>
+        <v>1103</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>20</v>
@@ -4346,13 +4710,13 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>守护灵等级:100 1</v>
+        <f t="shared" si="1"/>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="B51" s="3">
         <v>13</v>
@@ -4361,22 +4725,22 @@
         <v>29</v>
       </c>
       <c r="D51" s="3">
-        <v>4</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G51" s="3">
         <v>1</v>
       </c>
-      <c r="H51" s="8">
-        <v>5</v>
+      <c r="H51" s="3">
+        <v>1</v>
       </c>
       <c r="I51" s="3">
-        <v>1103</v>
+        <v>10815</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>20</v>
@@ -4387,28 +4751,28 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>特定商店进行购买次数:5 1103</v>
+        <f t="shared" ref="N51:N86" si="2">F51&amp;":"&amp;H51&amp;" "&amp;I51</f>
+        <v>通关指定剧情关卡:1 10815</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>1401</v>
+        <v>1302</v>
       </c>
       <c r="B52" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D52" s="3">
-        <v>1</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="G52" s="3">
         <v>1</v>
@@ -4417,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="3">
-        <v>10909</v>
+        <v>20715</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>20</v>
@@ -4429,36 +4793,36 @@
       <c r="M52" s="3"/>
       <c r="N52" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>通关指定剧情关卡:1 10909</v>
+        <v>通关困难剧情关卡次数:1 20715</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>1402</v>
+        <v>1303</v>
       </c>
       <c r="B53" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D53" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G53" s="3">
         <v>1</v>
       </c>
       <c r="H53" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I53" s="3">
-        <v>20809</v>
+        <v>1</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>20</v>
@@ -4470,36 +4834,36 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>通关困难剧情关卡次数:1 20809</v>
+        <v>守护灵等级:100 1</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>1403</v>
+        <v>1304</v>
       </c>
       <c r="B54" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D54" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="G54" s="3">
         <v>1</v>
       </c>
-      <c r="H54" s="3">
-        <v>105</v>
+      <c r="H54" s="8">
+        <v>5</v>
       </c>
       <c r="I54" s="3">
-        <v>1</v>
+        <v>1103</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>20</v>
@@ -4511,12 +4875,12 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>守护灵等级:105 1</v>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="B55" s="3">
         <v>14</v>
@@ -4525,22 +4889,22 @@
         <v>29</v>
       </c>
       <c r="D55" s="3">
-        <v>4</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
       </c>
-      <c r="H55" s="8">
-        <v>5</v>
+      <c r="H55" s="3">
+        <v>1</v>
       </c>
       <c r="I55" s="3">
-        <v>1103</v>
+        <v>10909</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>20</v>
@@ -4552,27 +4916,27 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>特定商店进行购买次数:5 1103</v>
+        <v>通关指定剧情关卡:1 10909</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>1501</v>
+        <v>1402</v>
       </c>
       <c r="B56" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D56" s="3">
-        <v>1</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -4581,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="3">
-        <v>10915</v>
+        <v>20809</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>20</v>
@@ -4593,36 +4957,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>通关指定剧情关卡:1 10915</v>
+        <v>通关困难剧情关卡次数:1 20809</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>1502</v>
+        <v>1403</v>
       </c>
       <c r="B57" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D57" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G57" s="3">
         <v>1</v>
       </c>
       <c r="H57" s="3">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="I57" s="3">
-        <v>20815</v>
+        <v>1</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>20</v>
@@ -4634,36 +4998,36 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>通关困难剧情关卡次数:1 20815</v>
+        <v>守护灵等级:105 1</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>1503</v>
+        <v>1404</v>
       </c>
       <c r="B58" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D58" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="G58" s="3">
         <v>1</v>
       </c>
-      <c r="H58" s="3">
-        <v>110</v>
+      <c r="H58" s="8">
+        <v>5</v>
       </c>
       <c r="I58" s="3">
-        <v>1</v>
+        <v>1103</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>20</v>
@@ -4675,12 +5039,12 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>守护灵等级:110 1</v>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="B59" s="3">
         <v>15</v>
@@ -4689,22 +5053,22 @@
         <v>29</v>
       </c>
       <c r="D59" s="3">
-        <v>4</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G59" s="3">
         <v>1</v>
       </c>
-      <c r="H59" s="8">
-        <v>5</v>
+      <c r="H59" s="3">
+        <v>1</v>
       </c>
       <c r="I59" s="3">
-        <v>1103</v>
+        <v>10915</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>20</v>
@@ -4716,27 +5080,27 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>特定商店进行购买次数:5 1103</v>
+        <v>通关指定剧情关卡:1 10915</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>1601</v>
+        <v>1502</v>
       </c>
       <c r="B60" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D60" s="3">
-        <v>1</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="G60" s="3">
         <v>1</v>
@@ -4745,7 +5109,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="3">
-        <v>11009</v>
+        <v>20815</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>20</v>
@@ -4757,36 +5121,36 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>通关指定剧情关卡:1 11009</v>
+        <v>通关困难剧情关卡次数:1 20815</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>1602</v>
+        <v>1503</v>
       </c>
       <c r="B61" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D61" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G61" s="3">
         <v>1</v>
       </c>
       <c r="H61" s="3">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="I61" s="3">
-        <v>20909</v>
+        <v>1</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>20</v>
@@ -4798,36 +5162,36 @@
       <c r="M61" s="3"/>
       <c r="N61" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>通关困难剧情关卡次数:1 20909</v>
+        <v>守护灵等级:110 1</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>1603</v>
+        <v>1504</v>
       </c>
       <c r="B62" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D62" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="G62" s="3">
         <v>1</v>
       </c>
-      <c r="H62" s="3">
-        <v>115</v>
+      <c r="H62" s="8">
+        <v>5</v>
       </c>
       <c r="I62" s="3">
-        <v>1</v>
+        <v>1103</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>20</v>
@@ -4839,12 +5203,12 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>守护灵等级:115 1</v>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="B63" s="3">
         <v>16</v>
@@ -4853,22 +5217,22 @@
         <v>29</v>
       </c>
       <c r="D63" s="3">
-        <v>4</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G63" s="3">
         <v>1</v>
       </c>
-      <c r="H63" s="8">
-        <v>5</v>
+      <c r="H63" s="3">
+        <v>1</v>
       </c>
       <c r="I63" s="3">
-        <v>1103</v>
+        <v>11009</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>20</v>
@@ -4880,27 +5244,27 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>特定商店进行购买次数:5 1103</v>
+        <v>通关指定剧情关卡:1 11009</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>1701</v>
+        <v>1602</v>
       </c>
       <c r="B64" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D64" s="3">
-        <v>1</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="G64" s="3">
         <v>1</v>
@@ -4909,7 +5273,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="3">
-        <v>11015</v>
+        <v>20909</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>20</v>
@@ -4921,36 +5285,36 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>通关指定剧情关卡:1 11015</v>
+        <v>通关困难剧情关卡次数:1 20909</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>1702</v>
+        <v>1603</v>
       </c>
       <c r="B65" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D65" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G65" s="3">
         <v>1</v>
       </c>
       <c r="H65" s="3">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="I65" s="3">
-        <v>20915</v>
+        <v>1</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>20</v>
@@ -4962,36 +5326,36 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>通关困难剧情关卡次数:1 20915</v>
+        <v>守护灵等级:115 1</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>1703</v>
+        <v>1604</v>
       </c>
       <c r="B66" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D66" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="G66" s="3">
         <v>1</v>
       </c>
-      <c r="H66" s="3">
-        <v>120</v>
+      <c r="H66" s="8">
+        <v>5</v>
       </c>
       <c r="I66" s="3">
-        <v>1</v>
+        <v>1103</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>20</v>
@@ -5003,12 +5367,12 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>守护灵等级:120 1</v>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="B67" s="3">
         <v>17</v>
@@ -5017,22 +5381,22 @@
         <v>29</v>
       </c>
       <c r="D67" s="3">
-        <v>4</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G67" s="3">
         <v>1</v>
       </c>
-      <c r="H67" s="8">
-        <v>5</v>
+      <c r="H67" s="3">
+        <v>1</v>
       </c>
       <c r="I67" s="3">
-        <v>1103</v>
+        <v>11015</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>20</v>
@@ -5044,27 +5408,27 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>特定商店进行购买次数:5 1103</v>
+        <v>通关指定剧情关卡:1 11015</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>1801</v>
+        <v>1702</v>
       </c>
       <c r="B68" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D68" s="3">
-        <v>1</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="G68" s="3">
         <v>1</v>
@@ -5073,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="I68" s="3">
-        <v>12009</v>
+        <v>20915</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>20</v>
@@ -5085,36 +5449,36 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>通关指定剧情关卡:1 12009</v>
+        <v>通关困难剧情关卡次数:1 20915</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>1802</v>
+        <v>1703</v>
       </c>
       <c r="B69" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D69" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G69" s="3">
         <v>1</v>
       </c>
       <c r="H69" s="3">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="I69" s="3">
-        <v>21109</v>
+        <v>1</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>20</v>
@@ -5126,36 +5490,36 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>通关困难剧情关卡次数:1 21109</v>
+        <v>守护灵等级:120 1</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>1803</v>
+        <v>1704</v>
       </c>
       <c r="B70" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D70" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="G70" s="3">
         <v>1</v>
       </c>
-      <c r="H70" s="3">
-        <v>125</v>
+      <c r="H70" s="8">
+        <v>5</v>
       </c>
       <c r="I70" s="3">
-        <v>1</v>
+        <v>1103</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>20</v>
@@ -5167,12 +5531,12 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>守护灵等级:125 1</v>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="B71" s="3">
         <v>18</v>
@@ -5181,22 +5545,22 @@
         <v>29</v>
       </c>
       <c r="D71" s="3">
-        <v>4</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G71" s="3">
         <v>1</v>
       </c>
-      <c r="H71" s="8">
-        <v>5</v>
+      <c r="H71" s="3">
+        <v>1</v>
       </c>
       <c r="I71" s="3">
-        <v>1103</v>
+        <v>12009</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>20</v>
@@ -5208,27 +5572,27 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>特定商店进行购买次数:5 1103</v>
+        <v>通关指定剧情关卡:1 12009</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>1901</v>
+        <v>1802</v>
       </c>
       <c r="B72" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D72" s="3">
-        <v>1</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="G72" s="3">
         <v>1</v>
@@ -5237,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="3">
-        <v>12015</v>
+        <v>21109</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>20</v>
@@ -5249,36 +5613,36 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>通关指定剧情关卡:1 12015</v>
+        <v>通关困难剧情关卡次数:1 21109</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>1902</v>
+        <v>1803</v>
       </c>
       <c r="B73" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D73" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G73" s="3">
         <v>1</v>
       </c>
       <c r="H73" s="3">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="I73" s="3">
-        <v>21115</v>
+        <v>1</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>20</v>
@@ -5290,36 +5654,36 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>通关困难剧情关卡次数:1 21115</v>
+        <v>守护灵等级:125 1</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>1903</v>
+        <v>1804</v>
       </c>
       <c r="B74" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D74" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="G74" s="3">
         <v>1</v>
       </c>
-      <c r="H74" s="3">
-        <v>130</v>
+      <c r="H74" s="8">
+        <v>5</v>
       </c>
       <c r="I74" s="3">
-        <v>1</v>
+        <v>1103</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>20</v>
@@ -5331,12 +5695,12 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>守护灵等级:130 1</v>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="B75" s="3">
         <v>19</v>
@@ -5345,22 +5709,22 @@
         <v>29</v>
       </c>
       <c r="D75" s="3">
-        <v>4</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G75" s="3">
         <v>1</v>
       </c>
-      <c r="H75" s="8">
-        <v>5</v>
+      <c r="H75" s="3">
+        <v>1</v>
       </c>
       <c r="I75" s="3">
-        <v>1103</v>
+        <v>12015</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>20</v>
@@ -5372,27 +5736,27 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>特定商店进行购买次数:5 1103</v>
+        <v>通关指定剧情关卡:1 12015</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>2001</v>
+        <v>1902</v>
       </c>
       <c r="B76" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D76" s="3">
-        <v>1</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="G76" s="3">
         <v>1</v>
@@ -5401,7 +5765,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="3">
-        <v>13009</v>
+        <v>21115</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>20</v>
@@ -5413,36 +5777,36 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>通关指定剧情关卡:1 13009</v>
+        <v>通关困难剧情关卡次数:1 21115</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>2002</v>
+        <v>1903</v>
       </c>
       <c r="B77" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D77" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G77" s="3">
         <v>1</v>
       </c>
       <c r="H77" s="3">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="I77" s="3">
-        <v>21209</v>
+        <v>1</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>20</v>
@@ -5454,36 +5818,36 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>通关困难剧情关卡次数:1 21209</v>
+        <v>守护灵等级:130 1</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>2003</v>
+        <v>1904</v>
       </c>
       <c r="B78" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D78" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="G78" s="3">
         <v>1</v>
       </c>
-      <c r="H78" s="3">
-        <v>135</v>
+      <c r="H78" s="8">
+        <v>5</v>
       </c>
       <c r="I78" s="3">
-        <v>1</v>
+        <v>1103</v>
       </c>
       <c r="J78" s="4" t="s">
         <v>20</v>
@@ -5495,12 +5859,12 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>守护灵等级:135 1</v>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B79" s="3">
         <v>20</v>
@@ -5509,22 +5873,22 @@
         <v>29</v>
       </c>
       <c r="D79" s="3">
-        <v>4</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G79" s="3">
         <v>1</v>
       </c>
-      <c r="H79" s="8">
-        <v>5</v>
+      <c r="H79" s="3">
+        <v>1</v>
       </c>
       <c r="I79" s="3">
-        <v>1103</v>
+        <v>13009</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>20</v>
@@ -5536,27 +5900,27 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>特定商店进行购买次数:5 1103</v>
+        <v>通关指定剧情关卡:1 13009</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>2101</v>
+        <v>2002</v>
       </c>
       <c r="B80" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D80" s="3">
-        <v>1</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="G80" s="3">
         <v>1</v>
@@ -5565,7 +5929,7 @@
         <v>1</v>
       </c>
       <c r="I80" s="3">
-        <v>13015</v>
+        <v>21209</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>20</v>
@@ -5577,36 +5941,36 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>通关指定剧情关卡:1 13015</v>
+        <v>通关困难剧情关卡次数:1 21209</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>2102</v>
+        <v>2003</v>
       </c>
       <c r="B81" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D81" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G81" s="3">
         <v>1</v>
       </c>
       <c r="H81" s="3">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="I81" s="3">
-        <v>21215</v>
+        <v>1</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>20</v>
@@ -5618,36 +5982,36 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>通关困难剧情关卡次数:1 21215</v>
+        <v>守护灵等级:135 1</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>2103</v>
+        <v>2004</v>
       </c>
       <c r="B82" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D82" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="G82" s="3">
         <v>1</v>
       </c>
-      <c r="H82" s="3">
-        <v>140</v>
+      <c r="H82" s="8">
+        <v>5</v>
       </c>
       <c r="I82" s="3">
-        <v>1</v>
+        <v>1103</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>20</v>
@@ -5659,12 +6023,12 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>守护灵等级:140 1</v>
+        <v>特定商店进行购买次数:5 1103</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="B83" s="3">
         <v>21</v>
@@ -5673,22 +6037,22 @@
         <v>29</v>
       </c>
       <c r="D83" s="3">
-        <v>4</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G83" s="3">
         <v>1</v>
       </c>
       <c r="H83" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I83" s="3">
-        <v>1103</v>
+        <v>13015</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>20</v>
@@ -5699,6 +6063,129 @@
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>通关指定剧情关卡:1 13015</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>2102</v>
+      </c>
+      <c r="B84" s="3">
+        <v>21</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="3">
+        <v>2</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G84" s="3">
+        <v>1</v>
+      </c>
+      <c r="H84" s="3">
+        <v>1</v>
+      </c>
+      <c r="I84" s="3">
+        <v>21215</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K84" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>通关困难剧情关卡次数:1 21215</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>2103</v>
+      </c>
+      <c r="B85" s="3">
+        <v>21</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" s="3">
+        <v>3</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G85" s="3">
+        <v>1</v>
+      </c>
+      <c r="H85" s="3">
+        <v>140</v>
+      </c>
+      <c r="I85" s="3">
+        <v>1</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K85" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>守护灵等级:140 1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>2104</v>
+      </c>
+      <c r="B86" s="3">
+        <v>21</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" s="3">
+        <v>4</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G86" s="3">
+        <v>1</v>
+      </c>
+      <c r="H86" s="3">
+        <v>5</v>
+      </c>
+      <c r="I86" s="3">
+        <v>1103</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K86" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3" t="str">
         <f t="shared" si="2"/>
         <v>特定商店进行购买次数:5 1103</v>
       </c>

--- a/Excel/镇魂街/break.玩家等级突破.xlsx
+++ b/Excel/镇魂街/break.玩家等级突破.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="地狱道任务" sheetId="28" r:id="rId3"/>
     <sheet name="地狱道任务-tmp" sheetId="31" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="347">
   <si>
     <t>sheet名</t>
   </si>
@@ -621,12 +621,6 @@
     <t>抽卡次数</t>
   </si>
   <si>
-    <t>通过困难第1章</t>
-  </si>
-  <si>
-    <t>神器1升级到2</t>
-  </si>
-  <si>
     <t>玩家等级升到20</t>
   </si>
   <si>
@@ -855,9 +849,6 @@
     <t>6个守护灵突破达到20</t>
   </si>
   <si>
-    <t>3张守护灵升到10</t>
-  </si>
-  <si>
     <t>图片</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1155,27 +1146,15 @@
     <t>消费游戏币80000</t>
   </si>
   <si>
-    <t>卡牌升级-cnt</t>
-  </si>
-  <si>
     <t>抽卡-shl</t>
   </si>
   <si>
-    <t>主线-id</t>
-  </si>
-  <si>
     <t>神器-大点-id</t>
   </si>
   <si>
     <t>玩家等级-lv</t>
   </si>
   <si>
-    <t>芦花古楼-cha</t>
-  </si>
-  <si>
-    <t>世界BOSS-cha</t>
-  </si>
-  <si>
     <t>专属武器强化-max</t>
   </si>
   <si>
@@ -1191,9 +1170,6 @@
     <t>专属武器强化-cnt</t>
   </si>
   <si>
-    <t>卡牌洗练-max</t>
-  </si>
-  <si>
     <t>专属武器激活-cnt</t>
   </si>
   <si>
@@ -1203,14 +1179,74 @@
     <t>花费道具-id</t>
   </si>
   <si>
-    <t>卡牌突破-cnt</t>
-  </si>
-  <si>
     <t>地狱道任务</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>地狱道任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1张守护灵升到3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第一章第4关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有3张守护灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵-cnt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行3次守护灵抽奖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵升级-cnt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡-id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-chamin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史最高分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-chadup</t>
+  </si>
+  <si>
+    <t>寄灵人洗练-max</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵突破-cnt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第一章第4关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有3张守护灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>把一个守护灵升到3级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1776,7 +1812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1839,7 +1875,7 @@
     </row>
     <row r="3" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
@@ -1877,7 +1913,7 @@
     </row>
     <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -1917,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2129,7 +2165,7 @@
         <v>85</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>97</v>
@@ -2144,7 +2180,7 @@
         <v>57</v>
       </c>
       <c r="I4" s="3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="3"/>
@@ -2168,7 +2204,7 @@
         <v>86</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>98</v>
@@ -2183,13 +2219,13 @@
         <v>62</v>
       </c>
       <c r="I5" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="K5" s="3">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="L5" s="3">
         <v>2</v>
@@ -2198,7 +2234,7 @@
         <v>401</v>
       </c>
       <c r="N5" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O5" s="3">
         <v>1</v>
@@ -2207,12 +2243,8 @@
         <v>1</v>
       </c>
       <c r="Q5" s="3"/>
-      <c r="R5" s="3">
-        <v>1</v>
-      </c>
-      <c r="S5" s="3">
-        <v>101</v>
-      </c>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
     </row>
     <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -2225,7 +2257,7 @@
         <v>86</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>98</v>
@@ -2255,15 +2287,17 @@
         <v>2</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3">
-        <v>1</v>
-      </c>
-      <c r="S6" s="3">
-        <v>102</v>
-      </c>
+      <c r="O6" s="3">
+        <v>2</v>
+      </c>
+      <c r="P6" s="3">
+        <v>401</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>40</v>
+      </c>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -2276,7 +2310,7 @@
         <v>87</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>99</v>
@@ -2291,7 +2325,7 @@
         <v>65</v>
       </c>
       <c r="I7" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>44</v>
@@ -2315,12 +2349,8 @@
         <v>3</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3">
-        <v>1</v>
-      </c>
-      <c r="S7" s="3">
-        <v>103</v>
-      </c>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -2333,7 +2363,7 @@
         <v>87</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>99</v>
@@ -2372,12 +2402,8 @@
         <v>4</v>
       </c>
       <c r="Q8" s="3"/>
-      <c r="R8" s="3">
-        <v>1</v>
-      </c>
-      <c r="S8" s="3">
-        <v>104</v>
-      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -2390,7 +2416,7 @@
         <v>88</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>100</v>
@@ -2423,12 +2449,8 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="3">
-        <v>1</v>
-      </c>
-      <c r="S9" s="3">
-        <v>105</v>
-      </c>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -2441,7 +2463,7 @@
         <v>88</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>100</v>
@@ -2474,12 +2496,8 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="3">
-        <v>1</v>
-      </c>
-      <c r="S10" s="3">
-        <v>106</v>
-      </c>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -2492,7 +2510,7 @@
         <v>89</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>101</v>
@@ -2507,7 +2525,7 @@
         <v>67</v>
       </c>
       <c r="I11" s="3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>44</v>
@@ -2525,12 +2543,8 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="3">
-        <v>1</v>
-      </c>
-      <c r="S11" s="3">
-        <v>107</v>
-      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -2543,7 +2557,7 @@
         <v>89</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>101</v>
@@ -2592,7 +2606,7 @@
         <v>89</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>101</v>
@@ -2635,7 +2649,7 @@
         <v>89</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>101</v>
@@ -2678,7 +2692,7 @@
         <v>90</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>102</v>
@@ -2721,7 +2735,7 @@
         <v>90</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>102</v>
@@ -2770,7 +2784,7 @@
         <v>90</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>102</v>
@@ -2813,7 +2827,7 @@
         <v>90</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>102</v>
@@ -2856,7 +2870,7 @@
         <v>91</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>103</v>
@@ -2899,7 +2913,7 @@
         <v>91</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>103</v>
@@ -2948,7 +2962,7 @@
         <v>91</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>103</v>
@@ -2991,7 +3005,7 @@
         <v>91</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>103</v>
@@ -3034,7 +3048,7 @@
         <v>92</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>104</v>
@@ -3077,7 +3091,7 @@
         <v>92</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>104</v>
@@ -3126,8 +3140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3160,7 +3174,7 @@
         <v>51</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>55</v>
@@ -3254,7 +3268,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>10</v>
@@ -3301,22 +3315,22 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>321</v>
+        <v>226</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
       </c>
       <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
         <v>3</v>
-      </c>
-      <c r="J4" s="3">
-        <v>10</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>19</v>
@@ -3326,8 +3340,8 @@
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="3" t="s">
-        <v>224</v>
+      <c r="O4" s="4" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3344,13 +3358,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>145</v>
+        <v>223</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>336</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -3359,7 +3373,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>19</v>
@@ -3387,13 +3401,13 @@
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>323</v>
+        <v>333</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -3402,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3">
-        <v>109</v>
+        <v>10104</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>19</v>
@@ -3412,8 +3426,8 @@
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="3" t="s">
-        <v>146</v>
+      <c r="O6" s="4" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3430,23 +3444,21 @@
         <v>4</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>147</v>
+        <v>334</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
       </c>
       <c r="I7" s="3">
-        <v>2</v>
-      </c>
-      <c r="J7" s="3">
-        <v>101</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J7" s="3"/>
       <c r="K7" s="4" t="s">
         <v>19</v>
       </c>
@@ -3455,8 +3467,8 @@
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="3" t="s">
-        <v>147</v>
+      <c r="O7" s="4" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3473,13 +3485,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -3499,7 +3511,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3516,13 +3528,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>326</v>
+        <v>147</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -3542,7 +3554,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3559,13 +3571,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>326</v>
+        <v>148</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -3585,7 +3597,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3602,13 +3614,13 @@
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -3628,7 +3640,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3645,13 +3657,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -3671,7 +3683,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3688,13 +3700,13 @@
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>327</v>
+        <v>151</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>339</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -3703,7 +3715,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="3">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>19</v>
@@ -3714,7 +3726,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3731,13 +3743,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>152</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -3757,7 +3769,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3774,13 +3786,13 @@
         <v>4</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -3800,7 +3812,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3817,13 +3829,13 @@
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -3843,7 +3855,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3860,13 +3872,13 @@
         <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>327</v>
+        <v>155</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -3875,7 +3887,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="3">
-        <v>3</v>
+        <v>503</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>19</v>
@@ -3886,7 +3898,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3903,13 +3915,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>329</v>
+        <v>156</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>340</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -3929,7 +3941,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3946,13 +3958,13 @@
         <v>4</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -3972,7 +3984,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3989,13 +4001,13 @@
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -4015,7 +4027,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4032,13 +4044,13 @@
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>327</v>
+        <v>159</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -4047,7 +4059,7 @@
         <v>2</v>
       </c>
       <c r="J21" s="3">
-        <v>4</v>
+        <v>504</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>19</v>
@@ -4058,7 +4070,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4075,13 +4087,13 @@
         <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -4101,7 +4113,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4118,13 +4130,13 @@
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -4144,7 +4156,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4161,13 +4173,13 @@
         <v>1</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -4187,7 +4199,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4204,13 +4216,13 @@
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>327</v>
+        <v>163</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
@@ -4219,7 +4231,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="3">
-        <v>6</v>
+        <v>506</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>19</v>
@@ -4230,7 +4242,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4247,13 +4259,13 @@
         <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
@@ -4273,7 +4285,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4290,13 +4302,13 @@
         <v>4</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -4316,7 +4328,7 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4333,13 +4345,13 @@
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
@@ -4359,7 +4371,7 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4376,13 +4388,13 @@
         <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>327</v>
+        <v>167</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
@@ -4391,7 +4403,7 @@
         <v>3</v>
       </c>
       <c r="J29" s="3">
-        <v>7</v>
+        <v>507</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>19</v>
@@ -4402,7 +4414,7 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4419,13 +4431,13 @@
         <v>3</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -4445,7 +4457,7 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4462,13 +4474,13 @@
         <v>4</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="H31" s="3">
         <v>1</v>
@@ -4488,7 +4500,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4505,13 +4517,13 @@
         <v>1</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
@@ -4531,7 +4543,7 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4548,13 +4560,13 @@
         <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>327</v>
+        <v>171</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
@@ -4563,7 +4575,7 @@
         <v>3</v>
       </c>
       <c r="J33" s="3">
-        <v>8</v>
+        <v>508</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>19</v>
@@ -4574,7 +4586,7 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4591,13 +4603,13 @@
         <v>3</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -4617,7 +4629,7 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4634,13 +4646,13 @@
         <v>4</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
@@ -4660,7 +4672,7 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4677,13 +4689,13 @@
         <v>1</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
@@ -4703,7 +4715,7 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4720,13 +4732,13 @@
         <v>2</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>327</v>
+        <v>175</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
@@ -4735,7 +4747,7 @@
         <v>3</v>
       </c>
       <c r="J37" s="3">
-        <v>9</v>
+        <v>509</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>19</v>
@@ -4746,7 +4758,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4763,13 +4775,13 @@
         <v>3</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H38" s="3">
         <v>1</v>
@@ -4789,7 +4801,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4806,13 +4818,13 @@
         <v>4</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H39" s="3">
         <v>1</v>
@@ -4832,7 +4844,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4849,13 +4861,13 @@
         <v>1</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H40" s="3">
         <v>1</v>
@@ -4875,7 +4887,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4892,13 +4904,13 @@
         <v>2</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>327</v>
+        <v>179</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="H41" s="3">
         <v>1</v>
@@ -4907,7 +4919,7 @@
         <v>3</v>
       </c>
       <c r="J41" s="3">
-        <v>10</v>
+        <v>510</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>19</v>
@@ -4918,7 +4930,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4935,13 +4947,13 @@
         <v>3</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="H42" s="3">
         <v>1</v>
@@ -4961,7 +4973,7 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4978,13 +4990,13 @@
         <v>4</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H43" s="3">
         <v>1</v>
@@ -5004,7 +5016,7 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5021,13 +5033,13 @@
         <v>1</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H44" s="3">
         <v>1</v>
@@ -5047,7 +5059,7 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5064,13 +5076,13 @@
         <v>2</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>327</v>
+        <v>183</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
@@ -5079,7 +5091,7 @@
         <v>3</v>
       </c>
       <c r="J45" s="3">
-        <v>11</v>
+        <v>511</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>19</v>
@@ -5090,7 +5102,7 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5107,13 +5119,13 @@
         <v>3</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H46" s="3">
         <v>1</v>
@@ -5133,7 +5145,7 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5150,13 +5162,13 @@
         <v>4</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="H47" s="3">
         <v>1</v>
@@ -5176,7 +5188,7 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5193,13 +5205,13 @@
         <v>1</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
@@ -5219,7 +5231,7 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5236,13 +5248,13 @@
         <v>2</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>327</v>
+        <v>187</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="H49" s="3">
         <v>1</v>
@@ -5251,7 +5263,7 @@
         <v>3</v>
       </c>
       <c r="J49" s="3">
-        <v>12</v>
+        <v>512</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>19</v>
@@ -5262,7 +5274,7 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5279,13 +5291,13 @@
         <v>3</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H50" s="3">
         <v>1</v>
@@ -5305,7 +5317,7 @@
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5322,13 +5334,13 @@
         <v>4</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H51" s="3">
         <v>1</v>
@@ -5348,7 +5360,7 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5365,13 +5377,13 @@
         <v>1</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H52" s="3">
         <v>1</v>
@@ -5391,7 +5403,7 @@
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5408,13 +5420,13 @@
         <v>2</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>327</v>
+        <v>191</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="H53" s="3">
         <v>1</v>
@@ -5423,7 +5435,7 @@
         <v>1</v>
       </c>
       <c r="J53" s="3">
-        <v>13</v>
+        <v>513</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>19</v>
@@ -5434,7 +5446,7 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5451,13 +5463,13 @@
         <v>3</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H54" s="3">
         <v>1</v>
@@ -5477,7 +5489,7 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5494,13 +5506,13 @@
         <v>4</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
@@ -5520,7 +5532,7 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5537,13 +5549,13 @@
         <v>1</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H56" s="3">
         <v>1</v>
@@ -5563,7 +5575,7 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5580,13 +5592,13 @@
         <v>2</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>327</v>
+        <v>195</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="H57" s="3">
         <v>1</v>
@@ -5595,7 +5607,7 @@
         <v>3</v>
       </c>
       <c r="J57" s="3">
-        <v>13</v>
+        <v>513</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>19</v>
@@ -5606,7 +5618,7 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5623,13 +5635,13 @@
         <v>3</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H58" s="3">
         <v>1</v>
@@ -5649,7 +5661,7 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5666,13 +5678,13 @@
         <v>4</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>337</v>
+        <v>197</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="H59" s="3">
         <v>1</v>
@@ -5692,7 +5704,7 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5709,13 +5721,13 @@
         <v>1</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H60" s="3">
         <v>1</v>
@@ -5735,7 +5747,7 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5752,13 +5764,13 @@
         <v>2</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>327</v>
+        <v>199</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="H61" s="3">
         <v>1</v>
@@ -5767,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="3">
-        <v>14</v>
+        <v>514</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>19</v>
@@ -5778,7 +5790,7 @@
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5795,13 +5807,13 @@
         <v>3</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H62" s="3">
         <v>1</v>
@@ -5821,7 +5833,7 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5838,13 +5850,13 @@
         <v>4</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>337</v>
+        <v>201</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="H63" s="3">
         <v>1</v>
@@ -5864,7 +5876,7 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5881,13 +5893,13 @@
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H64" s="3">
         <v>1</v>
@@ -5907,7 +5919,7 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5924,13 +5936,13 @@
         <v>2</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>327</v>
+        <v>203</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="H65" s="3">
         <v>1</v>
@@ -5939,7 +5951,7 @@
         <v>3</v>
       </c>
       <c r="J65" s="3">
-        <v>14</v>
+        <v>514</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>19</v>
@@ -5950,7 +5962,7 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5967,13 +5979,13 @@
         <v>3</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H66" s="3">
         <v>1</v>
@@ -5993,7 +6005,7 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6010,13 +6022,13 @@
         <v>4</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>337</v>
+        <v>205</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="H67" s="3">
         <v>1</v>
@@ -6036,7 +6048,7 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6053,13 +6065,13 @@
         <v>1</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H68" s="3">
         <v>1</v>
@@ -6079,7 +6091,7 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6096,13 +6108,13 @@
         <v>2</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>327</v>
+        <v>207</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="H69" s="3">
         <v>1</v>
@@ -6111,7 +6123,7 @@
         <v>3</v>
       </c>
       <c r="J69" s="3">
-        <v>15</v>
+        <v>515</v>
       </c>
       <c r="K69" s="4" t="s">
         <v>19</v>
@@ -6122,7 +6134,7 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6139,13 +6151,13 @@
         <v>3</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H70" s="3">
         <v>1</v>
@@ -6165,7 +6177,7 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6182,13 +6194,13 @@
         <v>4</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>337</v>
+        <v>209</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="H71" s="3">
         <v>1</v>
@@ -6208,7 +6220,7 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6225,13 +6237,13 @@
         <v>1</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H72" s="3">
         <v>1</v>
@@ -6251,7 +6263,7 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6268,13 +6280,13 @@
         <v>2</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>327</v>
+        <v>211</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="H73" s="3">
         <v>1</v>
@@ -6283,7 +6295,7 @@
         <v>2</v>
       </c>
       <c r="J73" s="3">
-        <v>16</v>
+        <v>516</v>
       </c>
       <c r="K73" s="4" t="s">
         <v>19</v>
@@ -6294,7 +6306,7 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6311,13 +6323,13 @@
         <v>3</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H74" s="3">
         <v>1</v>
@@ -6337,7 +6349,7 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6354,13 +6366,13 @@
         <v>4</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>337</v>
+        <v>213</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="H75" s="3">
         <v>1</v>
@@ -6380,7 +6392,7 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6397,13 +6409,13 @@
         <v>1</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H76" s="3">
         <v>1</v>
@@ -6423,7 +6435,7 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6440,13 +6452,13 @@
         <v>2</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>327</v>
+        <v>215</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="H77" s="3">
         <v>1</v>
@@ -6455,7 +6467,7 @@
         <v>5</v>
       </c>
       <c r="J77" s="3">
-        <v>16</v>
+        <v>516</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>19</v>
@@ -6466,7 +6478,7 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6483,13 +6495,13 @@
         <v>3</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H78" s="3">
         <v>1</v>
@@ -6509,7 +6521,7 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6526,13 +6538,13 @@
         <v>4</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>337</v>
+        <v>217</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="H79" s="3">
         <v>1</v>
@@ -6552,7 +6564,7 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6569,13 +6581,13 @@
         <v>1</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H80" s="3">
         <v>1</v>
@@ -6595,7 +6607,7 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="33" x14ac:dyDescent="0.2">
@@ -6612,13 +6624,13 @@
         <v>2</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>327</v>
+        <v>219</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="H81" s="3">
         <v>1</v>
@@ -6627,7 +6639,7 @@
         <v>10</v>
       </c>
       <c r="J81" s="3">
-        <v>16</v>
+        <v>516</v>
       </c>
       <c r="K81" s="4" t="s">
         <v>19</v>
@@ -6638,7 +6650,7 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6655,13 +6667,13 @@
         <v>3</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H82" s="3">
         <v>1</v>
@@ -6681,7 +6693,7 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6698,13 +6710,13 @@
         <v>4</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>337</v>
+        <v>221</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="H83" s="3">
         <v>1</v>
@@ -6724,7 +6736,7 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -6771,7 +6783,7 @@
         <v>51</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>55</v>
@@ -6865,7 +6877,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>10</v>
@@ -6912,13 +6924,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -6936,7 +6948,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6953,13 +6965,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H5" s="3">
         <v>2</v>
@@ -6977,7 +6989,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6994,13 +7006,13 @@
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -7018,7 +7030,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7035,13 +7047,13 @@
         <v>4</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="H7" s="3">
         <v>2</v>
@@ -7059,7 +7071,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7076,13 +7088,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -7100,7 +7112,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7117,13 +7129,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
@@ -7141,7 +7153,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7158,13 +7170,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -7182,7 +7194,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7199,13 +7211,13 @@
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="H11" s="3">
         <v>2</v>
@@ -7223,7 +7235,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7240,13 +7252,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -7264,7 +7276,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7281,13 +7293,13 @@
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H13" s="3">
         <v>2</v>
@@ -7305,7 +7317,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7322,13 +7334,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -7346,7 +7358,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7363,13 +7375,13 @@
         <v>4</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="H15" s="3">
         <v>2</v>
@@ -7387,7 +7399,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7404,13 +7416,13 @@
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -7428,7 +7440,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7445,13 +7457,13 @@
         <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H17" s="3">
         <v>2</v>
@@ -7469,7 +7481,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7486,13 +7498,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -7510,7 +7522,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7527,13 +7539,13 @@
         <v>4</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="H19" s="3">
         <v>2</v>
@@ -7551,7 +7563,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7568,13 +7580,13 @@
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -7592,7 +7604,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7609,13 +7621,13 @@
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H21" s="3">
         <v>2</v>
@@ -7633,7 +7645,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7650,13 +7662,13 @@
         <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -7674,7 +7686,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7691,13 +7703,13 @@
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="H23" s="3">
         <v>2</v>
@@ -7715,7 +7727,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7732,13 +7744,13 @@
         <v>1</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -7756,7 +7768,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7773,13 +7785,13 @@
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H25" s="3">
         <v>2</v>
@@ -7797,7 +7809,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7814,13 +7826,13 @@
         <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
@@ -7838,7 +7850,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7855,13 +7867,13 @@
         <v>4</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="H27" s="3">
         <v>2</v>
@@ -7879,7 +7891,7 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7896,13 +7908,13 @@
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
@@ -7920,7 +7932,7 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7937,13 +7949,13 @@
         <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H29" s="3">
         <v>2</v>
@@ -7961,7 +7973,7 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7978,13 +7990,13 @@
         <v>3</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -8002,7 +8014,7 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8019,13 +8031,13 @@
         <v>4</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="H31" s="3">
         <v>2</v>
@@ -8043,7 +8055,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8060,13 +8072,13 @@
         <v>1</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
@@ -8084,7 +8096,7 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8101,13 +8113,13 @@
         <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H33" s="3">
         <v>2</v>
@@ -8125,7 +8137,7 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8142,13 +8154,13 @@
         <v>3</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -8166,7 +8178,7 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8183,13 +8195,13 @@
         <v>4</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="H35" s="3">
         <v>2</v>
@@ -8207,7 +8219,7 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8224,13 +8236,13 @@
         <v>1</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
@@ -8248,7 +8260,7 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8265,13 +8277,13 @@
         <v>2</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H37" s="3">
         <v>2</v>
@@ -8289,7 +8301,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8306,13 +8318,13 @@
         <v>3</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H38" s="3">
         <v>1</v>
@@ -8330,7 +8342,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8347,13 +8359,13 @@
         <v>4</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="H39" s="3">
         <v>2</v>
@@ -8371,7 +8383,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8388,13 +8400,13 @@
         <v>1</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H40" s="3">
         <v>1</v>
@@ -8412,7 +8424,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8429,13 +8441,13 @@
         <v>2</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H41" s="3">
         <v>2</v>
@@ -8453,7 +8465,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8470,13 +8482,13 @@
         <v>3</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H42" s="3">
         <v>1</v>
@@ -8494,7 +8506,7 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8511,13 +8523,13 @@
         <v>4</v>
       </c>
       <c r="E43" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="H43" s="3">
         <v>2</v>
@@ -8535,7 +8547,7 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8552,13 +8564,13 @@
         <v>1</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H44" s="3">
         <v>1</v>
@@ -8576,7 +8588,7 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8593,13 +8605,13 @@
         <v>2</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H45" s="3">
         <v>2</v>
@@ -8617,7 +8629,7 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8634,13 +8646,13 @@
         <v>3</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H46" s="3">
         <v>1</v>
@@ -8658,7 +8670,7 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8675,13 +8687,13 @@
         <v>4</v>
       </c>
       <c r="E47" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="H47" s="3">
         <v>2</v>
@@ -8699,7 +8711,7 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8716,13 +8728,13 @@
         <v>1</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
@@ -8740,7 +8752,7 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8757,13 +8769,13 @@
         <v>2</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H49" s="3">
         <v>2</v>
@@ -8781,7 +8793,7 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8798,13 +8810,13 @@
         <v>3</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H50" s="3">
         <v>1</v>
@@ -8822,7 +8834,7 @@
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8839,13 +8851,13 @@
         <v>4</v>
       </c>
       <c r="E51" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G51" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="H51" s="3">
         <v>2</v>
@@ -8863,7 +8875,7 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8880,13 +8892,13 @@
         <v>1</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H52" s="3">
         <v>1</v>
@@ -8904,7 +8916,7 @@
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8921,13 +8933,13 @@
         <v>2</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H53" s="3">
         <v>2</v>
@@ -8945,7 +8957,7 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8962,13 +8974,13 @@
         <v>3</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H54" s="3">
         <v>1</v>
@@ -8986,7 +8998,7 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9003,13 +9015,13 @@
         <v>4</v>
       </c>
       <c r="E55" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G55" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="H55" s="3">
         <v>2</v>
@@ -9027,7 +9039,7 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9044,13 +9056,13 @@
         <v>1</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H56" s="3">
         <v>1</v>
@@ -9068,7 +9080,7 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9085,13 +9097,13 @@
         <v>2</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H57" s="3">
         <v>2</v>
@@ -9109,7 +9121,7 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9126,13 +9138,13 @@
         <v>3</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H58" s="3">
         <v>1</v>
@@ -9150,7 +9162,7 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9167,13 +9179,13 @@
         <v>4</v>
       </c>
       <c r="E59" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G59" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="H59" s="3">
         <v>2</v>
@@ -9191,7 +9203,7 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9208,13 +9220,13 @@
         <v>1</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H60" s="3">
         <v>1</v>
@@ -9232,7 +9244,7 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9249,13 +9261,13 @@
         <v>2</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H61" s="3">
         <v>2</v>
@@ -9273,7 +9285,7 @@
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9290,13 +9302,13 @@
         <v>3</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H62" s="3">
         <v>1</v>
@@ -9314,7 +9326,7 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9331,13 +9343,13 @@
         <v>4</v>
       </c>
       <c r="E63" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G63" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="H63" s="3">
         <v>2</v>
@@ -9355,7 +9367,7 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9372,13 +9384,13 @@
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H64" s="3">
         <v>1</v>
@@ -9396,7 +9408,7 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9413,13 +9425,13 @@
         <v>2</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H65" s="3">
         <v>2</v>
@@ -9437,7 +9449,7 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9454,13 +9466,13 @@
         <v>3</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H66" s="3">
         <v>1</v>
@@ -9478,7 +9490,7 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9495,13 +9507,13 @@
         <v>4</v>
       </c>
       <c r="E67" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G67" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="H67" s="3">
         <v>2</v>
@@ -9519,7 +9531,7 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9536,13 +9548,13 @@
         <v>1</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H68" s="3">
         <v>1</v>
@@ -9560,7 +9572,7 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9577,13 +9589,13 @@
         <v>2</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H69" s="3">
         <v>2</v>
@@ -9601,7 +9613,7 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9618,13 +9630,13 @@
         <v>3</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H70" s="3">
         <v>1</v>
@@ -9642,7 +9654,7 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9659,13 +9671,13 @@
         <v>4</v>
       </c>
       <c r="E71" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G71" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="H71" s="3">
         <v>2</v>
@@ -9683,7 +9695,7 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9700,13 +9712,13 @@
         <v>1</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H72" s="3">
         <v>1</v>
@@ -9724,7 +9736,7 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9741,13 +9753,13 @@
         <v>2</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H73" s="3">
         <v>2</v>
@@ -9765,7 +9777,7 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9782,13 +9794,13 @@
         <v>3</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H74" s="3">
         <v>1</v>
@@ -9806,7 +9818,7 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9823,13 +9835,13 @@
         <v>4</v>
       </c>
       <c r="E75" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G75" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="H75" s="3">
         <v>2</v>
@@ -9847,7 +9859,7 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9864,13 +9876,13 @@
         <v>1</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H76" s="3">
         <v>1</v>
@@ -9888,7 +9900,7 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9905,13 +9917,13 @@
         <v>2</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H77" s="3">
         <v>2</v>
@@ -9929,7 +9941,7 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9946,13 +9958,13 @@
         <v>3</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H78" s="3">
         <v>1</v>
@@ -9970,7 +9982,7 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9987,13 +9999,13 @@
         <v>4</v>
       </c>
       <c r="E79" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G79" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="H79" s="3">
         <v>2</v>
@@ -10011,7 +10023,7 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -10028,13 +10040,13 @@
         <v>1</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H80" s="3">
         <v>1</v>
@@ -10052,7 +10064,7 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -10069,13 +10081,13 @@
         <v>2</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H81" s="3">
         <v>2</v>
@@ -10093,7 +10105,7 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -10110,13 +10122,13 @@
         <v>3</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H82" s="3">
         <v>1</v>
@@ -10134,7 +10146,7 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -10151,13 +10163,13 @@
         <v>4</v>
       </c>
       <c r="E83" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G83" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="H83" s="3">
         <v>2</v>
@@ -10175,7 +10187,7 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/break.玩家等级突破.xlsx
+++ b/Excel/镇魂街/break.玩家等级突破.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="348">
   <si>
     <t>sheet名</t>
   </si>
@@ -1195,6 +1195,45 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>拥有3张守护灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵-cnt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行3次守护灵抽奖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵升级-cnt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡-id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-chamin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史最高分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-chadup</t>
+  </si>
+  <si>
+    <t>寄灵人洗练-max</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵突破-cnt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>通过第一章第4关</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1203,50 +1242,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>守护灵-cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行3次守护灵抽奖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵升级-cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡-id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界BOSS-chamin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史最高分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界BOSS-chadup</t>
-  </si>
-  <si>
-    <t>寄灵人洗练-max</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵突破-cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第一章第4关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有3张守护灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>把一个守护灵升到3级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取第一章第2个星星宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星宝箱</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1953,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3140,8 +3144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3321,7 +3325,7 @@
         <v>332</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -3341,7 +3345,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3361,7 +3365,7 @@
         <v>223</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>318</v>
@@ -3404,10 +3408,10 @@
         <v>224</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -3416,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3">
-        <v>10104</v>
+        <v>1012</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>19</v>
@@ -3427,7 +3431,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3447,10 +3451,10 @@
         <v>225</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>335</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -3468,7 +3472,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3534,7 +3538,7 @@
         <v>147</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -3577,7 +3581,7 @@
         <v>148</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -3706,7 +3710,7 @@
         <v>151</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -3878,7 +3882,7 @@
         <v>155</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -3921,7 +3925,7 @@
         <v>156</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -4050,7 +4054,7 @@
         <v>159</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -4222,7 +4226,7 @@
         <v>163</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
@@ -4394,7 +4398,7 @@
         <v>167</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
@@ -4437,7 +4441,7 @@
         <v>168</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -4566,7 +4570,7 @@
         <v>171</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
@@ -4738,7 +4742,7 @@
         <v>175</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
@@ -4910,7 +4914,7 @@
         <v>179</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H41" s="3">
         <v>1</v>
@@ -5082,7 +5086,7 @@
         <v>183</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
@@ -5254,7 +5258,7 @@
         <v>187</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H49" s="3">
         <v>1</v>
@@ -5426,7 +5430,7 @@
         <v>191</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H53" s="3">
         <v>1</v>
@@ -5598,7 +5602,7 @@
         <v>195</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H57" s="3">
         <v>1</v>
@@ -5684,7 +5688,7 @@
         <v>197</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H59" s="3">
         <v>1</v>
@@ -5770,7 +5774,7 @@
         <v>199</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H61" s="3">
         <v>1</v>
@@ -5856,7 +5860,7 @@
         <v>201</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H63" s="3">
         <v>1</v>
@@ -5942,7 +5946,7 @@
         <v>203</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H65" s="3">
         <v>1</v>
@@ -6028,7 +6032,7 @@
         <v>205</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H67" s="3">
         <v>1</v>
@@ -6114,7 +6118,7 @@
         <v>207</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H69" s="3">
         <v>1</v>
@@ -6200,7 +6204,7 @@
         <v>209</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H71" s="3">
         <v>1</v>
@@ -6286,7 +6290,7 @@
         <v>211</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H73" s="3">
         <v>1</v>
@@ -6372,7 +6376,7 @@
         <v>213</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H75" s="3">
         <v>1</v>
@@ -6458,7 +6462,7 @@
         <v>215</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H77" s="3">
         <v>1</v>
@@ -6544,7 +6548,7 @@
         <v>217</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H79" s="3">
         <v>1</v>
@@ -6630,7 +6634,7 @@
         <v>219</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H81" s="3">
         <v>1</v>
@@ -6716,7 +6720,7 @@
         <v>221</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H83" s="3">
         <v>1</v>

--- a/Excel/镇魂街/break.玩家等级突破.xlsx
+++ b/Excel/镇魂街/break.玩家等级突破.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A4E27F-4786-4649-B641-23ED72E4759A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -12,22 +13,27 @@
     <sheet name="地狱道任务" sheetId="28" r:id="rId3"/>
     <sheet name="地狱道任务-tmp" sheetId="31" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -618,9 +624,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>抽卡次数</t>
-  </si>
-  <si>
     <t>玩家等级升到20</t>
   </si>
   <si>
@@ -1251,13 +1254,17 @@
   </si>
   <si>
     <t>星星宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡次数达到3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1523,20 +1530,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10"/>
-    <cellStyle name="常规 3" xfId="13"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="3"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="6"/>
-    <cellStyle name="因变Grid" xfId="7"/>
-    <cellStyle name="英文标题" xfId="12"/>
-    <cellStyle name="中文标题" xfId="2"/>
-    <cellStyle name="纵向标题" xfId="8"/>
+    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1813,7 +1820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1879,7 +1886,7 @@
     </row>
     <row r="3" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
@@ -1917,7 +1924,7 @@
     </row>
     <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -1954,7 +1961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2169,7 +2176,7 @@
         <v>85</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>97</v>
@@ -2208,7 +2215,7 @@
         <v>86</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>98</v>
@@ -2226,7 +2233,7 @@
         <v>30</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K5" s="3">
         <v>2</v>
@@ -2261,7 +2268,7 @@
         <v>86</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>98</v>
@@ -2314,7 +2321,7 @@
         <v>87</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>99</v>
@@ -2367,7 +2374,7 @@
         <v>87</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>99</v>
@@ -2420,7 +2427,7 @@
         <v>88</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>100</v>
@@ -2467,7 +2474,7 @@
         <v>88</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>100</v>
@@ -2514,7 +2521,7 @@
         <v>89</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>101</v>
@@ -2561,7 +2568,7 @@
         <v>89</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>101</v>
@@ -2610,7 +2617,7 @@
         <v>89</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>101</v>
@@ -2653,7 +2660,7 @@
         <v>89</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>101</v>
@@ -2696,7 +2703,7 @@
         <v>90</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>102</v>
@@ -2739,7 +2746,7 @@
         <v>90</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>102</v>
@@ -2788,7 +2795,7 @@
         <v>90</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>102</v>
@@ -2831,7 +2838,7 @@
         <v>90</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>102</v>
@@ -2874,7 +2881,7 @@
         <v>91</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>103</v>
@@ -2917,7 +2924,7 @@
         <v>91</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>103</v>
@@ -2966,7 +2973,7 @@
         <v>91</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>103</v>
@@ -3009,7 +3016,7 @@
         <v>91</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>103</v>
@@ -3052,7 +3059,7 @@
         <v>92</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>104</v>
@@ -3095,7 +3102,7 @@
         <v>92</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>104</v>
@@ -3141,11 +3148,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F8" sqref="F8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3178,7 +3185,7 @@
         <v>51</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>55</v>
@@ -3272,7 +3279,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>10</v>
@@ -3319,13 +3326,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -3345,7 +3352,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3362,13 +3369,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -3387,8 +3394,8 @@
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
-        <v>145</v>
+      <c r="O5" s="4" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3405,13 +3412,13 @@
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>347</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -3431,7 +3438,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3448,13 +3455,13 @@
         <v>4</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -3472,7 +3479,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3489,13 +3496,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -3515,7 +3522,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3532,13 +3539,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -3558,7 +3565,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3575,13 +3582,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -3601,7 +3608,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3618,13 +3625,13 @@
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -3644,7 +3651,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3661,13 +3668,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -3687,7 +3694,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3704,13 +3711,13 @@
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -3730,7 +3737,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3747,13 +3754,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -3773,7 +3780,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3790,13 +3797,13 @@
         <v>4</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -3816,7 +3823,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3833,13 +3840,13 @@
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -3859,7 +3866,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3876,13 +3883,13 @@
         <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -3902,7 +3909,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3919,13 +3926,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -3945,7 +3952,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3962,13 +3969,13 @@
         <v>4</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -3988,7 +3995,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4005,13 +4012,13 @@
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -4031,7 +4038,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4048,13 +4055,13 @@
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -4074,7 +4081,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4091,13 +4098,13 @@
         <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -4117,7 +4124,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4134,13 +4141,13 @@
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -4160,7 +4167,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4177,13 +4184,13 @@
         <v>1</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -4203,7 +4210,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4220,13 +4227,13 @@
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
@@ -4246,7 +4253,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4263,13 +4270,13 @@
         <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
@@ -4289,7 +4296,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4306,13 +4313,13 @@
         <v>4</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -4332,7 +4339,7 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4349,13 +4356,13 @@
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
@@ -4375,7 +4382,7 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4392,13 +4399,13 @@
         <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
@@ -4418,7 +4425,7 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4435,13 +4442,13 @@
         <v>3</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -4461,7 +4468,7 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4478,13 +4485,13 @@
         <v>4</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H31" s="3">
         <v>1</v>
@@ -4504,7 +4511,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4521,13 +4528,13 @@
         <v>1</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
@@ -4547,7 +4554,7 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4564,13 +4571,13 @@
         <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
@@ -4590,7 +4597,7 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4607,13 +4614,13 @@
         <v>3</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -4633,7 +4640,7 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4650,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
@@ -4676,7 +4683,7 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4693,13 +4700,13 @@
         <v>1</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
@@ -4719,7 +4726,7 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4736,13 +4743,13 @@
         <v>2</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
@@ -4762,7 +4769,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4779,13 +4786,13 @@
         <v>3</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H38" s="3">
         <v>1</v>
@@ -4805,7 +4812,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4822,13 +4829,13 @@
         <v>4</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H39" s="3">
         <v>1</v>
@@ -4848,7 +4855,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4865,13 +4872,13 @@
         <v>1</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H40" s="3">
         <v>1</v>
@@ -4891,7 +4898,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4908,13 +4915,13 @@
         <v>2</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H41" s="3">
         <v>1</v>
@@ -4934,7 +4941,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4951,13 +4958,13 @@
         <v>3</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H42" s="3">
         <v>1</v>
@@ -4977,7 +4984,7 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -4994,13 +5001,13 @@
         <v>4</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H43" s="3">
         <v>1</v>
@@ -5020,7 +5027,7 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5037,13 +5044,13 @@
         <v>1</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H44" s="3">
         <v>1</v>
@@ -5063,7 +5070,7 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5080,13 +5087,13 @@
         <v>2</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
@@ -5106,7 +5113,7 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5123,13 +5130,13 @@
         <v>3</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H46" s="3">
         <v>1</v>
@@ -5149,7 +5156,7 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5166,13 +5173,13 @@
         <v>4</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H47" s="3">
         <v>1</v>
@@ -5192,7 +5199,7 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5209,13 +5216,13 @@
         <v>1</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
@@ -5235,7 +5242,7 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5252,13 +5259,13 @@
         <v>2</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H49" s="3">
         <v>1</v>
@@ -5278,7 +5285,7 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5295,13 +5302,13 @@
         <v>3</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H50" s="3">
         <v>1</v>
@@ -5321,7 +5328,7 @@
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5338,13 +5345,13 @@
         <v>4</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H51" s="3">
         <v>1</v>
@@ -5364,7 +5371,7 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5381,13 +5388,13 @@
         <v>1</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H52" s="3">
         <v>1</v>
@@ -5407,7 +5414,7 @@
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5424,13 +5431,13 @@
         <v>2</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H53" s="3">
         <v>1</v>
@@ -5450,7 +5457,7 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5467,13 +5474,13 @@
         <v>3</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H54" s="3">
         <v>1</v>
@@ -5493,7 +5500,7 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5510,13 +5517,13 @@
         <v>4</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
@@ -5536,7 +5543,7 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5553,13 +5560,13 @@
         <v>1</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H56" s="3">
         <v>1</v>
@@ -5579,7 +5586,7 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5596,13 +5603,13 @@
         <v>2</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H57" s="3">
         <v>1</v>
@@ -5622,7 +5629,7 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5639,13 +5646,13 @@
         <v>3</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H58" s="3">
         <v>1</v>
@@ -5665,7 +5672,7 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5682,13 +5689,13 @@
         <v>4</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H59" s="3">
         <v>1</v>
@@ -5708,7 +5715,7 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5725,13 +5732,13 @@
         <v>1</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H60" s="3">
         <v>1</v>
@@ -5751,7 +5758,7 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5768,13 +5775,13 @@
         <v>2</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H61" s="3">
         <v>1</v>
@@ -5794,7 +5801,7 @@
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5811,13 +5818,13 @@
         <v>3</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H62" s="3">
         <v>1</v>
@@ -5837,7 +5844,7 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5854,13 +5861,13 @@
         <v>4</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H63" s="3">
         <v>1</v>
@@ -5880,7 +5887,7 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5897,13 +5904,13 @@
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H64" s="3">
         <v>1</v>
@@ -5923,7 +5930,7 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5940,13 +5947,13 @@
         <v>2</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H65" s="3">
         <v>1</v>
@@ -5966,7 +5973,7 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -5983,13 +5990,13 @@
         <v>3</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H66" s="3">
         <v>1</v>
@@ -6009,7 +6016,7 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6026,13 +6033,13 @@
         <v>4</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H67" s="3">
         <v>1</v>
@@ -6052,7 +6059,7 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6069,13 +6076,13 @@
         <v>1</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H68" s="3">
         <v>1</v>
@@ -6095,7 +6102,7 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6112,13 +6119,13 @@
         <v>2</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H69" s="3">
         <v>1</v>
@@ -6138,7 +6145,7 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6155,13 +6162,13 @@
         <v>3</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H70" s="3">
         <v>1</v>
@@ -6181,7 +6188,7 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6198,13 +6205,13 @@
         <v>4</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H71" s="3">
         <v>1</v>
@@ -6224,7 +6231,7 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6241,13 +6248,13 @@
         <v>1</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H72" s="3">
         <v>1</v>
@@ -6267,7 +6274,7 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6284,13 +6291,13 @@
         <v>2</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H73" s="3">
         <v>1</v>
@@ -6310,7 +6317,7 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6327,13 +6334,13 @@
         <v>3</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H74" s="3">
         <v>1</v>
@@ -6353,7 +6360,7 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6370,13 +6377,13 @@
         <v>4</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H75" s="3">
         <v>1</v>
@@ -6396,7 +6403,7 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6413,13 +6420,13 @@
         <v>1</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H76" s="3">
         <v>1</v>
@@ -6439,7 +6446,7 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6456,13 +6463,13 @@
         <v>2</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H77" s="3">
         <v>1</v>
@@ -6482,7 +6489,7 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6499,13 +6506,13 @@
         <v>3</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H78" s="3">
         <v>1</v>
@@ -6525,7 +6532,7 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6542,13 +6549,13 @@
         <v>4</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H79" s="3">
         <v>1</v>
@@ -6568,7 +6575,7 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6585,13 +6592,13 @@
         <v>1</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H80" s="3">
         <v>1</v>
@@ -6611,7 +6618,7 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="33" x14ac:dyDescent="0.2">
@@ -6628,13 +6635,13 @@
         <v>2</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H81" s="3">
         <v>1</v>
@@ -6654,7 +6661,7 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6671,13 +6678,13 @@
         <v>3</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H82" s="3">
         <v>1</v>
@@ -6697,7 +6704,7 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6714,13 +6721,13 @@
         <v>4</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H83" s="3">
         <v>1</v>
@@ -6740,7 +6747,7 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -6750,7 +6757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6787,7 +6794,7 @@
         <v>51</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>55</v>
@@ -6881,7 +6888,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>10</v>
@@ -6928,13 +6935,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -6952,7 +6959,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -6969,13 +6976,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H5" s="3">
         <v>2</v>
@@ -6993,7 +7000,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7010,13 +7017,13 @@
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -7034,7 +7041,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7051,13 +7058,13 @@
         <v>4</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H7" s="3">
         <v>2</v>
@@ -7075,7 +7082,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7092,13 +7099,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -7116,7 +7123,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7133,13 +7140,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
@@ -7157,7 +7164,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7174,13 +7181,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -7198,7 +7205,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7215,13 +7222,13 @@
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H11" s="3">
         <v>2</v>
@@ -7239,7 +7246,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7256,13 +7263,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -7280,7 +7287,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7297,13 +7304,13 @@
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H13" s="3">
         <v>2</v>
@@ -7321,7 +7328,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7338,13 +7345,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -7362,7 +7369,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7379,13 +7386,13 @@
         <v>4</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H15" s="3">
         <v>2</v>
@@ -7403,7 +7410,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7420,13 +7427,13 @@
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -7444,7 +7451,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7461,13 +7468,13 @@
         <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H17" s="3">
         <v>2</v>
@@ -7485,7 +7492,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7502,13 +7509,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -7526,7 +7533,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7543,13 +7550,13 @@
         <v>4</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H19" s="3">
         <v>2</v>
@@ -7567,7 +7574,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7584,13 +7591,13 @@
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -7608,7 +7615,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7625,13 +7632,13 @@
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H21" s="3">
         <v>2</v>
@@ -7649,7 +7656,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7666,13 +7673,13 @@
         <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -7690,7 +7697,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7707,13 +7714,13 @@
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H23" s="3">
         <v>2</v>
@@ -7731,7 +7738,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7748,13 +7755,13 @@
         <v>1</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -7772,7 +7779,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7789,13 +7796,13 @@
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H25" s="3">
         <v>2</v>
@@ -7813,7 +7820,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7830,13 +7837,13 @@
         <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
@@ -7854,7 +7861,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7871,13 +7878,13 @@
         <v>4</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H27" s="3">
         <v>2</v>
@@ -7895,7 +7902,7 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7912,13 +7919,13 @@
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
@@ -7936,7 +7943,7 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7953,13 +7960,13 @@
         <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H29" s="3">
         <v>2</v>
@@ -7977,7 +7984,7 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -7994,13 +8001,13 @@
         <v>3</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -8018,7 +8025,7 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8035,13 +8042,13 @@
         <v>4</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H31" s="3">
         <v>2</v>
@@ -8059,7 +8066,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8076,13 +8083,13 @@
         <v>1</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
@@ -8100,7 +8107,7 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8117,13 +8124,13 @@
         <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H33" s="3">
         <v>2</v>
@@ -8141,7 +8148,7 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8158,13 +8165,13 @@
         <v>3</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -8182,7 +8189,7 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8199,13 +8206,13 @@
         <v>4</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H35" s="3">
         <v>2</v>
@@ -8223,7 +8230,7 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8240,13 +8247,13 @@
         <v>1</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
@@ -8264,7 +8271,7 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8281,13 +8288,13 @@
         <v>2</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H37" s="3">
         <v>2</v>
@@ -8305,7 +8312,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8322,13 +8329,13 @@
         <v>3</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H38" s="3">
         <v>1</v>
@@ -8346,7 +8353,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8363,13 +8370,13 @@
         <v>4</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H39" s="3">
         <v>2</v>
@@ -8387,7 +8394,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8404,13 +8411,13 @@
         <v>1</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H40" s="3">
         <v>1</v>
@@ -8428,7 +8435,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8445,13 +8452,13 @@
         <v>2</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H41" s="3">
         <v>2</v>
@@ -8469,7 +8476,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8486,13 +8493,13 @@
         <v>3</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H42" s="3">
         <v>1</v>
@@ -8510,7 +8517,7 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8527,13 +8534,13 @@
         <v>4</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H43" s="3">
         <v>2</v>
@@ -8551,7 +8558,7 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8568,13 +8575,13 @@
         <v>1</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H44" s="3">
         <v>1</v>
@@ -8592,7 +8599,7 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8609,13 +8616,13 @@
         <v>2</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H45" s="3">
         <v>2</v>
@@ -8633,7 +8640,7 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8650,13 +8657,13 @@
         <v>3</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H46" s="3">
         <v>1</v>
@@ -8674,7 +8681,7 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8691,13 +8698,13 @@
         <v>4</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H47" s="3">
         <v>2</v>
@@ -8715,7 +8722,7 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8732,13 +8739,13 @@
         <v>1</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
@@ -8756,7 +8763,7 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8773,13 +8780,13 @@
         <v>2</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H49" s="3">
         <v>2</v>
@@ -8797,7 +8804,7 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8814,13 +8821,13 @@
         <v>3</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H50" s="3">
         <v>1</v>
@@ -8838,7 +8845,7 @@
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8855,13 +8862,13 @@
         <v>4</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H51" s="3">
         <v>2</v>
@@ -8879,7 +8886,7 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8896,13 +8903,13 @@
         <v>1</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H52" s="3">
         <v>1</v>
@@ -8920,7 +8927,7 @@
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8937,13 +8944,13 @@
         <v>2</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H53" s="3">
         <v>2</v>
@@ -8961,7 +8968,7 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -8978,13 +8985,13 @@
         <v>3</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H54" s="3">
         <v>1</v>
@@ -9002,7 +9009,7 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9019,13 +9026,13 @@
         <v>4</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H55" s="3">
         <v>2</v>
@@ -9043,7 +9050,7 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9060,13 +9067,13 @@
         <v>1</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H56" s="3">
         <v>1</v>
@@ -9084,7 +9091,7 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9101,13 +9108,13 @@
         <v>2</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H57" s="3">
         <v>2</v>
@@ -9125,7 +9132,7 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9142,13 +9149,13 @@
         <v>3</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H58" s="3">
         <v>1</v>
@@ -9166,7 +9173,7 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9183,13 +9190,13 @@
         <v>4</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H59" s="3">
         <v>2</v>
@@ -9207,7 +9214,7 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9224,13 +9231,13 @@
         <v>1</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H60" s="3">
         <v>1</v>
@@ -9248,7 +9255,7 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9265,13 +9272,13 @@
         <v>2</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H61" s="3">
         <v>2</v>
@@ -9289,7 +9296,7 @@
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9306,13 +9313,13 @@
         <v>3</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H62" s="3">
         <v>1</v>
@@ -9330,7 +9337,7 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9347,13 +9354,13 @@
         <v>4</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H63" s="3">
         <v>2</v>
@@ -9371,7 +9378,7 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9388,13 +9395,13 @@
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H64" s="3">
         <v>1</v>
@@ -9412,7 +9419,7 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9429,13 +9436,13 @@
         <v>2</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H65" s="3">
         <v>2</v>
@@ -9453,7 +9460,7 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9470,13 +9477,13 @@
         <v>3</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H66" s="3">
         <v>1</v>
@@ -9494,7 +9501,7 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9511,13 +9518,13 @@
         <v>4</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H67" s="3">
         <v>2</v>
@@ -9535,7 +9542,7 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9552,13 +9559,13 @@
         <v>1</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H68" s="3">
         <v>1</v>
@@ -9576,7 +9583,7 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9593,13 +9600,13 @@
         <v>2</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H69" s="3">
         <v>2</v>
@@ -9617,7 +9624,7 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9634,13 +9641,13 @@
         <v>3</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H70" s="3">
         <v>1</v>
@@ -9658,7 +9665,7 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9675,13 +9682,13 @@
         <v>4</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H71" s="3">
         <v>2</v>
@@ -9699,7 +9706,7 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9716,13 +9723,13 @@
         <v>1</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H72" s="3">
         <v>1</v>
@@ -9740,7 +9747,7 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9757,13 +9764,13 @@
         <v>2</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H73" s="3">
         <v>2</v>
@@ -9781,7 +9788,7 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9798,13 +9805,13 @@
         <v>3</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H74" s="3">
         <v>1</v>
@@ -9822,7 +9829,7 @@
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9839,13 +9846,13 @@
         <v>4</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H75" s="3">
         <v>2</v>
@@ -9863,7 +9870,7 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9880,13 +9887,13 @@
         <v>1</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H76" s="3">
         <v>1</v>
@@ -9904,7 +9911,7 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9921,13 +9928,13 @@
         <v>2</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H77" s="3">
         <v>2</v>
@@ -9945,7 +9952,7 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9962,13 +9969,13 @@
         <v>3</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H78" s="3">
         <v>1</v>
@@ -9986,7 +9993,7 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -10003,13 +10010,13 @@
         <v>4</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H79" s="3">
         <v>2</v>
@@ -10027,7 +10034,7 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -10044,13 +10051,13 @@
         <v>1</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H80" s="3">
         <v>1</v>
@@ -10068,7 +10075,7 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -10085,13 +10092,13 @@
         <v>2</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H81" s="3">
         <v>2</v>
@@ -10109,7 +10116,7 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -10126,13 +10133,13 @@
         <v>3</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H82" s="3">
         <v>1</v>
@@ -10150,7 +10157,7 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -10167,13 +10174,13 @@
         <v>4</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H83" s="3">
         <v>2</v>
@@ -10191,7 +10198,7 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/break.玩家等级突破.xlsx
+++ b/Excel/镇魂街/break.玩家等级突破.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A4E27F-4786-4649-B641-23ED72E4759A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -13,7 +12,7 @@
     <sheet name="地狱道任务" sheetId="28" r:id="rId3"/>
     <sheet name="地狱道任务-tmp" sheetId="31" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="L3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="350">
   <si>
     <t>sheet名</t>
   </si>
@@ -1194,77 +1193,94 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1张守护灵升到3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有3张守护灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵-cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>进行3次守护灵抽奖</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>关卡-id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-chamin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史最高分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-chadup</t>
+  </si>
+  <si>
+    <t>寄灵人洗练-max</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵突破-cnt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取第一章第2个星星宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换2次技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能获取-buyTimes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行3次守护灵抽奖</t>
+  </si>
+  <si>
+    <t>领取第一章第2个星星宝箱</t>
+  </si>
+  <si>
+    <t>兑换2次技能</t>
+  </si>
+  <si>
+    <t>星星宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>01#102</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>201#202</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>301#302#303</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1张守护灵升到4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>守护灵升级-cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡-id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界BOSS-chamin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史最高分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界BOSS-chadup</t>
-  </si>
-  <si>
-    <t>寄灵人洗练-max</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵突破-cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第一章第4关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有3张守护灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>把一个守护灵升到3级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取第一章第2个星星宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>星星宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽卡次数达到3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1530,20 +1546,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 2" xfId="10"/>
+    <cellStyle name="常规 3" xfId="13"/>
+    <cellStyle name="超链接 2" xfId="11"/>
+    <cellStyle name="大标题" xfId="3"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="文本" xfId="9"/>
+    <cellStyle name="无效" xfId="6"/>
+    <cellStyle name="因变Grid" xfId="7"/>
+    <cellStyle name="英文标题" xfId="12"/>
+    <cellStyle name="中文标题" xfId="2"/>
+    <cellStyle name="纵向标题" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1820,7 +1836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1961,11 +1977,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1986,7 +2002,7 @@
     <col min="16" max="16" width="19.5" customWidth="1"/>
     <col min="17" max="17" width="18.875" customWidth="1"/>
     <col min="18" max="18" width="17.5" customWidth="1"/>
-    <col min="19" max="19" width="14.875" customWidth="1"/>
+    <col min="19" max="19" width="20.875" customWidth="1"/>
     <col min="20" max="20" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2191,7 +2207,7 @@
         <v>57</v>
       </c>
       <c r="I4" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="3"/>
@@ -2204,7 +2220,7 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2254,8 +2270,12 @@
         <v>1</v>
       </c>
       <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+      <c r="R5" s="3">
+        <v>1</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -2307,8 +2327,12 @@
       <c r="Q6" s="3">
         <v>40</v>
       </c>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
+      <c r="R6" s="3">
+        <v>1</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -2360,8 +2384,12 @@
         <v>3</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
+      <c r="R7" s="3">
+        <v>1</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -3148,11 +3176,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:G8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3329,10 +3357,10 @@
         <v>225</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -3341,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>19</v>
@@ -3352,7 +3380,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="4" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3372,7 +3400,7 @@
         <v>222</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>317</v>
@@ -3395,7 +3423,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -3415,10 +3443,10 @@
         <v>223</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -3458,16 +3486,16 @@
         <v>224</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
       </c>
       <c r="I7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="4" t="s">
@@ -3545,7 +3573,7 @@
         <v>146</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -3588,7 +3616,7 @@
         <v>147</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -3717,7 +3745,7 @@
         <v>150</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -3889,7 +3917,7 @@
         <v>154</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -3932,7 +3960,7 @@
         <v>155</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -4061,7 +4089,7 @@
         <v>158</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -4233,7 +4261,7 @@
         <v>162</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
@@ -4405,7 +4433,7 @@
         <v>166</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
@@ -4448,7 +4476,7 @@
         <v>167</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -4577,7 +4605,7 @@
         <v>170</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
@@ -4749,7 +4777,7 @@
         <v>174</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
@@ -4921,7 +4949,7 @@
         <v>178</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H41" s="3">
         <v>1</v>
@@ -5093,7 +5121,7 @@
         <v>182</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
@@ -5265,7 +5293,7 @@
         <v>186</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H49" s="3">
         <v>1</v>
@@ -5437,7 +5465,7 @@
         <v>190</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H53" s="3">
         <v>1</v>
@@ -5609,7 +5637,7 @@
         <v>194</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H57" s="3">
         <v>1</v>
@@ -5695,7 +5723,7 @@
         <v>196</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H59" s="3">
         <v>1</v>
@@ -5781,7 +5809,7 @@
         <v>198</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H61" s="3">
         <v>1</v>
@@ -5867,7 +5895,7 @@
         <v>200</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H63" s="3">
         <v>1</v>
@@ -5953,7 +5981,7 @@
         <v>202</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H65" s="3">
         <v>1</v>
@@ -6039,7 +6067,7 @@
         <v>204</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H67" s="3">
         <v>1</v>
@@ -6125,7 +6153,7 @@
         <v>206</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H69" s="3">
         <v>1</v>
@@ -6211,7 +6239,7 @@
         <v>208</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H71" s="3">
         <v>1</v>
@@ -6297,7 +6325,7 @@
         <v>210</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H73" s="3">
         <v>1</v>
@@ -6383,7 +6411,7 @@
         <v>212</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H75" s="3">
         <v>1</v>
@@ -6469,7 +6497,7 @@
         <v>214</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H77" s="3">
         <v>1</v>
@@ -6555,7 +6583,7 @@
         <v>216</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H79" s="3">
         <v>1</v>
@@ -6641,7 +6669,7 @@
         <v>218</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H81" s="3">
         <v>1</v>
@@ -6727,7 +6755,7 @@
         <v>220</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H83" s="3">
         <v>1</v>
@@ -6753,11 +6781,12 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Excel/镇魂街/break.玩家等级突破.xlsx
+++ b/Excel/镇魂街/break.玩家等级突破.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="309">
   <si>
     <t>sheet名</t>
   </si>
@@ -197,18 +197,6 @@
   <si>
     <t>计数类型
 1终身，2开起时计数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jump.To</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jump.Type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1101,6 +1089,105 @@
   </si>
   <si>
     <t>3个专属武器强化到25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>派遣挂机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump_id:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵升级页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump.To</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump.Param</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>派遣挂机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>派遣挂机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶灵入侵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场对阵页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵武器强化页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场排行页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵武器解封页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人天赋页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵武器解封页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵武器解封页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡-cha</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵列表</t>
+  </si>
+  <si>
+    <t>芦花古楼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-chamin</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1730,11 +1817,11 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1743,18 +1830,18 @@
     </row>
     <row r="3" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -1781,11 +1868,11 @@
     </row>
     <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>23</v>
@@ -1821,7 +1908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
@@ -1850,96 +1937,96 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="S1" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
         <v>59</v>
-      </c>
-      <c r="G2" t="s">
-        <v>62</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K2" t="s">
         <v>28</v>
@@ -1948,58 +2035,58 @@
         <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="R2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="T2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>29</v>
@@ -2008,28 +2095,28 @@
         <v>30</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -2040,22 +2127,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I4" s="4">
         <v>1</v>
@@ -2082,22 +2169,22 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I5" s="4">
         <v>5</v>
@@ -2106,7 +2193,7 @@
         <v>30</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L5" s="3">
         <v>2</v>
@@ -2131,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -2142,22 +2229,22 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I6" s="4">
         <v>15</v>
@@ -2166,7 +2253,7 @@
         <v>45</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L6" s="3">
         <v>100</v>
@@ -2191,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -2202,22 +2289,22 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I7" s="4">
         <v>30</v>
@@ -2226,7 +2313,7 @@
         <v>60</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L7" s="3">
         <v>100</v>
@@ -2251,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -2262,22 +2349,22 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I8" s="4">
         <v>40</v>
@@ -2286,7 +2373,7 @@
         <v>80</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -2318,22 +2405,22 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I9" s="4">
         <v>50</v>
@@ -2342,7 +2429,7 @@
         <v>80</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -2368,22 +2455,22 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I10" s="4">
         <v>60</v>
@@ -2392,7 +2479,7 @@
         <v>80</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
@@ -2418,22 +2505,22 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I11" s="4">
         <v>70</v>
@@ -2442,7 +2529,7 @@
         <v>90</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L11" s="3">
         <v>100</v>
@@ -2468,22 +2555,22 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I12" s="4">
         <v>80</v>
@@ -2492,7 +2579,7 @@
         <v>100</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
@@ -2520,22 +2607,22 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F13" s="3">
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I13" s="4">
         <v>85</v>
@@ -2544,7 +2631,7 @@
         <v>100</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L13" s="3">
         <v>100</v>
@@ -2566,22 +2653,22 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F14" s="3">
         <v>3</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I14" s="4">
         <v>90</v>
@@ -2590,7 +2677,7 @@
         <v>100</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L14" s="3">
         <v>100</v>
@@ -2612,22 +2699,22 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I15" s="4">
         <v>95</v>
@@ -2636,7 +2723,7 @@
         <v>100</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -2658,22 +2745,22 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I16" s="4">
         <v>100</v>
@@ -2682,7 +2769,7 @@
         <v>120</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L16" s="3">
         <v>100</v>
@@ -2710,22 +2797,22 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I17" s="4">
         <v>105</v>
@@ -2734,7 +2821,7 @@
         <v>120</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
@@ -2756,22 +2843,22 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F18" s="3">
         <v>3</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I18" s="4">
         <v>110</v>
@@ -2780,7 +2867,7 @@
         <v>120</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L18" s="3">
         <v>100</v>
@@ -2802,22 +2889,22 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I19" s="4">
         <v>115</v>
@@ -2826,7 +2913,7 @@
         <v>120</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L19" s="3">
         <v>100</v>
@@ -2848,22 +2935,22 @@
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I20" s="4">
         <v>120</v>
@@ -2872,7 +2959,7 @@
         <v>140</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
@@ -2900,22 +2987,22 @@
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I21" s="4">
         <v>125</v>
@@ -2924,7 +3011,7 @@
         <v>140</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L21" s="3">
         <v>100</v>
@@ -2946,22 +3033,22 @@
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F22" s="3">
         <v>3</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I22" s="4">
         <v>130</v>
@@ -2970,7 +3057,7 @@
         <v>140</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -2992,22 +3079,22 @@
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I23" s="4">
         <v>135</v>
@@ -3016,7 +3103,7 @@
         <v>140</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L23" s="3">
         <v>100</v>
@@ -3038,22 +3125,22 @@
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I24" s="4">
         <v>140</v>
@@ -3062,7 +3149,7 @@
         <v>150</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
@@ -3093,8 +3180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3108,7 +3195,7 @@
     <col min="10" max="10" width="29.75" customWidth="1"/>
     <col min="11" max="11" width="14.375" customWidth="1"/>
     <col min="12" max="12" width="19.375" customWidth="1"/>
-    <col min="13" max="13" width="17.75" customWidth="1"/>
+    <col min="13" max="13" width="21.375" customWidth="1"/>
     <col min="14" max="14" width="15.375" customWidth="1"/>
     <col min="16" max="16" width="25.375" customWidth="1"/>
     <col min="17" max="17" width="20.375" customWidth="1"/>
@@ -3119,43 +3206,43 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>31</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>34</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -3163,13 +3250,13 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -3196,10 +3283,10 @@
         <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="N2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.2">
@@ -3216,7 +3303,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>10</v>
@@ -3240,10 +3327,10 @@
         <v>30</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>37</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3260,13 +3347,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -3281,10 +3368,14 @@
       <c r="L4" s="3">
         <v>1000</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="M4" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
       <c r="P4" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3301,13 +3392,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -3324,10 +3415,12 @@
       <c r="L5" s="3">
         <v>1000</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="M5" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="N5" s="4"/>
       <c r="P5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3344,13 +3437,13 @@
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -3367,10 +3460,14 @@
       <c r="L6" s="3">
         <v>1000</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="M6" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="N6" s="3">
+        <v>2</v>
+      </c>
       <c r="P6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3387,13 +3484,13 @@
         <v>4</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -3403,15 +3500,17 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L7" s="3">
         <v>10</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="P7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3428,13 +3527,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -3451,10 +3550,14 @@
       <c r="L8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="M8" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2</v>
+      </c>
       <c r="P8" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3471,13 +3574,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -3492,13 +3595,15 @@
       <c r="L9" s="3">
         <v>1000</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="4" t="s">
+        <v>286</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="P9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3515,13 +3620,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -3538,13 +3643,17 @@
       <c r="L10" s="3">
         <v>1000</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="M10" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
       <c r="P10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3561,13 +3670,13 @@
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -3584,13 +3693,17 @@
       <c r="L11" s="3">
         <v>1000</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="M11" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
       <c r="P11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Q11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3607,13 +3720,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -3630,10 +3743,14 @@
       <c r="L12" s="3">
         <v>1000</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="M12" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N12" s="3">
+        <v>3</v>
+      </c>
       <c r="P12" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3650,13 +3767,13 @@
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -3673,13 +3790,17 @@
       <c r="L13" s="3">
         <v>1000</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="M13" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="N13" s="3">
+        <v>2</v>
+      </c>
       <c r="P13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3696,13 +3817,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>237</v>
+        <v>142</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>308</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -3711,7 +3832,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="3">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>19</v>
@@ -3719,13 +3840,17 @@
       <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="M14" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="N14" s="3">
+        <v>501</v>
+      </c>
       <c r="P14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3742,13 +3867,13 @@
         <v>4</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -3763,13 +3888,15 @@
       <c r="L15" s="3">
         <v>1000</v>
       </c>
-      <c r="M15" s="3"/>
+      <c r="M15" s="4" t="s">
+        <v>296</v>
+      </c>
       <c r="N15" s="3"/>
       <c r="P15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3786,13 +3913,13 @@
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -3809,10 +3936,14 @@
       <c r="L16" s="3">
         <v>1000</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="M16" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="N16" s="3">
+        <v>4</v>
+      </c>
       <c r="P16" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3829,13 +3960,13 @@
         <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -3850,13 +3981,17 @@
       <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="M17" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1102004</v>
+      </c>
       <c r="P17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q17" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3873,13 +4008,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -3894,13 +4029,17 @@
       <c r="L18" s="3">
         <v>1000</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="M18" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="N18" s="3">
+        <v>2</v>
+      </c>
       <c r="P18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3917,13 +4056,13 @@
         <v>4</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -3940,13 +4079,17 @@
       <c r="L19" s="3">
         <v>1000</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="M19" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="N19" s="3">
+        <v>2</v>
+      </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3963,13 +4106,13 @@
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -3986,10 +4129,14 @@
       <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="M20" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N20" s="3">
+        <v>5</v>
+      </c>
       <c r="P20" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4006,13 +4153,13 @@
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>237</v>
+        <v>146</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -4021,7 +4168,7 @@
         <v>2</v>
       </c>
       <c r="J21" s="3">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>19</v>
@@ -4029,13 +4176,17 @@
       <c r="L21" s="3">
         <v>1000</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="M21" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="N21" s="3">
+        <v>503</v>
+      </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4052,13 +4203,13 @@
         <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -4073,13 +4224,15 @@
       <c r="L22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3"/>
+      <c r="M22" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="N22" s="3"/>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4096,13 +4249,13 @@
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -4117,13 +4270,17 @@
       <c r="L23" s="3">
         <v>1000</v>
       </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="M23" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1102004</v>
+      </c>
       <c r="P23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4140,13 +4297,13 @@
         <v>1</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -4163,10 +4320,14 @@
       <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="M24" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N24" s="3">
+        <v>6</v>
+      </c>
       <c r="P24" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4183,13 +4344,13 @@
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>237</v>
+        <v>150</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
@@ -4206,13 +4367,17 @@
       <c r="L25" s="3">
         <v>1000</v>
       </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="M25" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="N25" s="3">
+        <v>504</v>
+      </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4229,13 +4394,13 @@
         <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
@@ -4252,13 +4417,17 @@
       <c r="L26" s="3">
         <v>1000</v>
       </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="M26" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
       <c r="P26" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q26" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4275,13 +4444,13 @@
         <v>4</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -4298,13 +4467,17 @@
       <c r="L27" s="3">
         <v>1000</v>
       </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="M27" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1102004</v>
+      </c>
       <c r="P27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4321,13 +4494,13 @@
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
@@ -4344,10 +4517,14 @@
       <c r="L28" s="3">
         <v>1000</v>
       </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="M28" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N28" s="3">
+        <v>7</v>
+      </c>
       <c r="P28" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4364,13 +4541,13 @@
         <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
@@ -4387,13 +4564,17 @@
       <c r="L29" s="3">
         <v>1000</v>
       </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="M29" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="N29" s="3">
+        <v>506</v>
+      </c>
       <c r="P29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q29" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4410,13 +4591,13 @@
         <v>3</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -4431,13 +4612,17 @@
       <c r="L30" s="3">
         <v>1000</v>
       </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="M30" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="N30" s="3">
+        <v>1102004</v>
+      </c>
       <c r="P30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4454,13 +4639,13 @@
         <v>4</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H31" s="3">
         <v>1</v>
@@ -4475,13 +4660,17 @@
       <c r="L31" s="3">
         <v>1000</v>
       </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="M31" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="N31" s="3">
+        <v>2</v>
+      </c>
       <c r="P31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4498,13 +4687,13 @@
         <v>1</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
@@ -4521,10 +4710,14 @@
       <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="M32" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N32" s="3">
+        <v>8</v>
+      </c>
       <c r="P32" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4541,13 +4734,13 @@
         <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>237</v>
+        <v>158</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
@@ -4564,13 +4757,17 @@
       <c r="L33" s="3">
         <v>1000</v>
       </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="M33" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="N33" s="3">
+        <v>507</v>
+      </c>
       <c r="P33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q33" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4587,13 +4784,13 @@
         <v>3</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -4610,13 +4807,15 @@
       <c r="L34" s="3">
         <v>1000</v>
       </c>
-      <c r="M34" s="3"/>
+      <c r="M34" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="N34" s="3"/>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4633,13 +4832,13 @@
         <v>4</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
@@ -4656,13 +4855,17 @@
       <c r="L35" s="3">
         <v>1000</v>
       </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="M35" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="N35" s="3">
+        <v>1102004</v>
+      </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4679,13 +4882,13 @@
         <v>1</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
@@ -4702,10 +4905,14 @@
       <c r="L36" s="3">
         <v>1000</v>
       </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
+      <c r="M36" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N36" s="3">
+        <v>9</v>
+      </c>
       <c r="P36" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4722,13 +4929,13 @@
         <v>2</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>237</v>
+        <v>162</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
@@ -4745,13 +4952,17 @@
       <c r="L37" s="3">
         <v>1000</v>
       </c>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
+      <c r="M37" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="N37" s="3">
+        <v>508</v>
+      </c>
       <c r="P37" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q37" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4768,13 +4979,13 @@
         <v>3</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H38" s="3">
         <v>1</v>
@@ -4791,13 +5002,15 @@
       <c r="L38" s="3">
         <v>1000</v>
       </c>
-      <c r="M38" s="3"/>
+      <c r="M38" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="N38" s="3"/>
       <c r="P38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4814,13 +5027,13 @@
         <v>4</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H39" s="3">
         <v>1</v>
@@ -4837,13 +5050,17 @@
       <c r="L39" s="3">
         <v>1000</v>
       </c>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
+      <c r="M39" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="N39" s="3">
+        <v>1102004</v>
+      </c>
       <c r="P39" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q39" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4860,13 +5077,13 @@
         <v>1</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H40" s="3">
         <v>1</v>
@@ -4883,10 +5100,14 @@
       <c r="L40" s="3">
         <v>1000</v>
       </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
+      <c r="M40" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N40" s="3">
+        <v>10</v>
+      </c>
       <c r="P40" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4903,13 +5124,13 @@
         <v>2</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>237</v>
+        <v>166</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="H41" s="3">
         <v>1</v>
@@ -4926,13 +5147,17 @@
       <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
+      <c r="M41" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="N41" s="3">
+        <v>509</v>
+      </c>
       <c r="P41" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q41" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4949,13 +5174,13 @@
         <v>3</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H42" s="3">
         <v>1</v>
@@ -4972,13 +5197,17 @@
       <c r="L42" s="3">
         <v>1000</v>
       </c>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
+      <c r="M42" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="N42" s="3">
+        <v>3</v>
+      </c>
       <c r="P42" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q42" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4995,13 +5224,13 @@
         <v>4</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H43" s="3">
         <v>1</v>
@@ -5018,13 +5247,17 @@
       <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
+      <c r="M43" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1102004</v>
+      </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5041,13 +5274,13 @@
         <v>1</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H44" s="3">
         <v>1</v>
@@ -5064,10 +5297,14 @@
       <c r="L44" s="3">
         <v>1000</v>
       </c>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
+      <c r="M44" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N44" s="3">
+        <v>11</v>
+      </c>
       <c r="P44" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5084,13 +5321,13 @@
         <v>2</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>237</v>
+        <v>170</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
@@ -5107,13 +5344,17 @@
       <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
+      <c r="M45" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="N45" s="3">
+        <v>510</v>
+      </c>
       <c r="P45" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q45" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5130,13 +5371,13 @@
         <v>3</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H46" s="3">
         <v>1</v>
@@ -5153,13 +5394,15 @@
       <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3"/>
+      <c r="M46" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="N46" s="3"/>
       <c r="P46" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q46" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5176,13 +5419,13 @@
         <v>4</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H47" s="3">
         <v>1</v>
@@ -5199,13 +5442,17 @@
       <c r="L47" s="3">
         <v>1000</v>
       </c>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
+      <c r="M47" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="N47" s="3">
+        <v>2</v>
+      </c>
       <c r="P47" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q47" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5222,13 +5469,13 @@
         <v>1</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
@@ -5245,10 +5492,14 @@
       <c r="L48" s="3">
         <v>1000</v>
       </c>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
+      <c r="M48" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N48" s="3">
+        <v>12</v>
+      </c>
       <c r="P48" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5265,13 +5516,13 @@
         <v>2</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>237</v>
+        <v>174</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="H49" s="3">
         <v>1</v>
@@ -5288,13 +5539,17 @@
       <c r="L49" s="3">
         <v>1000</v>
       </c>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
+      <c r="M49" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="N49" s="3">
+        <v>511</v>
+      </c>
       <c r="P49" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q49" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5311,13 +5566,13 @@
         <v>3</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H50" s="3">
         <v>1</v>
@@ -5334,13 +5589,17 @@
       <c r="L50" s="3">
         <v>1000</v>
       </c>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
+      <c r="M50" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="N50" s="3">
+        <v>4</v>
+      </c>
       <c r="P50" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q50" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5357,13 +5616,13 @@
         <v>4</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H51" s="3">
         <v>1</v>
@@ -5380,13 +5639,17 @@
       <c r="L51" s="3">
         <v>1000</v>
       </c>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
+      <c r="M51" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="N51" s="3">
+        <v>1</v>
+      </c>
       <c r="P51" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q51" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5403,13 +5666,13 @@
         <v>1</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H52" s="3">
         <v>1</v>
@@ -5426,10 +5689,14 @@
       <c r="L52" s="3">
         <v>1000</v>
       </c>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
+      <c r="M52" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N52" s="3">
+        <v>13</v>
+      </c>
       <c r="P52" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5446,13 +5713,13 @@
         <v>2</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>237</v>
+        <v>178</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="H53" s="3">
         <v>1</v>
@@ -5469,13 +5736,17 @@
       <c r="L53" s="3">
         <v>1000</v>
       </c>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
+      <c r="M53" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="N53" s="3">
+        <v>512</v>
+      </c>
       <c r="P53" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q53" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5492,13 +5763,13 @@
         <v>3</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H54" s="3">
         <v>1</v>
@@ -5515,13 +5786,17 @@
       <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
+      <c r="M54" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="N54" s="3">
+        <v>4</v>
+      </c>
       <c r="P54" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q54" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5538,13 +5813,13 @@
         <v>4</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
@@ -5561,13 +5836,17 @@
       <c r="L55" s="3">
         <v>1000</v>
       </c>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
+      <c r="M55" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="N55" s="3">
+        <v>1102005</v>
+      </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q55" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5584,13 +5863,13 @@
         <v>1</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H56" s="3">
         <v>1</v>
@@ -5607,10 +5886,14 @@
       <c r="L56" s="3">
         <v>1000</v>
       </c>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
+      <c r="M56" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N56" s="3">
+        <v>14</v>
+      </c>
       <c r="P56" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5627,13 +5910,13 @@
         <v>2</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>237</v>
+        <v>182</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="H57" s="3">
         <v>1</v>
@@ -5650,13 +5933,17 @@
       <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
+      <c r="M57" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="N57" s="3">
+        <v>513</v>
+      </c>
       <c r="P57" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q57" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5673,13 +5960,13 @@
         <v>3</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H58" s="3">
         <v>1</v>
@@ -5696,13 +5983,17 @@
       <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
+      <c r="M58" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="N58" s="3">
+        <v>4</v>
+      </c>
       <c r="P58" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q58" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5719,13 +6010,13 @@
         <v>4</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H59" s="3">
         <v>1</v>
@@ -5742,13 +6033,15 @@
       <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3"/>
+      <c r="M59" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="N59" s="3"/>
       <c r="P59" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q59" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5765,13 +6058,13 @@
         <v>1</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H60" s="3">
         <v>1</v>
@@ -5788,10 +6081,14 @@
       <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
+      <c r="M60" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N60" s="3">
+        <v>15</v>
+      </c>
       <c r="P60" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5808,13 +6105,13 @@
         <v>2</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H61" s="3">
         <v>1</v>
@@ -5831,13 +6128,17 @@
       <c r="L61" s="3">
         <v>1000</v>
       </c>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
+      <c r="M61" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="N61" s="3">
+        <v>513</v>
+      </c>
       <c r="P61" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q61" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5854,13 +6155,13 @@
         <v>3</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H62" s="3">
         <v>1</v>
@@ -5877,13 +6178,17 @@
       <c r="L62" s="3">
         <v>1000</v>
       </c>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
+      <c r="M62" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="N62" s="3">
+        <v>4</v>
+      </c>
       <c r="P62" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q62" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5900,13 +6205,13 @@
         <v>4</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H63" s="3">
         <v>1</v>
@@ -5923,13 +6228,15 @@
       <c r="L63" s="3">
         <v>1000</v>
       </c>
-      <c r="M63" s="3"/>
+      <c r="M63" s="3" t="s">
+        <v>306</v>
+      </c>
       <c r="N63" s="3"/>
       <c r="P63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5946,13 +6253,13 @@
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H64" s="3">
         <v>1</v>
@@ -5969,10 +6276,14 @@
       <c r="L64" s="3">
         <v>1000</v>
       </c>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
+      <c r="M64" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N64" s="3">
+        <v>16</v>
+      </c>
       <c r="P64" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5989,13 +6300,13 @@
         <v>2</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>237</v>
+        <v>190</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="H65" s="3">
         <v>1</v>
@@ -6012,13 +6323,17 @@
       <c r="L65" s="3">
         <v>1000</v>
       </c>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
+      <c r="M65" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="N65" s="3">
+        <v>514</v>
+      </c>
       <c r="P65" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q65" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6035,13 +6350,13 @@
         <v>3</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H66" s="3">
         <v>1</v>
@@ -6058,13 +6373,17 @@
       <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
+      <c r="M66" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="N66" s="3">
+        <v>4</v>
+      </c>
       <c r="P66" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q66" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6081,13 +6400,13 @@
         <v>4</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H67" s="3">
         <v>1</v>
@@ -6104,13 +6423,15 @@
       <c r="L67" s="3">
         <v>1000</v>
       </c>
-      <c r="M67" s="3"/>
+      <c r="M67" s="3" t="s">
+        <v>306</v>
+      </c>
       <c r="N67" s="3"/>
       <c r="P67" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q67" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6127,13 +6448,13 @@
         <v>1</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H68" s="3">
         <v>1</v>
@@ -6150,10 +6471,14 @@
       <c r="L68" s="3">
         <v>1000</v>
       </c>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
+      <c r="M68" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N68" s="3">
+        <v>17</v>
+      </c>
       <c r="P68" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6170,13 +6495,13 @@
         <v>2</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H69" s="3">
         <v>1</v>
@@ -6193,13 +6518,17 @@
       <c r="L69" s="3">
         <v>1000</v>
       </c>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
+      <c r="M69" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="N69" s="3">
+        <v>514</v>
+      </c>
       <c r="P69" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q69" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6216,13 +6545,13 @@
         <v>3</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H70" s="3">
         <v>1</v>
@@ -6239,13 +6568,17 @@
       <c r="L70" s="3">
         <v>1000</v>
       </c>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
+      <c r="M70" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="N70" s="3">
+        <v>4</v>
+      </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q70" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6262,13 +6595,13 @@
         <v>4</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H71" s="3">
         <v>1</v>
@@ -6285,13 +6618,15 @@
       <c r="L71" s="3">
         <v>1000</v>
       </c>
-      <c r="M71" s="3"/>
+      <c r="M71" s="3" t="s">
+        <v>306</v>
+      </c>
       <c r="N71" s="3"/>
       <c r="P71" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q71" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6308,13 +6643,13 @@
         <v>1</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H72" s="3">
         <v>1</v>
@@ -6331,10 +6666,14 @@
       <c r="L72" s="3">
         <v>1000</v>
       </c>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
+      <c r="M72" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N72" s="3">
+        <v>18</v>
+      </c>
       <c r="P72" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6351,13 +6690,13 @@
         <v>2</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>237</v>
+        <v>198</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="H73" s="3">
         <v>1</v>
@@ -6374,13 +6713,17 @@
       <c r="L73" s="3">
         <v>1000</v>
       </c>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
+      <c r="M73" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="N73" s="3">
+        <v>515</v>
+      </c>
       <c r="P73" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q73" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6397,13 +6740,13 @@
         <v>3</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H74" s="3">
         <v>1</v>
@@ -6420,13 +6763,17 @@
       <c r="L74" s="3">
         <v>1000</v>
       </c>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
+      <c r="M74" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="N74" s="3">
+        <v>4</v>
+      </c>
       <c r="P74" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q74" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6443,13 +6790,13 @@
         <v>4</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H75" s="3">
         <v>1</v>
@@ -6466,13 +6813,15 @@
       <c r="L75" s="3">
         <v>1000</v>
       </c>
-      <c r="M75" s="3"/>
+      <c r="M75" s="3" t="s">
+        <v>306</v>
+      </c>
       <c r="N75" s="3"/>
       <c r="P75" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q75" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6489,13 +6838,13 @@
         <v>1</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H76" s="3">
         <v>1</v>
@@ -6512,10 +6861,14 @@
       <c r="L76" s="3">
         <v>1000</v>
       </c>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
+      <c r="M76" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N76" s="3">
+        <v>19</v>
+      </c>
       <c r="P76" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6532,13 +6885,13 @@
         <v>2</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>237</v>
+        <v>202</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="H77" s="3">
         <v>1</v>
@@ -6555,13 +6908,17 @@
       <c r="L77" s="3">
         <v>1000</v>
       </c>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
+      <c r="M77" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="N77" s="3">
+        <v>516</v>
+      </c>
       <c r="P77" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q77" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6578,13 +6935,13 @@
         <v>3</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H78" s="3">
         <v>1</v>
@@ -6601,13 +6958,17 @@
       <c r="L78" s="3">
         <v>1000</v>
       </c>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
+      <c r="M78" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="N78" s="3">
+        <v>4</v>
+      </c>
       <c r="P78" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q78" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6624,13 +6985,13 @@
         <v>4</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H79" s="3">
         <v>1</v>
@@ -6647,13 +7008,15 @@
       <c r="L79" s="3">
         <v>1000</v>
       </c>
-      <c r="M79" s="3"/>
+      <c r="M79" s="3" t="s">
+        <v>306</v>
+      </c>
       <c r="N79" s="3"/>
       <c r="P79" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q79" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6670,13 +7033,13 @@
         <v>1</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H80" s="3">
         <v>1</v>
@@ -6693,10 +7056,14 @@
       <c r="L80" s="3">
         <v>1000</v>
       </c>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
+      <c r="M80" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N80" s="3">
+        <v>20</v>
+      </c>
       <c r="P80" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6713,13 +7080,13 @@
         <v>2</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>237</v>
+        <v>206</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="H81" s="3">
         <v>1</v>
@@ -6736,13 +7103,17 @@
       <c r="L81" s="3">
         <v>1000</v>
       </c>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
+      <c r="M81" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="N81" s="3">
+        <v>516</v>
+      </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q81" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6759,13 +7130,13 @@
         <v>3</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H82" s="3">
         <v>1</v>
@@ -6782,13 +7153,17 @@
       <c r="L82" s="3">
         <v>1000</v>
       </c>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
+      <c r="M82" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="N82" s="3">
+        <v>4</v>
+      </c>
       <c r="P82" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q82" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6805,13 +7180,13 @@
         <v>4</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H83" s="3">
         <v>1</v>
@@ -6828,13 +7203,15 @@
       <c r="L83" s="3">
         <v>1000</v>
       </c>
-      <c r="M83" s="3"/>
+      <c r="M83" s="3" t="s">
+        <v>306</v>
+      </c>
       <c r="N83" s="3"/>
       <c r="P83" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q83" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/break.玩家等级突破.xlsx
+++ b/Excel/镇魂街/break.玩家等级突破.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -12,16 +17,6 @@
     <sheet name="地狱道任务" sheetId="28" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -37,7 +32,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -47,7 +41,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -64,571 +57,554 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="269">
   <si>
     <t>sheet名</t>
   </si>
   <si>
     <t>导出客户端文件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>导出服务端文件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
   </si>
   <si>
+    <t>屏蔽字段</t>
+  </si>
+  <si>
+    <t>表注释</t>
+  </si>
+  <si>
     <t>是否导出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏蔽字段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>表注释</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>常驻内存</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱道</t>
+  </si>
+  <si>
+    <t>master_hell.lua</t>
+  </si>
+  <si>
+    <t>BkLv</t>
+  </si>
+  <si>
+    <t>玩家突破宝箱</t>
+  </si>
+  <si>
+    <t>地狱道任务</t>
+  </si>
+  <si>
+    <t>BkLv,HelpCol,Id</t>
+  </si>
+  <si>
+    <t>玩家地狱道任务</t>
+  </si>
+  <si>
+    <t>master_hell.txt</t>
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>master_hell_task.txt</t>
+  </si>
+  <si>
+    <t>Pic[1]</t>
+  </si>
+  <si>
+    <t>Pic[2]</t>
+  </si>
+  <si>
+    <t>Pic[3]</t>
+  </si>
+  <si>
+    <t>SubLv</t>
+  </si>
+  <si>
+    <t>#note</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>BreakLv</t>
+  </si>
+  <si>
+    <t>LvLimit</t>
+  </si>
+  <si>
+    <t>Reward[1].Id</t>
+  </si>
+  <si>
+    <t>Reward[1].Num</t>
+  </si>
+  <si>
+    <t>Unlock[1].Type</t>
+  </si>
+  <si>
+    <t>Unlock[1].Param[1]</t>
+  </si>
+  <si>
+    <t>Unlock[1].Param[2]</t>
+  </si>
+  <si>
+    <t>Unlock[2].Type</t>
+  </si>
+  <si>
+    <t>Unlock[2].Param[1]</t>
+  </si>
+  <si>
+    <t>Unlock[2].Param[2]</t>
+  </si>
+  <si>
+    <t>UnlockProp</t>
+  </si>
+  <si>
+    <t>UnlockPropValue</t>
+  </si>
+  <si>
+    <t>UnlockType</t>
+  </si>
+  <si>
+    <t>UnlockParam</t>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+  </si>
+  <si>
+    <t>cstring:&lt;</t>
+  </si>
+  <si>
+    <t>int:</t>
+  </si>
+  <si>
+    <t>item_id:e&lt;&gt;</t>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+  </si>
+  <si>
+    <t>int:e&lt;</t>
+  </si>
+  <si>
+    <t>int:e&gt;</t>
+  </si>
+  <si>
+    <t>int:ae&gt;</t>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破等级</t>
+  </si>
+  <si>
+    <t>名称图片</t>
+  </si>
+  <si>
+    <t>底板图片</t>
+  </si>
+  <si>
+    <t>图标图片</t>
+  </si>
+  <si>
+    <t>等级</t>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级限制</t>
+  </si>
+  <si>
+    <t>奖励道具1ID</t>
+  </si>
+  <si>
+    <t>奖励道具1数量</t>
+  </si>
+  <si>
+    <t>解锁ID1
+1神器
+2解锁
+3属性</t>
+  </si>
+  <si>
+    <t>解锁ID1</t>
+  </si>
+  <si>
+    <t>解锁参数1</t>
+  </si>
+  <si>
+    <t>解锁Type2</t>
+  </si>
+  <si>
+    <t>解锁ID2</t>
+  </si>
+  <si>
+    <t>解锁参数2</t>
+  </si>
+  <si>
+    <t>增加属性类型</t>
+  </si>
+  <si>
+    <t>增加属性值</t>
+  </si>
+  <si>
+    <t>解锁类型
+1，神器</t>
+  </si>
+  <si>
+    <t>解锁神器</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_073</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_090</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_064</t>
+  </si>
+  <si>
+    <t>等活</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_074</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_065</t>
+  </si>
+  <si>
+    <t>黑绳</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>201#202</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_075</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_066</t>
+  </si>
+  <si>
+    <t>众合</t>
+  </si>
+  <si>
+    <t>301#302#303</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_076</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_091</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_067</t>
+  </si>
+  <si>
+    <t>叫唤</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_077</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_092</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_068</t>
+  </si>
+  <si>
+    <t>大叫唤</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_078</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_069</t>
+  </si>
+  <si>
+    <t>焦热</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_079</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_088</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_070</t>
+  </si>
+  <si>
+    <t>大焦热</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_080</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_087</t>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_071</t>
+  </si>
+  <si>
+    <t>无间</t>
+  </si>
+  <si>
+    <t>HelpCol</t>
+  </si>
+  <si>
+    <t>TaskLoc</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>CountType</t>
+  </si>
+  <si>
+    <t>Param[1]</t>
+  </si>
+  <si>
+    <t>Param[2]</t>
+  </si>
+  <si>
+    <t>Jump.To</t>
+  </si>
+  <si>
+    <t>Jump.Param</t>
+  </si>
+  <si>
+    <t>string:</t>
+  </si>
+  <si>
+    <t>condition_id:e&lt;&gt;</t>
+  </si>
+  <si>
+    <t>jump_id:e&lt;</t>
   </si>
   <si>
     <t>地狱道等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助列</t>
+  </si>
+  <si>
+    <t>任务位置</t>
+  </si>
+  <si>
+    <t>图片</t>
   </si>
   <si>
     <t>任务1条件ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务1参数1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务1参数2</t>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition_id:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>地狱道</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>master_hell.lua</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>master_hell.txt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务位置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tasks</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_id:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励道具1ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励道具1数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CountType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>计数类型
 1终身，2开起时计数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务1参数1</t>
+  </si>
+  <si>
+    <t>任务1参数2</t>
   </si>
   <si>
     <t>跳转ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BkLv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>突破等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LvLimit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级限制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BkLv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BkLv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HelpCol</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TaskLoc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家地狱道任务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家突破宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>master_hell_task.txt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>等活</t>
-  </si>
-  <si>
-    <t>无间</t>
-  </si>
-  <si>
-    <t>int:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑绳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#note</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>众合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>叫唤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大叫唤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦热</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大焦热</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubLv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BkLv,HelpCol,Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Param[1]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Param[2]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reward[1].Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reward[1].Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reward[1].Num</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁神器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pic[1]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pic[2]</t>
-  </si>
-  <si>
-    <t>Pic[3]</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_073</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_074</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_075</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_076</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_077</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_078</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_079</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_080</t>
-  </si>
-  <si>
-    <t>图标图片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称图片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>底板图片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_064</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_065</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_066</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_067</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_068</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_069</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_070</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_071</t>
-  </si>
-  <si>
-    <t>黑绳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑绳+1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>众合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>众合+1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>叫唤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>叫唤+1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大叫唤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大叫唤+1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大叫唤+2</t>
-  </si>
-  <si>
-    <t>大叫唤+3</t>
-  </si>
-  <si>
-    <t>焦热</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦热+1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦热+2</t>
-  </si>
-  <si>
-    <t>焦热+3</t>
-  </si>
-  <si>
-    <t>大焦热</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大焦热+1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大焦热+2</t>
-  </si>
-  <si>
-    <t>大焦热+3</t>
-  </si>
-  <si>
-    <t>无间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无间+1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnlockParam</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnlockType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:ae&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁参数1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁ID2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁参数2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unlock[1].Type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁ID1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unlock[2].Type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁Type2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁ID1
-1神器
-2解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁类型
-1，神器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unlock[1].Param[1]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unlock[1].Param[2]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unlock[2].Param[1]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unlock[2].Param[2]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转参数</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>ui_dtex_Item_1401007</t>
+  </si>
+  <si>
+    <t>玩家等级升到10级</t>
+  </si>
+  <si>
+    <t>玩家等级-lv</t>
+  </si>
+  <si>
+    <t>守护灵抽卡券</t>
+  </si>
+  <si>
+    <t>派遣挂机</t>
+  </si>
+  <si>
+    <t>玩家等级升到5级</t>
+  </si>
+  <si>
+    <t>ui_dtex_Item_1401001</t>
+  </si>
+  <si>
+    <t>守护灵升级-cnt</t>
+  </si>
+  <si>
+    <t>绿色基础材料</t>
+  </si>
+  <si>
+    <t>守护灵升级页</t>
+  </si>
+  <si>
+    <t>1张守护灵升到4</t>
+  </si>
+  <si>
+    <t>ui_dtex_Item_1401002</t>
+  </si>
+  <si>
+    <t>进行3次守护灵抽奖</t>
+  </si>
+  <si>
+    <t>抽卡-shl</t>
+  </si>
+  <si>
+    <t>抽卡</t>
+  </si>
+  <si>
+    <t>ui_dtex_Item_1401005</t>
+  </si>
+  <si>
+    <t>兑换2次技能</t>
+  </si>
+  <si>
+    <t>技能获取-buyTimes</t>
+  </si>
+  <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>玩家等级升到30</t>
+  </si>
+  <si>
+    <t>金币</t>
   </si>
   <si>
     <t>玩家等级升到20</t>
   </si>
   <si>
+    <t>芦花古楼-风通关到7</t>
+  </si>
+  <si>
+    <t>关卡-cha</t>
+  </si>
+  <si>
+    <t>芦花古楼</t>
+  </si>
+  <si>
+    <t>拥有一张20级的守护灵</t>
+  </si>
+  <si>
+    <t>竞技场获得5次胜利</t>
+  </si>
+  <si>
+    <t>竞技场-win</t>
+  </si>
+  <si>
+    <t>竞技场对阵页</t>
+  </si>
+  <si>
+    <t>激活神器1</t>
+  </si>
+  <si>
+    <t>神器-大点-id</t>
+  </si>
+  <si>
+    <t>神器</t>
+  </si>
+  <si>
+    <t>玩家等级升到40</t>
+  </si>
+  <si>
     <t>芦花古楼-花通关到5</t>
   </si>
   <si>
-    <t>玩家等级升到30</t>
-  </si>
-  <si>
     <t>击杀2个BOSS</t>
   </si>
   <si>
+    <t>世界BOSS-chamin</t>
+  </si>
+  <si>
+    <t>恶灵入侵</t>
+  </si>
+  <si>
     <t>专属武器强化到5级</t>
   </si>
   <si>
+    <t>专属武器强化-max</t>
+  </si>
+  <si>
+    <t>守护灵武器强化页</t>
+  </si>
+  <si>
+    <t>激活神器2</t>
+  </si>
+  <si>
+    <t>玩家等级升到50</t>
+  </si>
+  <si>
+    <t>拥有3个强化到5级的专属武器</t>
+  </si>
+  <si>
+    <t>专属武器强化-cnt</t>
+  </si>
+  <si>
+    <t>守护灵抽奖20次</t>
+  </si>
+  <si>
     <t>守护灵抽奖10次</t>
   </si>
   <si>
-    <t>玩家等级升到40</t>
+    <t>玩家等级升到60</t>
   </si>
   <si>
     <t>击杀3阶地煞BOSS2个</t>
   </si>
   <si>
+    <t>世界BOSS-chadup</t>
+  </si>
+  <si>
     <t>竞技场到达1200分</t>
   </si>
   <si>
+    <t>历史最高分</t>
+  </si>
+  <si>
+    <t>竞技场排行页</t>
+  </si>
+  <si>
     <t>激活一个专属武器</t>
   </si>
   <si>
-    <t>玩家等级升到50</t>
+    <t>专属武器激活-cnt</t>
+  </si>
+  <si>
+    <t>守护灵武器解封页</t>
+  </si>
+  <si>
+    <t>玩家等级升到70</t>
   </si>
   <si>
     <t>击杀4阶地煞BOSS2个</t>
@@ -637,10 +613,16 @@
     <t>芦花古楼总共50层</t>
   </si>
   <si>
+    <t>芦花古楼-sum</t>
+  </si>
+  <si>
+    <t>3个专属武器强化到10级</t>
+  </si>
+  <si>
     <t>3个专属武器强化到5级</t>
   </si>
   <si>
-    <t>玩家等级升到60</t>
+    <t>玩家等级升到80</t>
   </si>
   <si>
     <t>击杀6阶地煞BOSS3个</t>
@@ -649,258 +631,21 @@
     <t>1个专属武器强化到10级</t>
   </si>
   <si>
+    <t>守护灵抽奖50次</t>
+  </si>
+  <si>
     <t>守护灵抽奖30次</t>
   </si>
   <si>
-    <t>玩家等级升到70</t>
-  </si>
-  <si>
-    <t>击杀7阶地煞BOSS3个</t>
-  </si>
-  <si>
-    <t>洗练战力</t>
-  </si>
-  <si>
-    <t>激活3个专属武器</t>
-  </si>
-  <si>
-    <t>玩家等级升到80</t>
-  </si>
-  <si>
-    <t>击杀8阶地煞BOSS3个</t>
-  </si>
-  <si>
-    <t>竞技场到达1300分</t>
-  </si>
-  <si>
-    <t>3个专属武器强化到10</t>
-  </si>
-  <si>
-    <t>玩家等级升到85</t>
-  </si>
-  <si>
-    <t>击杀3次地煞9的世界BOSS</t>
-  </si>
-  <si>
-    <t>芦花古楼总共80层</t>
-  </si>
-  <si>
-    <t>一个专属武器解封2次</t>
-  </si>
-  <si>
-    <t>玩家等级升到90</t>
-  </si>
-  <si>
-    <t>击杀3次天罡1的世界BOSS</t>
-  </si>
-  <si>
-    <t>竞技场到达1400分</t>
-  </si>
-  <si>
-    <t>守护灵抽奖50次</t>
-  </si>
-  <si>
-    <t>玩家等级升到95</t>
-  </si>
-  <si>
-    <t>击杀3次天罡2的世界BOSS</t>
-  </si>
-  <si>
-    <t>芦花古楼总共100层</t>
-  </si>
-  <si>
-    <t>花费钻石3000</t>
-  </si>
-  <si>
-    <t>玩家等级升到100</t>
-  </si>
-  <si>
-    <t>击杀3次天罡3的世界BOSS</t>
-  </si>
-  <si>
-    <t>芦花古楼总共120层</t>
-  </si>
-  <si>
-    <t>守护灵抽奖100次</t>
-  </si>
-  <si>
-    <t>玩家等级升到105</t>
-  </si>
-  <si>
-    <t>击杀1次天罡4的世界BOSS</t>
-  </si>
-  <si>
-    <t>芦花古楼总共140层</t>
-  </si>
-  <si>
-    <t>竞技场到达1500分</t>
-  </si>
-  <si>
-    <t>玩家等级升到110</t>
-  </si>
-  <si>
-    <t>击杀3次天罡4的世界BOSS</t>
-  </si>
-  <si>
-    <t>芦花古楼总共160层</t>
-  </si>
-  <si>
-    <t>6个守护灵突破达到14</t>
-  </si>
-  <si>
-    <t>玩家等级升到115</t>
-  </si>
-  <si>
-    <t>击杀1次天罡5的世界BOSS</t>
-  </si>
-  <si>
-    <t>芦花古楼总共180层</t>
-  </si>
-  <si>
-    <t>6个守护灵突破达到15</t>
-  </si>
-  <si>
-    <t>玩家等级升到120</t>
-  </si>
-  <si>
-    <t>击杀3次天罡5的世界BOSS</t>
-  </si>
-  <si>
-    <t>芦花古楼总共200层</t>
-  </si>
-  <si>
-    <t>6个守护灵突破达到16</t>
-  </si>
-  <si>
-    <t>玩家等级升到125</t>
-  </si>
-  <si>
-    <t>击杀3次天罡6的世界BOSS</t>
-  </si>
-  <si>
-    <t>芦花古楼总共225层</t>
-  </si>
-  <si>
-    <t>6个守护灵突破达到17</t>
-  </si>
-  <si>
-    <t>玩家等级升到130</t>
-  </si>
-  <si>
-    <t>击杀2次星耀1的世界BOSS</t>
-  </si>
-  <si>
-    <t>芦花古楼总共250层</t>
-  </si>
-  <si>
-    <t>6个守护灵突破达到18</t>
-  </si>
-  <si>
-    <t>玩家等级升到135</t>
-  </si>
-  <si>
-    <t>击杀5次星耀1的世界BOSS</t>
-  </si>
-  <si>
-    <t>芦花古楼总共275层</t>
-  </si>
-  <si>
-    <t>6个守护灵突破达到19</t>
-  </si>
-  <si>
-    <t>玩家等级升到140</t>
-  </si>
-  <si>
-    <t>图片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1401001</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1401002</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1401005</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1401007</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_090</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_091</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_091</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_092</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_088</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_087</t>
-  </si>
-  <si>
-    <t>抽卡-shl</t>
-  </si>
-  <si>
-    <t>神器-大点-id</t>
-  </si>
-  <si>
-    <t>玩家等级-lv</t>
-  </si>
-  <si>
-    <t>历史最高分</t>
-  </si>
-  <si>
-    <t>芦花古楼-sum</t>
-  </si>
-  <si>
-    <t>专属武器强化-cnt</t>
-  </si>
-  <si>
-    <t>专属武器激活-cnt</t>
-  </si>
-  <si>
-    <t>专属武器解封-max</t>
-  </si>
-  <si>
-    <t>花费道具-id</t>
-  </si>
-  <si>
-    <t>地狱道任务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>地狱道任务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵抽卡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界BOSS-chadup</t>
-  </si>
-  <si>
-    <t>技能获取-buyTimes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>1</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玩家等级升到8</t>
     </r>
     <r>
       <rPr>
@@ -910,330 +655,478 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>01#102</t>
+      <t>5</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>201#202</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>301#302#303</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵升级-cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色基础材料</t>
-  </si>
-  <si>
-    <t>string:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BreakLv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>多少级可突破</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级-lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级升到5级</t>
-  </si>
-  <si>
-    <t>1张守护灵升到4</t>
-  </si>
-  <si>
-    <t>进行3次守护灵抽奖</t>
-  </si>
-  <si>
-    <t>兑换2次技能</t>
-  </si>
-  <si>
-    <t>拥有一张20级的守护灵</t>
-  </si>
-  <si>
-    <t>拥有一张20级的守护灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼-风通关到7</t>
-  </si>
-  <si>
-    <t>芦花古楼-风通关到7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活神器1</t>
-  </si>
-  <si>
-    <t>激活神器1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活神器2</t>
-  </si>
-  <si>
-    <t>激活神器2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀2个BOSS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活一个专属武器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀6阶地煞BOSS3个</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>击杀7阶地煞BOSS3个</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗练战力</t>
+  </si>
+  <si>
+    <t>寄灵人洗练-max</t>
+  </si>
+  <si>
+    <t>寄灵人天赋页</t>
+  </si>
+  <si>
+    <t>激活3个专属武器</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玩家等级升到9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>玩家等级升到85</t>
   </si>
   <si>
     <t>击杀8阶地煞BOSS3个</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵升级-max</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡-cha</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技场-win</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技场获得5次胜利</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵抽奖20次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专属武器强化-max</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史最高分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专属武器激活-cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼-sum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专属武器强化-cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场到达1300分</t>
+  </si>
+  <si>
+    <t>3个专属武器强化到15</t>
+  </si>
+  <si>
+    <t>3个专属武器强化到10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玩家等级升到9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>玩家等级升到90</t>
+  </si>
+  <si>
+    <t>击杀3次地煞9的世界BOSS</t>
+  </si>
+  <si>
+    <t>芦花古楼总共80层</t>
+  </si>
+  <si>
+    <t>一个专属武器解封2次</t>
+  </si>
+  <si>
+    <t>专属武器解封-max</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玩家等级升到1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <t>玩家等级升到95</t>
+  </si>
+  <si>
+    <t>击杀3次天罡1的世界BOSS</t>
+  </si>
+  <si>
+    <t>竞技场到达1400分</t>
+  </si>
+  <si>
+    <t>守护灵抽奖100次</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玩家等级升到10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>玩家等级升到100</t>
+  </si>
+  <si>
+    <t>击杀3次天罡2的世界BOSS</t>
+  </si>
+  <si>
+    <t>芦花古楼总共100层</t>
+  </si>
+  <si>
+    <t>花费钻石3000</t>
+  </si>
+  <si>
+    <t>花费道具-id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玩家等级升到1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <t>玩家等级升到105</t>
+  </si>
+  <si>
+    <t>击杀3次天罡3的世界BOSS</t>
+  </si>
+  <si>
+    <t>芦花古楼总共120层</t>
+  </si>
+  <si>
+    <t>3个专属武器强化到25</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玩家等级升到11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>玩家等级升到110</t>
+  </si>
+  <si>
+    <t>击杀1次天罡4的世界BOSS</t>
+  </si>
+  <si>
+    <t>芦花古楼总共140层</t>
+  </si>
+  <si>
+    <t>竞技场到达1500分</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玩家等级升到1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+  </si>
+  <si>
+    <t>玩家等级升到115</t>
+  </si>
+  <si>
+    <t>击杀3次天罡4的世界BOSS</t>
+  </si>
+  <si>
+    <t>芦花古楼总共160层</t>
+  </si>
+  <si>
+    <t>6个守护灵突破达到14</t>
   </si>
   <si>
     <t>守护灵突破-cnt</t>
   </si>
   <si>
-    <t>寄灵人洗练-max</t>
-  </si>
-  <si>
-    <t>专属武器强化-max</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽卡-shl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵抽奖50次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵抽奖100次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个专属武器强化到15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专属武器强化-cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个专属武器强化到10级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专属武器强化到5级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个专属武器强化到25</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>派遣挂机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jump_id:e&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵升级页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jump.To</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jump.Param</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转参数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>派遣挂机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>派遣挂机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶灵入侵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技场对阵页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵武器强化页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技场排行页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵武器解封页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人天赋页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵武器解封页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵武器解封页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡-cha</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>守护灵列表</t>
   </si>
   <si>
-    <t>芦花古楼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界BOSS-chamin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玩家等级升到12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>玩家等级升到120</t>
+  </si>
+  <si>
+    <t>击杀1次天罡5的世界BOSS</t>
+  </si>
+  <si>
+    <t>芦花古楼总共180层</t>
+  </si>
+  <si>
+    <t>6个守护灵突破达到15</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玩家等级升到1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+  </si>
+  <si>
+    <t>玩家等级升到125</t>
+  </si>
+  <si>
+    <t>击杀3次天罡5的世界BOSS</t>
+  </si>
+  <si>
+    <t>芦花古楼总共200层</t>
+  </si>
+  <si>
+    <t>6个守护灵突破达到16</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玩家等级升到13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>玩家等级升到130</t>
+  </si>
+  <si>
+    <t>击杀3次天罡6的世界BOSS</t>
+  </si>
+  <si>
+    <t>芦花古楼总共225层</t>
+  </si>
+  <si>
+    <t>6个守护灵突破达到17</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玩家等级升到1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40</t>
+    </r>
+  </si>
+  <si>
+    <t>玩家等级升到135</t>
+  </si>
+  <si>
+    <t>击杀2次星耀1的世界BOSS</t>
+  </si>
+  <si>
+    <t>芦花古楼总共250层</t>
+  </si>
+  <si>
+    <t>6个守护灵突破达到18</t>
+  </si>
+  <si>
+    <t>1张守护灵升到10</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行2次守护灵抽奖</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换1次技能</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>多少级可突破
+GM工具用</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到20级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1张守护灵升到20</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-风通关到4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行5次守护灵抽奖</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -1247,34 +1140,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1287,19 +1157,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1311,13 +1226,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,25 +1250,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797173987"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1358,17 +1273,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1386,105 +1290,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyFont="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
+  </cellStyleXfs>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="13">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyFont="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="13" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" quotePrefix="1" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="4" applyFill="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Normal" xfId="7"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10"/>
-    <cellStyle name="常规 3" xfId="13"/>
+    <cellStyle name="常规 2" xfId="8"/>
+    <cellStyle name="常规 3" xfId="10"/>
     <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="3"/>
-    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="大标题" xfId="6"/>
+    <cellStyle name="横向标题" xfId="1"/>
     <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="6"/>
-    <cellStyle name="因变Grid" xfId="7"/>
-    <cellStyle name="英文标题" xfId="12"/>
-    <cellStyle name="中文标题" xfId="2"/>
-    <cellStyle name="纵向标题" xfId="8"/>
+    <cellStyle name="无效" xfId="12"/>
+    <cellStyle name="因变Grid" xfId="3"/>
+    <cellStyle name="英文标题" xfId="2"/>
+    <cellStyle name="中文标题" xfId="13"/>
+    <cellStyle name="纵向标题" xfId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -1755,11 +1661,6 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -1771,7 +1672,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -1796,13 +1697,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -1810,18 +1711,18 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1830,18 +1731,18 @@
     </row>
     <row r="3" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -1850,14 +1751,14 @@
     </row>
     <row r="4" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1868,14 +1769,14 @@
     </row>
     <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1895,231 +1796,249 @@
       <c r="H6" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="5" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="28.875" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="9.875" customWidth="1"/>
+    <col min="8" max="8" width="7.625" customWidth="1"/>
     <col min="9" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="9.25" customWidth="1"/>
+    <col min="11" max="11" width="14.25" customWidth="1"/>
+    <col min="12" max="13" width="17.5" customWidth="1"/>
     <col min="14" max="14" width="21.5" customWidth="1"/>
     <col min="15" max="15" width="19.5" customWidth="1"/>
     <col min="16" max="16" width="17.5" customWidth="1"/>
     <col min="17" max="17" width="19.5" customWidth="1"/>
     <col min="18" max="18" width="18.875" customWidth="1"/>
-    <col min="19" max="19" width="17.5" customWidth="1"/>
-    <col min="20" max="20" width="20.875" customWidth="1"/>
-    <col min="21" max="21" width="16" customWidth="1"/>
+    <col min="19" max="20" width="26.375" customWidth="1"/>
+    <col min="21" max="21" width="17.5" customWidth="1"/>
+    <col min="22" max="22" width="20.875" customWidth="1"/>
+    <col min="23" max="23" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="U1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>245</v>
-      </c>
-      <c r="J2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>124</v>
-      </c>
-      <c r="N2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>124</v>
-      </c>
-      <c r="R2" t="s">
-        <v>137</v>
-      </c>
-      <c r="S2" t="s">
-        <v>122</v>
-      </c>
-      <c r="T2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>132</v>
+        <v>59</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2127,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>216</v>
+        <v>70</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I4" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="3"/>
@@ -2160,68 +2079,70 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
-    </row>
-    <row r="5" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U4" s="3">
+        <v>1</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>216</v>
+      <c r="C5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I5" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="L5" s="3">
+        <v>100</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
         <v>2</v>
       </c>
-      <c r="M5" s="3">
-        <v>2</v>
-      </c>
-      <c r="N5" s="3">
-        <v>401</v>
-      </c>
-      <c r="O5" s="3">
-        <v>30</v>
-      </c>
-      <c r="P5" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>1</v>
-      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="3">
-        <v>1</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3">
+        <v>1</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2229,31 +2150,31 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>216</v>
+        <v>74</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I6" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J6" s="3">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="L6" s="3">
         <v>100</v>
@@ -2275,13 +2196,19 @@
         <v>45</v>
       </c>
       <c r="S6" s="3">
-        <v>1</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="T6" s="3">
+        <v>2</v>
+      </c>
+      <c r="U6" s="3">
+        <v>1</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2289,31 +2216,31 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>216</v>
+        <v>79</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="I7" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J7" s="3">
         <v>60</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="L7" s="3">
         <v>100</v>
@@ -2334,14 +2261,16 @@
         <v>3</v>
       </c>
       <c r="R7" s="3"/>
-      <c r="S7" s="3">
-        <v>1</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3">
+        <v>1</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2349,31 +2278,31 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="I8" s="4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J8" s="3">
         <v>80</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -2396,8 +2325,10 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2405,31 +2336,31 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>218</v>
+        <v>83</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="I9" s="4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J9" s="3">
         <v>80</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -2446,8 +2377,10 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2455,31 +2388,31 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>217</v>
+        <v>83</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="I10" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J10" s="3">
         <v>80</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
@@ -2496,8 +2429,10 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-    </row>
-    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2505,31 +2440,31 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="I11" s="4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J11" s="3">
         <v>90</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="L11" s="3">
         <v>100</v>
@@ -2546,8 +2481,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2555,31 +2492,31 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="I12" s="4">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
@@ -2598,8 +2535,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-    </row>
-    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2607,31 +2546,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F13" s="3">
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="I13" s="4">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J13" s="3">
         <v>100</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="L13" s="3">
         <v>100</v>
@@ -2644,8 +2583,10 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-    </row>
-    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+    </row>
+    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2653,31 +2594,31 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F14" s="3">
         <v>3</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="I14" s="4">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J14" s="3">
         <v>100</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="L14" s="3">
         <v>100</v>
@@ -2690,8 +2631,10 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-    </row>
-    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+    </row>
+    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2699,31 +2642,31 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="I15" s="4">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -2736,8 +2679,10 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-    </row>
-    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+    </row>
+    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2745,31 +2690,31 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="I16" s="4">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J16" s="3">
         <v>120</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="L16" s="3">
         <v>100</v>
@@ -2788,8 +2733,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2797,31 +2744,31 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="I17" s="4">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J17" s="3">
         <v>120</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
@@ -2834,8 +2781,10 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-    </row>
-    <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+    </row>
+    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2843,31 +2792,31 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F18" s="3">
         <v>3</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="I18" s="4">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J18" s="3">
         <v>120</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="L18" s="3">
         <v>100</v>
@@ -2880,8 +2829,10 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-    </row>
-    <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+    </row>
+    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2889,31 +2840,31 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>220</v>
+        <v>94</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="I19" s="4">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="J19" s="3">
         <v>120</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="L19" s="3">
         <v>100</v>
@@ -2926,8 +2877,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2935,31 +2888,31 @@
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>220</v>
+        <v>94</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="H20" s="4" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="I20" s="4">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J20" s="3">
         <v>140</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
@@ -2978,8 +2931,10 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-    </row>
-    <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2987,31 +2942,31 @@
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>220</v>
+        <v>94</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="I21" s="4">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J21" s="3">
         <v>140</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="L21" s="3">
         <v>100</v>
@@ -3024,8 +2979,10 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-    </row>
-    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+    </row>
+    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -3033,31 +2990,31 @@
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>220</v>
+        <v>94</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F22" s="3">
         <v>3</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="I22" s="4">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J22" s="3">
         <v>140</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -3070,8 +3027,10 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-    </row>
-    <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+    </row>
+    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -3079,31 +3038,31 @@
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>221</v>
+        <v>98</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="I23" s="4">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J23" s="3">
         <v>140</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="L23" s="3">
         <v>100</v>
@@ -3116,8 +3075,10 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-    </row>
-    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+    </row>
+    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -3125,31 +3086,31 @@
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>221</v>
+        <v>98</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="I24" s="4">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="J24" s="3">
         <v>150</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
@@ -3168,10 +3129,13 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3180,16 +3144,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="9.5" customWidth="1"/>
     <col min="5" max="5" width="24.375" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="25.625" customWidth="1"/>
+    <col min="6" max="7" width="25.625" customWidth="1"/>
     <col min="8" max="8" width="27.875" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
     <col min="10" max="10" width="29.75" customWidth="1"/>
@@ -3202,203 +3165,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>69</v>
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>287</v>
+        <v>109</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>288</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>285</v>
-      </c>
-      <c r="N2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>210</v>
+        <v>117</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>289</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>246</v>
+        <v>125</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>244</v>
+        <v>127</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
       </c>
       <c r="I4" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="4" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="L4" s="3">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="N4" s="4">
         <v>1</v>
       </c>
-      <c r="P4" s="8" t="s">
-        <v>246</v>
+      <c r="P4" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>239</v>
+        <v>132</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -3407,133 +3370,131 @@
         <v>1</v>
       </c>
       <c r="J5" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="L5" s="3">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>286</v>
+        <v>134</v>
       </c>
       <c r="N5" s="4"/>
       <c r="P5" t="s">
-        <v>247</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>222</v>
+        <v>138</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
       </c>
       <c r="I6" s="3">
-        <v>3</v>
-      </c>
-      <c r="J6" s="3">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J6" s="3"/>
       <c r="K6" s="4" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="L6" s="3">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="N6" s="3">
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>248</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D7" s="3">
         <v>4</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>235</v>
+        <v>142</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
       </c>
       <c r="I7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="4" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="L7" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>290</v>
+        <v>143</v>
       </c>
       <c r="N7" s="3"/>
       <c r="P7" t="s">
-        <v>249</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="B8" s="3">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>139</v>
+        <v>125</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -3541,192 +3502,165 @@
       <c r="I8" s="3">
         <v>20</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
+      <c r="J8" s="3"/>
       <c r="K8" s="4" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="L8" s="3">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="N8" s="3">
-        <v>2</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>139</v>
+        <v>129</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>302</v>
+        <v>202</v>
       </c>
       <c r="B9" s="3">
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D9" s="3">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>263</v>
+        <v>132</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
       </c>
       <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
         <v>20</v>
       </c>
-      <c r="J9" s="3"/>
       <c r="K9" s="4" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="L9" s="3">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="P9" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>251</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>303</v>
+        <v>203</v>
       </c>
       <c r="B10" s="3">
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D10" s="3">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
       </c>
       <c r="I10" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J10" s="3">
         <v>401</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L10" s="3">
         <v>1000</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>293</v>
+        <v>149</v>
       </c>
       <c r="N10" s="3">
         <v>1</v>
-      </c>
-      <c r="P10" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>304</v>
+        <v>204</v>
       </c>
       <c r="B11" s="3">
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D11" s="3">
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>223</v>
+        <v>138</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
       </c>
       <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
-        <v>101</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J11" s="3"/>
       <c r="K11" s="4" t="s">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="L11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="N11" s="3">
-        <v>1</v>
-      </c>
-      <c r="P11" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>255</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="B12" s="3">
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>141</v>
+        <v>125</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -3734,192 +3668,190 @@
       <c r="I12" s="3">
         <v>30</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
+      <c r="J12" s="3"/>
       <c r="K12" s="4" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="L12" s="3">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="N12" s="3">
-        <v>3</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>141</v>
+        <v>2</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>402</v>
+        <v>302</v>
       </c>
       <c r="B13" s="3">
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
       </c>
       <c r="I13" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J13" s="3">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L13" s="3">
         <v>1000</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>293</v>
+        <v>149</v>
       </c>
       <c r="N13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="Q13" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>403</v>
+        <v>303</v>
       </c>
       <c r="B14" s="3">
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>308</v>
+        <v>151</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
       </c>
       <c r="I14" s="3">
-        <v>2</v>
-      </c>
-      <c r="J14" s="3">
-        <v>501</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J14" s="3"/>
       <c r="K14" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L14" s="3">
         <v>1000</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="N14" s="3">
-        <v>501</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N14" s="3"/>
       <c r="P14" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q14" t="s">
-        <v>258</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="B15" s="3">
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D15" s="3">
         <v>4</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>266</v>
+        <v>154</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>265</v>
+        <v>155</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
       </c>
       <c r="I15" s="3">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>101</v>
+      </c>
       <c r="K15" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L15" s="3">
         <v>1000</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="N15" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
       <c r="P15" t="s">
-        <v>256</v>
+        <v>154</v>
       </c>
       <c r="Q15" t="s">
-        <v>257</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="B16" s="3">
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>145</v>
+        <v>125</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -3927,46 +3859,44 @@
       <c r="I16" s="3">
         <v>40</v>
       </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
+      <c r="J16" s="3"/>
       <c r="K16" s="4" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="L16" s="3">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>292</v>
+        <v>129</v>
       </c>
       <c r="N16" s="3">
-        <v>4</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>145</v>
+        <v>3</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>502</v>
+        <v>402</v>
       </c>
       <c r="B17" s="3">
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>282</v>
+        <v>158</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>268</v>
+        <v>148</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -3974,145 +3904,147 @@
       <c r="I17" s="3">
         <v>5</v>
       </c>
-      <c r="J17" s="3"/>
+      <c r="J17" s="3">
+        <v>402</v>
+      </c>
       <c r="K17" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L17" s="3">
         <v>1000</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>297</v>
+        <v>149</v>
       </c>
       <c r="N17" s="3">
-        <v>1102004</v>
+        <v>2</v>
       </c>
       <c r="P17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="Q17" t="s">
-        <v>258</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>503</v>
+        <v>403</v>
       </c>
       <c r="B18" s="3">
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>222</v>
+        <v>159</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
       </c>
       <c r="I18" s="3">
-        <v>20</v>
-      </c>
-      <c r="J18" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>500</v>
+      </c>
       <c r="K18" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L18" s="3">
         <v>1000</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>298</v>
+        <v>161</v>
       </c>
       <c r="N18" s="3">
-        <v>2</v>
+        <v>501</v>
       </c>
       <c r="P18" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="Q18" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>504</v>
+        <v>404</v>
       </c>
       <c r="B19" s="3">
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D19" s="3">
         <v>4</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
       </c>
       <c r="I19" s="3">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3">
-        <v>102</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J19" s="3"/>
       <c r="K19" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L19" s="3">
         <v>1000</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>294</v>
+        <v>164</v>
       </c>
       <c r="N19" s="3">
-        <v>2</v>
+        <v>1102004</v>
       </c>
       <c r="P19" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="Q19" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>601</v>
+        <v>501</v>
       </c>
       <c r="B20" s="3">
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>149</v>
+        <v>125</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -4120,142 +4052,142 @@
       <c r="I20" s="3">
         <v>50</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
+      <c r="J20" s="3"/>
       <c r="K20" s="4" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="L20" s="3">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="N20" s="3">
-        <v>5</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>602</v>
+        <v>502</v>
       </c>
       <c r="B21" s="3">
         <v>6</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D21" s="3">
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>305</v>
+        <v>168</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
       </c>
       <c r="I21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J21" s="3">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L21" s="3">
         <v>1000</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>295</v>
+        <v>164</v>
       </c>
       <c r="N21" s="3">
-        <v>503</v>
+        <v>1102004</v>
       </c>
       <c r="P21" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="Q21" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>603</v>
+        <v>503</v>
       </c>
       <c r="B22" s="3">
         <v>6</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D22" s="3">
         <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>269</v>
+        <v>138</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
       </c>
       <c r="I22" s="3">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L22" s="3">
         <v>1000</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="N22" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="N22" s="3">
+        <v>2</v>
+      </c>
       <c r="P22" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="Q22" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>604</v>
+        <v>504</v>
       </c>
       <c r="B23" s="3">
         <v>6</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D23" s="3">
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>270</v>
+        <v>155</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -4263,47 +4195,49 @@
       <c r="I23" s="3">
         <v>1</v>
       </c>
-      <c r="J23" s="3"/>
+      <c r="J23" s="3">
+        <v>102</v>
+      </c>
       <c r="K23" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L23" s="3">
         <v>1000</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>300</v>
+        <v>156</v>
       </c>
       <c r="N23" s="3">
-        <v>1102004</v>
+        <v>2</v>
       </c>
       <c r="P23" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="Q23" t="s">
-        <v>259</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>701</v>
+        <v>601</v>
       </c>
       <c r="B24" s="3">
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>153</v>
+        <v>125</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -4311,46 +4245,44 @@
       <c r="I24" s="3">
         <v>60</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
+      <c r="J24" s="3"/>
       <c r="K24" s="4" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="L24" s="3">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="N24" s="3">
-        <v>6</v>
-      </c>
-      <c r="P24" s="8" t="s">
-        <v>153</v>
+        <v>5</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>702</v>
+        <v>602</v>
       </c>
       <c r="B25" s="3">
         <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>305</v>
+        <v>173</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
@@ -4359,148 +4291,142 @@
         <v>2</v>
       </c>
       <c r="J25" s="3">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L25" s="3">
         <v>1000</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="N25" s="3">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P25" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="Q25" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>703</v>
+        <v>603</v>
       </c>
       <c r="B26" s="3">
         <v>7</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D26" s="3">
         <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>271</v>
+        <v>175</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
       </c>
       <c r="I26" s="3">
-        <v>50</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1</v>
-      </c>
+        <v>1200</v>
+      </c>
+      <c r="J26" s="3"/>
       <c r="K26" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L26" s="3">
         <v>1000</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="N26" s="3">
-        <v>1</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N26" s="3"/>
       <c r="P26" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="Q26" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>704</v>
+        <v>604</v>
       </c>
       <c r="B27" s="3">
         <v>7</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D27" s="3">
         <v>4</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>281</v>
+        <v>177</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>272</v>
+        <v>178</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
       </c>
       <c r="I27" s="3">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J27" s="3"/>
       <c r="K27" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L27" s="3">
         <v>1000</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>297</v>
+        <v>179</v>
       </c>
       <c r="N27" s="3">
         <v>1102004</v>
       </c>
       <c r="P27" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="Q27" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>801</v>
+        <v>701</v>
       </c>
       <c r="B28" s="3">
         <v>8</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>157</v>
+        <v>125</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
@@ -4508,192 +4434,194 @@
       <c r="I28" s="3">
         <v>70</v>
       </c>
-      <c r="J28" s="3">
-        <v>0</v>
-      </c>
+      <c r="J28" s="3"/>
       <c r="K28" s="4" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="L28" s="3">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="N28" s="3">
-        <v>7</v>
-      </c>
-      <c r="P28" s="8" t="s">
-        <v>157</v>
+        <v>6</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>802</v>
+        <v>702</v>
       </c>
       <c r="B29" s="3">
         <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D29" s="3">
         <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>234</v>
+        <v>181</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
       </c>
       <c r="I29" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J29" s="3">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L29" s="3">
         <v>1000</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="N29" s="3">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="P29" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="Q29" t="s">
-        <v>260</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>803</v>
+        <v>703</v>
       </c>
       <c r="B30" s="3">
         <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D30" s="3">
         <v>3</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>275</v>
+        <v>183</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
       </c>
       <c r="I30" s="3">
-        <v>10</v>
-      </c>
-      <c r="J30" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
       <c r="K30" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L30" s="3">
         <v>1000</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>297</v>
+        <v>149</v>
       </c>
       <c r="N30" s="3">
-        <v>1102004</v>
+        <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="Q30" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>804</v>
+        <v>704</v>
       </c>
       <c r="B31" s="3">
         <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D31" s="3">
         <v>4</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>277</v>
+        <v>184</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>276</v>
+        <v>168</v>
       </c>
       <c r="H31" s="3">
         <v>1</v>
       </c>
       <c r="I31" s="3">
-        <v>50</v>
-      </c>
-      <c r="J31" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="J31" s="3">
+        <v>10</v>
+      </c>
       <c r="K31" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L31" s="3">
         <v>1000</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>298</v>
+        <v>164</v>
       </c>
       <c r="N31" s="3">
-        <v>2</v>
+        <v>1102004</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="Q31" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>901</v>
+        <v>801</v>
       </c>
       <c r="B32" s="3">
         <v>9</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>161</v>
+        <v>125</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
@@ -4701,46 +4629,44 @@
       <c r="I32" s="3">
         <v>80</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
+      <c r="J32" s="3"/>
       <c r="K32" s="4" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="L32" s="3">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="N32" s="3">
-        <v>8</v>
-      </c>
-      <c r="P32" s="8" t="s">
-        <v>161</v>
+        <v>7</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>902</v>
+        <v>802</v>
       </c>
       <c r="B33" s="3">
         <v>9</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D33" s="3">
         <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>305</v>
+        <v>187</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
@@ -4749,193 +4675,189 @@
         <v>3</v>
       </c>
       <c r="J33" s="3">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L33" s="3">
         <v>1000</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="N33" s="3">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P33" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="Q33" t="s">
-        <v>261</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>903</v>
+        <v>803</v>
       </c>
       <c r="B34" s="3">
         <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D34" s="3">
         <v>3</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
       </c>
       <c r="I34" s="3">
-        <v>15000</v>
-      </c>
-      <c r="J34" s="3">
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="J34" s="3"/>
       <c r="K34" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L34" s="3">
         <v>1000</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="N34" s="3"/>
+        <v>164</v>
+      </c>
+      <c r="N34" s="3">
+        <v>1102004</v>
+      </c>
       <c r="P34" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="Q34" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>904</v>
+        <v>804</v>
       </c>
       <c r="B35" s="3">
         <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D35" s="3">
         <v>4</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>228</v>
+        <v>138</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
       </c>
       <c r="I35" s="3">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="J35" s="3"/>
       <c r="K35" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L35" s="3">
         <v>1000</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>302</v>
+        <v>139</v>
       </c>
       <c r="N35" s="3">
-        <v>1102004</v>
+        <v>2</v>
       </c>
       <c r="P35" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="Q35" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>1001</v>
+        <v>901</v>
       </c>
       <c r="B36" s="3">
         <v>10</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>165</v>
+        <v>125</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
       </c>
       <c r="I36" s="3">
-        <v>90</v>
-      </c>
-      <c r="J36" s="3">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="J36" s="3"/>
       <c r="K36" s="4" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="L36" s="3">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="N36" s="3">
-        <v>9</v>
-      </c>
-      <c r="P36" s="8" t="s">
-        <v>165</v>
+        <v>8</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>1002</v>
+        <v>902</v>
       </c>
       <c r="B37" s="3">
         <v>10</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D37" s="3">
         <v>2</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>305</v>
+        <v>173</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
@@ -4944,96 +4866,96 @@
         <v>3</v>
       </c>
       <c r="J37" s="3">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L37" s="3">
         <v>1000</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="N37" s="3">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="Q37" t="s">
-        <v>262</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>1003</v>
+        <v>903</v>
       </c>
       <c r="B38" s="3">
         <v>10</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D38" s="3">
         <v>3</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="H38" s="3">
         <v>1</v>
       </c>
       <c r="I38" s="3">
-        <v>1300</v>
+        <v>15000</v>
       </c>
       <c r="J38" s="3">
         <v>0</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L38" s="3">
         <v>1000</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>299</v>
+        <v>195</v>
       </c>
       <c r="N38" s="3"/>
       <c r="P38" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="Q38" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>1004</v>
+        <v>904</v>
       </c>
       <c r="B39" s="3">
         <v>10</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D39" s="3">
         <v>4</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>280</v>
+        <v>196</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="H39" s="3">
         <v>1</v>
@@ -5042,95 +4964,93 @@
         <v>3</v>
       </c>
       <c r="J39" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L39" s="3">
         <v>1000</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>297</v>
+        <v>179</v>
       </c>
       <c r="N39" s="3">
         <v>1102004</v>
       </c>
       <c r="P39" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="Q39" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>1101</v>
+        <v>1001</v>
       </c>
       <c r="B40" s="3">
         <v>11</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>169</v>
+        <v>125</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="H40" s="3">
         <v>1</v>
       </c>
       <c r="I40" s="3">
-        <v>100</v>
-      </c>
-      <c r="J40" s="3">
-        <v>0</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="J40" s="3"/>
       <c r="K40" s="4" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="L40" s="3">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="N40" s="3">
-        <v>10</v>
-      </c>
-      <c r="P40" s="8" t="s">
-        <v>169</v>
+        <v>9</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>1102</v>
+        <v>1002</v>
       </c>
       <c r="B41" s="3">
         <v>11</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D41" s="3">
         <v>2</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>305</v>
+        <v>173</v>
       </c>
       <c r="H41" s="3">
         <v>1</v>
@@ -5139,195 +5059,191 @@
         <v>3</v>
       </c>
       <c r="J41" s="3">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L41" s="3">
         <v>1000</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="N41" s="3">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P41" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="Q41" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>1103</v>
+        <v>1003</v>
       </c>
       <c r="B42" s="3">
         <v>11</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D42" s="3">
         <v>3</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="H42" s="3">
         <v>1</v>
       </c>
       <c r="I42" s="3">
-        <v>80</v>
+        <v>1300</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L42" s="3">
         <v>1000</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="N42" s="3">
-        <v>3</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N42" s="3"/>
       <c r="P42" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="Q42" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>1104</v>
+        <v>1004</v>
       </c>
       <c r="B43" s="3">
         <v>11</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D43" s="3">
         <v>4</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="F43" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="H43" s="3">
         <v>1</v>
       </c>
       <c r="I43" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L43" s="3">
         <v>1000</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>303</v>
+        <v>164</v>
       </c>
       <c r="N43" s="3">
         <v>1102004</v>
       </c>
       <c r="P43" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="Q43" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>1201</v>
+        <v>1101</v>
       </c>
       <c r="B44" s="3">
         <v>12</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>173</v>
+        <v>125</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="H44" s="3">
         <v>1</v>
       </c>
       <c r="I44" s="3">
-        <v>110</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="J44" s="3"/>
       <c r="K44" s="4" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="L44" s="3">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="N44" s="3">
-        <v>11</v>
-      </c>
-      <c r="P44" s="8" t="s">
-        <v>173</v>
+        <v>10</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>1202</v>
+        <v>1102</v>
       </c>
       <c r="B45" s="3">
         <v>12</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D45" s="3">
         <v>2</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>305</v>
+        <v>173</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
@@ -5336,193 +5252,193 @@
         <v>3</v>
       </c>
       <c r="J45" s="3">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L45" s="3">
         <v>1000</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="N45" s="3">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P45" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="Q45" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>1203</v>
+        <v>1103</v>
       </c>
       <c r="B46" s="3">
         <v>12</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D46" s="3">
         <v>3</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="H46" s="3">
         <v>1</v>
       </c>
       <c r="I46" s="3">
-        <v>1400</v>
+        <v>80</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L46" s="3">
         <v>1000</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="N46" s="3"/>
+        <v>149</v>
+      </c>
+      <c r="N46" s="3">
+        <v>3</v>
+      </c>
       <c r="P46" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="Q46" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>1204</v>
+        <v>1104</v>
       </c>
       <c r="B47" s="3">
         <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D47" s="3">
         <v>4</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="H47" s="3">
         <v>1</v>
       </c>
       <c r="I47" s="3">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L47" s="3">
         <v>1000</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>298</v>
+        <v>179</v>
       </c>
       <c r="N47" s="3">
-        <v>2</v>
+        <v>1102004</v>
       </c>
       <c r="P47" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="Q47" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>1301</v>
+        <v>1201</v>
       </c>
       <c r="B48" s="3">
         <v>13</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>177</v>
+        <v>125</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
       </c>
       <c r="I48" s="3">
-        <v>120</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="J48" s="3"/>
       <c r="K48" s="4" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="L48" s="3">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="N48" s="3">
-        <v>12</v>
-      </c>
-      <c r="P48" s="8" t="s">
-        <v>177</v>
+        <v>11</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>1302</v>
+        <v>1202</v>
       </c>
       <c r="B49" s="3">
         <v>13</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D49" s="3">
         <v>2</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="G49" s="4" t="s">
-        <v>305</v>
+        <v>173</v>
       </c>
       <c r="H49" s="3">
         <v>1</v>
@@ -5531,195 +5447,191 @@
         <v>3</v>
       </c>
       <c r="J49" s="3">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L49" s="3">
         <v>1000</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="N49" s="3">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="P49" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="Q49" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>1303</v>
+        <v>1203</v>
       </c>
       <c r="B50" s="3">
         <v>13</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D50" s="3">
         <v>3</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="G50" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="H50" s="3">
         <v>1</v>
       </c>
       <c r="I50" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="J50" s="3">
         <v>0</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L50" s="3">
         <v>1000</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="N50" s="3">
-        <v>4</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N50" s="3"/>
       <c r="P50" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="Q50" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>1304</v>
+        <v>1204</v>
       </c>
       <c r="B51" s="3">
         <v>13</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D51" s="3">
         <v>4</v>
       </c>
       <c r="E51" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="G51" s="3" t="s">
-        <v>230</v>
+        <v>138</v>
       </c>
       <c r="H51" s="3">
         <v>1</v>
       </c>
       <c r="I51" s="3">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="J51" s="3">
         <v>0</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L51" s="3">
         <v>1000</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>304</v>
+        <v>139</v>
       </c>
       <c r="N51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P51" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="Q51" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>1401</v>
+        <v>1301</v>
       </c>
       <c r="B52" s="3">
         <v>14</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
       </c>
       <c r="E52" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F52" s="10" t="s">
-        <v>181</v>
-      </c>
       <c r="G52" s="3" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="H52" s="3">
         <v>1</v>
       </c>
       <c r="I52" s="3">
-        <v>130</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="J52" s="3"/>
       <c r="K52" s="4" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="L52" s="3">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="N52" s="3">
-        <v>13</v>
-      </c>
-      <c r="P52" s="8" t="s">
-        <v>181</v>
+        <v>12</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>1402</v>
+        <v>1302</v>
       </c>
       <c r="B53" s="3">
         <v>14</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D53" s="3">
         <v>2</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>305</v>
+        <v>173</v>
       </c>
       <c r="H53" s="3">
         <v>1</v>
@@ -5728,685 +5640,681 @@
         <v>3</v>
       </c>
       <c r="J53" s="3">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L53" s="3">
         <v>1000</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="N53" s="3">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="Q53" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>1403</v>
+        <v>1303</v>
       </c>
       <c r="B54" s="3">
         <v>14</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D54" s="3">
         <v>3</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="H54" s="3">
         <v>1</v>
       </c>
       <c r="I54" s="3">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L54" s="3">
         <v>1000</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>293</v>
+        <v>149</v>
       </c>
       <c r="N54" s="3">
         <v>4</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="Q54" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>1404</v>
+        <v>1304</v>
       </c>
       <c r="B55" s="3">
         <v>14</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D55" s="3">
         <v>4</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>283</v>
+        <v>218</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
       </c>
       <c r="I55" s="3">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="J55" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L55" s="3">
         <v>1000</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>297</v>
+        <v>143</v>
       </c>
       <c r="N55" s="3">
-        <v>1102005</v>
+        <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="Q55" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>1501</v>
+        <v>1401</v>
       </c>
       <c r="B56" s="3">
         <v>15</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D56" s="3">
         <v>1</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>185</v>
+        <v>125</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="H56" s="3">
         <v>1</v>
       </c>
       <c r="I56" s="3">
-        <v>140</v>
-      </c>
-      <c r="J56" s="3">
-        <v>0</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="J56" s="3"/>
       <c r="K56" s="4" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="L56" s="3">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="N56" s="3">
-        <v>14</v>
-      </c>
-      <c r="P56" s="8" t="s">
-        <v>185</v>
+        <v>13</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>1502</v>
+        <v>1402</v>
       </c>
       <c r="B57" s="3">
         <v>15</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D57" s="3">
         <v>2</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>305</v>
+        <v>173</v>
       </c>
       <c r="H57" s="3">
         <v>1</v>
       </c>
       <c r="I57" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J57" s="3">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L57" s="3">
         <v>1000</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="N57" s="3">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="Q57" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>1503</v>
+        <v>1403</v>
       </c>
       <c r="B58" s="3">
         <v>15</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D58" s="3">
         <v>3</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="F58" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="H58" s="3">
         <v>1</v>
       </c>
       <c r="I58" s="3">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L58" s="3">
         <v>1000</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>293</v>
+        <v>149</v>
       </c>
       <c r="N58" s="3">
         <v>4</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="Q58" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>1504</v>
+        <v>1404</v>
       </c>
       <c r="B59" s="3">
         <v>15</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D59" s="3">
         <v>4</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="H59" s="3">
         <v>1</v>
       </c>
       <c r="I59" s="3">
-        <v>5000</v>
+        <v>3</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L59" s="3">
         <v>1000</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="N59" s="3"/>
+        <v>164</v>
+      </c>
+      <c r="N59" s="3">
+        <v>1102005</v>
+      </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="Q59" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>1601</v>
+        <v>1501</v>
       </c>
       <c r="B60" s="3">
         <v>16</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D60" s="3">
         <v>1</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>189</v>
+        <v>125</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="H60" s="3">
         <v>1</v>
       </c>
       <c r="I60" s="3">
-        <v>150</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="J60" s="3"/>
       <c r="K60" s="4" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="L60" s="3">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="N60" s="3">
-        <v>15</v>
-      </c>
-      <c r="P60" s="8" t="s">
-        <v>189</v>
+        <v>14</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>1602</v>
+        <v>1502</v>
       </c>
       <c r="B61" s="3">
         <v>16</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D61" s="3">
         <v>2</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="H61" s="3">
         <v>1</v>
       </c>
       <c r="I61" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J61" s="3">
         <v>513</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L61" s="3">
         <v>1000</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="N61" s="3">
         <v>513</v>
       </c>
       <c r="P61" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="Q61" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>1603</v>
+        <v>1503</v>
       </c>
       <c r="B62" s="3">
         <v>16</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D62" s="3">
         <v>3</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="H62" s="3">
         <v>1</v>
       </c>
       <c r="I62" s="3">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L62" s="3">
         <v>1000</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>293</v>
+        <v>149</v>
       </c>
       <c r="N62" s="3">
         <v>4</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="Q62" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>1604</v>
+        <v>1504</v>
       </c>
       <c r="B63" s="3">
         <v>16</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D63" s="3">
         <v>4</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>273</v>
+        <v>175</v>
       </c>
       <c r="H63" s="3">
         <v>1</v>
       </c>
       <c r="I63" s="3">
-        <v>6</v>
+        <v>5000</v>
       </c>
       <c r="J63" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L63" s="3">
         <v>1000</v>
       </c>
-      <c r="M63" s="3" t="s">
-        <v>306</v>
+      <c r="M63" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="N63" s="3"/>
       <c r="P63" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="Q63" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>1701</v>
+        <v>1601</v>
       </c>
       <c r="B64" s="3">
         <v>17</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>193</v>
+        <v>125</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="H64" s="3">
         <v>1</v>
       </c>
       <c r="I64" s="3">
-        <v>160</v>
-      </c>
-      <c r="J64" s="3">
-        <v>0</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="J64" s="3"/>
       <c r="K64" s="4" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="L64" s="3">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="N64" s="3">
-        <v>16</v>
-      </c>
-      <c r="P64" s="8" t="s">
-        <v>193</v>
+        <v>15</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>1702</v>
+        <v>1602</v>
       </c>
       <c r="B65" s="3">
         <v>17</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D65" s="3">
         <v>2</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>305</v>
+        <v>232</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="H65" s="3">
         <v>1</v>
       </c>
       <c r="I65" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J65" s="3">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L65" s="3">
         <v>1000</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="N65" s="3">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P65" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="Q65" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>1703</v>
+        <v>1603</v>
       </c>
       <c r="B66" s="3">
         <v>17</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D66" s="3">
         <v>3</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="H66" s="3">
         <v>1</v>
       </c>
       <c r="I66" s="3">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L66" s="3">
         <v>1000</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>293</v>
+        <v>149</v>
       </c>
       <c r="N66" s="3">
         <v>4</v>
       </c>
       <c r="P66" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="Q66" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>1704</v>
+        <v>1604</v>
       </c>
       <c r="B67" s="3">
         <v>17</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D67" s="3">
         <v>4</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="H67" s="3">
         <v>1</v>
@@ -6415,193 +6323,191 @@
         <v>6</v>
       </c>
       <c r="J67" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L67" s="3">
         <v>1000</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>306</v>
+        <v>236</v>
       </c>
       <c r="N67" s="3"/>
       <c r="P67" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="Q67" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>1801</v>
+        <v>1701</v>
       </c>
       <c r="B68" s="3">
         <v>18</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D68" s="3">
         <v>1</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>197</v>
+        <v>125</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="H68" s="3">
         <v>1</v>
       </c>
       <c r="I68" s="3">
-        <v>170</v>
-      </c>
-      <c r="J68" s="3">
-        <v>0</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="J68" s="3"/>
       <c r="K68" s="4" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="L68" s="3">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="N68" s="3">
-        <v>17</v>
-      </c>
-      <c r="P68" s="8" t="s">
-        <v>197</v>
+        <v>16</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>1802</v>
+        <v>1702</v>
       </c>
       <c r="B69" s="3">
         <v>18</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D69" s="3">
         <v>2</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>234</v>
+        <v>239</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="H69" s="3">
         <v>1</v>
       </c>
       <c r="I69" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J69" s="3">
         <v>514</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L69" s="3">
         <v>1000</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="N69" s="3">
         <v>514</v>
       </c>
       <c r="P69" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="Q69" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>1803</v>
+        <v>1703</v>
       </c>
       <c r="B70" s="3">
         <v>18</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D70" s="3">
         <v>3</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="H70" s="3">
         <v>1</v>
       </c>
       <c r="I70" s="3">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L70" s="3">
         <v>1000</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>293</v>
+        <v>149</v>
       </c>
       <c r="N70" s="3">
         <v>4</v>
       </c>
       <c r="P70" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="Q70" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>1804</v>
+        <v>1704</v>
       </c>
       <c r="B71" s="3">
         <v>18</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D71" s="3">
         <v>4</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="H71" s="3">
         <v>1</v>
@@ -6610,93 +6516,91 @@
         <v>6</v>
       </c>
       <c r="J71" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L71" s="3">
         <v>1000</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>306</v>
+        <v>236</v>
       </c>
       <c r="N71" s="3"/>
       <c r="P71" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="Q71" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>1901</v>
+        <v>1801</v>
       </c>
       <c r="B72" s="3">
         <v>19</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D72" s="3">
         <v>1</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>201</v>
+        <v>125</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="H72" s="3">
         <v>1</v>
       </c>
       <c r="I72" s="3">
-        <v>180</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="J72" s="3"/>
       <c r="K72" s="4" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="L72" s="3">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="N72" s="3">
-        <v>18</v>
-      </c>
-      <c r="P72" s="8" t="s">
-        <v>201</v>
+        <v>17</v>
+      </c>
+      <c r="P72" s="7" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>1902</v>
+        <v>1802</v>
       </c>
       <c r="B73" s="3">
         <v>19</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D73" s="3">
         <v>2</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>305</v>
+        <v>244</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="H73" s="3">
         <v>1</v>
@@ -6705,98 +6609,98 @@
         <v>3</v>
       </c>
       <c r="J73" s="3">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L73" s="3">
         <v>1000</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="N73" s="3">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P73" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="Q73" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>1903</v>
+        <v>1803</v>
       </c>
       <c r="B74" s="3">
         <v>19</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D74" s="3">
         <v>3</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="H74" s="3">
         <v>1</v>
       </c>
       <c r="I74" s="3">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="J74" s="3">
         <v>0</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L74" s="3">
         <v>1000</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>293</v>
+        <v>149</v>
       </c>
       <c r="N74" s="3">
         <v>4</v>
       </c>
       <c r="P74" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="Q74" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>1904</v>
+        <v>1804</v>
       </c>
       <c r="B75" s="3">
         <v>19</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D75" s="3">
         <v>4</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="H75" s="3">
         <v>1</v>
@@ -6805,193 +6709,191 @@
         <v>6</v>
       </c>
       <c r="J75" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L75" s="3">
         <v>1000</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>306</v>
+        <v>236</v>
       </c>
       <c r="N75" s="3"/>
       <c r="P75" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="Q75" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>2001</v>
+        <v>1901</v>
       </c>
       <c r="B76" s="3">
         <v>20</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>205</v>
+        <v>125</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="H76" s="3">
         <v>1</v>
       </c>
       <c r="I76" s="3">
-        <v>190</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="J76" s="3"/>
       <c r="K76" s="4" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="L76" s="3">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="N76" s="3">
-        <v>19</v>
-      </c>
-      <c r="P76" s="8" t="s">
-        <v>205</v>
+        <v>18</v>
+      </c>
+      <c r="P76" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>2002</v>
+        <v>1902</v>
       </c>
       <c r="B77" s="3">
         <v>20</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D77" s="3">
         <v>2</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>305</v>
+        <v>173</v>
       </c>
       <c r="H77" s="3">
         <v>1</v>
       </c>
       <c r="I77" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J77" s="3">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L77" s="3">
         <v>1000</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="N77" s="3">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P77" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="Q77" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>2003</v>
+        <v>1903</v>
       </c>
       <c r="B78" s="3">
         <v>20</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D78" s="3">
         <v>3</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="H78" s="3">
         <v>1</v>
       </c>
       <c r="I78" s="3">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="J78" s="3">
         <v>0</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L78" s="3">
         <v>1000</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>293</v>
+        <v>149</v>
       </c>
       <c r="N78" s="3">
         <v>4</v>
       </c>
       <c r="P78" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="Q78" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>2004</v>
+        <v>1904</v>
       </c>
       <c r="B79" s="3">
         <v>20</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D79" s="3">
         <v>4</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="H79" s="3">
         <v>1</v>
@@ -7000,193 +6902,191 @@
         <v>6</v>
       </c>
       <c r="J79" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L79" s="3">
         <v>1000</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>306</v>
+        <v>236</v>
       </c>
       <c r="N79" s="3"/>
       <c r="P79" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="Q79" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>2101</v>
+        <v>2001</v>
       </c>
       <c r="B80" s="3">
         <v>21</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D80" s="3">
         <v>1</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>209</v>
+        <v>125</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="H80" s="3">
         <v>1</v>
       </c>
       <c r="I80" s="3">
-        <v>200</v>
-      </c>
-      <c r="J80" s="3">
-        <v>0</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="J80" s="3"/>
       <c r="K80" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L80" s="3">
+        <v>5</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N80" s="3">
         <v>19</v>
       </c>
-      <c r="L80" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M80" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="N80" s="3">
-        <v>20</v>
-      </c>
-      <c r="P80" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P80" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>2102</v>
+        <v>2002</v>
       </c>
       <c r="B81" s="3">
         <v>21</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D81" s="3">
         <v>2</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>305</v>
+        <v>173</v>
       </c>
       <c r="H81" s="3">
         <v>1</v>
       </c>
       <c r="I81" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J81" s="3">
         <v>516</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L81" s="3">
         <v>1000</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="N81" s="3">
         <v>516</v>
       </c>
       <c r="P81" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="Q81" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>2103</v>
+        <v>2003</v>
       </c>
       <c r="B82" s="3">
         <v>21</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D82" s="3">
         <v>3</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="H82" s="3">
         <v>1</v>
       </c>
       <c r="I82" s="3">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="J82" s="3">
         <v>0</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L82" s="3">
         <v>1000</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>307</v>
+        <v>149</v>
       </c>
       <c r="N82" s="3">
         <v>4</v>
       </c>
       <c r="P82" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="Q82" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>2104</v>
+        <v>2004</v>
       </c>
       <c r="B83" s="3">
         <v>21</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="D83" s="3">
         <v>4</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="H83" s="3">
         <v>1</v>
@@ -7195,34 +7095,31 @@
         <v>6</v>
       </c>
       <c r="J83" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L83" s="3">
         <v>1000</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>306</v>
+        <v>236</v>
       </c>
       <c r="N83" s="3"/>
       <c r="P83" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="Q83" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="Q37:Q39">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <conditionalFormatting sqref="Q41:Q43">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q81:Q83">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/break.玩家等级突破.xlsx
+++ b/Excel/镇魂街/break.玩家等级突破.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\ExcelToLua\Excel\镇魂街\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1810,7 +1810,7 @@
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2067,7 +2067,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="3">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="3"/>

--- a/Excel/镇魂街/break.玩家等级突破.xlsx
+++ b/Excel/镇魂街/break.玩家等级突破.xlsx
@@ -1,32 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\ExcelToLua\Excel\镇魂街\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC24FA2-ECD4-425B-9D6A-741F6E670E69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="地狱道" sheetId="29" r:id="rId2"/>
     <sheet name="地狱道任务" sheetId="28" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">地狱道任务!$M$1:$M$83</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0" shapeId="0">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="276">
   <si>
     <t>sheet名</t>
   </si>
@@ -1100,22 +1112,49 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>芦花古楼-风通关到4</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>进行5次守护灵抽奖</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>钻石</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换3次技能</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>武灵技背包全部页</t>
+  </si>
+  <si>
+    <t>关卡-cha</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>解封一个专属武器</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换6次技能</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活神器1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器解封-bhv</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1336,7 +1375,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -1367,22 +1406,23 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="7"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8"/>
-    <cellStyle name="常规 3" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="6"/>
-    <cellStyle name="横向标题" xfId="1"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="12"/>
-    <cellStyle name="因变Grid" xfId="3"/>
-    <cellStyle name="英文标题" xfId="2"/>
-    <cellStyle name="中文标题" xfId="13"/>
-    <cellStyle name="纵向标题" xfId="5"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="无效" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="中文标题" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1665,7 +1705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1806,11 +1846,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2067,7 +2107,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="3">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="3"/>
@@ -2093,8 +2133,8 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>70</v>
+      <c r="C5" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>71</v>
@@ -2123,12 +2163,8 @@
       <c r="L5" s="3">
         <v>100</v>
       </c>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3">
-        <v>2</v>
-      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -2180,27 +2216,15 @@
         <v>100</v>
       </c>
       <c r="M6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" s="3">
-        <v>2</v>
-      </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="3">
         <v>401</v>
       </c>
-      <c r="R6" s="3">
+      <c r="O6" s="3">
         <v>45</v>
       </c>
-      <c r="S6" s="3">
-        <v>202</v>
-      </c>
-      <c r="T6" s="3">
-        <v>2</v>
-      </c>
+      <c r="S6" s="12"/>
       <c r="U6" s="3">
         <v>1</v>
       </c>
@@ -2254,12 +2278,8 @@
       <c r="O7" s="3">
         <v>60</v>
       </c>
-      <c r="P7" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>3</v>
-      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -2316,12 +2336,8 @@
       <c r="O8" s="3">
         <v>80</v>
       </c>
-      <c r="P8" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>4</v>
-      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -2365,12 +2381,8 @@
       <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3">
-        <v>1</v>
-      </c>
-      <c r="N9" s="3">
-        <v>5</v>
-      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -2417,12 +2429,8 @@
       <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
-        <v>1</v>
-      </c>
-      <c r="N10" s="3">
-        <v>6</v>
-      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -2469,12 +2477,8 @@
       <c r="L11" s="3">
         <v>100</v>
       </c>
-      <c r="M11" s="3">
-        <v>1</v>
-      </c>
-      <c r="N11" s="3">
-        <v>7</v>
-      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -3141,11 +3145,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:N7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3332,10 +3336,10 @@
         <v>1</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>129</v>
+        <v>272</v>
       </c>
       <c r="N4" s="4">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>130</v>
@@ -3425,7 +3429,7 @@
         <v>139</v>
       </c>
       <c r="N6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" t="s">
         <v>137</v>
@@ -3461,13 +3465,13 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L7" s="3">
         <v>20</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>143</v>
+      <c r="M7" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="N7" s="3"/>
       <c r="P7" t="s">
@@ -3479,6 +3483,7 @@
         <v>201</v>
       </c>
       <c r="B8" s="3">
+        <f>B4+1</f>
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -3521,6 +3526,7 @@
         <v>202</v>
       </c>
       <c r="B9" s="3">
+        <f t="shared" ref="B9:B72" si="0">B5+1</f>
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -3563,6 +3569,7 @@
         <v>203</v>
       </c>
       <c r="B10" s="3">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -3574,39 +3581,36 @@
       <c r="E10" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>266</v>
+      <c r="F10" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
       </c>
       <c r="I10" s="3">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
-        <v>401</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J10" s="3"/>
       <c r="K10" s="4" t="s">
-        <v>145</v>
+        <v>267</v>
       </c>
       <c r="L10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>204</v>
       </c>
       <c r="B11" s="3">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -3619,7 +3623,7 @@
         <v>140</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>138</v>
@@ -3632,19 +3636,24 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L11" s="3">
         <v>50</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="3"/>
+      <c r="M11" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>301</v>
       </c>
       <c r="B12" s="3">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -3690,6 +3699,7 @@
         <v>302</v>
       </c>
       <c r="B13" s="3">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -3740,6 +3750,7 @@
         <v>303</v>
       </c>
       <c r="B14" s="3">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -3786,6 +3797,7 @@
         <v>304</v>
       </c>
       <c r="B15" s="3">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -3798,32 +3810,28 @@
         <v>140</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>154</v>
+        <v>273</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
       </c>
       <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3">
-        <v>101</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="J15" s="3"/>
       <c r="K15" s="4" t="s">
-        <v>145</v>
+        <v>267</v>
       </c>
       <c r="L15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="N15" s="3"/>
       <c r="P15" t="s">
         <v>154</v>
       </c>
@@ -3836,6 +3844,7 @@
         <v>401</v>
       </c>
       <c r="B16" s="3">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -3881,6 +3890,7 @@
         <v>402</v>
       </c>
       <c r="B17" s="3">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -3896,7 +3906,7 @@
         <v>158</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>148</v>
+        <v>270</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -3931,6 +3941,7 @@
         <v>403</v>
       </c>
       <c r="B18" s="3">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -3981,6 +3992,7 @@
         <v>404</v>
       </c>
       <c r="B19" s="3">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -4029,6 +4041,7 @@
         <v>501</v>
       </c>
       <c r="B20" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -4074,6 +4087,7 @@
         <v>502</v>
       </c>
       <c r="B21" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -4095,10 +4109,10 @@
         <v>1</v>
       </c>
       <c r="I21" s="3">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>5</v>
-      </c>
-      <c r="J21" s="3">
-        <v>3</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>145</v>
@@ -4124,6 +4138,7 @@
         <v>503</v>
       </c>
       <c r="B22" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -4158,7 +4173,7 @@
         <v>139</v>
       </c>
       <c r="N22" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P22" t="s">
         <v>162</v>
@@ -4172,6 +4187,7 @@
         <v>504</v>
       </c>
       <c r="B23" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -4184,7 +4200,7 @@
         <v>140</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>165</v>
+        <v>274</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>155</v>
@@ -4196,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>145</v>
@@ -4222,6 +4238,7 @@
         <v>601</v>
       </c>
       <c r="B24" s="3">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -4267,6 +4284,7 @@
         <v>602</v>
       </c>
       <c r="B25" s="3">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -4317,6 +4335,7 @@
         <v>603</v>
       </c>
       <c r="B26" s="3">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -4363,6 +4382,7 @@
         <v>604</v>
       </c>
       <c r="B27" s="3">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -4375,10 +4395,10 @@
         <v>140</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>177</v>
+        <v>271</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>178</v>
+        <v>275</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -4411,6 +4431,7 @@
         <v>701</v>
       </c>
       <c r="B28" s="3">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -4456,6 +4477,7 @@
         <v>702</v>
       </c>
       <c r="B29" s="3">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -4506,6 +4528,7 @@
         <v>703</v>
       </c>
       <c r="B30" s="3">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -4556,6 +4579,7 @@
         <v>704</v>
       </c>
       <c r="B31" s="3">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -4606,6 +4630,7 @@
         <v>801</v>
       </c>
       <c r="B32" s="3">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -4651,6 +4676,7 @@
         <v>802</v>
       </c>
       <c r="B33" s="3">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -4701,6 +4727,7 @@
         <v>803</v>
       </c>
       <c r="B34" s="3">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -4749,6 +4776,7 @@
         <v>804</v>
       </c>
       <c r="B35" s="3">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -4783,7 +4811,7 @@
         <v>139</v>
       </c>
       <c r="N35" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P35" t="s">
         <v>190</v>
@@ -4797,6 +4825,7 @@
         <v>901</v>
       </c>
       <c r="B36" s="3">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -4842,6 +4871,7 @@
         <v>902</v>
       </c>
       <c r="B37" s="3">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -4892,6 +4922,7 @@
         <v>903</v>
       </c>
       <c r="B38" s="3">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -4940,6 +4971,7 @@
         <v>904</v>
       </c>
       <c r="B39" s="3">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -4990,6 +5022,7 @@
         <v>1001</v>
       </c>
       <c r="B40" s="3">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -5035,6 +5068,7 @@
         <v>1002</v>
       </c>
       <c r="B41" s="3">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -5085,6 +5119,7 @@
         <v>1003</v>
       </c>
       <c r="B42" s="3">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -5133,6 +5168,7 @@
         <v>1004</v>
       </c>
       <c r="B43" s="3">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -5183,6 +5219,7 @@
         <v>1101</v>
       </c>
       <c r="B44" s="3">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -5228,6 +5265,7 @@
         <v>1102</v>
       </c>
       <c r="B45" s="3">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -5278,6 +5316,7 @@
         <v>1103</v>
       </c>
       <c r="B46" s="3">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -5328,6 +5367,7 @@
         <v>1104</v>
       </c>
       <c r="B47" s="3">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -5378,6 +5418,7 @@
         <v>1201</v>
       </c>
       <c r="B48" s="3">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -5423,6 +5464,7 @@
         <v>1202</v>
       </c>
       <c r="B49" s="3">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -5473,6 +5515,7 @@
         <v>1203</v>
       </c>
       <c r="B50" s="3">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -5521,6 +5564,7 @@
         <v>1204</v>
       </c>
       <c r="B51" s="3">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -5557,7 +5601,7 @@
         <v>139</v>
       </c>
       <c r="N51" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P51" t="s">
         <v>189</v>
@@ -5571,6 +5615,7 @@
         <v>1301</v>
       </c>
       <c r="B52" s="3">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -5616,6 +5661,7 @@
         <v>1302</v>
       </c>
       <c r="B53" s="3">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -5666,6 +5712,7 @@
         <v>1303</v>
       </c>
       <c r="B54" s="3">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -5716,6 +5763,7 @@
         <v>1304</v>
       </c>
       <c r="B55" s="3">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -5740,7 +5788,7 @@
         <v>3000</v>
       </c>
       <c r="J55" s="3">
-        <v>0</v>
+        <v>1401010</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>145</v>
@@ -5766,6 +5814,7 @@
         <v>1401</v>
       </c>
       <c r="B56" s="3">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -5811,6 +5860,7 @@
         <v>1402</v>
       </c>
       <c r="B57" s="3">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -5861,6 +5911,7 @@
         <v>1403</v>
       </c>
       <c r="B58" s="3">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -5911,6 +5962,7 @@
         <v>1404</v>
       </c>
       <c r="B59" s="3">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -5961,6 +6013,7 @@
         <v>1501</v>
       </c>
       <c r="B60" s="3">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -6006,6 +6059,7 @@
         <v>1502</v>
       </c>
       <c r="B61" s="3">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -6056,6 +6110,7 @@
         <v>1503</v>
       </c>
       <c r="B62" s="3">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -6106,6 +6161,7 @@
         <v>1504</v>
       </c>
       <c r="B63" s="3">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -6154,6 +6210,7 @@
         <v>1601</v>
       </c>
       <c r="B64" s="3">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -6199,6 +6256,7 @@
         <v>1602</v>
       </c>
       <c r="B65" s="3">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -6249,6 +6307,7 @@
         <v>1603</v>
       </c>
       <c r="B66" s="3">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -6299,6 +6358,7 @@
         <v>1604</v>
       </c>
       <c r="B67" s="3">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -6347,6 +6407,7 @@
         <v>1701</v>
       </c>
       <c r="B68" s="3">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -6392,6 +6453,7 @@
         <v>1702</v>
       </c>
       <c r="B69" s="3">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -6442,6 +6504,7 @@
         <v>1703</v>
       </c>
       <c r="B70" s="3">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -6492,6 +6555,7 @@
         <v>1704</v>
       </c>
       <c r="B71" s="3">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -6540,6 +6604,7 @@
         <v>1801</v>
       </c>
       <c r="B72" s="3">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C72" s="3" t="s">
@@ -6585,6 +6650,7 @@
         <v>1802</v>
       </c>
       <c r="B73" s="3">
+        <f t="shared" ref="B73:B83" si="1">B69+1</f>
         <v>19</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -6635,6 +6701,7 @@
         <v>1803</v>
       </c>
       <c r="B74" s="3">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -6685,6 +6752,7 @@
         <v>1804</v>
       </c>
       <c r="B75" s="3">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -6733,6 +6801,7 @@
         <v>1901</v>
       </c>
       <c r="B76" s="3">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -6778,6 +6847,7 @@
         <v>1902</v>
       </c>
       <c r="B77" s="3">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C77" s="3" t="s">
@@ -6828,6 +6898,7 @@
         <v>1903</v>
       </c>
       <c r="B78" s="3">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -6878,6 +6949,7 @@
         <v>1904</v>
       </c>
       <c r="B79" s="3">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C79" s="3" t="s">
@@ -6926,6 +6998,7 @@
         <v>2001</v>
       </c>
       <c r="B80" s="3">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C80" s="3" t="s">
@@ -6971,6 +7044,7 @@
         <v>2002</v>
       </c>
       <c r="B81" s="3">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -7021,6 +7095,7 @@
         <v>2003</v>
       </c>
       <c r="B82" s="3">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -7071,6 +7146,7 @@
         <v>2004</v>
       </c>
       <c r="B83" s="3">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -7120,6 +7196,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/break.玩家等级突破.xlsx
+++ b/Excel/镇魂街/break.玩家等级突破.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC24FA2-ECD4-425B-9D6A-741F6E670E69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -18,27 +17,19 @@
     <sheet name="地狱道任务" sheetId="28" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">地狱道任务!$M$1:$M$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">地狱道任务!$M$1:$M$79</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="M3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="289">
   <si>
     <t>sheet名</t>
   </si>
@@ -309,9 +300,6 @@
     <t>钻石</t>
   </si>
   <si>
-    <t>201#202</t>
-  </si>
-  <si>
     <t>ui_dtex_Quality_075</t>
   </si>
   <si>
@@ -319,9 +307,6 @@
   </si>
   <si>
     <t>众合</t>
-  </si>
-  <si>
-    <t>301#302#303</t>
   </si>
   <si>
     <t>ui_dtex_Quality_076</t>
@@ -529,12 +514,6 @@
     <t>拥有一张20级的守护灵</t>
   </si>
   <si>
-    <t>竞技场获得5次胜利</t>
-  </si>
-  <si>
-    <t>竞技场-win</t>
-  </si>
-  <si>
     <t>竞技场对阵页</t>
   </si>
   <si>
@@ -610,9 +589,6 @@
     <t>激活一个专属武器</t>
   </si>
   <si>
-    <t>专属武器激活-cnt</t>
-  </si>
-  <si>
     <t>守护灵武器解封页</t>
   </si>
   <si>
@@ -649,28 +625,6 @@
     <t>守护灵抽奖30次</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>玩家等级升到8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
     <t>击杀7阶地煞BOSS3个</t>
   </si>
   <si>
@@ -686,28 +640,6 @@
     <t>激活3个专属武器</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>玩家等级升到9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
     <t>玩家等级升到85</t>
   </si>
   <si>
@@ -723,28 +655,6 @@
     <t>3个专属武器强化到10</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>玩家等级升到9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
     <t>玩家等级升到90</t>
   </si>
   <si>
@@ -757,31 +667,6 @@
     <t>一个专属武器解封2次</t>
   </si>
   <si>
-    <t>专属武器解封-max</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>玩家等级升到1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>00</t>
-    </r>
-  </si>
-  <si>
     <t>玩家等级升到95</t>
   </si>
   <si>
@@ -794,28 +679,6 @@
     <t>守护灵抽奖100次</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>玩家等级升到10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
     <t>玩家等级升到100</t>
   </si>
   <si>
@@ -828,31 +691,6 @@
     <t>花费钻石3000</t>
   </si>
   <si>
-    <t>花费道具-id</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>玩家等级升到1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-  </si>
-  <si>
     <t>玩家等级升到105</t>
   </si>
   <si>
@@ -865,28 +703,6 @@
     <t>3个专属武器强化到25</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>玩家等级升到11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
     <t>玩家等级升到110</t>
   </si>
   <si>
@@ -899,28 +715,6 @@
     <t>竞技场到达1500分</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>玩家等级升到1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20</t>
-    </r>
-  </si>
-  <si>
     <t>玩家等级升到115</t>
   </si>
   <si>
@@ -939,28 +733,6 @@
     <t>守护灵列表</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>玩家等级升到12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
     <t>玩家等级升到120</t>
   </si>
   <si>
@@ -973,28 +745,6 @@
     <t>6个守护灵突破达到15</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>玩家等级升到1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>30</t>
-    </r>
-  </si>
-  <si>
     <t>玩家等级升到125</t>
   </si>
   <si>
@@ -1007,28 +757,6 @@
     <t>6个守护灵突破达到16</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>玩家等级升到13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
     <t>玩家等级升到130</t>
   </si>
   <si>
@@ -1039,40 +767,6 @@
   </si>
   <si>
     <t>6个守护灵突破达到17</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>玩家等级升到1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>40</t>
-    </r>
-  </si>
-  <si>
-    <t>玩家等级升到135</t>
-  </si>
-  <si>
-    <t>击杀2次星耀1的世界BOSS</t>
-  </si>
-  <si>
-    <t>芦花古楼总共250层</t>
-  </si>
-  <si>
-    <t>6个守护灵突破达到18</t>
   </si>
   <si>
     <t>1张守护灵升到10</t>
@@ -1096,14 +790,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>101</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>102</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家等级升到20级</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1148,13 +834,150 @@
   </si>
   <si>
     <t>专属武器解封-bhv</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费货币-id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>101#102</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>201#202#301</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>302#303</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场-bhv</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与5次竞技场战斗</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀2个恶灵</t>
+  </si>
+  <si>
+    <t>击杀3阶地煞恶灵2个</t>
+  </si>
+  <si>
+    <t>击杀4阶地煞恶灵2个</t>
+  </si>
+  <si>
+    <t>击杀6阶地煞恶灵3个</t>
+  </si>
+  <si>
+    <t>击杀7阶地煞恶灵3个</t>
+  </si>
+  <si>
+    <t>击杀8阶地煞恶灵3个</t>
+  </si>
+  <si>
+    <t>击杀3次地煞9的世界恶灵</t>
+  </si>
+  <si>
+    <t>击杀3次天罡1的世界恶灵</t>
+  </si>
+  <si>
+    <t>击杀3次天罡2的世界恶灵</t>
+  </si>
+  <si>
+    <t>击杀3次天罡3的世界恶灵</t>
+  </si>
+  <si>
+    <t>击杀1次天罡4的世界恶灵</t>
+  </si>
+  <si>
+    <t>击杀3次天罡4的世界恶灵</t>
+  </si>
+  <si>
+    <t>击杀1次天罡5的世界恶灵</t>
+  </si>
+  <si>
+    <t>击杀3次天罡5的世界恶灵</t>
+  </si>
+  <si>
+    <t>击杀3次天罡6的世界恶灵</t>
+  </si>
+  <si>
+    <t>专属武器解封-max</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器解封-bhv</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器解封9次</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到60</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到65</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到70</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到80</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到85</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到90</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到100</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到105</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到110</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到120</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到130</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到135</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到140</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到150</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1409,20 +1232,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="7"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="无效" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="中文标题" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 2" xfId="8"/>
+    <cellStyle name="常规 3" xfId="10"/>
+    <cellStyle name="超链接 2" xfId="11"/>
+    <cellStyle name="大标题" xfId="6"/>
+    <cellStyle name="横向标题" xfId="1"/>
+    <cellStyle name="文本" xfId="9"/>
+    <cellStyle name="无效" xfId="12"/>
+    <cellStyle name="因变Grid" xfId="3"/>
+    <cellStyle name="英文标题" xfId="2"/>
+    <cellStyle name="中文标题" xfId="13"/>
+    <cellStyle name="纵向标题" xfId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1705,7 +1528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1846,11 +1669,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1970,7 +1793,7 @@
         <v>43</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
@@ -2036,7 +1859,7 @@
         <v>56</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>57</v>
@@ -2119,12 +1942,8 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="3">
-        <v>1</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>262</v>
-      </c>
+      <c r="U4" s="3"/>
+      <c r="V4" s="10"/>
     </row>
     <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -2175,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
@@ -2229,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>78</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
@@ -2240,22 +2059,22 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>71</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I7" s="4">
         <v>40</v>
@@ -2287,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
@@ -2298,28 +2117,28 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>71</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I8" s="4">
         <v>50</v>
       </c>
       <c r="J8" s="3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>77</v>
@@ -2352,28 +2171,28 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I9" s="4">
         <v>60</v>
       </c>
       <c r="J9" s="3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>77</v>
@@ -2400,25 +2219,25 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="H10" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I10" s="4">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J10" s="3">
         <v>80</v>
@@ -2448,28 +2267,28 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I11" s="4">
+        <v>70</v>
+      </c>
+      <c r="J11" s="3">
         <v>80</v>
-      </c>
-      <c r="J11" s="3">
-        <v>90</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>77</v>
@@ -2496,28 +2315,28 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I12" s="4">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>77</v>
@@ -2550,25 +2369,25 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="F13" s="3">
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I13" s="4">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J13" s="3">
         <v>100</v>
@@ -2598,25 +2417,25 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="F14" s="3">
         <v>3</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="4">
         <v>90</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I14" s="4">
-        <v>95</v>
       </c>
       <c r="J14" s="3">
         <v>100</v>
@@ -2646,25 +2465,25 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I15" s="4">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
@@ -2694,25 +2513,25 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="H16" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I16" s="4">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J16" s="3">
         <v>120</v>
@@ -2748,25 +2567,25 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I17" s="4">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J17" s="3">
         <v>120</v>
@@ -2796,25 +2615,25 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F18" s="3">
         <v>3</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I18" s="4">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J18" s="3">
         <v>120</v>
@@ -2844,28 +2663,28 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I19" s="4">
         <v>120</v>
       </c>
       <c r="J19" s="3">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>77</v>
@@ -2892,28 +2711,28 @@
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="H20" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I20" s="4">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J20" s="3">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>77</v>
@@ -2946,28 +2765,28 @@
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I21" s="4">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J21" s="3">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>77</v>
@@ -2994,28 +2813,28 @@
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="F22" s="3">
         <v>3</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I22" s="4">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J22" s="3">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>77</v>
@@ -3042,28 +2861,28 @@
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I23" s="4">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="J23" s="3">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>77</v>
@@ -3082,60 +2901,6 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
     </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3">
-        <v>21</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I24" s="4">
-        <v>150</v>
-      </c>
-      <c r="J24" s="3">
-        <v>150</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>2</v>
-      </c>
-      <c r="N24" s="3">
-        <v>401</v>
-      </c>
-      <c r="O24" s="3">
-        <v>150</v>
-      </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3145,11 +2910,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="C46" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3176,28 +2941,28 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>26</v>
@@ -3206,10 +2971,10 @@
         <v>27</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -3220,7 +2985,7 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -3232,7 +2997,7 @@
         <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H2" t="s">
         <v>46</v>
@@ -3250,7 +3015,7 @@
         <v>46</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N2" t="s">
         <v>47</v>
@@ -3261,31 +3026,31 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>56</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>58</v>
@@ -3294,10 +3059,10 @@
         <v>59</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3308,19 +3073,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -3330,19 +3095,19 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L4" s="3">
         <v>1</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="N4" s="4">
         <v>102</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3353,19 +3118,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -3377,17 +3142,17 @@
         <v>10</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L5" s="3">
         <v>10</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N5" s="4"/>
       <c r="P5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3398,19 +3163,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -3420,19 +3185,19 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L6" s="3">
         <v>10</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N6" s="3">
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3443,19 +3208,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D7" s="3">
         <v>4</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -3465,17 +3230,17 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="4" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="L7" s="3">
         <v>20</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="N7" s="3"/>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3487,19 +3252,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -3509,13 +3274,13 @@
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L8" s="3">
         <v>2</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N8" s="4">
         <v>1</v>
@@ -3530,19 +3295,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D9" s="3">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -3554,13 +3319,13 @@
         <v>20</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L9" s="3">
         <v>20</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N9" s="4"/>
     </row>
@@ -3573,19 +3338,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D10" s="3">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -3595,13 +3360,13 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="4" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="L10" s="3">
         <v>20</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="N10" s="3"/>
     </row>
@@ -3614,19 +3379,19 @@
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D11" s="3">
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -3636,13 +3401,13 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="4" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="L11" s="3">
         <v>50</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N11" s="3">
         <v>1</v>
@@ -3657,19 +3422,19 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -3679,19 +3444,19 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L12" s="3">
         <v>2</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N12" s="3">
         <v>2</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3703,19 +3468,19 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -3727,22 +3492,22 @@
         <v>401</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L13" s="3">
         <v>1000</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N13" s="3">
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3754,19 +3519,19 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>151</v>
+        <v>256</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>152</v>
+        <v>255</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -3776,20 +3541,20 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L14" s="3">
         <v>1000</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N14" s="3"/>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3801,19 +3566,19 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D15" s="3">
         <v>4</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -3823,20 +3588,20 @@
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="4" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="L15" s="3">
         <v>20</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="N15" s="3"/>
       <c r="P15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3848,19 +3613,19 @@
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -3870,19 +3635,19 @@
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L16" s="3">
         <v>3</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N16" s="3">
         <v>3</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3894,19 +3659,19 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -3918,22 +3683,22 @@
         <v>402</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L17" s="3">
         <v>1000</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N17" s="3">
         <v>2</v>
       </c>
       <c r="P17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3945,19 +3710,19 @@
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>159</v>
+        <v>257</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -3969,22 +3734,22 @@
         <v>500</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L18" s="3">
         <v>1000</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N18" s="3">
         <v>501</v>
       </c>
       <c r="P18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -3996,19 +3761,19 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D19" s="3">
         <v>4</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -4018,22 +3783,22 @@
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L19" s="3">
         <v>1000</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N19" s="3">
         <v>1102004</v>
       </c>
       <c r="P19" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q19" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4045,19 +3810,19 @@
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -4067,19 +3832,19 @@
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L20" s="3">
         <v>3</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N20" s="3">
         <v>4</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4091,19 +3856,19 @@
         <v>6</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D21" s="3">
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -4115,22 +3880,22 @@
         <v>5</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L21" s="3">
         <v>1000</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N21" s="3">
         <v>1102004</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q21" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4142,19 +3907,19 @@
         <v>6</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D22" s="3">
         <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -4164,22 +3929,22 @@
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L22" s="3">
         <v>1000</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N22" s="3">
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4191,19 +3956,19 @@
         <v>6</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D23" s="3">
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -4215,22 +3980,22 @@
         <v>101</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L23" s="3">
         <v>1000</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N23" s="3">
         <v>2</v>
       </c>
       <c r="P23" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q23" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4242,19 +4007,19 @@
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -4264,19 +4029,19 @@
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L24" s="3">
         <v>4</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N24" s="3">
         <v>5</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4288,19 +4053,19 @@
         <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>172</v>
+        <v>258</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
@@ -4312,22 +4077,22 @@
         <v>503</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L25" s="3">
         <v>1000</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N25" s="3">
         <v>503</v>
       </c>
       <c r="P25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4339,19 +4104,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D26" s="3">
         <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
@@ -4361,20 +4126,20 @@
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L26" s="3">
         <v>1000</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N26" s="3"/>
       <c r="P26" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q26" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4386,19 +4151,19 @@
         <v>7</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D27" s="3">
         <v>4</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -4408,22 +4173,22 @@
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L27" s="3">
         <v>1000</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="N27" s="3">
         <v>1102004</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q27" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4435,41 +4200,41 @@
         <v>8</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="H28" s="3">
         <v>1</v>
       </c>
       <c r="I28" s="3">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L28" s="3">
         <v>4</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N28" s="3">
         <v>6</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4481,19 +4246,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D29" s="3">
         <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
@@ -4505,22 +4270,22 @@
         <v>504</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L29" s="3">
         <v>1000</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N29" s="3">
         <v>504</v>
       </c>
       <c r="P29" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Q29" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4532,19 +4297,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D30" s="3">
         <v>3</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -4552,26 +4317,24 @@
       <c r="I30" s="3">
         <v>50</v>
       </c>
-      <c r="J30" s="3">
-        <v>1</v>
-      </c>
+      <c r="J30" s="3"/>
       <c r="K30" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L30" s="3">
         <v>1000</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N30" s="3">
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="Q30" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4583,19 +4346,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D31" s="3">
         <v>4</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H31" s="3">
         <v>1</v>
@@ -4607,22 +4370,22 @@
         <v>10</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L31" s="3">
         <v>1000</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N31" s="3">
         <v>1102004</v>
       </c>
       <c r="P31" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Q31" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4634,41 +4397,41 @@
         <v>9</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="H32" s="3">
         <v>1</v>
       </c>
       <c r="I32" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L32" s="3">
         <v>5</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N32" s="3">
         <v>7</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4680,19 +4443,19 @@
         <v>9</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D33" s="3">
         <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
@@ -4704,22 +4467,22 @@
         <v>506</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L33" s="3">
         <v>1000</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N33" s="3">
         <v>506</v>
       </c>
       <c r="P33" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Q33" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4731,19 +4494,19 @@
         <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D34" s="3">
         <v>3</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -4753,22 +4516,22 @@
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L34" s="3">
         <v>1000</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N34" s="3">
         <v>1102004</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="Q34" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4780,19 +4543,19 @@
         <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D35" s="3">
         <v>4</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
@@ -4802,22 +4565,22 @@
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L35" s="3">
         <v>1000</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N35" s="3">
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="Q35" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4829,41 +4592,41 @@
         <v>10</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="H36" s="3">
         <v>1</v>
       </c>
       <c r="I36" s="3">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L36" s="3">
         <v>5</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N36" s="3">
         <v>8</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4875,19 +4638,19 @@
         <v>10</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D37" s="3">
         <v>2</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>192</v>
+        <v>261</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
@@ -4899,22 +4662,22 @@
         <v>507</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L37" s="3">
         <v>1000</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N37" s="3">
         <v>507</v>
       </c>
       <c r="P37" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q37" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4926,19 +4689,19 @@
         <v>10</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D38" s="3">
         <v>3</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H38" s="3">
         <v>1</v>
@@ -4950,20 +4713,20 @@
         <v>0</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L38" s="3">
         <v>1000</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="N38" s="3"/>
       <c r="P38" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Q38" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -4975,46 +4738,46 @@
         <v>10</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D39" s="3">
         <v>4</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>196</v>
+        <v>274</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>178</v>
+        <v>273</v>
       </c>
       <c r="H39" s="3">
         <v>1</v>
       </c>
       <c r="I39" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J39" s="3">
         <v>0</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L39" s="3">
         <v>1000</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="N39" s="3">
         <v>1102004</v>
       </c>
       <c r="P39" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q39" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5026,41 +4789,41 @@
         <v>11</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="H40" s="3">
         <v>1</v>
       </c>
       <c r="I40" s="3">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L40" s="3">
         <v>5</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N40" s="3">
         <v>9</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5072,19 +4835,19 @@
         <v>11</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="3">
         <v>2</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>199</v>
+        <v>262</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H41" s="3">
         <v>1</v>
@@ -5096,22 +4859,22 @@
         <v>508</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L41" s="3">
         <v>1000</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N41" s="3">
         <v>508</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="Q41" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5123,19 +4886,19 @@
         <v>11</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D42" s="3">
         <v>3</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H42" s="3">
         <v>1</v>
@@ -5147,20 +4910,20 @@
         <v>0</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L42" s="3">
         <v>1000</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N42" s="3"/>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="Q42" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5172,19 +4935,19 @@
         <v>11</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D43" s="3">
         <v>4</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H43" s="3">
         <v>1</v>
@@ -5196,22 +4959,22 @@
         <v>15</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L43" s="3">
         <v>1000</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N43" s="3">
         <v>1102004</v>
       </c>
       <c r="P43" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Q43" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5223,41 +4986,41 @@
         <v>12</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
       </c>
       <c r="E44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="H44" s="3">
         <v>1</v>
       </c>
       <c r="I44" s="3">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L44" s="3">
         <v>5</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N44" s="3">
         <v>10</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5269,19 +5032,19 @@
         <v>12</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D45" s="3">
         <v>2</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
@@ -5293,22 +5056,22 @@
         <v>509</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L45" s="3">
         <v>1000</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N45" s="3">
         <v>509</v>
       </c>
       <c r="P45" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="Q45" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5320,19 +5083,19 @@
         <v>12</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D46" s="3">
         <v>3</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H46" s="3">
         <v>1</v>
@@ -5344,22 +5107,22 @@
         <v>0</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L46" s="3">
         <v>1000</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N46" s="3">
         <v>3</v>
       </c>
       <c r="P46" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="Q46" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5371,19 +5134,19 @@
         <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D47" s="3">
         <v>4</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="H47" s="3">
         <v>1</v>
@@ -5395,22 +5158,22 @@
         <v>0</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L47" s="3">
         <v>1000</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="N47" s="3">
         <v>1102004</v>
       </c>
       <c r="P47" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="Q47" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5422,19 +5185,19 @@
         <v>13</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
       </c>
       <c r="E48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
@@ -5444,19 +5207,19 @@
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L48" s="3">
         <v>5</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N48" s="3">
         <v>11</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5468,19 +5231,19 @@
         <v>13</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D49" s="3">
         <v>2</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H49" s="3">
         <v>1</v>
@@ -5492,22 +5255,22 @@
         <v>510</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L49" s="3">
         <v>1000</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N49" s="3">
         <v>510</v>
       </c>
       <c r="P49" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="Q49" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5519,19 +5282,19 @@
         <v>13</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D50" s="3">
         <v>3</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H50" s="3">
         <v>1</v>
@@ -5543,20 +5306,20 @@
         <v>0</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L50" s="3">
         <v>1000</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N50" s="3"/>
       <c r="P50" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="Q50" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5568,19 +5331,19 @@
         <v>13</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D51" s="3">
         <v>4</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H51" s="3">
         <v>1</v>
@@ -5592,22 +5355,22 @@
         <v>0</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L51" s="3">
         <v>1000</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N51" s="3">
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Q51" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5619,19 +5382,19 @@
         <v>14</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
       </c>
       <c r="E52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="H52" s="3">
         <v>1</v>
@@ -5641,19 +5404,19 @@
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L52" s="3">
         <v>5</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N52" s="3">
         <v>12</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5665,19 +5428,19 @@
         <v>14</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D53" s="3">
         <v>2</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H53" s="3">
         <v>1</v>
@@ -5689,22 +5452,22 @@
         <v>511</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L53" s="3">
         <v>1000</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N53" s="3">
         <v>511</v>
       </c>
       <c r="P53" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="Q53" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5716,19 +5479,19 @@
         <v>14</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D54" s="3">
         <v>3</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H54" s="3">
         <v>1</v>
@@ -5740,22 +5503,22 @@
         <v>0</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L54" s="3">
         <v>1000</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N54" s="3">
         <v>4</v>
       </c>
       <c r="P54" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="Q54" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5767,19 +5530,19 @@
         <v>14</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D55" s="3">
         <v>4</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
@@ -5791,22 +5554,22 @@
         <v>1401010</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L55" s="3">
         <v>1000</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N55" s="3">
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="Q55" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5818,19 +5581,19 @@
         <v>15</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D56" s="3">
         <v>1</v>
       </c>
       <c r="E56" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="H56" s="3">
         <v>1</v>
@@ -5840,19 +5603,19 @@
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L56" s="3">
         <v>5</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N56" s="3">
         <v>13</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5864,19 +5627,19 @@
         <v>15</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D57" s="3">
         <v>2</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H57" s="3">
         <v>1</v>
@@ -5888,22 +5651,22 @@
         <v>512</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L57" s="3">
         <v>1000</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N57" s="3">
         <v>512</v>
       </c>
       <c r="P57" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="Q57" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5915,19 +5678,19 @@
         <v>15</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D58" s="3">
         <v>3</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H58" s="3">
         <v>1</v>
@@ -5939,22 +5702,22 @@
         <v>0</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L58" s="3">
         <v>1000</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N58" s="3">
         <v>4</v>
       </c>
       <c r="P58" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="Q58" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5966,19 +5729,19 @@
         <v>15</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D59" s="3">
         <v>4</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H59" s="3">
         <v>1</v>
@@ -5990,22 +5753,22 @@
         <v>25</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L59" s="3">
         <v>1000</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N59" s="3">
         <v>1102005</v>
       </c>
       <c r="P59" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="Q59" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6017,41 +5780,41 @@
         <v>16</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D60" s="3">
         <v>1</v>
       </c>
       <c r="E60" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="H60" s="3">
         <v>1</v>
       </c>
       <c r="I60" s="3">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L60" s="3">
         <v>5</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N60" s="3">
         <v>14</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6063,19 +5826,19 @@
         <v>16</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D61" s="3">
         <v>2</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H61" s="3">
         <v>1</v>
@@ -6087,22 +5850,22 @@
         <v>513</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L61" s="3">
         <v>1000</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N61" s="3">
         <v>513</v>
       </c>
       <c r="P61" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="Q61" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6114,19 +5877,19 @@
         <v>16</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D62" s="3">
         <v>3</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H62" s="3">
         <v>1</v>
@@ -6138,22 +5901,22 @@
         <v>0</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L62" s="3">
         <v>1000</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N62" s="3">
         <v>4</v>
       </c>
       <c r="P62" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="Q62" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6165,44 +5928,44 @@
         <v>16</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D63" s="3">
         <v>4</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H63" s="3">
         <v>1</v>
       </c>
       <c r="I63" s="3">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="J63" s="3">
         <v>0</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L63" s="3">
         <v>1000</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N63" s="3"/>
       <c r="P63" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="Q63" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6214,41 +5977,41 @@
         <v>17</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="H64" s="3">
         <v>1</v>
       </c>
       <c r="I64" s="3">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L64" s="3">
         <v>5</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N64" s="3">
         <v>15</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6260,19 +6023,19 @@
         <v>17</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D65" s="3">
         <v>2</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H65" s="3">
         <v>1</v>
@@ -6284,22 +6047,22 @@
         <v>513</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L65" s="3">
         <v>1000</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N65" s="3">
         <v>513</v>
       </c>
       <c r="P65" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="Q65" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6311,19 +6074,19 @@
         <v>17</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D66" s="3">
         <v>3</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H66" s="3">
         <v>1</v>
@@ -6335,22 +6098,22 @@
         <v>0</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L66" s="3">
         <v>1000</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N66" s="3">
         <v>4</v>
       </c>
       <c r="P66" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="Q66" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6362,19 +6125,19 @@
         <v>17</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D67" s="3">
         <v>4</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="H67" s="3">
         <v>1</v>
@@ -6386,20 +6149,20 @@
         <v>14</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L67" s="3">
         <v>1000</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="N67" s="3"/>
       <c r="P67" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="Q67" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6411,41 +6174,41 @@
         <v>18</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D68" s="3">
         <v>1</v>
       </c>
       <c r="E68" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="H68" s="3">
         <v>1</v>
       </c>
       <c r="I68" s="3">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L68" s="3">
         <v>5</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N68" s="3">
         <v>16</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6457,19 +6220,19 @@
         <v>18</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D69" s="3">
         <v>2</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H69" s="3">
         <v>1</v>
@@ -6481,22 +6244,22 @@
         <v>514</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L69" s="3">
         <v>1000</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N69" s="3">
         <v>514</v>
       </c>
       <c r="P69" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="Q69" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6508,19 +6271,19 @@
         <v>18</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D70" s="3">
         <v>3</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H70" s="3">
         <v>1</v>
@@ -6532,22 +6295,22 @@
         <v>0</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L70" s="3">
         <v>1000</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N70" s="3">
         <v>4</v>
       </c>
       <c r="P70" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="Q70" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6559,19 +6322,19 @@
         <v>18</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D71" s="3">
         <v>4</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="H71" s="3">
         <v>1</v>
@@ -6583,20 +6346,20 @@
         <v>15</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L71" s="3">
         <v>1000</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="N71" s="3"/>
       <c r="P71" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="Q71" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6608,41 +6371,41 @@
         <v>19</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D72" s="3">
         <v>1</v>
       </c>
       <c r="E72" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="H72" s="3">
         <v>1</v>
       </c>
       <c r="I72" s="3">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L72" s="3">
         <v>5</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N72" s="3">
         <v>17</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6650,23 +6413,23 @@
         <v>1802</v>
       </c>
       <c r="B73" s="3">
-        <f t="shared" ref="B73:B83" si="1">B69+1</f>
+        <f t="shared" ref="B73:B79" si="1">B69+1</f>
         <v>19</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D73" s="3">
         <v>2</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H73" s="3">
         <v>1</v>
@@ -6678,22 +6441,22 @@
         <v>514</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L73" s="3">
         <v>1000</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N73" s="3">
         <v>514</v>
       </c>
       <c r="P73" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="Q73" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6705,19 +6468,19 @@
         <v>19</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D74" s="3">
         <v>3</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H74" s="3">
         <v>1</v>
@@ -6729,22 +6492,22 @@
         <v>0</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L74" s="3">
         <v>1000</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N74" s="3">
         <v>4</v>
       </c>
       <c r="P74" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="Q74" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6756,19 +6519,19 @@
         <v>19</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D75" s="3">
         <v>4</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="H75" s="3">
         <v>1</v>
@@ -6780,20 +6543,20 @@
         <v>16</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L75" s="3">
         <v>1000</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="N75" s="3"/>
       <c r="P75" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="Q75" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6805,41 +6568,41 @@
         <v>20</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
       </c>
       <c r="E76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G76" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="H76" s="3">
         <v>1</v>
       </c>
       <c r="I76" s="3">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L76" s="3">
         <v>5</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N76" s="3">
         <v>18</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6851,19 +6614,19 @@
         <v>20</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D77" s="3">
         <v>2</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H77" s="3">
         <v>1</v>
@@ -6875,22 +6638,22 @@
         <v>515</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L77" s="3">
         <v>1000</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N77" s="3">
         <v>515</v>
       </c>
       <c r="P77" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="Q77" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6902,19 +6665,19 @@
         <v>20</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D78" s="3">
         <v>3</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H78" s="3">
         <v>1</v>
@@ -6926,22 +6689,22 @@
         <v>0</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L78" s="3">
         <v>1000</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N78" s="3">
         <v>4</v>
       </c>
       <c r="P78" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="Q78" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6953,19 +6716,19 @@
         <v>20</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D79" s="3">
         <v>4</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="H79" s="3">
         <v>1</v>
@@ -6977,217 +6740,20 @@
         <v>17</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L79" s="3">
         <v>1000</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="N79" s="3"/>
       <c r="P79" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="Q79" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
-        <v>2001</v>
-      </c>
-      <c r="B80" s="3">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D80" s="3">
-        <v>1</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H80" s="3">
-        <v>1</v>
-      </c>
-      <c r="I80" s="3">
-        <v>140</v>
-      </c>
-      <c r="J80" s="3"/>
-      <c r="K80" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="L80" s="3">
-        <v>5</v>
-      </c>
-      <c r="M80" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="N80" s="3">
-        <v>19</v>
-      </c>
-      <c r="P80" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
-        <v>2002</v>
-      </c>
-      <c r="B81" s="3">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D81" s="3">
-        <v>2</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1</v>
-      </c>
-      <c r="I81" s="3">
-        <v>2</v>
-      </c>
-      <c r="J81" s="3">
-        <v>516</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="L81" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M81" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="N81" s="3">
-        <v>516</v>
-      </c>
-      <c r="P81" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
-        <v>2003</v>
-      </c>
-      <c r="B82" s="3">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D82" s="3">
-        <v>3</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H82" s="3">
-        <v>1</v>
-      </c>
-      <c r="I82" s="3">
-        <v>250</v>
-      </c>
-      <c r="J82" s="3">
-        <v>0</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="L82" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N82" s="3">
-        <v>4</v>
-      </c>
-      <c r="P82" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
-        <v>2004</v>
-      </c>
-      <c r="B83" s="3">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D83" s="3">
-        <v>4</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1</v>
-      </c>
-      <c r="I83" s="3">
-        <v>6</v>
-      </c>
-      <c r="J83" s="3">
-        <v>18</v>
-      </c>
-      <c r="K83" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="N83" s="3"/>
-      <c r="P83" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/break.玩家等级突破.xlsx
+++ b/Excel/镇魂街/break.玩家等级突破.xlsx
@@ -17,7 +17,7 @@
     <sheet name="地狱道任务" sheetId="28" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">地狱道任务!$M$1:$M$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">地狱道任务!$N$1:$N$79</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="296">
   <si>
     <t>sheet名</t>
   </si>
@@ -170,12 +170,6 @@
     <t>UnlockPropValue</t>
   </si>
   <si>
-    <t>UnlockType</t>
-  </si>
-  <si>
-    <t>UnlockParam</t>
-  </si>
-  <si>
     <t>int:&gt;</t>
   </si>
   <si>
@@ -204,12 +198,6 @@
   </si>
   <si>
     <t>int:e&lt;</t>
-  </si>
-  <si>
-    <t>int:e&gt;</t>
-  </si>
-  <si>
-    <t>int:ae&gt;</t>
   </si>
   <si>
     <t>ID</t>
@@ -269,13 +257,6 @@
     <t>增加属性值</t>
   </si>
   <si>
-    <t>解锁类型
-1，神器</t>
-  </si>
-  <si>
-    <t>解锁神器</t>
-  </si>
-  <si>
     <t>ui_dtex_Quality_073</t>
   </si>
   <si>
@@ -436,9 +417,6 @@
     <t>Tasks</t>
   </si>
   <si>
-    <t>ui_dtex_Item_1401007</t>
-  </si>
-  <si>
     <t>玩家等级升到10级</t>
   </si>
   <si>
@@ -454,9 +432,6 @@
     <t>玩家等级升到5级</t>
   </si>
   <si>
-    <t>ui_dtex_Item_1401001</t>
-  </si>
-  <si>
     <t>守护灵升级-cnt</t>
   </si>
   <si>
@@ -469,9 +444,6 @@
     <t>1张守护灵升到4</t>
   </si>
   <si>
-    <t>ui_dtex_Item_1401002</t>
-  </si>
-  <si>
     <t>进行3次守护灵抽奖</t>
   </si>
   <si>
@@ -479,9 +451,6 @@
   </si>
   <si>
     <t>抽卡</t>
-  </si>
-  <si>
-    <t>ui_dtex_Item_1401005</t>
   </si>
   <si>
     <t>兑换2次技能</t>
@@ -790,10 +759,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>玩家等级升到20级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>1张守护灵升到20</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -841,18 +806,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>101#102</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>201#202#301</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>302#303</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>竞技场-bhv</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -918,10 +871,116 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>string:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到40</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到45</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到50</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>玩家等级升到60</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>#note</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tring:&lt;&gt;</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑绳+1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>众合+1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫唤+1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>大叫唤+2</t>
+  </si>
+  <si>
+    <t>焦热+1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦热+2</t>
+  </si>
+  <si>
+    <t>大焦热+1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>大焦热+2</t>
+  </si>
+  <si>
+    <t>玩家等级升到15级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到20</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到30</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>玩家等级升到65</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -930,6 +989,24 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>叫唤+2</t>
+  </si>
+  <si>
+    <t>大叫唤</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>大叫唤+1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>众合+2</t>
+  </si>
+  <si>
+    <t>无间+1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>玩家等级升到80</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -946,10 +1023,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>玩家等级升到105</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家等级升到110</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -967,10 +1040,6 @@
   </si>
   <si>
     <t>玩家等级升到140</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级升到150</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1670,10 +1739,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1682,7 +1751,7 @@
     <col min="2" max="2" width="9.25" customWidth="1"/>
     <col min="3" max="5" width="28.875" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
     <col min="8" max="8" width="7.625" customWidth="1"/>
     <col min="9" max="9" width="9.625" customWidth="1"/>
     <col min="10" max="10" width="9.25" customWidth="1"/>
@@ -1694,12 +1763,10 @@
     <col min="17" max="17" width="19.5" customWidth="1"/>
     <col min="18" max="18" width="18.875" customWidth="1"/>
     <col min="19" max="20" width="26.375" customWidth="1"/>
-    <col min="21" max="21" width="17.5" customWidth="1"/>
-    <col min="22" max="22" width="20.875" customWidth="1"/>
-    <col min="23" max="23" width="16" customWidth="1"/>
+    <col min="21" max="21" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1760,171 +1827,153 @@
       <c r="T1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="J2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
         <v>45</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M2" t="s">
+      <c r="B3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="C3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="V2" t="s">
+      <c r="D3" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="Q3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="D4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I4" s="4">
         <v>10</v>
@@ -1942,10 +1991,8 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="10"/>
-    </row>
-    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1953,22 +2000,22 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I5" s="4">
         <v>20</v>
@@ -1977,7 +2024,7 @@
         <v>40</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L5" s="3">
         <v>100</v>
@@ -1990,14 +2037,8 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="3">
-        <v>1</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2005,22 +2046,22 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I6" s="4">
         <v>30</v>
@@ -2029,7 +2070,7 @@
         <v>40</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L6" s="3">
         <v>100</v>
@@ -2044,14 +2085,8 @@
         <v>45</v>
       </c>
       <c r="S6" s="12"/>
-      <c r="U6" s="3">
-        <v>1</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2059,22 +2094,22 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I7" s="4">
         <v>40</v>
@@ -2083,7 +2118,7 @@
         <v>60</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L7" s="3">
         <v>100</v>
@@ -2102,14 +2137,8 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="3">
-        <v>1</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2117,22 +2146,22 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I8" s="4">
         <v>50</v>
@@ -2141,7 +2170,7 @@
         <v>60</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -2160,10 +2189,8 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2171,22 +2198,22 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>84</v>
+        <v>285</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I9" s="4">
         <v>60</v>
@@ -2195,7 +2222,7 @@
         <v>60</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -2208,10 +2235,8 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-    </row>
-    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2219,22 +2244,22 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I10" s="4">
         <v>65</v>
@@ -2243,7 +2268,7 @@
         <v>80</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
@@ -2256,10 +2281,8 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-    </row>
-    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2267,22 +2290,22 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>88</v>
+        <v>271</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I11" s="4">
         <v>70</v>
@@ -2291,7 +2314,7 @@
         <v>80</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L11" s="3">
         <v>100</v>
@@ -2304,10 +2327,8 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2315,22 +2336,22 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>88</v>
+        <v>282</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I12" s="4">
         <v>80</v>
@@ -2339,7 +2360,7 @@
         <v>80</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
@@ -2358,10 +2379,8 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-    </row>
-    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2369,22 +2388,22 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F13" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>88</v>
+        <v>283</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I13" s="4">
         <v>85</v>
@@ -2393,7 +2412,7 @@
         <v>100</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L13" s="3">
         <v>100</v>
@@ -2406,10 +2425,8 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-    </row>
-    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2417,22 +2434,22 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F14" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>88</v>
+        <v>284</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I14" s="4">
         <v>90</v>
@@ -2441,7 +2458,7 @@
         <v>100</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L14" s="3">
         <v>100</v>
@@ -2454,10 +2471,8 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-    </row>
-    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2465,22 +2480,22 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>91</v>
+        <v>272</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I15" s="4">
         <v>95</v>
@@ -2489,7 +2504,7 @@
         <v>100</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -2502,10 +2517,8 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-    </row>
-    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2513,22 +2526,22 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I16" s="4">
         <v>100</v>
@@ -2537,7 +2550,7 @@
         <v>120</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L16" s="3">
         <v>100</v>
@@ -2556,10 +2569,8 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2567,22 +2578,22 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>91</v>
+        <v>273</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I17" s="4">
         <v>105</v>
@@ -2591,7 +2602,7 @@
         <v>120</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
@@ -2604,10 +2615,8 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-    </row>
-    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2615,22 +2624,22 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>91</v>
+        <v>274</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I18" s="4">
         <v>110</v>
@@ -2639,7 +2648,7 @@
         <v>120</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L18" s="3">
         <v>100</v>
@@ -2652,10 +2661,8 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-    </row>
-    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2663,22 +2670,22 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I19" s="4">
         <v>120</v>
@@ -2687,7 +2694,7 @@
         <v>150</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L19" s="3">
         <v>100</v>
@@ -2700,10 +2707,8 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2711,22 +2716,22 @@
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I20" s="4">
         <v>130</v>
@@ -2735,7 +2740,7 @@
         <v>150</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
@@ -2754,10 +2759,8 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-    </row>
-    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2765,22 +2768,22 @@
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>95</v>
+        <v>276</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I21" s="4">
         <v>135</v>
@@ -2789,7 +2792,7 @@
         <v>150</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L21" s="3">
         <v>100</v>
@@ -2802,10 +2805,8 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-    </row>
-    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2813,22 +2814,22 @@
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D22" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="H22" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I22" s="4">
         <v>140</v>
@@ -2837,7 +2838,7 @@
         <v>150</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -2850,10 +2851,8 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-    </row>
-    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2861,22 +2860,22 @@
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>99</v>
+        <v>286</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I23" s="4">
         <v>150</v>
@@ -2885,7 +2884,7 @@
         <v>150</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L23" s="3">
         <v>100</v>
@@ -2898,8 +2897,6 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -2911,29 +2908,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
-    <sheetView topLeftCell="C46" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
-    <col min="6" max="7" width="25.625" customWidth="1"/>
-    <col min="8" max="8" width="27.875" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="29.75" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="19.375" customWidth="1"/>
-    <col min="13" max="13" width="21.375" customWidth="1"/>
-    <col min="14" max="14" width="15.375" customWidth="1"/>
-    <col min="16" max="16" width="25.375" customWidth="1"/>
-    <col min="17" max="17" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="24.375" customWidth="1"/>
+    <col min="7" max="8" width="25.625" customWidth="1"/>
+    <col min="9" max="9" width="27.875" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="29.75" customWidth="1"/>
+    <col min="12" max="12" width="14.375" customWidth="1"/>
+    <col min="13" max="13" width="19.375" customWidth="1"/>
+    <col min="14" max="14" width="21.375" customWidth="1"/>
+    <col min="15" max="15" width="15.375" customWidth="1"/>
+    <col min="17" max="17" width="25.375" customWidth="1"/>
+    <col min="18" max="18" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2941,131 +2939,140 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="O1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="I3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="N2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>101</v>
       </c>
@@ -3073,44 +3080,46 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
+      <c r="E4" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B4)&amp;"-任务-"&amp;地狱道任务!D4</f>
+        <v>黑绳-任务-1</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
         <v>10</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="K4" s="3"/>
+      <c r="L4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="O4" s="4">
         <v>102</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q4" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>102</v>
       </c>
@@ -3118,44 +3127,46 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
+      <c r="E5" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B5)&amp;"-任务-"&amp;地狱道任务!D5</f>
+        <v>黑绳-任务-2</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
       </c>
       <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
         <v>10</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="L5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M5" s="3">
         <v>10</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="P5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="Q5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>103</v>
       </c>
@@ -3163,44 +3174,46 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
+      <c r="E6" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B6)&amp;"-任务-"&amp;地狱道任务!D6</f>
+        <v>黑绳-任务-3</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
         <v>2</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="K6" s="3"/>
+      <c r="L6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" s="3">
         <v>10</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="N6" s="3">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>104</v>
       </c>
@@ -3208,42 +3221,44 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
+      <c r="E7" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B7)&amp;"-任务-"&amp;地狱道任务!D7</f>
+        <v>黑绳-任务-4</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="M7" s="3">
         <v>20</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="P7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N7" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="Q7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>201</v>
       </c>
@@ -3252,41 +3267,43 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
+      <c r="E8" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B8)&amp;"-任务-"&amp;地狱道任务!D8</f>
+        <v>黑绳+1-任务-1</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="I8" s="3">
-        <v>20</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>15</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M8" s="3">
         <v>2</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>202</v>
       </c>
@@ -3295,41 +3312,43 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
+      <c r="E9" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B9)&amp;"-任务-"&amp;地狱道任务!D9</f>
+        <v>黑绳+1-任务-2</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
       </c>
       <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
         <v>20</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M9" s="3">
         <v>20</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>203</v>
       </c>
@@ -3338,39 +3357,41 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
+      <c r="E10" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B10)&amp;"-任务-"&amp;地狱道任务!D10</f>
+        <v>黑绳+1-任务-3</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
         <v>3</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="K10" s="3"/>
+      <c r="L10" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="M10" s="3">
         <v>20</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>204</v>
       </c>
@@ -3379,41 +3400,43 @@
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D11" s="3">
         <v>4</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
+      <c r="E11" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B11)&amp;"-任务-"&amp;地狱道任务!D11</f>
+        <v>黑绳+1-任务-4</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
         <v>5</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="L11" s="3">
+      <c r="K11" s="3"/>
+      <c r="L11" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="M11" s="3">
         <v>50</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="N11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N11" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>301</v>
       </c>
@@ -3422,44 +3445,46 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
+      <c r="E12" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B12)&amp;"-任务-"&amp;地狱道任务!D12</f>
+        <v>众合-任务-1</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="I12" s="3">
-        <v>30</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>20</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" s="3">
         <v>2</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="N12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" s="3">
         <v>2</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q12" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>302</v>
       </c>
@@ -3468,49 +3493,51 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>145</v>
-      </c>
+      <c r="E13" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B13)&amp;"-任务-"&amp;地狱道任务!D13</f>
+        <v>众合-任务-2</v>
+      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
         <v>7</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>401</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L13" s="3">
+      <c r="L13" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" s="3">
         <v>1000</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N13" s="3">
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
-        <v>148</v>
+      <c r="N13" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
       </c>
       <c r="Q13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="R13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>303</v>
       </c>
@@ -3519,45 +3546,47 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
+      <c r="E14" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B14)&amp;"-任务-"&amp;地狱道任务!D14</f>
+        <v>众合-任务-3</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
         <v>5</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="K14" s="3"/>
+      <c r="L14" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="P14" t="s">
-        <v>145</v>
-      </c>
+      <c r="N14" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" s="3"/>
       <c r="Q14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="R14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>304</v>
       </c>
@@ -3566,45 +3595,47 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D15" s="3">
         <v>4</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="E15" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B15)&amp;"-任务-"&amp;地狱道任务!D15</f>
+        <v>众合-任务-4</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>6</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="M15" s="3">
+        <v>20</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="Q15" t="s">
         <v>140</v>
       </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3">
-        <v>6</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="L15" s="3">
-        <v>20</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="P15" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>401</v>
       </c>
@@ -3613,44 +3644,46 @@
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
+      <c r="E16" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B16)&amp;"-任务-"&amp;地狱道任务!D16</f>
+        <v>众合+1-任务-1</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="I16" s="3">
-        <v>40</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>30</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M16" s="3">
         <v>3</v>
       </c>
-      <c r="M16" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N16" s="3">
+      <c r="N16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O16" s="3">
         <v>3</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q16" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>402</v>
       </c>
@@ -3659,49 +3692,51 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
+      <c r="E17" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B17)&amp;"-任务-"&amp;地狱道任务!D17</f>
+        <v>众合+1-任务-2</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
         <v>5</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>402</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O17" s="3">
         <v>2</v>
       </c>
-      <c r="P17" t="s">
-        <v>154</v>
-      </c>
       <c r="Q17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="R17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>403</v>
       </c>
@@ -3710,49 +3745,51 @@
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>257</v>
-      </c>
+      <c r="E18" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B18)&amp;"-任务-"&amp;地狱道任务!D18</f>
+        <v>众合+1-任务-3</v>
+      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
+        <v>243</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
         <v>2</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M18" s="3">
         <v>1000</v>
       </c>
-      <c r="M18" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O18" s="3">
         <v>501</v>
       </c>
-      <c r="P18" t="s">
-        <v>155</v>
-      </c>
       <c r="Q18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="R18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>404</v>
       </c>
@@ -3761,47 +3798,49 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D19" s="3">
         <v>4</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1</v>
+      <c r="E19" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B19)&amp;"-任务-"&amp;地狱道任务!D19</f>
+        <v>众合+1-任务-4</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
         <v>5</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L19" s="3">
+      <c r="K19" s="3"/>
+      <c r="L19" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M19" s="3">
         <v>1000</v>
       </c>
-      <c r="M19" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="N19" s="3">
+      <c r="N19" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O19" s="3">
         <v>1102004</v>
       </c>
-      <c r="P19" t="s">
-        <v>161</v>
-      </c>
       <c r="Q19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="R19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>501</v>
       </c>
@@ -3810,44 +3849,46 @@
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
+      <c r="E20" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B20)&amp;"-任务-"&amp;地狱道任务!D20</f>
+        <v>众合+2-任务-1</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="I20" s="3">
-        <v>50</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>40</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M20" s="3">
         <v>3</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O20" s="3">
         <v>4</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q20" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>502</v>
       </c>
@@ -3856,49 +3897,51 @@
         <v>6</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D21" s="3">
         <v>2</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>163</v>
-      </c>
+      <c r="E21" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B21)&amp;"-任务-"&amp;地狱道任务!D21</f>
+        <v>众合+2-任务-2</v>
+      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1</v>
+        <v>153</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M21" s="3">
         <v>1000</v>
       </c>
-      <c r="M21" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O21" s="3">
         <v>1102004</v>
       </c>
-      <c r="P21" t="s">
-        <v>155</v>
-      </c>
       <c r="Q21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="R21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>503</v>
       </c>
@@ -3907,47 +3950,49 @@
         <v>6</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D22" s="3">
         <v>3</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1</v>
+      <c r="E22" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B22)&amp;"-任务-"&amp;地狱道任务!D22</f>
+        <v>众合+2-任务-3</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
         <v>20</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="K22" s="3"/>
+      <c r="L22" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="N22" s="3">
-        <v>1</v>
-      </c>
-      <c r="P22" t="s">
-        <v>158</v>
+      <c r="N22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1</v>
       </c>
       <c r="Q22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="R22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>504</v>
       </c>
@@ -3956,49 +4001,51 @@
         <v>6</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D23" s="3">
         <v>4</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1</v>
+      <c r="E23" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B23)&amp;"-任务-"&amp;地狱道任务!D23</f>
+        <v>众合+2-任务-4</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="I23" s="3">
         <v>1</v>
       </c>
       <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
         <v>101</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M23" s="3">
         <v>1000</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="O23" s="3">
         <v>2</v>
       </c>
-      <c r="P23" t="s">
-        <v>166</v>
-      </c>
       <c r="Q23" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="R23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>601</v>
       </c>
@@ -4007,44 +4054,46 @@
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1</v>
+      <c r="E24" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B24)&amp;"-任务-"&amp;地狱道任务!D24</f>
+        <v>叫唤-任务-1</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="I24" s="3">
-        <v>60</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>45</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M24" s="3">
         <v>4</v>
       </c>
-      <c r="M24" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O24" s="3">
         <v>5</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q24" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>602</v>
       </c>
@@ -4053,49 +4102,51 @@
         <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>258</v>
-      </c>
+      <c r="E25" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B25)&amp;"-任务-"&amp;地狱道任务!D25</f>
+        <v>叫唤-任务-2</v>
+      </c>
+      <c r="F25" s="3"/>
       <c r="G25" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H25" s="3">
-        <v>1</v>
+        <v>244</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
         <v>2</v>
       </c>
-      <c r="J25" s="3">
+      <c r="K25" s="3">
         <v>503</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L25" s="3">
+      <c r="L25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M25" s="3">
         <v>1000</v>
       </c>
-      <c r="M25" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N25" s="3">
+      <c r="N25" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O25" s="3">
         <v>503</v>
       </c>
-      <c r="P25" t="s">
-        <v>168</v>
-      </c>
       <c r="Q25" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="R25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>603</v>
       </c>
@@ -4104,45 +4155,47 @@
         <v>7</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D26" s="3">
         <v>3</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1</v>
+      <c r="E26" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B26)&amp;"-任务-"&amp;地狱道任务!D26</f>
+        <v>叫唤-任务-3</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="K26" s="3"/>
+      <c r="L26" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M26" s="3">
         <v>1000</v>
       </c>
-      <c r="M26" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="N26" s="3"/>
-      <c r="P26" t="s">
-        <v>170</v>
-      </c>
+      <c r="N26" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O26" s="3"/>
       <c r="Q26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="R26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>604</v>
       </c>
@@ -4151,47 +4204,49 @@
         <v>7</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D27" s="3">
         <v>4</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1</v>
+      <c r="E27" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B27)&amp;"-任务-"&amp;地狱道任务!D27</f>
+        <v>叫唤-任务-4</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="I27" s="3">
         <v>1</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M27" s="3">
         <v>1000</v>
       </c>
-      <c r="M27" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="O27" s="3">
         <v>1102004</v>
       </c>
-      <c r="P27" t="s">
-        <v>173</v>
-      </c>
       <c r="Q27" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="R27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>701</v>
       </c>
@@ -4200,44 +4255,46 @@
         <v>8</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H28" s="3">
-        <v>1</v>
+      <c r="E28" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B28)&amp;"-任务-"&amp;地狱道任务!D28</f>
+        <v>叫唤+1-任务-1</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="I28" s="3">
-        <v>65</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
+        <v>50</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M28" s="3">
         <v>4</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N28" s="3">
+      <c r="N28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O28" s="3">
         <v>6</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q28" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>702</v>
       </c>
@@ -4246,49 +4303,51 @@
         <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D29" s="3">
         <v>2</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>259</v>
-      </c>
+      <c r="E29" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B29)&amp;"-任务-"&amp;地狱道任务!D29</f>
+        <v>叫唤+1-任务-2</v>
+      </c>
+      <c r="F29" s="3"/>
       <c r="G29" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H29" s="3">
-        <v>1</v>
+        <v>245</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3">
         <v>2</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>504</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="L29" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M29" s="3">
         <v>1000</v>
       </c>
-      <c r="M29" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="N29" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O29" s="3">
         <v>504</v>
       </c>
-      <c r="P29" t="s">
-        <v>176</v>
-      </c>
       <c r="Q29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="R29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>703</v>
       </c>
@@ -4297,47 +4356,49 @@
         <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D30" s="3">
         <v>3</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H30" s="3">
-        <v>1</v>
+      <c r="E30" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B30)&amp;"-任务-"&amp;地狱道任务!D30</f>
+        <v>叫唤+1-任务-3</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
         <v>50</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L30" s="3">
+      <c r="K30" s="3"/>
+      <c r="L30" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M30" s="3">
         <v>1000</v>
       </c>
-      <c r="M30" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N30" s="3">
-        <v>1</v>
-      </c>
-      <c r="P30" t="s">
-        <v>177</v>
+      <c r="N30" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1</v>
       </c>
       <c r="Q30" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="R30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>704</v>
       </c>
@@ -4346,49 +4407,51 @@
         <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D31" s="3">
         <v>4</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H31" s="3">
-        <v>1</v>
+      <c r="E31" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B31)&amp;"-任务-"&amp;地狱道任务!D31</f>
+        <v>叫唤+1-任务-4</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3">
         <v>3</v>
       </c>
-      <c r="J31" s="3">
+      <c r="K31" s="3">
         <v>10</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L31" s="3">
+      <c r="L31" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M31" s="3">
         <v>1000</v>
       </c>
-      <c r="M31" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="N31" s="3">
+      <c r="N31" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O31" s="3">
         <v>1102004</v>
       </c>
-      <c r="P31" t="s">
-        <v>180</v>
-      </c>
       <c r="Q31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="R31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>801</v>
       </c>
@@ -4397,44 +4460,46 @@
         <v>9</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1</v>
+      <c r="E32" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B32)&amp;"-任务-"&amp;地狱道任务!D32</f>
+        <v>叫唤+2-任务-1</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="I32" s="3">
-        <v>70</v>
-      </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3">
+        <v>60</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M32" s="3">
         <v>5</v>
       </c>
-      <c r="M32" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O32" s="3">
         <v>7</v>
       </c>
-      <c r="P32" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q32" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>802</v>
       </c>
@@ -4443,49 +4508,51 @@
         <v>9</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D33" s="3">
         <v>2</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1</v>
+      <c r="E33" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B33)&amp;"-任务-"&amp;地狱道任务!D33</f>
+        <v>叫唤+2-任务-2</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3">
         <v>3</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>506</v>
       </c>
-      <c r="K33" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M33" s="3">
         <v>1000</v>
       </c>
-      <c r="M33" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O33" s="3">
         <v>506</v>
       </c>
-      <c r="P33" t="s">
-        <v>182</v>
-      </c>
       <c r="Q33" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="R33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>803</v>
       </c>
@@ -4494,47 +4561,49 @@
         <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D34" s="3">
         <v>3</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H34" s="3">
-        <v>1</v>
+      <c r="E34" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B34)&amp;"-任务-"&amp;地狱道任务!D34</f>
+        <v>叫唤+2-任务-3</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3">
         <v>10</v>
       </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L34" s="3">
+      <c r="K34" s="3"/>
+      <c r="L34" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M34" s="3">
         <v>1000</v>
       </c>
-      <c r="M34" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="N34" s="3">
+      <c r="N34" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O34" s="3">
         <v>1102004</v>
       </c>
-      <c r="P34" t="s">
-        <v>183</v>
-      </c>
       <c r="Q34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="R34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>804</v>
       </c>
@@ -4543,47 +4612,49 @@
         <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D35" s="3">
         <v>4</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1</v>
+      <c r="E35" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B35)&amp;"-任务-"&amp;地狱道任务!D35</f>
+        <v>叫唤+2-任务-4</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="I35" s="3">
+        <v>1</v>
+      </c>
+      <c r="J35" s="3">
         <v>50</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="K35" s="3"/>
+      <c r="L35" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M35" s="3">
         <v>1000</v>
       </c>
-      <c r="M35" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="N35" s="3">
-        <v>1</v>
-      </c>
-      <c r="P35" t="s">
-        <v>185</v>
+      <c r="N35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="O35" s="3">
+        <v>1</v>
       </c>
       <c r="Q35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+      <c r="R35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>901</v>
       </c>
@@ -4592,44 +4663,46 @@
         <v>10</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H36" s="3">
-        <v>1</v>
+      <c r="E36" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B36)&amp;"-任务-"&amp;地狱道任务!D36</f>
+        <v>大叫唤-任务-1</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="I36" s="3">
-        <v>80</v>
-      </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L36" s="3">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3">
+        <v>65</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M36" s="3">
         <v>5</v>
       </c>
-      <c r="M36" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N36" s="3">
+      <c r="N36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O36" s="3">
         <v>8</v>
       </c>
-      <c r="P36" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q36" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>902</v>
       </c>
@@ -4638,49 +4711,51 @@
         <v>10</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D37" s="3">
         <v>2</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>261</v>
-      </c>
+      <c r="E37" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B37)&amp;"-任务-"&amp;地狱道任务!D37</f>
+        <v>大叫唤-任务-2</v>
+      </c>
+      <c r="F37" s="3"/>
       <c r="G37" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H37" s="3">
-        <v>1</v>
+        <v>247</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="I37" s="3">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3">
         <v>3</v>
       </c>
-      <c r="J37" s="3">
+      <c r="K37" s="3">
         <v>507</v>
       </c>
-      <c r="K37" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L37" s="3">
+      <c r="L37" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M37" s="3">
         <v>1000</v>
       </c>
-      <c r="M37" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N37" s="3">
+      <c r="N37" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O37" s="3">
         <v>507</v>
       </c>
-      <c r="P37" t="s">
-        <v>186</v>
-      </c>
       <c r="Q37" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="R37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>903</v>
       </c>
@@ -4689,47 +4764,49 @@
         <v>10</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D38" s="3">
         <v>3</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H38" s="3">
-        <v>1</v>
+      <c r="E38" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B38)&amp;"-任务-"&amp;地狱道任务!D38</f>
+        <v>大叫唤-任务-3</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3">
         <v>15000</v>
       </c>
-      <c r="J38" s="3">
+      <c r="K38" s="3">
         <v>0</v>
       </c>
-      <c r="K38" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L38" s="3">
+      <c r="L38" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M38" s="3">
         <v>1000</v>
       </c>
-      <c r="M38" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="N38" s="3"/>
-      <c r="P38" t="s">
-        <v>187</v>
-      </c>
+      <c r="N38" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="O38" s="3"/>
       <c r="Q38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="R38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>904</v>
       </c>
@@ -4738,49 +4815,51 @@
         <v>10</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D39" s="3">
         <v>4</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="H39" s="3">
-        <v>1</v>
+      <c r="E39" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B39)&amp;"-任务-"&amp;地狱道任务!D39</f>
+        <v>大叫唤-任务-4</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="I39" s="3">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3">
         <v>9</v>
       </c>
-      <c r="J39" s="3">
+      <c r="K39" s="3">
         <v>0</v>
       </c>
-      <c r="K39" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L39" s="3">
+      <c r="L39" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M39" s="3">
         <v>1000</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="N39" s="3">
+      <c r="N39" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="O39" s="3">
         <v>1102004</v>
       </c>
-      <c r="P39" t="s">
-        <v>190</v>
-      </c>
       <c r="Q39" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="R39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>1001</v>
       </c>
@@ -4789,44 +4868,46 @@
         <v>11</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H40" s="3">
-        <v>1</v>
+      <c r="E40" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B40)&amp;"-任务-"&amp;地狱道任务!D40</f>
+        <v>大叫唤+1-任务-1</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="I40" s="3">
-        <v>85</v>
-      </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3">
+        <v>70</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M40" s="3">
         <v>5</v>
       </c>
-      <c r="M40" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N40" s="3">
+      <c r="N40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O40" s="3">
         <v>9</v>
       </c>
-      <c r="P40" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q40" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>1002</v>
       </c>
@@ -4835,49 +4916,51 @@
         <v>11</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D41" s="3">
         <v>2</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>262</v>
-      </c>
+      <c r="E41" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B41)&amp;"-任务-"&amp;地狱道任务!D41</f>
+        <v>大叫唤+1-任务-2</v>
+      </c>
+      <c r="F41" s="3"/>
       <c r="G41" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1</v>
+        <v>248</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="I41" s="3">
+        <v>1</v>
+      </c>
+      <c r="J41" s="3">
         <v>3</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>508</v>
       </c>
-      <c r="K41" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O41" s="3">
         <v>508</v>
       </c>
-      <c r="P41" t="s">
-        <v>192</v>
-      </c>
       <c r="Q41" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="R41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>1003</v>
       </c>
@@ -4886,47 +4969,49 @@
         <v>11</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D42" s="3">
         <v>3</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H42" s="3">
-        <v>1</v>
+      <c r="E42" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B42)&amp;"-任务-"&amp;地狱道任务!D42</f>
+        <v>大叫唤+1-任务-3</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="I42" s="3">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3">
         <v>1300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M42" s="3">
         <v>1000</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="N42" s="3"/>
-      <c r="P42" t="s">
-        <v>193</v>
-      </c>
+      <c r="N42" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O42" s="3"/>
       <c r="Q42" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="R42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>1004</v>
       </c>
@@ -4935,49 +5020,51 @@
         <v>11</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D43" s="3">
         <v>4</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>194</v>
-      </c>
+      <c r="E43" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B43)&amp;"-任务-"&amp;地狱道任务!D43</f>
+        <v>大叫唤+1-任务-4</v>
+      </c>
+      <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1</v>
+        <v>184</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="I43" s="3">
+        <v>1</v>
+      </c>
+      <c r="J43" s="3">
         <v>3</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>15</v>
       </c>
-      <c r="K43" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O43" s="3">
         <v>1102004</v>
       </c>
-      <c r="P43" t="s">
-        <v>195</v>
-      </c>
       <c r="Q43" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="R43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>1101</v>
       </c>
@@ -4986,44 +5073,46 @@
         <v>12</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1</v>
+      <c r="E44" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B44)&amp;"-任务-"&amp;地狱道任务!D44</f>
+        <v>大叫唤+2-任务-1</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="I44" s="3">
-        <v>90</v>
-      </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L44" s="3">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3">
+        <v>80</v>
+      </c>
+      <c r="K44" s="3"/>
+      <c r="L44" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M44" s="3">
         <v>5</v>
       </c>
-      <c r="M44" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O44" s="3">
         <v>10</v>
       </c>
-      <c r="P44" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q44" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>1102</v>
       </c>
@@ -5032,49 +5121,51 @@
         <v>12</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D45" s="3">
         <v>2</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>263</v>
-      </c>
+      <c r="E45" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B45)&amp;"-任务-"&amp;地狱道任务!D45</f>
+        <v>大叫唤+2-任务-2</v>
+      </c>
+      <c r="F45" s="3"/>
       <c r="G45" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1</v>
+        <v>249</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="I45" s="3">
+        <v>1</v>
+      </c>
+      <c r="J45" s="3">
         <v>3</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>509</v>
       </c>
-      <c r="K45" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O45" s="3">
         <v>509</v>
       </c>
-      <c r="P45" t="s">
-        <v>197</v>
-      </c>
       <c r="Q45" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="R45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>1103</v>
       </c>
@@ -5083,49 +5174,51 @@
         <v>12</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D46" s="3">
         <v>3</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1</v>
+      <c r="E46" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B46)&amp;"-任务-"&amp;地狱道任务!D46</f>
+        <v>大叫唤+2-任务-3</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="I46" s="3">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3">
         <v>80</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O46" s="3">
         <v>3</v>
       </c>
-      <c r="P46" t="s">
-        <v>198</v>
-      </c>
       <c r="Q46" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="R46" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>1104</v>
       </c>
@@ -5134,49 +5227,51 @@
         <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D47" s="3">
         <v>4</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1</v>
+      <c r="E47" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B47)&amp;"-任务-"&amp;地狱道任务!D47</f>
+        <v>大叫唤+2-任务-4</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="I47" s="3">
+        <v>1</v>
+      </c>
+      <c r="J47" s="3">
         <v>2</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M47" s="3">
         <v>1000</v>
       </c>
-      <c r="M47" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="O47" s="3">
         <v>1102004</v>
       </c>
-      <c r="P47" t="s">
-        <v>199</v>
-      </c>
       <c r="Q47" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="R47" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>1201</v>
       </c>
@@ -5185,44 +5280,46 @@
         <v>13</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1</v>
+      <c r="E48" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B48)&amp;"-任务-"&amp;地狱道任务!D48</f>
+        <v>焦热-任务-1</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
-      </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L48" s="3">
+        <v>1</v>
+      </c>
+      <c r="J48" s="3">
+        <v>85</v>
+      </c>
+      <c r="K48" s="3"/>
+      <c r="L48" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M48" s="3">
         <v>5</v>
       </c>
-      <c r="M48" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O48" s="3">
         <v>11</v>
       </c>
-      <c r="P48" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q48" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>1202</v>
       </c>
@@ -5231,49 +5328,51 @@
         <v>13</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D49" s="3">
         <v>2</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>264</v>
-      </c>
+      <c r="E49" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B49)&amp;"-任务-"&amp;地狱道任务!D49</f>
+        <v>焦热-任务-2</v>
+      </c>
+      <c r="F49" s="3"/>
       <c r="G49" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1</v>
+        <v>250</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="I49" s="3">
+        <v>1</v>
+      </c>
+      <c r="J49" s="3">
         <v>3</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>510</v>
       </c>
-      <c r="K49" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M49" s="3">
         <v>1000</v>
       </c>
-      <c r="M49" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O49" s="3">
         <v>510</v>
       </c>
-      <c r="P49" t="s">
-        <v>201</v>
-      </c>
       <c r="Q49" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="R49" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>1203</v>
       </c>
@@ -5282,47 +5381,49 @@
         <v>13</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D50" s="3">
         <v>3</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H50" s="3">
-        <v>1</v>
+      <c r="E50" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B50)&amp;"-任务-"&amp;地狱道任务!D50</f>
+        <v>焦热-任务-3</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="I50" s="3">
+        <v>1</v>
+      </c>
+      <c r="J50" s="3">
         <v>1400</v>
       </c>
-      <c r="J50" s="3">
+      <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L50" s="3">
+      <c r="L50" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M50" s="3">
         <v>1000</v>
       </c>
-      <c r="M50" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="N50" s="3"/>
-      <c r="P50" t="s">
-        <v>202</v>
-      </c>
+      <c r="N50" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O50" s="3"/>
       <c r="Q50" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="R50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>1204</v>
       </c>
@@ -5331,49 +5432,51 @@
         <v>13</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D51" s="3">
         <v>4</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H51" s="3">
-        <v>1</v>
+      <c r="E51" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B51)&amp;"-任务-"&amp;地狱道任务!D51</f>
+        <v>焦热-任务-4</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="I51" s="3">
+        <v>1</v>
+      </c>
+      <c r="J51" s="3">
         <v>100</v>
       </c>
-      <c r="J51" s="3">
+      <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L51" s="3">
+      <c r="L51" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M51" s="3">
         <v>1000</v>
       </c>
-      <c r="M51" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="N51" s="3">
-        <v>1</v>
-      </c>
-      <c r="P51" t="s">
-        <v>184</v>
+      <c r="N51" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="O51" s="3">
+        <v>1</v>
       </c>
       <c r="Q51" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="R51" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>1301</v>
       </c>
@@ -5382,44 +5485,46 @@
         <v>14</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1</v>
+      <c r="E52" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B52)&amp;"-任务-"&amp;地狱道任务!D52</f>
+        <v>焦热+1-任务-1</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="I52" s="3">
-        <v>105</v>
-      </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L52" s="3">
+        <v>1</v>
+      </c>
+      <c r="J52" s="3">
+        <v>90</v>
+      </c>
+      <c r="K52" s="3"/>
+      <c r="L52" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M52" s="3">
         <v>5</v>
       </c>
-      <c r="M52" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O52" s="3">
         <v>12</v>
       </c>
-      <c r="P52" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q52" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>1302</v>
       </c>
@@ -5428,49 +5533,51 @@
         <v>14</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D53" s="3">
         <v>2</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>265</v>
-      </c>
+      <c r="E53" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B53)&amp;"-任务-"&amp;地狱道任务!D53</f>
+        <v>焦热+1-任务-2</v>
+      </c>
+      <c r="F53" s="3"/>
       <c r="G53" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H53" s="3">
-        <v>1</v>
+        <v>251</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="I53" s="3">
+        <v>1</v>
+      </c>
+      <c r="J53" s="3">
         <v>3</v>
       </c>
-      <c r="J53" s="3">
+      <c r="K53" s="3">
         <v>511</v>
       </c>
-      <c r="K53" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L53" s="3">
+      <c r="L53" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M53" s="3">
         <v>1000</v>
       </c>
-      <c r="M53" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N53" s="3">
+      <c r="N53" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O53" s="3">
         <v>511</v>
       </c>
-      <c r="P53" t="s">
-        <v>205</v>
-      </c>
       <c r="Q53" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="R53" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>1303</v>
       </c>
@@ -5479,49 +5586,51 @@
         <v>14</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D54" s="3">
         <v>3</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1</v>
+      <c r="E54" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B54)&amp;"-任务-"&amp;地狱道任务!D54</f>
+        <v>焦热+1-任务-3</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="I54" s="3">
+        <v>1</v>
+      </c>
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>0</v>
       </c>
-      <c r="K54" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M54" s="3">
         <v>1000</v>
       </c>
-      <c r="M54" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O54" s="3">
         <v>4</v>
       </c>
-      <c r="P54" t="s">
-        <v>206</v>
-      </c>
       <c r="Q54" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="R54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>1304</v>
       </c>
@@ -5530,49 +5639,51 @@
         <v>14</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D55" s="3">
         <v>4</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="H55" s="3">
-        <v>1</v>
+      <c r="E55" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B55)&amp;"-任务-"&amp;地狱道任务!D55</f>
+        <v>焦热+1-任务-4</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="I55" s="3">
+        <v>1</v>
+      </c>
+      <c r="J55" s="3">
         <v>3000</v>
       </c>
-      <c r="J55" s="3">
+      <c r="K55" s="3">
         <v>1401010</v>
       </c>
-      <c r="K55" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L55" s="3">
+      <c r="L55" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M55" s="3">
         <v>1000</v>
       </c>
-      <c r="M55" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="N55" s="3">
-        <v>1</v>
-      </c>
-      <c r="P55" t="s">
-        <v>207</v>
+      <c r="N55" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="O55" s="3">
+        <v>1</v>
       </c>
       <c r="Q55" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="R55" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>1401</v>
       </c>
@@ -5581,44 +5692,46 @@
         <v>15</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D56" s="3">
         <v>1</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H56" s="3">
-        <v>1</v>
+      <c r="E56" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B56)&amp;"-任务-"&amp;地狱道任务!D56</f>
+        <v>焦热+2-任务-1</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="I56" s="3">
-        <v>110</v>
-      </c>
-      <c r="J56" s="3"/>
-      <c r="K56" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L56" s="3">
+        <v>1</v>
+      </c>
+      <c r="J56" s="3">
+        <v>100</v>
+      </c>
+      <c r="K56" s="3"/>
+      <c r="L56" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M56" s="3">
         <v>5</v>
       </c>
-      <c r="M56" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N56" s="3">
+      <c r="N56" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O56" s="3">
         <v>13</v>
       </c>
-      <c r="P56" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q56" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>1402</v>
       </c>
@@ -5627,49 +5740,51 @@
         <v>15</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D57" s="3">
         <v>2</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>266</v>
-      </c>
+      <c r="E57" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B57)&amp;"-任务-"&amp;地狱道任务!D57</f>
+        <v>焦热+2-任务-2</v>
+      </c>
+      <c r="F57" s="3"/>
       <c r="G57" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1</v>
+        <v>252</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="I57" s="3">
+        <v>1</v>
+      </c>
+      <c r="J57" s="3">
         <v>3</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>512</v>
       </c>
-      <c r="K57" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O57" s="3">
         <v>512</v>
       </c>
-      <c r="P57" t="s">
-        <v>209</v>
-      </c>
       <c r="Q57" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="R57" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>1403</v>
       </c>
@@ -5678,49 +5793,51 @@
         <v>15</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D58" s="3">
         <v>3</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1</v>
+      <c r="E58" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B58)&amp;"-任务-"&amp;地狱道任务!D58</f>
+        <v>焦热+2-任务-3</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="I58" s="3">
+        <v>1</v>
+      </c>
+      <c r="J58" s="3">
         <v>120</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O58" s="3">
         <v>4</v>
       </c>
-      <c r="P58" t="s">
-        <v>210</v>
-      </c>
       <c r="Q58" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="R58" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>1404</v>
       </c>
@@ -5729,49 +5846,51 @@
         <v>15</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D59" s="3">
         <v>4</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1</v>
+      <c r="E59" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B59)&amp;"-任务-"&amp;地狱道任务!D59</f>
+        <v>焦热+2-任务-4</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I59" s="3">
+        <v>1</v>
+      </c>
+      <c r="J59" s="3">
         <v>3</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>25</v>
       </c>
-      <c r="K59" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O59" s="3">
         <v>1102005</v>
       </c>
-      <c r="P59" t="s">
-        <v>203</v>
-      </c>
       <c r="Q59" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="R59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>1501</v>
       </c>
@@ -5780,44 +5899,46 @@
         <v>16</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D60" s="3">
         <v>1</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1</v>
+      <c r="E60" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B60)&amp;"-任务-"&amp;地狱道任务!D60</f>
+        <v>大焦热-任务-1</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="I60" s="3">
+        <v>1</v>
+      </c>
+      <c r="J60" s="3">
+        <v>110</v>
+      </c>
+      <c r="K60" s="3"/>
+      <c r="L60" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M60" s="3">
+        <v>5</v>
+      </c>
+      <c r="N60" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J60" s="3"/>
-      <c r="K60" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L60" s="3">
-        <v>5</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14</v>
       </c>
-      <c r="P60" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q60" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>1502</v>
       </c>
@@ -5826,49 +5947,51 @@
         <v>16</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D61" s="3">
         <v>2</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>267</v>
-      </c>
+      <c r="E61" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B61)&amp;"-任务-"&amp;地狱道任务!D61</f>
+        <v>大焦热-任务-2</v>
+      </c>
+      <c r="F61" s="3"/>
       <c r="G61" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1</v>
+        <v>253</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="I61" s="3">
         <v>1</v>
       </c>
       <c r="J61" s="3">
+        <v>1</v>
+      </c>
+      <c r="K61" s="3">
         <v>513</v>
       </c>
-      <c r="K61" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L61" s="3">
+      <c r="L61" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M61" s="3">
         <v>1000</v>
       </c>
-      <c r="M61" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N61" s="3">
+      <c r="N61" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O61" s="3">
         <v>513</v>
       </c>
-      <c r="P61" t="s">
-        <v>213</v>
-      </c>
       <c r="Q61" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="R61" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>1503</v>
       </c>
@@ -5877,49 +6000,51 @@
         <v>16</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D62" s="3">
         <v>3</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1</v>
+      <c r="E62" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B62)&amp;"-任务-"&amp;地狱道任务!D62</f>
+        <v>大焦热-任务-3</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="I62" s="3">
+        <v>1</v>
+      </c>
+      <c r="J62" s="3">
         <v>140</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M62" s="3">
         <v>1000</v>
       </c>
-      <c r="M62" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O62" s="3">
         <v>4</v>
       </c>
-      <c r="P62" t="s">
-        <v>214</v>
-      </c>
       <c r="Q62" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+      <c r="R62" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>1504</v>
       </c>
@@ -5928,47 +6053,49 @@
         <v>16</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D63" s="3">
         <v>4</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H63" s="3">
-        <v>1</v>
+      <c r="E63" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B63)&amp;"-任务-"&amp;地狱道任务!D63</f>
+        <v>大焦热-任务-4</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="I63" s="3">
+        <v>1</v>
+      </c>
+      <c r="J63" s="3">
         <v>1500</v>
       </c>
-      <c r="J63" s="3">
+      <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L63" s="3">
+      <c r="L63" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M63" s="3">
         <v>1000</v>
       </c>
-      <c r="M63" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="N63" s="3"/>
-      <c r="P63" t="s">
-        <v>215</v>
-      </c>
+      <c r="N63" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O63" s="3"/>
       <c r="Q63" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="R63" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>1601</v>
       </c>
@@ -5977,44 +6104,46 @@
         <v>17</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H64" s="3">
-        <v>1</v>
+      <c r="E64" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B64)&amp;"-任务-"&amp;地狱道任务!D64</f>
+        <v>大焦热+1-任务-1</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="I64" s="3">
-        <v>130</v>
-      </c>
-      <c r="J64" s="3"/>
-      <c r="K64" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L64" s="3">
+        <v>1</v>
+      </c>
+      <c r="J64" s="3">
+        <v>120</v>
+      </c>
+      <c r="K64" s="3"/>
+      <c r="L64" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M64" s="3">
         <v>5</v>
       </c>
-      <c r="M64" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N64" s="3">
+      <c r="N64" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O64" s="3">
         <v>15</v>
       </c>
-      <c r="P64" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q64" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>1602</v>
       </c>
@@ -6023,49 +6152,51 @@
         <v>17</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D65" s="3">
         <v>2</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H65" s="3">
-        <v>1</v>
+      <c r="E65" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B65)&amp;"-任务-"&amp;地狱道任务!D65</f>
+        <v>大焦热+1-任务-2</v>
+      </c>
+      <c r="F65" s="3"/>
+      <c r="G65" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="I65" s="3">
+        <v>1</v>
+      </c>
+      <c r="J65" s="3">
         <v>3</v>
       </c>
-      <c r="J65" s="3">
+      <c r="K65" s="3">
         <v>513</v>
       </c>
-      <c r="K65" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L65" s="3">
+      <c r="L65" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M65" s="3">
         <v>1000</v>
       </c>
-      <c r="M65" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N65" s="3">
+      <c r="N65" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O65" s="3">
         <v>513</v>
       </c>
-      <c r="P65" t="s">
-        <v>217</v>
-      </c>
       <c r="Q65" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="R65" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>1603</v>
       </c>
@@ -6074,49 +6205,51 @@
         <v>17</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D66" s="3">
         <v>3</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1</v>
+      <c r="E66" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B66)&amp;"-任务-"&amp;地狱道任务!D66</f>
+        <v>大焦热+1-任务-3</v>
+      </c>
+      <c r="F66" s="3"/>
+      <c r="G66" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="I66" s="3">
+        <v>1</v>
+      </c>
+      <c r="J66" s="3">
         <v>160</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>0</v>
       </c>
-      <c r="K66" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O66" s="3">
         <v>4</v>
       </c>
-      <c r="P66" t="s">
-        <v>218</v>
-      </c>
       <c r="Q66" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="R66" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>1604</v>
       </c>
@@ -6125,47 +6258,49 @@
         <v>17</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D67" s="3">
         <v>4</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H67" s="3">
-        <v>1</v>
+      <c r="E67" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B67)&amp;"-任务-"&amp;地狱道任务!D67</f>
+        <v>大焦热+1-任务-4</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="I67" s="3">
+        <v>1</v>
+      </c>
+      <c r="J67" s="3">
         <v>6</v>
       </c>
-      <c r="J67" s="3">
+      <c r="K67" s="3">
         <v>14</v>
       </c>
-      <c r="K67" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L67" s="3">
+      <c r="L67" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M67" s="3">
         <v>1000</v>
       </c>
-      <c r="M67" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="N67" s="3"/>
-      <c r="P67" t="s">
-        <v>219</v>
-      </c>
+      <c r="N67" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O67" s="3"/>
       <c r="Q67" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="R67" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>1701</v>
       </c>
@@ -6174,44 +6309,46 @@
         <v>18</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D68" s="3">
         <v>1</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H68" s="3">
-        <v>1</v>
+      <c r="E68" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B68)&amp;"-任务-"&amp;地狱道任务!D68</f>
+        <v>大焦热+2-任务-1</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="I68" s="3">
-        <v>135</v>
-      </c>
-      <c r="J68" s="3"/>
-      <c r="K68" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L68" s="3">
+        <v>1</v>
+      </c>
+      <c r="J68" s="3">
+        <v>130</v>
+      </c>
+      <c r="K68" s="3"/>
+      <c r="L68" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M68" s="3">
         <v>5</v>
       </c>
-      <c r="M68" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N68" s="3">
+      <c r="N68" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O68" s="3">
         <v>16</v>
       </c>
-      <c r="P68" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q68" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>1702</v>
       </c>
@@ -6220,49 +6357,51 @@
         <v>18</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D69" s="3">
         <v>2</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>269</v>
-      </c>
+      <c r="E69" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B69)&amp;"-任务-"&amp;地狱道任务!D69</f>
+        <v>大焦热+2-任务-2</v>
+      </c>
+      <c r="F69" s="3"/>
       <c r="G69" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H69" s="3">
-        <v>1</v>
+        <v>255</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="I69" s="3">
         <v>1</v>
       </c>
       <c r="J69" s="3">
+        <v>1</v>
+      </c>
+      <c r="K69" s="3">
         <v>514</v>
       </c>
-      <c r="K69" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L69" s="3">
+      <c r="L69" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M69" s="3">
         <v>1000</v>
       </c>
-      <c r="M69" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N69" s="3">
+      <c r="N69" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O69" s="3">
         <v>514</v>
       </c>
-      <c r="P69" t="s">
-        <v>223</v>
-      </c>
       <c r="Q69" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+      <c r="R69" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>1703</v>
       </c>
@@ -6271,49 +6410,51 @@
         <v>18</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D70" s="3">
         <v>3</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1</v>
+      <c r="E70" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B70)&amp;"-任务-"&amp;地狱道任务!D70</f>
+        <v>大焦热+2-任务-3</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="I70" s="3">
+        <v>1</v>
+      </c>
+      <c r="J70" s="3">
         <v>180</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L70" s="3">
+      <c r="L70" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M70" s="3">
         <v>1000</v>
       </c>
-      <c r="M70" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N70" s="3">
+      <c r="N70" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O70" s="3">
         <v>4</v>
       </c>
-      <c r="P70" t="s">
-        <v>224</v>
-      </c>
       <c r="Q70" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="R70" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>1704</v>
       </c>
@@ -6322,47 +6463,49 @@
         <v>18</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D71" s="3">
         <v>4</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H71" s="3">
-        <v>1</v>
+      <c r="E71" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B71)&amp;"-任务-"&amp;地狱道任务!D71</f>
+        <v>大焦热+2-任务-4</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="I71" s="3">
+        <v>1</v>
+      </c>
+      <c r="J71" s="3">
         <v>6</v>
       </c>
-      <c r="J71" s="3">
+      <c r="K71" s="3">
         <v>15</v>
       </c>
-      <c r="K71" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L71" s="3">
+      <c r="L71" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M71" s="3">
         <v>1000</v>
       </c>
-      <c r="M71" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="N71" s="3"/>
-      <c r="P71" t="s">
-        <v>225</v>
-      </c>
+      <c r="N71" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O71" s="3"/>
       <c r="Q71" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="R71" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>1801</v>
       </c>
@@ -6371,44 +6514,46 @@
         <v>19</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D72" s="3">
         <v>1</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H72" s="3">
-        <v>1</v>
+      <c r="E72" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B72)&amp;"-任务-"&amp;地狱道任务!D72</f>
+        <v>无间-任务-1</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="G72" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="I72" s="3">
-        <v>140</v>
-      </c>
-      <c r="J72" s="3"/>
-      <c r="K72" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L72" s="3">
+        <v>1</v>
+      </c>
+      <c r="J72" s="3">
+        <v>135</v>
+      </c>
+      <c r="K72" s="3"/>
+      <c r="L72" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M72" s="3">
         <v>5</v>
       </c>
-      <c r="M72" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O72" s="3">
         <v>17</v>
       </c>
-      <c r="P72" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q72" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>1802</v>
       </c>
@@ -6417,49 +6562,51 @@
         <v>19</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D73" s="3">
         <v>2</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H73" s="3">
-        <v>1</v>
+      <c r="E73" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B73)&amp;"-任务-"&amp;地狱道任务!D73</f>
+        <v>无间-任务-2</v>
+      </c>
+      <c r="F73" s="3"/>
+      <c r="G73" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="I73" s="3">
+        <v>1</v>
+      </c>
+      <c r="J73" s="3">
         <v>3</v>
       </c>
-      <c r="J73" s="3">
+      <c r="K73" s="3">
         <v>514</v>
       </c>
-      <c r="K73" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L73" s="3">
+      <c r="L73" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M73" s="3">
         <v>1000</v>
       </c>
-      <c r="M73" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N73" s="3">
+      <c r="N73" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O73" s="3">
         <v>514</v>
       </c>
-      <c r="P73" t="s">
-        <v>227</v>
-      </c>
       <c r="Q73" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+      <c r="R73" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>1803</v>
       </c>
@@ -6468,49 +6615,51 @@
         <v>19</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D74" s="3">
         <v>3</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H74" s="3">
-        <v>1</v>
+      <c r="E74" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B74)&amp;"-任务-"&amp;地狱道任务!D74</f>
+        <v>无间-任务-3</v>
+      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="I74" s="3">
+        <v>1</v>
+      </c>
+      <c r="J74" s="3">
         <v>200</v>
       </c>
-      <c r="J74" s="3">
+      <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L74" s="3">
+      <c r="L74" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M74" s="3">
         <v>1000</v>
       </c>
-      <c r="M74" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N74" s="3">
+      <c r="N74" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O74" s="3">
         <v>4</v>
       </c>
-      <c r="P74" t="s">
-        <v>228</v>
-      </c>
       <c r="Q74" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="R74" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>1804</v>
       </c>
@@ -6519,47 +6668,49 @@
         <v>19</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D75" s="3">
         <v>4</v>
       </c>
-      <c r="E75" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H75" s="3">
-        <v>1</v>
+      <c r="E75" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B75)&amp;"-任务-"&amp;地狱道任务!D75</f>
+        <v>无间-任务-4</v>
+      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="I75" s="3">
+        <v>1</v>
+      </c>
+      <c r="J75" s="3">
         <v>6</v>
       </c>
-      <c r="J75" s="3">
+      <c r="K75" s="3">
         <v>16</v>
       </c>
-      <c r="K75" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L75" s="3">
+      <c r="L75" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M75" s="3">
         <v>1000</v>
       </c>
-      <c r="M75" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="N75" s="3"/>
-      <c r="P75" t="s">
-        <v>229</v>
-      </c>
+      <c r="N75" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O75" s="3"/>
       <c r="Q75" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+      <c r="R75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>1901</v>
       </c>
@@ -6568,44 +6719,46 @@
         <v>20</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
       </c>
-      <c r="E76" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1</v>
+      <c r="E76" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B76)&amp;"-任务-"&amp;地狱道任务!D76</f>
+        <v>无间+1-任务-1</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="I76" s="3">
-        <v>150</v>
-      </c>
-      <c r="J76" s="3"/>
-      <c r="K76" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L76" s="3">
+        <v>1</v>
+      </c>
+      <c r="J76" s="3">
+        <v>140</v>
+      </c>
+      <c r="K76" s="3"/>
+      <c r="L76" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M76" s="3">
         <v>5</v>
       </c>
-      <c r="M76" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O76" s="3">
         <v>18</v>
       </c>
-      <c r="P76" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q76" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>1902</v>
       </c>
@@ -6614,49 +6767,51 @@
         <v>20</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D77" s="3">
         <v>2</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>271</v>
-      </c>
+      <c r="E77" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B77)&amp;"-任务-"&amp;地狱道任务!D77</f>
+        <v>无间+1-任务-2</v>
+      </c>
+      <c r="F77" s="3"/>
       <c r="G77" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H77" s="3">
-        <v>1</v>
+        <v>257</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="I77" s="3">
+        <v>1</v>
+      </c>
+      <c r="J77" s="3">
         <v>3</v>
       </c>
-      <c r="J77" s="3">
+      <c r="K77" s="3">
         <v>515</v>
       </c>
-      <c r="K77" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L77" s="3">
+      <c r="L77" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M77" s="3">
         <v>1000</v>
       </c>
-      <c r="M77" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N77" s="3">
+      <c r="N77" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O77" s="3">
         <v>515</v>
       </c>
-      <c r="P77" t="s">
-        <v>231</v>
-      </c>
       <c r="Q77" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+      <c r="R77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>1903</v>
       </c>
@@ -6665,49 +6820,51 @@
         <v>20</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D78" s="3">
         <v>3</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H78" s="3">
-        <v>1</v>
+      <c r="E78" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B78)&amp;"-任务-"&amp;地狱道任务!D78</f>
+        <v>无间+1-任务-3</v>
+      </c>
+      <c r="F78" s="3"/>
+      <c r="G78" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="I78" s="3">
+        <v>1</v>
+      </c>
+      <c r="J78" s="3">
         <v>225</v>
       </c>
-      <c r="J78" s="3">
+      <c r="K78" s="3">
         <v>0</v>
       </c>
-      <c r="K78" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L78" s="3">
+      <c r="L78" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M78" s="3">
         <v>1000</v>
       </c>
-      <c r="M78" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N78" s="3">
+      <c r="N78" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O78" s="3">
         <v>4</v>
       </c>
-      <c r="P78" t="s">
-        <v>232</v>
-      </c>
       <c r="Q78" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="R78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>1904</v>
       </c>
@@ -6716,49 +6873,51 @@
         <v>20</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D79" s="3">
         <v>4</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H79" s="3">
-        <v>1</v>
+      <c r="E79" s="3" t="str">
+        <f>INDEX(地狱道!$G$4:$G$23,地狱道任务!B79)&amp;"-任务-"&amp;地狱道任务!D79</f>
+        <v>无间+1-任务-4</v>
+      </c>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="I79" s="3">
+        <v>1</v>
+      </c>
+      <c r="J79" s="3">
         <v>6</v>
       </c>
-      <c r="J79" s="3">
+      <c r="K79" s="3">
         <v>17</v>
       </c>
-      <c r="K79" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L79" s="3">
+      <c r="L79" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M79" s="3">
         <v>1000</v>
       </c>
-      <c r="M79" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="N79" s="3"/>
-      <c r="P79" t="s">
-        <v>233</v>
-      </c>
+      <c r="N79" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O79" s="3"/>
       <c r="Q79" t="s">
-        <v>233</v>
+        <v>223</v>
+      </c>
+      <c r="R79" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="Q41:Q43">
+  <conditionalFormatting sqref="R41:R43">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/镇魂街/break.玩家等级突破.xlsx
+++ b/Excel/镇魂街/break.玩家等级突破.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="地狱道任务" sheetId="28" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">地狱道任务!$N$1:$N$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">地狱道任务!$O$1:$O$79</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="267">
   <si>
     <t>sheet名</t>
   </si>
@@ -423,331 +423,7 @@
     <t>玩家等级-lv</t>
   </si>
   <si>
-    <t>守护灵抽卡券</t>
-  </si>
-  <si>
-    <t>派遣挂机</t>
-  </si>
-  <si>
-    <t>玩家等级升到5级</t>
-  </si>
-  <si>
-    <t>守护灵升级-cnt</t>
-  </si>
-  <si>
-    <t>绿色基础材料</t>
-  </si>
-  <si>
-    <t>守护灵升级页</t>
-  </si>
-  <si>
-    <t>1张守护灵升到4</t>
-  </si>
-  <si>
-    <t>进行3次守护灵抽奖</t>
-  </si>
-  <si>
-    <t>抽卡-shl</t>
-  </si>
-  <si>
-    <t>抽卡</t>
-  </si>
-  <si>
-    <t>兑换2次技能</t>
-  </si>
-  <si>
     <t>技能获取-buyTimes</t>
-  </si>
-  <si>
-    <t>商店</t>
-  </si>
-  <si>
-    <t>玩家等级升到30</t>
-  </si>
-  <si>
-    <t>金币</t>
-  </si>
-  <si>
-    <t>玩家等级升到20</t>
-  </si>
-  <si>
-    <t>芦花古楼-风通关到7</t>
-  </si>
-  <si>
-    <t>关卡-cha</t>
-  </si>
-  <si>
-    <t>芦花古楼</t>
-  </si>
-  <si>
-    <t>拥有一张20级的守护灵</t>
-  </si>
-  <si>
-    <t>竞技场对阵页</t>
-  </si>
-  <si>
-    <t>激活神器1</t>
-  </si>
-  <si>
-    <t>神器-大点-id</t>
-  </si>
-  <si>
-    <t>神器</t>
-  </si>
-  <si>
-    <t>玩家等级升到40</t>
-  </si>
-  <si>
-    <t>芦花古楼-花通关到5</t>
-  </si>
-  <si>
-    <t>击杀2个BOSS</t>
-  </si>
-  <si>
-    <t>世界BOSS-chamin</t>
-  </si>
-  <si>
-    <t>恶灵入侵</t>
-  </si>
-  <si>
-    <t>专属武器强化到5级</t>
-  </si>
-  <si>
-    <t>专属武器强化-max</t>
-  </si>
-  <si>
-    <t>守护灵武器强化页</t>
-  </si>
-  <si>
-    <t>激活神器2</t>
-  </si>
-  <si>
-    <t>玩家等级升到50</t>
-  </si>
-  <si>
-    <t>拥有3个强化到5级的专属武器</t>
-  </si>
-  <si>
-    <t>专属武器强化-cnt</t>
-  </si>
-  <si>
-    <t>守护灵抽奖20次</t>
-  </si>
-  <si>
-    <t>守护灵抽奖10次</t>
-  </si>
-  <si>
-    <t>玩家等级升到60</t>
-  </si>
-  <si>
-    <t>击杀3阶地煞BOSS2个</t>
-  </si>
-  <si>
-    <t>世界BOSS-chadup</t>
-  </si>
-  <si>
-    <t>竞技场到达1200分</t>
-  </si>
-  <si>
-    <t>历史最高分</t>
-  </si>
-  <si>
-    <t>竞技场排行页</t>
-  </si>
-  <si>
-    <t>激活一个专属武器</t>
-  </si>
-  <si>
-    <t>守护灵武器解封页</t>
-  </si>
-  <si>
-    <t>玩家等级升到70</t>
-  </si>
-  <si>
-    <t>击杀4阶地煞BOSS2个</t>
-  </si>
-  <si>
-    <t>芦花古楼总共50层</t>
-  </si>
-  <si>
-    <t>芦花古楼-sum</t>
-  </si>
-  <si>
-    <t>3个专属武器强化到10级</t>
-  </si>
-  <si>
-    <t>3个专属武器强化到5级</t>
-  </si>
-  <si>
-    <t>玩家等级升到80</t>
-  </si>
-  <si>
-    <t>击杀6阶地煞BOSS3个</t>
-  </si>
-  <si>
-    <t>1个专属武器强化到10级</t>
-  </si>
-  <si>
-    <t>守护灵抽奖50次</t>
-  </si>
-  <si>
-    <t>守护灵抽奖30次</t>
-  </si>
-  <si>
-    <t>击杀7阶地煞BOSS3个</t>
-  </si>
-  <si>
-    <t>洗练战力</t>
-  </si>
-  <si>
-    <t>寄灵人洗练-max</t>
-  </si>
-  <si>
-    <t>寄灵人天赋页</t>
-  </si>
-  <si>
-    <t>激活3个专属武器</t>
-  </si>
-  <si>
-    <t>玩家等级升到85</t>
-  </si>
-  <si>
-    <t>击杀8阶地煞BOSS3个</t>
-  </si>
-  <si>
-    <t>竞技场到达1300分</t>
-  </si>
-  <si>
-    <t>3个专属武器强化到15</t>
-  </si>
-  <si>
-    <t>3个专属武器强化到10</t>
-  </si>
-  <si>
-    <t>玩家等级升到90</t>
-  </si>
-  <si>
-    <t>击杀3次地煞9的世界BOSS</t>
-  </si>
-  <si>
-    <t>芦花古楼总共80层</t>
-  </si>
-  <si>
-    <t>一个专属武器解封2次</t>
-  </si>
-  <si>
-    <t>玩家等级升到95</t>
-  </si>
-  <si>
-    <t>击杀3次天罡1的世界BOSS</t>
-  </si>
-  <si>
-    <t>竞技场到达1400分</t>
-  </si>
-  <si>
-    <t>守护灵抽奖100次</t>
-  </si>
-  <si>
-    <t>玩家等级升到100</t>
-  </si>
-  <si>
-    <t>击杀3次天罡2的世界BOSS</t>
-  </si>
-  <si>
-    <t>芦花古楼总共100层</t>
-  </si>
-  <si>
-    <t>花费钻石3000</t>
-  </si>
-  <si>
-    <t>玩家等级升到105</t>
-  </si>
-  <si>
-    <t>击杀3次天罡3的世界BOSS</t>
-  </si>
-  <si>
-    <t>芦花古楼总共120层</t>
-  </si>
-  <si>
-    <t>3个专属武器强化到25</t>
-  </si>
-  <si>
-    <t>玩家等级升到110</t>
-  </si>
-  <si>
-    <t>击杀1次天罡4的世界BOSS</t>
-  </si>
-  <si>
-    <t>芦花古楼总共140层</t>
-  </si>
-  <si>
-    <t>竞技场到达1500分</t>
-  </si>
-  <si>
-    <t>玩家等级升到115</t>
-  </si>
-  <si>
-    <t>击杀3次天罡4的世界BOSS</t>
-  </si>
-  <si>
-    <t>芦花古楼总共160层</t>
-  </si>
-  <si>
-    <t>6个守护灵突破达到14</t>
-  </si>
-  <si>
-    <t>守护灵突破-cnt</t>
-  </si>
-  <si>
-    <t>守护灵列表</t>
-  </si>
-  <si>
-    <t>玩家等级升到120</t>
-  </si>
-  <si>
-    <t>击杀1次天罡5的世界BOSS</t>
-  </si>
-  <si>
-    <t>芦花古楼总共180层</t>
-  </si>
-  <si>
-    <t>6个守护灵突破达到15</t>
-  </si>
-  <si>
-    <t>玩家等级升到125</t>
-  </si>
-  <si>
-    <t>击杀3次天罡5的世界BOSS</t>
-  </si>
-  <si>
-    <t>芦花古楼总共200层</t>
-  </si>
-  <si>
-    <t>6个守护灵突破达到16</t>
-  </si>
-  <si>
-    <t>玩家等级升到130</t>
-  </si>
-  <si>
-    <t>击杀3次天罡6的世界BOSS</t>
-  </si>
-  <si>
-    <t>芦花古楼总共225层</t>
-  </si>
-  <si>
-    <t>6个守护灵突破达到17</t>
-  </si>
-  <si>
-    <t>1张守护灵升到10</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行2次守护灵抽奖</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换1次技能</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>int:&gt;</t>
@@ -759,115 +435,7 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>1张守护灵升到20</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行5次守护灵抽奖</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>兑换3次技能</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>武灵技背包全部页</t>
-  </si>
-  <si>
-    <t>关卡-cha</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>解封一个专属武器</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换6次技能</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活神器1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>专属武器解封-bhv</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费货币-id</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技场-bhv</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与5次竞技场战斗</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀2个恶灵</t>
-  </si>
-  <si>
-    <t>击杀3阶地煞恶灵2个</t>
-  </si>
-  <si>
-    <t>击杀4阶地煞恶灵2个</t>
-  </si>
-  <si>
-    <t>击杀6阶地煞恶灵3个</t>
-  </si>
-  <si>
-    <t>击杀7阶地煞恶灵3个</t>
-  </si>
-  <si>
-    <t>击杀8阶地煞恶灵3个</t>
-  </si>
-  <si>
-    <t>击杀3次地煞9的世界恶灵</t>
-  </si>
-  <si>
-    <t>击杀3次天罡1的世界恶灵</t>
-  </si>
-  <si>
-    <t>击杀3次天罡2的世界恶灵</t>
-  </si>
-  <si>
-    <t>击杀3次天罡3的世界恶灵</t>
-  </si>
-  <si>
-    <t>击杀1次天罡4的世界恶灵</t>
-  </si>
-  <si>
-    <t>击杀3次天罡4的世界恶灵</t>
-  </si>
-  <si>
-    <t>击杀1次天罡5的世界恶灵</t>
-  </si>
-  <si>
-    <t>击杀3次天罡5的世界恶灵</t>
-  </si>
-  <si>
-    <t>击杀3次天罡6的世界恶灵</t>
-  </si>
-  <si>
-    <t>专属武器解封-max</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>专属武器解封-bhv</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>专属武器解封9次</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -899,22 +467,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>玩家等级升到40</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级升到45</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级升到50</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级升到60</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>#note</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -969,11 +521,509 @@
     <t>大焦热+2</t>
   </si>
   <si>
-    <t>玩家等级升到15级</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级升到20</t>
+    <t>叫唤+2</t>
+  </si>
+  <si>
+    <t>大叫唤</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>大叫唤+1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>众合+2</t>
+  </si>
+  <si>
+    <t>无间+1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有1个突破+1的守护灵</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关普通关第1章</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡-cha</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡-cha</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行5次守护灵抽卡</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡-shl</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行5次竞技场战斗</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关困难第1章</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有1张SR守护灵</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有2个突破+3的守护灵</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵突破-cnt</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关普通第4章</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有16件橙色装备</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备穿戴-qua</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行10次竞技场战斗</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场-bhv</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场-bhv</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商店购买5次加速令</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店购买-id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关困难第3章</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡-cha</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡-cha</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有48件强化+20的装备</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备强化-cnt</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行20次点金</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>点金</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼通过10关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀2次恶灵</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-chamin</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备穿戴-suit</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿戴2套完整的套装</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有3个突破+7的守护灵</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵突破-cnt</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关普通第9章</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有1个等级&gt;=5的1号魂珠</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器魂珠-cnt-lv-loc</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Param[3]</t>
+  </si>
+  <si>
+    <t>任务1参数3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器魂珠-max-loc</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行30次守护灵抽卡</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡-shl</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关困难第8章</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器1达到2级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器-大点-id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有48件强化+40的装备</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备强化-cnt</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行50次守护灵抽卡</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡-shl</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼通过50关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-sum</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-sum</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器2达到2级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>把1个2号魂珠升到3级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器魂珠-max-loc</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有3个突破+9的守护灵</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关普通第13章</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡-cha</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行20次寄灵人天赋洗练</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人洗练-bhv</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀2个地煞7级以上的恶灵</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有1个7级的插槽技能</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽技能升级-max</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有48件40级以上的橙色的装备</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备穿戴-qua-lvid</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行80次守护灵抽卡</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼通过80关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀10次恶灵</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-chamin</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-chamin</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有3个等级&gt;=5的2号魂珠</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行20次实时竞技</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时竞技场-bhv</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有3个突破+12的守护灵</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关普通第17章</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有48件强化+80的装备</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史最高分</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场分数达到1500</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关困难第15章</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有3个橙色神器碎片</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器-组件-quaGet</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有8件90级橙色装备</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼通过150关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-sum</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有3个SSR守护灵</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行120次守护灵抽卡</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡-shl</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵-qua</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵-qua</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有3个突破+15的守护灵</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关普通第22章</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有48件90级的橙色装备</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备穿戴-qua-lvid</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过困难20章</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器4达到3级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器5达到3级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器7达到3级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡-cha</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器-大点-id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器-大点-id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器3达到3级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼通过200关</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-sum</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-sum</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有1个魂珠总等级21级的专属武器</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器魂珠-max-sumlv</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有1个魂珠总等级30级的专属武器</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有24件120的橙色装备</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备穿戴-qua-lvid</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备穿戴-qua-lvid</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关普通第27章</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有48件强化+120的装备</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有3个突破+18的守护灵</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备强化-cnt</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器6达到3级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器-大点-id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽卡券</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器魂珠-max-sumlv</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有1个魂珠总等级40级的专属武器</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>int:e&lt;&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|1</t>
+    </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -981,7 +1031,7 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>玩家等级升到65</t>
+    <t>玩家等级升到50</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -989,57 +1039,23 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>叫唤+2</t>
-  </si>
-  <si>
-    <t>大叫唤</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>大叫唤+1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>众合+2</t>
-  </si>
-  <si>
-    <t>无间+1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级升到80</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级升到85</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家等级升到90</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>玩家等级升到100</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级升到110</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家等级升到120</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>玩家等级升到130</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家等级升到135</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>玩家等级升到140</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到150</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1198,7 +1214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1230,6 +1246,17 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1287,7 +1314,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="13" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1299,6 +1325,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Grid" xfId="4"/>
@@ -1728,7 +1757,7 @@
       <c r="H6" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
+      <c r="A10" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -1741,7 +1770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
@@ -1853,8 +1882,8 @@
       <c r="H2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>227</v>
+      <c r="I2" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="J2" t="s">
         <v>37</v>
@@ -1914,7 +1943,7 @@
         <v>52</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>228</v>
+        <v>121</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>53</v>
@@ -1925,7 +1954,7 @@
       <c r="L3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>56</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -1960,7 +1989,7 @@
       <c r="C4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -2002,7 +2031,7 @@
       <c r="C5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -2048,7 +2077,7 @@
       <c r="C6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -2058,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>269</v>
+        <v>127</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>70</v>
@@ -2084,7 +2113,7 @@
       <c r="O6" s="3">
         <v>45</v>
       </c>
-      <c r="S6" s="12"/>
+      <c r="S6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -2096,7 +2125,7 @@
       <c r="C7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -2148,7 +2177,7 @@
       <c r="C8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -2158,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>270</v>
+        <v>128</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>74</v>
@@ -2200,7 +2229,7 @@
       <c r="C9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -2210,7 +2239,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>285</v>
+        <v>138</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>78</v>
@@ -2246,7 +2275,7 @@
       <c r="C10" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -2292,7 +2321,7 @@
       <c r="C11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>80</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -2302,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>271</v>
+        <v>129</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>82</v>
@@ -2338,7 +2367,7 @@
       <c r="C12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>80</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -2348,7 +2377,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>282</v>
+        <v>135</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>82</v>
@@ -2390,7 +2419,7 @@
       <c r="C13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>80</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -2400,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>283</v>
+        <v>136</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>82</v>
@@ -2436,7 +2465,7 @@
       <c r="C14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>80</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -2446,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>284</v>
+        <v>137</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>82</v>
@@ -2482,7 +2511,7 @@
       <c r="C15" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -2492,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>272</v>
+        <v>130</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>85</v>
@@ -2528,7 +2557,7 @@
       <c r="C16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -2580,7 +2609,7 @@
       <c r="C17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -2590,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>273</v>
+        <v>131</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>85</v>
@@ -2626,7 +2655,7 @@
       <c r="C18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -2636,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>274</v>
+        <v>132</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>85</v>
@@ -2672,7 +2701,7 @@
       <c r="C19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>87</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -2718,7 +2747,7 @@
       <c r="C20" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>87</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -2728,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>275</v>
+        <v>133</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>89</v>
@@ -2770,7 +2799,7 @@
       <c r="C21" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>87</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -2780,7 +2809,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>276</v>
+        <v>134</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>89</v>
@@ -2816,7 +2845,7 @@
       <c r="C22" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>87</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -2862,7 +2891,7 @@
       <c r="C23" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>91</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -2872,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>286</v>
+        <v>139</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>93</v>
@@ -2908,10 +2937,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R79"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="F52" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2919,19 +2948,20 @@
     <col min="4" max="4" width="9.5" customWidth="1"/>
     <col min="5" max="5" width="16.125" customWidth="1"/>
     <col min="6" max="6" width="24.375" customWidth="1"/>
-    <col min="7" max="8" width="25.625" customWidth="1"/>
+    <col min="7" max="7" width="33.375" customWidth="1"/>
+    <col min="8" max="8" width="25.625" customWidth="1"/>
     <col min="9" max="9" width="27.875" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="29.75" customWidth="1"/>
-    <col min="12" max="12" width="14.375" customWidth="1"/>
-    <col min="13" max="13" width="19.375" customWidth="1"/>
-    <col min="14" max="14" width="21.375" customWidth="1"/>
-    <col min="15" max="15" width="15.375" customWidth="1"/>
-    <col min="17" max="17" width="25.375" customWidth="1"/>
-    <col min="18" max="18" width="20.375" customWidth="1"/>
+    <col min="11" max="12" width="29.75" customWidth="1"/>
+    <col min="13" max="13" width="14.375" customWidth="1"/>
+    <col min="14" max="14" width="19.375" customWidth="1"/>
+    <col min="15" max="15" width="21.375" customWidth="1"/>
+    <col min="16" max="16" width="15.375" customWidth="1"/>
+    <col min="18" max="18" width="25.375" customWidth="1"/>
+    <col min="19" max="19" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2945,7 +2975,7 @@
         <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>96</v>
@@ -2965,20 +2995,23 @@
       <c r="K1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -2991,11 +3024,11 @@
       <c r="D2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>261</v>
+      <c r="E2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="G2" t="s">
         <v>41</v>
@@ -3003,8 +3036,8 @@
       <c r="H2" t="s">
         <v>104</v>
       </c>
-      <c r="I2" t="s">
-        <v>44</v>
+      <c r="I2" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="J2" t="s">
         <v>44</v>
@@ -3013,19 +3046,22 @@
         <v>44</v>
       </c>
       <c r="L2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
         <v>43</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>44</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>105</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
@@ -3039,7 +3075,7 @@
         <v>108</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>268</v>
+        <v>126</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>109</v>
@@ -3060,19 +3096,22 @@
         <v>113</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>101</v>
       </c>
@@ -3096,30 +3135,22 @@
       <c r="H4" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
+      <c r="I4" s="3"/>
       <c r="J4" s="3">
         <v>10</v>
       </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="O4" s="4">
-        <v>102</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L4" s="3"/>
+      <c r="M4" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>102</v>
       </c>
@@ -3138,35 +3169,29 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="4" t="s">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="I5" s="3"/>
       <c r="J5" s="3">
         <v>1</v>
       </c>
       <c r="K5" s="3">
-        <v>10</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M5" s="3">
-        <v>10</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>124</v>
+        <v>2</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2</v>
       </c>
       <c r="O5" s="4"/>
-      <c r="Q5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>103</v>
       </c>
@@ -3185,35 +3210,29 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="4" t="s">
-        <v>225</v>
+        <v>141</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="I6" s="3"/>
       <c r="J6" s="3">
-        <v>2</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M6" s="3">
         <v>10</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="O6" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K6" s="3">
+        <v>101</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N6" s="3">
+        <v>2</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>104</v>
       </c>
@@ -3232,33 +3251,27 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>226</v>
+        <v>144</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="I7" s="3"/>
       <c r="J7" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K7" s="3"/>
-      <c r="L7" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="M7" s="3">
-        <v>20</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>233</v>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N7" s="3">
+        <v>2</v>
       </c>
       <c r="O7" s="3"/>
-      <c r="Q7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>201</v>
       </c>
@@ -3277,33 +3290,28 @@
         <v>黑绳+1-任务-1</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="5" t="s">
-        <v>277</v>
+      <c r="G8" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="I8" s="3"/>
       <c r="J8" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K8" s="3"/>
-      <c r="L8" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+      <c r="M8" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>202</v>
       </c>
@@ -3323,32 +3331,29 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="4" t="s">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="I9" s="3"/>
       <c r="J9" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K9" s="3">
-        <v>20</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M9" s="3">
-        <v>20</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>124</v>
+        <v>201</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2</v>
       </c>
       <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>203</v>
       </c>
@@ -3368,30 +3373,27 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="4" t="s">
-        <v>232</v>
+        <v>122</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="I10" s="3"/>
       <c r="J10" s="3">
         <v>3</v>
       </c>
       <c r="K10" s="3"/>
-      <c r="L10" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="M10" s="3">
-        <v>20</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>233</v>
+      <c r="L10" s="3"/>
+      <c r="M10" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N10" s="3">
+        <v>2</v>
       </c>
       <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>204</v>
       </c>
@@ -3411,32 +3413,29 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>230</v>
+        <v>148</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I11" s="3">
+        <v>226</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
         <v>1</v>
       </c>
-      <c r="J11" s="3">
-        <v>5</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="M11" s="3">
-        <v>50</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="O11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K11" s="3">
+        <v>3</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N11" s="3">
+        <v>2</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>301</v>
       </c>
@@ -3456,35 +3455,27 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
+      <c r="I12" s="3"/>
       <c r="J12" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K12" s="3"/>
-      <c r="L12" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M12" s="3">
-        <v>2</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O12" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+      <c r="M12" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N12" s="3">
+        <v>2</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>302</v>
       </c>
@@ -3504,40 +3495,29 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="I13" s="3"/>
       <c r="J13" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K13" s="3">
-        <v>401</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>138</v>
-      </c>
-      <c r="R13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N13" s="3">
+        <v>2</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>303</v>
       </c>
@@ -3557,36 +3537,29 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="4" t="s">
-        <v>242</v>
+        <v>151</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="I14" s="3"/>
       <c r="J14" s="3">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="O14" s="3"/>
-      <c r="Q14" t="s">
-        <v>135</v>
-      </c>
-      <c r="R14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
+        <v>104</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N14" s="3">
+        <v>2</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>304</v>
       </c>
@@ -3606,36 +3579,29 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="I15" s="3"/>
       <c r="J15" s="3">
-        <v>6</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="M15" s="3">
-        <v>20</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>233</v>
+        <v>16</v>
+      </c>
+      <c r="K15" s="3">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2</v>
       </c>
       <c r="O15" s="3"/>
-      <c r="Q15" t="s">
-        <v>140</v>
-      </c>
-      <c r="R15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>401</v>
       </c>
@@ -3654,36 +3620,28 @@
         <v>众合+1-任务-1</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="5" t="s">
-        <v>279</v>
+      <c r="G16" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="I16" s="3"/>
       <c r="J16" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K16" s="3"/>
-      <c r="L16" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M16" s="3">
-        <v>3</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O16" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>402</v>
       </c>
@@ -3702,41 +3660,30 @@
         <v>众合+1-任务-2</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="4" t="s">
-        <v>144</v>
+      <c r="G17" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="I17" s="3"/>
       <c r="J17" s="3">
         <v>5</v>
       </c>
       <c r="K17" s="3">
-        <v>402</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>144</v>
-      </c>
-      <c r="R17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1103</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>403</v>
       </c>
@@ -3755,41 +3702,30 @@
         <v>众合+1-任务-3</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
+      <c r="G18" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" s="3"/>
       <c r="J18" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K18" s="3">
-        <v>500</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O18" s="3">
-        <v>501</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>145</v>
-      </c>
-      <c r="R18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N18" s="3">
+        <v>2</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>404</v>
       </c>
@@ -3808,39 +3744,30 @@
         <v>众合+1-任务-4</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>148</v>
+      <c r="G19" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I19" s="3">
-        <v>1</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="I19" s="3"/>
       <c r="J19" s="3">
-        <v>5</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M19" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="O19" s="3">
-        <v>1102004</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>151</v>
-      </c>
-      <c r="R19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="K19" s="3">
+        <v>20</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N19" s="3">
+        <v>2</v>
+      </c>
+      <c r="O19" s="4"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>501</v>
       </c>
@@ -3859,36 +3786,28 @@
         <v>众合+2-任务-1</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="5" t="s">
-        <v>262</v>
+      <c r="G20" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="I20" s="3"/>
       <c r="J20" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K20" s="3"/>
-      <c r="L20" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="3">
-        <v>3</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O20" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+      <c r="M20" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N20" s="3">
+        <v>2</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>502</v>
       </c>
@@ -3907,41 +3826,28 @@
         <v>众合+2-任务-2</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
+      <c r="G21" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I21" s="3"/>
       <c r="J21" s="3">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
-        <v>5</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="O21" s="3">
-        <v>1102004</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>145</v>
-      </c>
-      <c r="R21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N21" s="3">
+        <v>2</v>
+      </c>
+      <c r="O21" s="4"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>503</v>
       </c>
@@ -3960,39 +3866,30 @@
         <v>众合+2-任务-3</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="4" t="s">
-        <v>155</v>
+      <c r="G22" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="I22" s="3"/>
       <c r="J22" s="3">
-        <v>20</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>148</v>
-      </c>
-      <c r="R22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="K22" s="3">
+        <v>501</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N22" s="3">
+        <v>2</v>
+      </c>
+      <c r="O22" s="4"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>504</v>
       </c>
@@ -4011,41 +3908,28 @@
         <v>众合+2-任务-4</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="4" t="s">
-        <v>238</v>
+      <c r="G23" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="I23" s="3"/>
       <c r="J23" s="3">
-        <v>1</v>
-      </c>
-      <c r="K23" s="3">
-        <v>101</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="O23" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>156</v>
-      </c>
-      <c r="R23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N23" s="3">
+        <v>2</v>
+      </c>
+      <c r="O23" s="4"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>601</v>
       </c>
@@ -4065,35 +3949,27 @@
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
+      <c r="I24" s="3"/>
       <c r="J24" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K24" s="3"/>
-      <c r="L24" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M24" s="3">
-        <v>4</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O24" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+      <c r="M24" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N24" s="3">
+        <v>2</v>
+      </c>
+      <c r="O24" s="4"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>602</v>
       </c>
@@ -4113,40 +3989,29 @@
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="4" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I25" s="3">
-        <v>1</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="I25" s="3"/>
       <c r="J25" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K25" s="3">
-        <v>503</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M25" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O25" s="3">
-        <v>503</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>158</v>
-      </c>
-      <c r="R25" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N25" s="3">
+        <v>2</v>
+      </c>
+      <c r="O25" s="4"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>603</v>
       </c>
@@ -4166,36 +4031,29 @@
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="4" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="I26" s="3"/>
       <c r="J26" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="O26" s="3"/>
-      <c r="Q26" t="s">
-        <v>160</v>
-      </c>
-      <c r="R26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="K26" s="3">
+        <v>109</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N26" s="3">
+        <v>2</v>
+      </c>
+      <c r="O26" s="4"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>604</v>
       </c>
@@ -4215,38 +4073,29 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="I27" s="3">
+        <v>178</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>1</v>
       </c>
-      <c r="J27" s="3">
-        <v>1</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="O27" s="3">
-        <v>1102004</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>163</v>
-      </c>
-      <c r="R27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+      <c r="M27" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N27" s="3">
+        <v>2</v>
+      </c>
+      <c r="O27" s="4"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>701</v>
       </c>
@@ -4265,36 +4114,28 @@
         <v>叫唤+1-任务-1</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="5" t="s">
-        <v>264</v>
+      <c r="G28" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I28" s="3">
-        <v>1</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="I28" s="3"/>
       <c r="J28" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K28" s="3"/>
-      <c r="L28" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M28" s="3">
-        <v>4</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O28" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L28" s="3"/>
+      <c r="M28" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N28" s="3">
+        <v>2</v>
+      </c>
+      <c r="O28" s="4"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>702</v>
       </c>
@@ -4313,41 +4154,30 @@
         <v>叫唤+1-任务-2</v>
       </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I29" s="3">
-        <v>1</v>
-      </c>
+      <c r="G29" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I29" s="3"/>
       <c r="J29" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K29" s="3">
-        <v>504</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M29" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O29" s="3">
-        <v>504</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>166</v>
-      </c>
-      <c r="R29" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N29" s="3">
+        <v>2</v>
+      </c>
+      <c r="O29" s="4"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>703</v>
       </c>
@@ -4366,39 +4196,30 @@
         <v>叫唤+1-任务-3</v>
       </c>
       <c r="F30" s="3"/>
-      <c r="G30" s="4" t="s">
-        <v>167</v>
+      <c r="G30" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I30" s="3">
-        <v>1</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="I30" s="3"/>
       <c r="J30" s="3">
-        <v>50</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M30" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="O30" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>167</v>
-      </c>
-      <c r="R30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="K30" s="3">
+        <v>101</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N30" s="3">
+        <v>2</v>
+      </c>
+      <c r="O30" s="4"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>704</v>
       </c>
@@ -4417,41 +4238,30 @@
         <v>叫唤+1-任务-4</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="4" t="s">
-        <v>169</v>
+      <c r="G31" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I31" s="3">
-        <v>1</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="I31" s="3"/>
       <c r="J31" s="3">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="K31" s="3">
-        <v>10</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M31" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="O31" s="3">
-        <v>1102004</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>170</v>
-      </c>
-      <c r="R31" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N31" s="3">
+        <v>2</v>
+      </c>
+      <c r="O31" s="4"/>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>801</v>
       </c>
@@ -4470,36 +4280,28 @@
         <v>叫唤+2-任务-1</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="5" t="s">
-        <v>265</v>
+      <c r="G32" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="I32" s="3"/>
       <c r="J32" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K32" s="3"/>
-      <c r="L32" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M32" s="3">
-        <v>5</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O32" s="3">
-        <v>7</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+      <c r="M32" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N32" s="3">
+        <v>2</v>
+      </c>
+      <c r="O32" s="4"/>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>802</v>
       </c>
@@ -4518,41 +4320,28 @@
         <v>叫唤+2-任务-2</v>
       </c>
       <c r="F33" s="3"/>
-      <c r="G33" s="4" t="s">
-        <v>246</v>
+      <c r="G33" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="I33" s="3"/>
       <c r="J33" s="3">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3">
-        <v>506</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M33" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O33" s="3">
-        <v>506</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>172</v>
-      </c>
-      <c r="R33" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N33" s="3">
+        <v>2</v>
+      </c>
+      <c r="O33" s="4"/>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>803</v>
       </c>
@@ -4571,39 +4360,30 @@
         <v>叫唤+2-任务-3</v>
       </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="4" t="s">
-        <v>173</v>
+      <c r="G34" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I34" s="3">
-        <v>1</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="I34" s="3"/>
       <c r="J34" s="3">
-        <v>10</v>
-      </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M34" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="O34" s="3">
-        <v>1102004</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>173</v>
-      </c>
-      <c r="R34" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="K34" s="3">
+        <v>102</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N34" s="3">
+        <v>2</v>
+      </c>
+      <c r="O34" s="4"/>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>804</v>
       </c>
@@ -4622,39 +4402,30 @@
         <v>叫唤+2-任务-4</v>
       </c>
       <c r="F35" s="4"/>
-      <c r="G35" s="4" t="s">
-        <v>174</v>
+      <c r="G35" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="I35" s="3"/>
       <c r="J35" s="3">
-        <v>50</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M35" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="O35" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>175</v>
-      </c>
-      <c r="R35" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="K35" s="3">
+        <v>2</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N35" s="3">
+        <v>2</v>
+      </c>
+      <c r="O35" s="4"/>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>901</v>
       </c>
@@ -4674,35 +4445,27 @@
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="5" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I36" s="3">
-        <v>1</v>
-      </c>
+      <c r="I36" s="3"/>
       <c r="J36" s="3">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K36" s="3"/>
-      <c r="L36" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M36" s="3">
-        <v>5</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O36" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L36" s="3"/>
+      <c r="M36" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N36" s="3">
+        <v>2</v>
+      </c>
+      <c r="O36" s="4"/>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>902</v>
       </c>
@@ -4721,41 +4484,30 @@
         <v>大叫唤-任务-2</v>
       </c>
       <c r="F37" s="3"/>
-      <c r="G37" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I37" s="3">
-        <v>1</v>
-      </c>
+      <c r="G37" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I37" s="3"/>
       <c r="J37" s="3">
         <v>3</v>
       </c>
       <c r="K37" s="3">
-        <v>507</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M37" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O37" s="3">
-        <v>507</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>176</v>
-      </c>
-      <c r="R37" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N37" s="3">
+        <v>2</v>
+      </c>
+      <c r="O37" s="4"/>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>903</v>
       </c>
@@ -4774,39 +4526,30 @@
         <v>大叫唤-任务-3</v>
       </c>
       <c r="F38" s="3"/>
-      <c r="G38" s="4" t="s">
-        <v>177</v>
+      <c r="G38" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="I38" s="3">
-        <v>1</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="I38" s="3"/>
       <c r="J38" s="3">
-        <v>15000</v>
+        <v>10</v>
       </c>
       <c r="K38" s="3">
-        <v>0</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M38" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="O38" s="3"/>
-      <c r="Q38" t="s">
-        <v>177</v>
-      </c>
-      <c r="R38" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L38" s="3"/>
+      <c r="M38" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N38" s="3">
+        <v>2</v>
+      </c>
+      <c r="O38" s="4"/>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>904</v>
       </c>
@@ -4825,41 +4568,28 @@
         <v>大叫唤-任务-4</v>
       </c>
       <c r="F39" s="4"/>
-      <c r="G39" s="4" t="s">
-        <v>260</v>
+      <c r="G39" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="I39" s="3">
-        <v>1</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="I39" s="3"/>
       <c r="J39" s="3">
-        <v>9</v>
-      </c>
-      <c r="K39" s="3">
-        <v>0</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M39" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="O39" s="3">
-        <v>1102004</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>180</v>
-      </c>
-      <c r="R39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N39" s="3">
+        <v>2</v>
+      </c>
+      <c r="O39" s="4"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>1001</v>
       </c>
@@ -4878,36 +4608,30 @@
         <v>大叫唤+1-任务-1</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="G40" s="5" t="s">
-        <v>281</v>
+      <c r="G40" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I40" s="3">
-        <v>1</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="I40" s="3"/>
       <c r="J40" s="3">
-        <v>70</v>
-      </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M40" s="3">
-        <v>5</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O40" s="3">
-        <v>9</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="K40" s="3">
+        <v>507</v>
+      </c>
+      <c r="L40" s="3"/>
+      <c r="M40" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N40" s="3">
+        <v>2</v>
+      </c>
+      <c r="O40" s="4"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>1002</v>
       </c>
@@ -4926,41 +4650,28 @@
         <v>大叫唤+1-任务-2</v>
       </c>
       <c r="F41" s="3"/>
-      <c r="G41" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1</v>
-      </c>
+      <c r="G41" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I41" s="3"/>
       <c r="J41" s="3">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3">
-        <v>508</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O41" s="3">
-        <v>508</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>182</v>
-      </c>
-      <c r="R41" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N41" s="3">
+        <v>2</v>
+      </c>
+      <c r="O41" s="4"/>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>1003</v>
       </c>
@@ -4979,39 +4690,28 @@
         <v>大叫唤+1-任务-3</v>
       </c>
       <c r="F42" s="3"/>
-      <c r="G42" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1</v>
-      </c>
+      <c r="G42" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I42" s="3"/>
       <c r="J42" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M42" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="O42" s="3"/>
-      <c r="Q42" t="s">
-        <v>183</v>
-      </c>
-      <c r="R42" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N42" s="3">
+        <v>2</v>
+      </c>
+      <c r="O42" s="4"/>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>1004</v>
       </c>
@@ -5030,41 +4730,32 @@
         <v>大叫唤+1-任务-4</v>
       </c>
       <c r="F43" s="4"/>
-      <c r="G43" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1</v>
-      </c>
+      <c r="G43" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I43" s="3"/>
       <c r="J43" s="3">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="K43" s="3">
-        <v>15</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="O43" s="3">
-        <v>1102004</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>185</v>
-      </c>
-      <c r="R43" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3">
+        <v>2</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N43" s="3">
+        <v>2</v>
+      </c>
+      <c r="O43" s="4"/>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>1101</v>
       </c>
@@ -5083,36 +4774,28 @@
         <v>大叫唤+2-任务-1</v>
       </c>
       <c r="F44" s="4"/>
-      <c r="G44" s="5" t="s">
-        <v>287</v>
+      <c r="G44" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="I44" s="3"/>
       <c r="J44" s="3">
         <v>80</v>
       </c>
       <c r="K44" s="3"/>
-      <c r="L44" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M44" s="3">
-        <v>5</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O44" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+      <c r="M44" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N44" s="3">
+        <v>2</v>
+      </c>
+      <c r="O44" s="4"/>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>1102</v>
       </c>
@@ -5131,41 +4814,28 @@
         <v>大叫唤+2-任务-2</v>
       </c>
       <c r="F45" s="3"/>
-      <c r="G45" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1</v>
-      </c>
+      <c r="G45" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="I45" s="3"/>
       <c r="J45" s="3">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3">
-        <v>509</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O45" s="3">
-        <v>509</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>187</v>
-      </c>
-      <c r="R45" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N45" s="3">
+        <v>2</v>
+      </c>
+      <c r="O45" s="4"/>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>1103</v>
       </c>
@@ -5184,41 +4854,30 @@
         <v>大叫唤+2-任务-3</v>
       </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="4" t="s">
-        <v>188</v>
+      <c r="G46" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="I46" s="3"/>
       <c r="J46" s="3">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="O46" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>188</v>
-      </c>
-      <c r="R46" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+      <c r="L46" s="3"/>
+      <c r="M46" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N46" s="3">
+        <v>2</v>
+      </c>
+      <c r="O46" s="4"/>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>1104</v>
       </c>
@@ -5237,41 +4896,32 @@
         <v>大叫唤+2-任务-4</v>
       </c>
       <c r="F47" s="4"/>
-      <c r="G47" s="4" t="s">
-        <v>189</v>
+      <c r="G47" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="I47" s="3"/>
       <c r="J47" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M47" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N47" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="O47" s="3">
-        <v>1102004</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>189</v>
-      </c>
-      <c r="R47" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
+        <v>2</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N47" s="3">
+        <v>2</v>
+      </c>
+      <c r="O47" s="4"/>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>1201</v>
       </c>
@@ -5291,35 +4941,27 @@
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="5" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I48" s="3">
-        <v>1</v>
-      </c>
+      <c r="I48" s="3"/>
       <c r="J48" s="3">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K48" s="3"/>
-      <c r="L48" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M48" s="3">
-        <v>5</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O48" s="3">
-        <v>11</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+      <c r="M48" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N48" s="3">
+        <v>2</v>
+      </c>
+      <c r="O48" s="4"/>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>1202</v>
       </c>
@@ -5338,41 +4980,30 @@
         <v>焦热-任务-2</v>
       </c>
       <c r="F49" s="3"/>
-      <c r="G49" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1</v>
-      </c>
+      <c r="G49" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I49" s="3"/>
       <c r="J49" s="3">
         <v>3</v>
       </c>
       <c r="K49" s="3">
-        <v>510</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O49" s="3">
-        <v>510</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>191</v>
-      </c>
-      <c r="R49" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="M49" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N49" s="3">
+        <v>2</v>
+      </c>
+      <c r="O49" s="4"/>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>1203</v>
       </c>
@@ -5391,39 +5022,30 @@
         <v>焦热-任务-3</v>
       </c>
       <c r="F50" s="3"/>
-      <c r="G50" s="4" t="s">
-        <v>192</v>
+      <c r="G50" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I50" s="3">
-        <v>1</v>
-      </c>
+      <c r="I50" s="3"/>
       <c r="J50" s="3">
-        <v>1400</v>
+        <v>10</v>
       </c>
       <c r="K50" s="3">
-        <v>0</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M50" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="O50" s="3"/>
-      <c r="Q50" t="s">
-        <v>192</v>
-      </c>
-      <c r="R50" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="L50" s="3"/>
+      <c r="M50" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N50" s="3">
+        <v>2</v>
+      </c>
+      <c r="O50" s="4"/>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>1204</v>
       </c>
@@ -5442,41 +5064,30 @@
         <v>焦热-任务-4</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="4" t="s">
-        <v>193</v>
+      <c r="G51" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I51" s="3">
-        <v>1</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="I51" s="3"/>
       <c r="J51" s="3">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="K51" s="3">
-        <v>0</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M51" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N51" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="O51" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>174</v>
-      </c>
-      <c r="R51" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="L51" s="3"/>
+      <c r="M51" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N51" s="3">
+        <v>2</v>
+      </c>
+      <c r="O51" s="4"/>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>1301</v>
       </c>
@@ -5495,36 +5106,28 @@
         <v>焦热+1-任务-1</v>
       </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1</v>
-      </c>
-      <c r="J52" s="3">
-        <v>90</v>
+      <c r="G52" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="12">
+        <v>120</v>
       </c>
       <c r="K52" s="3"/>
-      <c r="L52" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M52" s="3">
-        <v>5</v>
-      </c>
-      <c r="N52" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O52" s="3">
-        <v>12</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+      <c r="M52" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N52" s="3">
+        <v>2</v>
+      </c>
+      <c r="O52" s="4"/>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>1302</v>
       </c>
@@ -5543,41 +5146,30 @@
         <v>焦热+1-任务-2</v>
       </c>
       <c r="F53" s="3"/>
-      <c r="G53" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I53" s="3">
-        <v>1</v>
-      </c>
+      <c r="G53" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="I53" s="3"/>
       <c r="J53" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K53" s="3">
-        <v>511</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M53" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O53" s="3">
-        <v>511</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>195</v>
-      </c>
-      <c r="R53" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="L53" s="3"/>
+      <c r="M53" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N53" s="3">
+        <v>2</v>
+      </c>
+      <c r="O53" s="4"/>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>1303</v>
       </c>
@@ -5596,41 +5188,32 @@
         <v>焦热+1-任务-3</v>
       </c>
       <c r="F54" s="3"/>
-      <c r="G54" s="4" t="s">
-        <v>196</v>
+      <c r="G54" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I54" s="3">
+        <v>219</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3">
+        <v>3</v>
+      </c>
+      <c r="K54" s="3">
+        <v>4</v>
+      </c>
+      <c r="L54" s="3">
         <v>1</v>
       </c>
-      <c r="J54" s="3">
-        <v>100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N54" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="O54" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>196</v>
-      </c>
-      <c r="R54" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M54" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N54" s="3">
+        <v>2</v>
+      </c>
+      <c r="O54" s="4"/>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>1304</v>
       </c>
@@ -5649,41 +5232,32 @@
         <v>焦热+1-任务-4</v>
       </c>
       <c r="F55" s="4"/>
-      <c r="G55" s="4" t="s">
-        <v>197</v>
+      <c r="G55" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="I55" s="3">
-        <v>1</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="I55" s="3"/>
       <c r="J55" s="3">
-        <v>3000</v>
+        <v>8</v>
       </c>
       <c r="K55" s="3">
-        <v>1401010</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M55" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N55" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="O55" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>197</v>
-      </c>
-      <c r="R55" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="L55" s="3">
+        <v>5</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N55" s="3">
+        <v>2</v>
+      </c>
+      <c r="O55" s="4"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>1401</v>
       </c>
@@ -5702,36 +5276,28 @@
         <v>焦热+2-任务-1</v>
       </c>
       <c r="F56" s="4"/>
-      <c r="G56" s="5" t="s">
-        <v>290</v>
+      <c r="G56" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I56" s="3">
-        <v>1</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="I56" s="3"/>
       <c r="J56" s="3">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="K56" s="3"/>
-      <c r="L56" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M56" s="3">
-        <v>5</v>
-      </c>
-      <c r="N56" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O56" s="3">
-        <v>13</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N56" s="3">
+        <v>2</v>
+      </c>
+      <c r="O56" s="4"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>1402</v>
       </c>
@@ -5750,41 +5316,28 @@
         <v>焦热+2-任务-2</v>
       </c>
       <c r="F57" s="3"/>
-      <c r="G57" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1</v>
-      </c>
+      <c r="G57" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="I57" s="3"/>
       <c r="J57" s="3">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3">
-        <v>512</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N57" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O57" s="3">
-        <v>512</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>199</v>
-      </c>
-      <c r="R57" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N57" s="3">
+        <v>2</v>
+      </c>
+      <c r="O57" s="4"/>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>1403</v>
       </c>
@@ -5803,41 +5356,28 @@
         <v>焦热+2-任务-3</v>
       </c>
       <c r="F58" s="3"/>
-      <c r="G58" s="4" t="s">
-        <v>200</v>
+      <c r="G58" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="I58" s="3"/>
       <c r="J58" s="3">
-        <v>120</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N58" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="O58" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>200</v>
-      </c>
-      <c r="R58" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N58" s="3">
+        <v>2</v>
+      </c>
+      <c r="O58" s="4"/>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>1404</v>
       </c>
@@ -5856,41 +5396,30 @@
         <v>焦热+2-任务-4</v>
       </c>
       <c r="F59" s="4"/>
-      <c r="G59" s="4" t="s">
-        <v>201</v>
+      <c r="G59" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="I59" s="3"/>
       <c r="J59" s="3">
         <v>3</v>
       </c>
       <c r="K59" s="3">
-        <v>25</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N59" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1102005</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>193</v>
-      </c>
-      <c r="R59" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3"/>
+      <c r="M59" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N59" s="3">
+        <v>2</v>
+      </c>
+      <c r="O59" s="4"/>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>1501</v>
       </c>
@@ -5910,35 +5439,27 @@
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="5" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I60" s="3">
-        <v>1</v>
-      </c>
+      <c r="I60" s="3"/>
       <c r="J60" s="3">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K60" s="3"/>
-      <c r="L60" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M60" s="3">
-        <v>5</v>
-      </c>
-      <c r="N60" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O60" s="3">
-        <v>14</v>
-      </c>
-      <c r="Q60" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+      <c r="M60" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N60" s="3">
+        <v>2</v>
+      </c>
+      <c r="O60" s="4"/>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>1502</v>
       </c>
@@ -5958,40 +5479,29 @@
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="4" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="I61" s="3"/>
       <c r="J61" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K61" s="3">
-        <v>513</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M61" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N61" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O61" s="3">
-        <v>513</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>203</v>
-      </c>
-      <c r="R61" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="L61" s="3"/>
+      <c r="M61" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N61" s="3">
+        <v>2</v>
+      </c>
+      <c r="O61" s="4"/>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>1503</v>
       </c>
@@ -6011,40 +5521,29 @@
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="4" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="I62" s="3"/>
       <c r="J62" s="3">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N62" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="O62" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>204</v>
-      </c>
-      <c r="R62" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="L62" s="3"/>
+      <c r="M62" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N62" s="3">
+        <v>2</v>
+      </c>
+      <c r="O62" s="4"/>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>1504</v>
       </c>
@@ -6064,38 +5563,31 @@
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I63" s="3">
-        <v>1</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="I63" s="3"/>
       <c r="J63" s="3">
-        <v>1500</v>
+        <v>48</v>
       </c>
       <c r="K63" s="3">
-        <v>0</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M63" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N63" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="O63" s="3"/>
-      <c r="Q63" t="s">
-        <v>205</v>
-      </c>
-      <c r="R63" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="L63" s="3">
+        <v>5</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N63" s="3">
+        <v>2</v>
+      </c>
+      <c r="O63" s="4"/>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>1601</v>
       </c>
@@ -6114,36 +5606,30 @@
         <v>大焦热+1-任务-1</v>
       </c>
       <c r="F64" s="4"/>
-      <c r="G64" s="5" t="s">
-        <v>292</v>
+      <c r="G64" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I64" s="3">
-        <v>1</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="I64" s="3"/>
       <c r="J64" s="3">
-        <v>120</v>
-      </c>
-      <c r="K64" s="3"/>
-      <c r="L64" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M64" s="3">
-        <v>5</v>
-      </c>
-      <c r="N64" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O64" s="3">
-        <v>15</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="K64" s="3">
+        <v>220</v>
+      </c>
+      <c r="L64" s="3"/>
+      <c r="M64" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N64" s="3">
+        <v>2</v>
+      </c>
+      <c r="O64" s="4"/>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>1602</v>
       </c>
@@ -6162,41 +5648,30 @@
         <v>大焦热+1-任务-2</v>
       </c>
       <c r="F65" s="3"/>
-      <c r="G65" s="4" t="s">
-        <v>254</v>
+      <c r="G65" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I65" s="3">
-        <v>1</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="I65" s="3"/>
       <c r="J65" s="3">
         <v>3</v>
       </c>
       <c r="K65" s="3">
-        <v>513</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M65" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N65" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O65" s="3">
-        <v>513</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>207</v>
-      </c>
-      <c r="R65" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="L65" s="3"/>
+      <c r="M65" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N65" s="3">
+        <v>2</v>
+      </c>
+      <c r="O65" s="4"/>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>1603</v>
       </c>
@@ -6215,41 +5690,30 @@
         <v>大焦热+1-任务-3</v>
       </c>
       <c r="F66" s="3"/>
-      <c r="G66" s="4" t="s">
-        <v>208</v>
+      <c r="G66" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="I66" s="3"/>
       <c r="J66" s="3">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N66" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="O66" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>208</v>
-      </c>
-      <c r="R66" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="L66" s="3"/>
+      <c r="M66" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N66" s="3">
+        <v>2</v>
+      </c>
+      <c r="O66" s="4"/>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>1604</v>
       </c>
@@ -6268,39 +5732,30 @@
         <v>大焦热+1-任务-4</v>
       </c>
       <c r="F67" s="4"/>
-      <c r="G67" s="4" t="s">
-        <v>209</v>
+      <c r="G67" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I67" s="3">
-        <v>1</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="I67" s="3"/>
       <c r="J67" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K67" s="3">
-        <v>14</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M67" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N67" s="3" t="s">
-        <v>211</v>
+        <v>105</v>
+      </c>
+      <c r="L67" s="3"/>
+      <c r="M67" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N67" s="3">
+        <v>2</v>
       </c>
       <c r="O67" s="3"/>
-      <c r="Q67" t="s">
-        <v>209</v>
-      </c>
-      <c r="R67" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>1701</v>
       </c>
@@ -6320,35 +5775,27 @@
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="5" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I68" s="3">
-        <v>1</v>
-      </c>
+      <c r="I68" s="3"/>
       <c r="J68" s="3">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K68" s="3"/>
-      <c r="L68" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M68" s="3">
-        <v>5</v>
-      </c>
-      <c r="N68" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O68" s="3">
-        <v>16</v>
-      </c>
-      <c r="Q68" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L68" s="3"/>
+      <c r="M68" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N68" s="3">
+        <v>2</v>
+      </c>
+      <c r="O68" s="4"/>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>1702</v>
       </c>
@@ -6368,40 +5815,27 @@
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="4" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I69" s="3">
-        <v>1</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="I69" s="3"/>
       <c r="J69" s="3">
-        <v>1</v>
-      </c>
-      <c r="K69" s="3">
-        <v>514</v>
-      </c>
-      <c r="L69" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M69" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N69" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O69" s="3">
-        <v>514</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>213</v>
-      </c>
-      <c r="R69" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N69" s="3">
+        <v>2</v>
+      </c>
+      <c r="O69" s="4"/>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>1703</v>
       </c>
@@ -6421,40 +5855,27 @@
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="4" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I70" s="3">
-        <v>1</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="I70" s="3"/>
       <c r="J70" s="3">
-        <v>180</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M70" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N70" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="O70" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>214</v>
-      </c>
-      <c r="R70" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N70" s="3">
+        <v>2</v>
+      </c>
+      <c r="O70" s="4"/>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>1704</v>
       </c>
@@ -6474,38 +5895,31 @@
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I71" s="3">
-        <v>1</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="I71" s="3"/>
       <c r="J71" s="3">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="K71" s="3">
-        <v>15</v>
-      </c>
-      <c r="L71" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M71" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N71" s="3" t="s">
-        <v>211</v>
+        <v>4</v>
+      </c>
+      <c r="L71" s="3">
+        <v>8</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N71" s="3">
+        <v>2</v>
       </c>
       <c r="O71" s="3"/>
-      <c r="Q71" t="s">
-        <v>215</v>
-      </c>
-      <c r="R71" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>1801</v>
       </c>
@@ -6525,35 +5939,27 @@
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="5" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I72" s="3">
-        <v>1</v>
-      </c>
+      <c r="I72" s="3"/>
       <c r="J72" s="3">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K72" s="3"/>
-      <c r="L72" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M72" s="3">
-        <v>5</v>
-      </c>
-      <c r="N72" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O72" s="3">
-        <v>17</v>
-      </c>
-      <c r="Q72" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+      <c r="M72" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N72" s="3">
+        <v>2</v>
+      </c>
+      <c r="O72" s="4"/>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>1802</v>
       </c>
@@ -6573,40 +5979,29 @@
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="4" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I73" s="3">
-        <v>1</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="I73" s="3"/>
       <c r="J73" s="3">
         <v>3</v>
       </c>
       <c r="K73" s="3">
-        <v>514</v>
-      </c>
-      <c r="L73" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M73" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N73" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O73" s="3">
-        <v>514</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>217</v>
-      </c>
-      <c r="R73" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="L73" s="3"/>
+      <c r="M73" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N73" s="3">
+        <v>2</v>
+      </c>
+      <c r="O73" s="4"/>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>1803</v>
       </c>
@@ -6626,40 +6021,29 @@
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="4" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I74" s="3">
-        <v>1</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="I74" s="3"/>
       <c r="J74" s="3">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="K74" s="3">
-        <v>0</v>
-      </c>
-      <c r="L74" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M74" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N74" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="O74" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>218</v>
-      </c>
-      <c r="R74" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="L74" s="3"/>
+      <c r="M74" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N74" s="3">
+        <v>2</v>
+      </c>
+      <c r="O74" s="4"/>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>1804</v>
       </c>
@@ -6679,38 +6063,29 @@
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I75" s="3">
-        <v>1</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="I75" s="3"/>
       <c r="J75" s="3">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="K75" s="3">
-        <v>16</v>
-      </c>
-      <c r="L75" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M75" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N75" s="3" t="s">
-        <v>211</v>
+        <v>120</v>
+      </c>
+      <c r="L75" s="3"/>
+      <c r="M75" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N75" s="3">
+        <v>2</v>
       </c>
       <c r="O75" s="3"/>
-      <c r="Q75" t="s">
-        <v>219</v>
-      </c>
-      <c r="R75" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>1901</v>
       </c>
@@ -6730,35 +6105,27 @@
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="5" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I76" s="3">
-        <v>1</v>
-      </c>
+      <c r="I76" s="3"/>
       <c r="J76" s="3">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K76" s="3"/>
-      <c r="L76" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M76" s="3">
-        <v>5</v>
-      </c>
-      <c r="N76" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O76" s="3">
-        <v>18</v>
-      </c>
-      <c r="Q76" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+      <c r="M76" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N76" s="3">
+        <v>2</v>
+      </c>
+      <c r="O76" s="4"/>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>1902</v>
       </c>
@@ -6778,40 +6145,29 @@
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I77" s="3">
-        <v>1</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="I77" s="3"/>
       <c r="J77" s="3">
         <v>3</v>
       </c>
       <c r="K77" s="3">
-        <v>515</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M77" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N77" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O77" s="3">
-        <v>515</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>221</v>
-      </c>
-      <c r="R77" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="L77" s="3"/>
+      <c r="M77" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N77" s="3">
+        <v>2</v>
+      </c>
+      <c r="O77" s="4"/>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="78" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>1903</v>
       </c>
@@ -6831,40 +6187,29 @@
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="4" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I78" s="3">
-        <v>1</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="I78" s="3"/>
       <c r="J78" s="3">
-        <v>225</v>
+        <v>3</v>
       </c>
       <c r="K78" s="3">
-        <v>0</v>
-      </c>
-      <c r="L78" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M78" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N78" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="O78" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>222</v>
-      </c>
-      <c r="R78" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="L78" s="3"/>
+      <c r="M78" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N78" s="3">
+        <v>2</v>
+      </c>
+      <c r="O78" s="4"/>
+      <c r="P78" s="3"/>
+    </row>
+    <row r="79" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>1904</v>
       </c>
@@ -6884,40 +6229,29 @@
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I79" s="3">
-        <v>1</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="I79" s="3"/>
       <c r="J79" s="3">
-        <v>6</v>
-      </c>
-      <c r="K79" s="3">
-        <v>17</v>
-      </c>
-      <c r="L79" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M79" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N79" s="3" t="s">
-        <v>211</v>
+        <v>40</v>
+      </c>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N79" s="3">
+        <v>2</v>
       </c>
       <c r="O79" s="3"/>
-      <c r="Q79" t="s">
-        <v>223</v>
-      </c>
-      <c r="R79" t="s">
-        <v>223</v>
-      </c>
+      <c r="P79" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="R41:R43">
+  <conditionalFormatting sqref="S41:S43">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/镇魂街/break.玩家等级突破.xlsx
+++ b/Excel/镇魂街/break.玩家等级突破.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9352B24-7EF3-4F95-ACA4-8E7071E57798}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -19,17 +20,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">地狱道任务!$O$1:$O$79</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0" shapeId="0">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -555,10 +564,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>进行5次守护灵抽卡</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>抽卡-shl</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1058,11 +1063,15 @@
     <t>玩家等级升到150</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>进行2次守护灵抽卡</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1330,20 +1339,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="7"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8"/>
-    <cellStyle name="常规 3" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="6"/>
-    <cellStyle name="横向标题" xfId="1"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="12"/>
-    <cellStyle name="因变Grid" xfId="3"/>
-    <cellStyle name="英文标题" xfId="2"/>
-    <cellStyle name="中文标题" xfId="13"/>
-    <cellStyle name="纵向标题" xfId="5"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="无效" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="中文标题" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1626,7 +1635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1767,7 +1776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -2936,11 +2945,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F52" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2996,7 +3005,7 @@
         <v>100</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>26</v>
@@ -3037,7 +3046,7 @@
         <v>104</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J2" t="s">
         <v>44</v>
@@ -3096,7 +3105,7 @@
         <v>113</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>54</v>
@@ -3142,7 +3151,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N4" s="3">
         <v>2</v>
@@ -3172,7 +3181,7 @@
         <v>140</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3">
@@ -3183,7 +3192,7 @@
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N5" s="3">
         <v>2</v>
@@ -3217,14 +3226,14 @@
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K6" s="3">
         <v>101</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N6" s="3">
         <v>2</v>
@@ -3251,19 +3260,19 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>144</v>
+        <v>266</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N7" s="3">
         <v>2</v>
@@ -3291,10 +3300,10 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3">
@@ -3303,7 +3312,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N8" s="3">
         <v>2</v>
@@ -3331,7 +3340,7 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>143</v>
@@ -3345,7 +3354,7 @@
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N9" s="3">
         <v>2</v>
@@ -3385,7 +3394,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N10" s="3">
         <v>2</v>
@@ -3413,10 +3422,10 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3">
@@ -3427,7 +3436,7 @@
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N11" s="3">
         <v>2</v>
@@ -3455,7 +3464,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>118</v>
@@ -3467,7 +3476,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N12" s="3">
         <v>2</v>
@@ -3495,10 +3504,10 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3">
@@ -3509,7 +3518,7 @@
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N13" s="3">
         <v>2</v>
@@ -3537,10 +3546,10 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3">
@@ -3551,7 +3560,7 @@
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N14" s="3">
         <v>2</v>
@@ -3579,10 +3588,10 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3">
@@ -3593,7 +3602,7 @@
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N15" s="3">
         <v>2</v>
@@ -3621,10 +3630,10 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3">
@@ -3633,7 +3642,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N16" s="3">
         <v>2</v>
@@ -3661,10 +3670,10 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3">
@@ -3675,7 +3684,7 @@
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N17" s="3">
         <v>2</v>
@@ -3703,7 +3712,7 @@
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>142</v>
@@ -3717,7 +3726,7 @@
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N18" s="3">
         <v>2</v>
@@ -3745,10 +3754,10 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3">
@@ -3759,7 +3768,7 @@
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N19" s="3">
         <v>2</v>
@@ -3787,10 +3796,10 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3">
@@ -3799,7 +3808,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N20" s="3">
         <v>2</v>
@@ -3827,10 +3836,10 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3">
@@ -3839,7 +3848,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N21" s="3">
         <v>2</v>
@@ -3867,10 +3876,10 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3">
@@ -3881,7 +3890,7 @@
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N22" s="3">
         <v>2</v>
@@ -3909,10 +3918,10 @@
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3">
@@ -3921,7 +3930,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N23" s="3">
         <v>2</v>
@@ -3949,7 +3958,7 @@
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>118</v>
@@ -3961,7 +3970,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N24" s="3">
         <v>2</v>
@@ -3989,10 +3998,10 @@
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3">
@@ -4003,7 +4012,7 @@
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N25" s="3">
         <v>2</v>
@@ -4031,10 +4040,10 @@
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3">
@@ -4045,7 +4054,7 @@
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N26" s="3">
         <v>2</v>
@@ -4073,10 +4082,10 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3">
@@ -4087,7 +4096,7 @@
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N27" s="3">
         <v>2</v>
@@ -4115,10 +4124,10 @@
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3">
@@ -4127,7 +4136,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N28" s="3">
         <v>2</v>
@@ -4155,10 +4164,10 @@
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3">
@@ -4169,7 +4178,7 @@
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N29" s="3">
         <v>2</v>
@@ -4197,10 +4206,10 @@
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3">
@@ -4211,7 +4220,7 @@
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N30" s="3">
         <v>2</v>
@@ -4239,10 +4248,10 @@
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3">
@@ -4253,7 +4262,7 @@
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N31" s="3">
         <v>2</v>
@@ -4281,10 +4290,10 @@
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3">
@@ -4293,7 +4302,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N32" s="3">
         <v>2</v>
@@ -4321,10 +4330,10 @@
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3">
@@ -4333,7 +4342,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N33" s="3">
         <v>2</v>
@@ -4361,10 +4370,10 @@
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3">
@@ -4375,7 +4384,7 @@
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N34" s="3">
         <v>2</v>
@@ -4403,10 +4412,10 @@
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3">
@@ -4417,7 +4426,7 @@
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N35" s="3">
         <v>2</v>
@@ -4445,7 +4454,7 @@
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>118</v>
@@ -4457,7 +4466,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N36" s="3">
         <v>2</v>
@@ -4485,10 +4494,10 @@
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3">
@@ -4499,7 +4508,7 @@
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N37" s="3">
         <v>2</v>
@@ -4527,10 +4536,10 @@
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3">
@@ -4541,7 +4550,7 @@
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N38" s="3">
         <v>2</v>
@@ -4569,10 +4578,10 @@
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3">
@@ -4581,7 +4590,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N39" s="3">
         <v>2</v>
@@ -4609,10 +4618,10 @@
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3">
@@ -4623,7 +4632,7 @@
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N40" s="3">
         <v>2</v>
@@ -4651,10 +4660,10 @@
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3">
@@ -4663,7 +4672,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N41" s="3">
         <v>2</v>
@@ -4691,10 +4700,10 @@
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H42" s="12" t="s">
         <v>210</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>211</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3">
@@ -4703,7 +4712,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N42" s="3">
         <v>2</v>
@@ -4731,10 +4740,10 @@
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3">
@@ -4747,7 +4756,7 @@
         <v>2</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N43" s="3">
         <v>2</v>
@@ -4775,10 +4784,10 @@
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3">
@@ -4787,7 +4796,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N44" s="3">
         <v>2</v>
@@ -4815,10 +4824,10 @@
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3">
@@ -4827,7 +4836,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N45" s="3">
         <v>2</v>
@@ -4855,10 +4864,10 @@
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3">
@@ -4869,7 +4878,7 @@
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N46" s="3">
         <v>2</v>
@@ -4897,10 +4906,10 @@
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3">
@@ -4913,7 +4922,7 @@
         <v>2</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N47" s="3">
         <v>2</v>
@@ -4941,7 +4950,7 @@
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>118</v>
@@ -4953,7 +4962,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N48" s="3">
         <v>2</v>
@@ -4981,10 +4990,10 @@
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3">
@@ -4995,7 +5004,7 @@
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N49" s="3">
         <v>2</v>
@@ -5023,10 +5032,10 @@
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3">
@@ -5037,7 +5046,7 @@
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N50" s="3">
         <v>2</v>
@@ -5065,10 +5074,10 @@
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3">
@@ -5079,7 +5088,7 @@
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N51" s="3">
         <v>2</v>
@@ -5107,10 +5116,10 @@
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="H52" s="12" t="s">
         <v>224</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>225</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="12">
@@ -5119,7 +5128,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N52" s="3">
         <v>2</v>
@@ -5147,10 +5156,10 @@
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3">
@@ -5161,7 +5170,7 @@
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N53" s="3">
         <v>2</v>
@@ -5189,10 +5198,10 @@
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3">
@@ -5205,7 +5214,7 @@
         <v>1</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N54" s="3">
         <v>2</v>
@@ -5233,10 +5242,10 @@
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3">
@@ -5249,7 +5258,7 @@
         <v>5</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N55" s="3">
         <v>2</v>
@@ -5277,10 +5286,10 @@
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3">
@@ -5289,7 +5298,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N56" s="3">
         <v>2</v>
@@ -5317,10 +5326,10 @@
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3">
@@ -5329,7 +5338,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N57" s="3">
         <v>2</v>
@@ -5357,10 +5366,10 @@
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3">
@@ -5369,7 +5378,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N58" s="3">
         <v>2</v>
@@ -5397,10 +5406,10 @@
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3">
@@ -5411,7 +5420,7 @@
       </c>
       <c r="L59" s="3"/>
       <c r="M59" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N59" s="3">
         <v>2</v>
@@ -5439,7 +5448,7 @@
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>118</v>
@@ -5451,7 +5460,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N60" s="3">
         <v>2</v>
@@ -5479,10 +5488,10 @@
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3">
@@ -5493,7 +5502,7 @@
       </c>
       <c r="L61" s="3"/>
       <c r="M61" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N61" s="3">
         <v>2</v>
@@ -5521,10 +5530,10 @@
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3">
@@ -5535,7 +5544,7 @@
       </c>
       <c r="L62" s="3"/>
       <c r="M62" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N62" s="3">
         <v>2</v>
@@ -5563,10 +5572,10 @@
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3">
@@ -5579,7 +5588,7 @@
         <v>5</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N63" s="3">
         <v>2</v>
@@ -5607,10 +5616,10 @@
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3">
@@ -5621,7 +5630,7 @@
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N64" s="3">
         <v>2</v>
@@ -5649,10 +5658,10 @@
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3">
@@ -5663,7 +5672,7 @@
       </c>
       <c r="L65" s="3"/>
       <c r="M65" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N65" s="3">
         <v>2</v>
@@ -5691,10 +5700,10 @@
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3">
@@ -5705,7 +5714,7 @@
       </c>
       <c r="L66" s="3"/>
       <c r="M66" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N66" s="3">
         <v>2</v>
@@ -5733,10 +5742,10 @@
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3">
@@ -5747,7 +5756,7 @@
       </c>
       <c r="L67" s="3"/>
       <c r="M67" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N67" s="3">
         <v>2</v>
@@ -5775,7 +5784,7 @@
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>118</v>
@@ -5787,7 +5796,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N68" s="3">
         <v>2</v>
@@ -5815,10 +5824,10 @@
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3">
@@ -5827,7 +5836,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N69" s="3">
         <v>2</v>
@@ -5855,10 +5864,10 @@
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3">
@@ -5867,7 +5876,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N70" s="3">
         <v>2</v>
@@ -5895,10 +5904,10 @@
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3">
@@ -5911,7 +5920,7 @@
         <v>8</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N71" s="3">
         <v>2</v>
@@ -5939,7 +5948,7 @@
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>118</v>
@@ -5951,7 +5960,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N72" s="3">
         <v>2</v>
@@ -5979,10 +5988,10 @@
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3">
@@ -5993,7 +6002,7 @@
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N73" s="3">
         <v>2</v>
@@ -6021,7 +6030,7 @@
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>142</v>
@@ -6035,7 +6044,7 @@
       </c>
       <c r="L74" s="3"/>
       <c r="M74" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N74" s="3">
         <v>2</v>
@@ -6063,10 +6072,10 @@
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3">
@@ -6077,7 +6086,7 @@
       </c>
       <c r="L75" s="3"/>
       <c r="M75" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N75" s="3">
         <v>2</v>
@@ -6105,7 +6114,7 @@
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>118</v>
@@ -6117,7 +6126,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N76" s="3">
         <v>2</v>
@@ -6145,10 +6154,10 @@
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3">
@@ -6159,7 +6168,7 @@
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N77" s="3">
         <v>2</v>
@@ -6187,10 +6196,10 @@
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3">
@@ -6201,7 +6210,7 @@
       </c>
       <c r="L78" s="3"/>
       <c r="M78" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N78" s="3">
         <v>2</v>
@@ -6229,10 +6238,10 @@
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3">
@@ -6241,7 +6250,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N79" s="3">
         <v>2</v>

--- a/Excel/镇魂街/break.玩家等级突破.xlsx
+++ b/Excel/镇魂街/break.玩家等级突破.xlsx
@@ -17,7 +17,7 @@
     <sheet name="地狱道任务" sheetId="28" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">地狱道任务!$A$1:$T$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">地狱道任务!$A$1:$T$43</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="233">
   <si>
     <t>sheet名</t>
   </si>
@@ -393,10 +393,10 @@
     <t>ui_dtex_Quality_065</t>
   </si>
   <si>
-    <t>等级上限提升至&lt;color=#3E793F&gt;40&lt;/color&gt;，若当前经验已满则&lt;color=#3E793F&gt;直接升级&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>所有寄灵人全属性提升&lt;color=#3E793F&gt;50%&lt;/color&gt;</t>
+    <t>等级上限提升至&lt;color=#427947&gt;40&lt;/color&gt;，若当前经验已满则&lt;color=#427947&gt;直接升级&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>所有寄灵人全属性提升&lt;color=#427947&gt;50%&lt;/color&gt;</t>
   </si>
   <si>
     <t>黑绳</t>
@@ -408,10 +408,7 @@
     <t>钻石</t>
   </si>
   <si>
-    <t>所有寄灵人全属性提升&lt;color=#3E793F&gt;35%&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>黑绳+1</t>
+    <t>所有寄灵人全属性提升&lt;color=#427947&gt;35%&lt;/color&gt;</t>
   </si>
   <si>
     <t>金币</t>
@@ -423,25 +420,19 @@
     <t>ui_dtex_Quality_066</t>
   </si>
   <si>
-    <t>等级上限提升至&lt;color=#3E793F&gt;60&lt;/color&gt;，若当前经验已满则&lt;color=#3E793F&gt;直接升级&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>所有寄灵人全属性提升&lt;color=#3E793F&gt;43%&lt;/color&gt;</t>
+    <t>等级上限提升至&lt;color=#427947&gt;60&lt;/color&gt;，若当前经验已满则&lt;color=#427947&gt;直接升级&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>所有寄灵人全属性提升&lt;color=#427947&gt;43%&lt;/color&gt;</t>
   </si>
   <si>
     <t>众合</t>
   </si>
   <si>
-    <t>所有寄灵人全属性提升&lt;color=#3E793F&gt;30%&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>众合+1</t>
-  </si>
-  <si>
-    <t>所有寄灵人全属性提升&lt;color=#3E793F&gt;23%&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>众合+2</t>
+    <t>所有寄灵人全属性提升&lt;color=#427947&gt;30%&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>所有寄灵人全属性提升&lt;color=#427947&gt;23%&lt;/color&gt;</t>
   </si>
   <si>
     <t>ui_dtex_Quality_076</t>
@@ -453,25 +444,19 @@
     <t>ui_dtex_Quality_067</t>
   </si>
   <si>
-    <t>等级上限提升至&lt;color=#3E793F&gt;80&lt;/color&gt;，若当前经验已满则&lt;color=#3E793F&gt;直接升级&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>所有寄灵人全属性提升&lt;color=#3E793F&gt;20%&lt;/color&gt;</t>
+    <t>等级上限提升至&lt;color=#427947&gt;80&lt;/color&gt;，若当前经验已满则&lt;color=#427947&gt;直接升级&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>所有寄灵人全属性提升&lt;color=#427947&gt;20%&lt;/color&gt;</t>
   </si>
   <si>
     <t>叫唤</t>
   </si>
   <si>
-    <t>所有寄灵人全属性提升&lt;color=#3E793F&gt;16.5%&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>叫唤+1</t>
-  </si>
-  <si>
-    <t>所有寄灵人全属性提升&lt;color=#3E793F&gt;14.1%&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>叫唤+2</t>
+    <t>所有寄灵人全属性提升&lt;color=#427947&gt;16.5%&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>所有寄灵人全属性提升&lt;color=#427947&gt;14.1%&lt;/color&gt;</t>
   </si>
   <si>
     <t>ui_dtex_Quality_077</t>
@@ -483,103 +468,25 @@
     <t>ui_dtex_Quality_068</t>
   </si>
   <si>
-    <t>等级上限提升至&lt;color=#3E793F&gt;100&lt;/color&gt;，若当前经验已满则&lt;color=#3E793F&gt;直接升级&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>所有寄灵人全属性提升&lt;color=#3E793F&gt;21%&lt;/color&gt;</t>
+    <t>等级上限提升至&lt;color=#427947&gt;100&lt;/color&gt;，若当前经验已满则&lt;color=#427947&gt;直接升级&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>所有寄灵人全属性提升&lt;color=#427947&gt;21%&lt;/color&gt;</t>
   </si>
   <si>
     <t>大叫唤</t>
   </si>
   <si>
-    <t>所有寄灵人全属性提升&lt;color=#3E793F&gt;17.8%&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>大叫唤+1</t>
-  </si>
-  <si>
-    <t>所有寄灵人全属性提升&lt;color=#3E793F&gt;15.1%&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>大叫唤+2</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_078</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_069</t>
-  </si>
-  <si>
-    <t>等级上限提升至&lt;color=#3E793F&gt;120&lt;/color&gt;，若当前经验已满则&lt;color=#3E793F&gt;直接升级&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>所有寄灵人全属性提升&lt;color=#3E793F&gt;18.9%&lt;/color&gt;</t>
+    <t>所有寄灵人全属性提升&lt;color=#427947&gt;17.8%&lt;/color&gt;</t>
   </si>
   <si>
     <t>焦热</t>
   </si>
   <si>
-    <t>所有寄灵人全属性提升&lt;color=#3E793F&gt;15.9%&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>焦热+1</t>
-  </si>
-  <si>
-    <t>所有寄灵人全属性提升&lt;color=#3E793F&gt;13.7%&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>焦热+2</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_079</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_088</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_070</t>
-  </si>
-  <si>
-    <t>等级上限提升至&lt;color=#3E793F&gt;150&lt;/color&gt;，若当前经验已满则&lt;color=#3E793F&gt;直接升级&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>所有寄灵人全属性提升&lt;color=#3E793F&gt;17.3%&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>大焦热</t>
   </si>
   <si>
-    <t>所有寄灵人全属性提升&lt;color=#3E793F&gt;14.7%&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>大焦热+1</t>
-  </si>
-  <si>
-    <t>所有寄灵人全属性提升&lt;color=#3E793F&gt;12.9%&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>大焦热+2</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_080</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_087</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_071</t>
-  </si>
-  <si>
-    <t>所有寄灵人全属性提升&lt;color=#3E793F&gt;10.6%&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>无间</t>
-  </si>
-  <si>
-    <t>所有寄灵人全属性提升&lt;color=#3E793F&gt;10%&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>无间+1</t>
   </si>
   <si>
     <t>HelpCol</t>
@@ -712,352 +619,279 @@
     <t>Tasks</t>
   </si>
   <si>
-    <t>玩家等级升到10级</t>
+    <t>派遣挂机</t>
+  </si>
+  <si>
+    <t>守护灵突破-cnt</t>
+  </si>
+  <si>
+    <t>绿色基础材料</t>
+  </si>
+  <si>
+    <t>守护灵列表</t>
+  </si>
+  <si>
+    <t>通关普通关第1章</t>
+  </si>
+  <si>
+    <t>关卡-cha</t>
+  </si>
+  <si>
+    <t>冒险</t>
+  </si>
+  <si>
+    <t>通关普通关第2章第7关</t>
+  </si>
+  <si>
+    <t>关卡-id</t>
+  </si>
+  <si>
+    <t>守护灵抽卡券</t>
+  </si>
+  <si>
+    <t>把任意3个天赋技能升到3级</t>
+  </si>
+  <si>
+    <t>天赋技能升级-cnt</t>
+  </si>
+  <si>
+    <t>寄灵人技能页</t>
+  </si>
+  <si>
+    <t>寄灵人抽卡券</t>
+  </si>
+  <si>
+    <t>战力达到4万</t>
+  </si>
+  <si>
+    <t>玩家战力</t>
+  </si>
+  <si>
+    <t>拥有2个突破+3的守护灵</t>
+  </si>
+  <si>
+    <t>通关普通第4章</t>
+  </si>
+  <si>
+    <t>装备48件橙色装备</t>
+  </si>
+  <si>
+    <t>装备穿戴-qua</t>
+  </si>
+  <si>
+    <t>熔炼打造页</t>
+  </si>
+  <si>
+    <t>进行10次竞技场战斗</t>
+  </si>
+  <si>
+    <t>竞技场-bhv</t>
+  </si>
+  <si>
+    <t>竞技场对阵页</t>
+  </si>
+  <si>
+    <t>在杂货店购买10次道具</t>
+  </si>
+  <si>
+    <t>商店购买-shopSum</t>
+  </si>
+  <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>拥有48件强化+30的装备</t>
+  </si>
+  <si>
+    <t>装备强化-cnt</t>
+  </si>
+  <si>
+    <t>进行20次点金</t>
+  </si>
+  <si>
+    <t>点金</t>
+  </si>
+  <si>
+    <t>点金手</t>
+  </si>
+  <si>
+    <t>芦花古楼通过15关</t>
+  </si>
+  <si>
+    <t>芦花古楼-sum</t>
+  </si>
+  <si>
+    <t>芦花古楼</t>
+  </si>
+  <si>
+    <t>击杀2次地煞2以上的恶灵</t>
+  </si>
+  <si>
+    <t>世界BOSS-chamin</t>
+  </si>
+  <si>
+    <t>恶灵入侵</t>
+  </si>
+  <si>
+    <t>拥有3个突破+6的守护灵</t>
+  </si>
+  <si>
+    <t>通关普通第9章</t>
+  </si>
+  <si>
+    <t>拥有1个等级不低于6的乾位魂珠</t>
+  </si>
+  <si>
+    <t>专属武器魂珠-max-loc</t>
+  </si>
+  <si>
+    <t>进行30次清晰守护灵感灵</t>
+  </si>
+  <si>
+    <t>抽卡-shl</t>
+  </si>
+  <si>
+    <t>抽卡</t>
+  </si>
+  <si>
+    <t>神器1达到3级</t>
+  </si>
+  <si>
+    <t>神器-大点-id</t>
+  </si>
+  <si>
+    <t>神器</t>
+  </si>
+  <si>
+    <t>拥有48件40级的橙色装备</t>
+  </si>
+  <si>
+    <t>装备穿戴-qua-lvid</t>
+  </si>
+  <si>
+    <t>芦花古楼通过50关</t>
+  </si>
+  <si>
+    <t>神器2达到2级</t>
+  </si>
+  <si>
+    <t>拥有1个等级不低于3的坤位魂珠</t>
+  </si>
+  <si>
+    <t>拥有3个突破+9的守护灵</t>
+  </si>
+  <si>
+    <t>通关普通第13章</t>
+  </si>
+  <si>
+    <t>进行20次寄灵人天赋洗练</t>
+  </si>
+  <si>
+    <t>寄灵人洗练-bhv</t>
+  </si>
+  <si>
+    <t>击杀2个地煞7级以上的恶灵</t>
+  </si>
+  <si>
+    <t>拥有1个7级的插槽技能</t>
+  </si>
+  <si>
+    <t>插槽技能升级-max</t>
+  </si>
+  <si>
+    <t>进行20次实时竞技</t>
+  </si>
+  <si>
+    <t>实时竞技场-bhv</t>
+  </si>
+  <si>
+    <t>竞技场胜利3次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场-win</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>练体</t>
+  </si>
+  <si>
+    <t>无我相</t>
+  </si>
+  <si>
+    <t>无众生相</t>
+  </si>
+  <si>
+    <t>守护灵升级-cnt</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个守护灵等级达到15级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到25级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到15级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>玩家等级-lv</t>
-  </si>
-  <si>
-    <t>派遣挂机</t>
-  </si>
-  <si>
-    <t>拥有3个突破+1的守护灵</t>
-  </si>
-  <si>
-    <t>守护灵突破-cnt</t>
-  </si>
-  <si>
-    <t>绿色基础材料</t>
-  </si>
-  <si>
-    <t>守护灵列表</t>
-  </si>
-  <si>
-    <t>通关普通关第1章</t>
-  </si>
-  <si>
-    <t>关卡-cha</t>
-  </si>
-  <si>
-    <t>冒险</t>
-  </si>
-  <si>
-    <t>通关普通关第2章第7关</t>
-  </si>
-  <si>
-    <t>关卡-id</t>
-  </si>
-  <si>
-    <t>守护灵抽卡券</t>
-  </si>
-  <si>
-    <t>抽卡</t>
-  </si>
-  <si>
-    <t>3个守护灵达到突破+2</t>
-  </si>
-  <si>
-    <t>把任意3个天赋技能升到3级</t>
-  </si>
-  <si>
-    <t>天赋技能升级-cnt</t>
-  </si>
-  <si>
-    <t>寄灵人技能页</t>
-  </si>
-  <si>
-    <t>通关普通关第3章</t>
-  </si>
-  <si>
-    <t>寄灵人抽卡券</t>
-  </si>
-  <si>
-    <t>战力达到4万</t>
-  </si>
-  <si>
-    <t>玩家战力</t>
-  </si>
-  <si>
-    <t>玩家等级升到30</t>
-  </si>
-  <si>
-    <t>拥有2个突破+3的守护灵</t>
-  </si>
-  <si>
-    <t>通关普通第4章</t>
-  </si>
-  <si>
-    <t>装备48件橙色装备</t>
-  </si>
-  <si>
-    <t>装备穿戴-qua</t>
-  </si>
-  <si>
-    <t>熔炼打造页</t>
-  </si>
-  <si>
-    <t>进行10次竞技场战斗</t>
-  </si>
-  <si>
-    <t>竞技场-bhv</t>
-  </si>
-  <si>
-    <t>竞技场对阵页</t>
-  </si>
-  <si>
-    <t>在杂货店购买10次道具</t>
-  </si>
-  <si>
-    <t>商店购买-shopSum</t>
-  </si>
-  <si>
-    <t>商店</t>
-  </si>
-  <si>
-    <t>通关困难第3章</t>
-  </si>
-  <si>
-    <t>拥有48件强化+30的装备</t>
-  </si>
-  <si>
-    <t>装备强化-cnt</t>
-  </si>
-  <si>
-    <t>进行20次点金</t>
-  </si>
-  <si>
-    <t>点金</t>
-  </si>
-  <si>
-    <t>点金手</t>
-  </si>
-  <si>
-    <t>芦花古楼通过15关</t>
-  </si>
-  <si>
-    <t>芦花古楼-sum</t>
-  </si>
-  <si>
-    <t>芦花古楼</t>
-  </si>
-  <si>
-    <t>击杀2次地煞2以上的恶灵</t>
-  </si>
-  <si>
-    <t>世界BOSS-chamin</t>
-  </si>
-  <si>
-    <t>恶灵入侵</t>
-  </si>
-  <si>
-    <t>通关困难第5章</t>
-  </si>
-  <si>
-    <t>玩家等级升到50</t>
-  </si>
-  <si>
-    <t>拥有3个突破+6的守护灵</t>
-  </si>
-  <si>
-    <t>通关普通第9章</t>
-  </si>
-  <si>
-    <t>拥有1个等级不低于6的乾位魂珠</t>
-  </si>
-  <si>
-    <t>专属武器魂珠-max-loc</t>
-  </si>
-  <si>
-    <t>进行30次清晰守护灵感灵</t>
-  </si>
-  <si>
-    <t>抽卡-shl</t>
-  </si>
-  <si>
-    <t>通关困难第8章</t>
-  </si>
-  <si>
-    <t>神器1达到3级</t>
-  </si>
-  <si>
-    <t>神器-大点-id</t>
-  </si>
-  <si>
-    <t>神器</t>
-  </si>
-  <si>
-    <t>拥有48件40级的橙色装备</t>
-  </si>
-  <si>
-    <t>装备穿戴-qua-lvid</t>
-  </si>
-  <si>
-    <t>进行50次清晰守护灵感灵</t>
-  </si>
-  <si>
-    <t>芦花古楼通过50关</t>
-  </si>
-  <si>
-    <t>神器2达到2级</t>
-  </si>
-  <si>
-    <t>拥有1个等级不低于3的坤位魂珠</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级-lv</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到40</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到55</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级-lv</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>玩家等级升到70</t>
-  </si>
-  <si>
-    <t>拥有3个突破+9的守护灵</t>
-  </si>
-  <si>
-    <t>通关普通第13章</t>
-  </si>
-  <si>
-    <t>进行20次寄灵人天赋洗练</t>
-  </si>
-  <si>
-    <t>寄灵人洗练-bhv</t>
-  </si>
-  <si>
-    <t>击杀2个地煞7级以上的恶灵</t>
-  </si>
-  <si>
-    <t>拥有1个7级的插槽技能</t>
-  </si>
-  <si>
-    <t>插槽技能升级-max</t>
-  </si>
-  <si>
-    <t>进行20次实时竞技</t>
-  </si>
-  <si>
-    <t>实时竞技场-bhv</t>
-  </si>
-  <si>
-    <t>拥有48件40级以上的橙色的装备</t>
-  </si>
-  <si>
-    <t>进行80次清晰守护灵感灵</t>
-  </si>
-  <si>
-    <t>芦花古楼通过80关</t>
-  </si>
-  <si>
-    <t>击杀10次恶灵</t>
-  </si>
-  <si>
-    <t>拥有3个等级不低于5的坤位魂珠</t>
-  </si>
-  <si>
-    <t>专属武器魂珠-cnt-lv-loc</t>
-  </si>
-  <si>
-    <t>玩家等级升到90</t>
-  </si>
-  <si>
-    <t>拥有3个突破+12的守护灵</t>
-  </si>
-  <si>
-    <t>通关普通第17章</t>
-  </si>
-  <si>
-    <t>拥有48件强化+80的装备</t>
-  </si>
-  <si>
-    <t>进行120次清晰守护灵感灵</t>
-  </si>
-  <si>
-    <t>通关困难第15章</t>
-  </si>
-  <si>
-    <t>拥有3个橙色神器碎片</t>
-  </si>
-  <si>
-    <t>神器-组件-quaGet</t>
-  </si>
-  <si>
-    <t>拥有8件90级橙色装备</t>
-  </si>
-  <si>
-    <t>竞技场分数达到1500</t>
-  </si>
-  <si>
-    <t>历史最高分</t>
-  </si>
-  <si>
-    <t>芦花古楼通过150关</t>
-  </si>
-  <si>
-    <t>拥有1个魂珠总等级21级的专属武器</t>
-  </si>
-  <si>
-    <t>专属武器魂珠-max-sumlv</t>
-  </si>
-  <si>
-    <t>拥有3个SSR守护灵</t>
-  </si>
-  <si>
-    <t>守护灵-qua</t>
-  </si>
-  <si>
-    <t>玩家等级升到120</t>
-  </si>
-  <si>
-    <t>拥有3个突破+15的守护灵</t>
-  </si>
-  <si>
-    <t>通关普通第22章</t>
-  </si>
-  <si>
-    <t>拥有48件90级的橙色装备</t>
-  </si>
-  <si>
-    <t>通过困难20章</t>
-  </si>
-  <si>
-    <t>神器3达到3级</t>
-  </si>
-  <si>
-    <t>神器4达到3级</t>
-  </si>
-  <si>
-    <t>神器5达到3级</t>
-  </si>
-  <si>
-    <t>玩家等级升到135</t>
-  </si>
-  <si>
-    <t>芦花古楼通过200关</t>
-  </si>
-  <si>
-    <t>拥有1个魂珠总等级30级的专属武器</t>
-  </si>
-  <si>
-    <t>拥有24件120的橙色装备</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级-lv</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到85</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到100</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到115</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级-lv</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级-lv</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级升到130</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>玩家等级升到140</t>
-  </si>
-  <si>
-    <t>拥有3个突破+18的守护灵</t>
-  </si>
-  <si>
-    <t>通关普通第27章</t>
-  </si>
-  <si>
-    <t>拥有48件强化+120的装备</t>
-  </si>
-  <si>
-    <t>玩家等级升到150</t>
-  </si>
-  <si>
-    <t>神器6达到3级</t>
-  </si>
-  <si>
-    <t>神器7达到3级</t>
-  </si>
-  <si>
-    <t>拥有1个魂珠总等级40级的专属武器</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1103,16 +937,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <strike/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -1128,9 +963,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1157,7 +991,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1178,12 +1012,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1196,13 +1024,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14981536301767021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1498458815271462"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,14 +1046,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1243,17 +1071,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1267,13 +1084,13 @@
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
@@ -1282,24 +1099,24 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -1317,12 +1134,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1330,7 +1141,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="13" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="4" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1769,7 +1580,7 @@
       <c r="H6" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
+      <c r="A10" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -1780,10 +1591,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1853,46 +1664,46 @@
       <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1912,16 +1723,16 @@
       <c r="E2" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>47</v>
       </c>
       <c r="J2" t="s">
@@ -2041,7 +1852,7 @@
       <c r="T3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="U3" s="9" t="s">
         <v>73</v>
       </c>
       <c r="V3" s="3" t="s">
@@ -2076,7 +1887,7 @@
       <c r="C4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>82</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -2090,13 +1901,13 @@
         <v>0</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="M4" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N4" s="4">
         <v>15</v>
@@ -2126,7 +1937,7 @@
       <c r="C5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>82</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -2144,16 +1955,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M5" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N5" s="4">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>90</v>
@@ -2161,14 +1972,14 @@
       <c r="P5" s="4">
         <v>10</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="Q5" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="10">
         <v>100</v>
       </c>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
@@ -2188,7 +1999,7 @@
       <c r="C6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>82</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -2204,13 +2015,13 @@
         <v>1</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>89</v>
       </c>
       <c r="M6" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N6" s="4">
         <v>40</v>
@@ -2221,16 +2032,16 @@
       <c r="P6" s="4">
         <v>10</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="10">
         <v>50</v>
       </c>
-      <c r="S6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="T6" s="12">
+      <c r="S6" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="T6" s="10">
         <v>50000</v>
       </c>
       <c r="U6" s="4">
@@ -2242,7 +2053,7 @@
       <c r="W6" s="4">
         <v>45</v>
       </c>
-      <c r="AA6" s="13"/>
+      <c r="AA6" s="11"/>
     </row>
     <row r="7" spans="1:28" ht="66" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
@@ -2252,19 +2063,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -2272,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M7" s="5">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N7" s="4">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>90</v>
       </c>
       <c r="P7" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>91</v>
@@ -2320,16 +2131,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -2338,22 +2149,22 @@
         <v>1</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M8" s="5">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N8" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>90</v>
       </c>
       <c r="P8" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>91</v>
@@ -2386,16 +2197,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -2404,22 +2215,22 @@
         <v>2</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="M9" s="5">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N9" s="4">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="O9" s="5" t="s">
         <v>90</v>
       </c>
       <c r="P9" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>91</v>
@@ -2446,19 +2257,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="G10" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -2466,22 +2277,22 @@
         <v>0</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M10" s="5">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N10" s="4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>90</v>
       </c>
       <c r="P10" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>91</v>
@@ -2508,16 +2319,16 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2526,22 +2337,22 @@
         <v>1</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M11" s="5">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="N11" s="4">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="O11" s="5" t="s">
         <v>90</v>
       </c>
       <c r="P11" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="5" t="s">
         <v>91</v>
@@ -2568,16 +2379,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2586,22 +2397,22 @@
         <v>2</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M12" s="5">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="N12" s="4">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>90</v>
       </c>
       <c r="P12" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
         <v>91</v>
@@ -2634,19 +2445,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>115</v>
+        <v>109</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -2654,22 +2465,22 @@
         <v>0</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="M13" s="5">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="N13" s="4">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="O13" s="5" t="s">
         <v>90</v>
       </c>
       <c r="P13" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="5" t="s">
         <v>91</v>
@@ -2696,16 +2507,16 @@
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2714,22 +2525,22 @@
         <v>1</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>121</v>
+        <v>214</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="M14" s="5">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="N14" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>90</v>
       </c>
       <c r="P14" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>91</v>
@@ -2748,562 +2559,6 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="1:28" ht="33" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4">
-        <v>2</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="M15" s="5">
-        <v>95</v>
-      </c>
-      <c r="N15" s="4">
-        <v>100</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P15" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R15" s="4">
-        <v>100</v>
-      </c>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-    </row>
-    <row r="16" spans="1:28" ht="66" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4">
-        <v>13</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="M16" s="5">
-        <v>100</v>
-      </c>
-      <c r="N16" s="4">
-        <v>120</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P16" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R16" s="4">
-        <v>100</v>
-      </c>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4">
-        <v>2</v>
-      </c>
-      <c r="V16" s="4">
-        <v>401</v>
-      </c>
-      <c r="W16" s="4">
-        <v>120</v>
-      </c>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-    </row>
-    <row r="17" spans="1:28" ht="33" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4">
-        <v>14</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="M17" s="5">
-        <v>105</v>
-      </c>
-      <c r="N17" s="4">
-        <v>120</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P17" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R17" s="4">
-        <v>100</v>
-      </c>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-    </row>
-    <row r="18" spans="1:28" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4">
-        <v>15</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4">
-        <v>2</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="M18" s="5">
-        <v>110</v>
-      </c>
-      <c r="N18" s="4">
-        <v>120</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P18" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R18" s="4">
-        <v>100</v>
-      </c>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-    </row>
-    <row r="19" spans="1:28" ht="66" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4">
-        <v>16</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="M19" s="5">
-        <v>120</v>
-      </c>
-      <c r="N19" s="4">
-        <v>150</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P19" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R19" s="4">
-        <v>100</v>
-      </c>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-    </row>
-    <row r="20" spans="1:28" ht="33" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4">
-        <v>17</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4">
-        <v>1</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="M20" s="5">
-        <v>130</v>
-      </c>
-      <c r="N20" s="4">
-        <v>150</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P20" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R20" s="4">
-        <v>100</v>
-      </c>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4">
-        <v>2</v>
-      </c>
-      <c r="V20" s="4">
-        <v>401</v>
-      </c>
-      <c r="W20" s="4">
-        <v>140</v>
-      </c>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-    </row>
-    <row r="21" spans="1:28" ht="33" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4">
-        <v>18</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4">
-        <v>2</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="M21" s="5">
-        <v>135</v>
-      </c>
-      <c r="N21" s="4">
-        <v>150</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P21" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R21" s="4">
-        <v>100</v>
-      </c>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-    </row>
-    <row r="22" spans="1:28" ht="33" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4">
-        <v>19</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="M22" s="5">
-        <v>140</v>
-      </c>
-      <c r="N22" s="4">
-        <v>150</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P22" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R22" s="4">
-        <v>100</v>
-      </c>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-    </row>
-    <row r="23" spans="1:28" ht="33" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>20</v>
-      </c>
-      <c r="B23" s="4">
-        <v>20</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4">
-        <v>1</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="M23" s="5">
-        <v>150</v>
-      </c>
-      <c r="N23" s="4">
-        <v>150</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P23" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R23" s="4">
-        <v>100</v>
-      </c>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3314,10 +2569,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T79"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3346,58 +2601,58 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="M1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>159</v>
+      <c r="S1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -3408,13 +2663,13 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>47</v>
@@ -3423,10 +2678,10 @@
         <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="J2" t="s">
         <v>52</v>
@@ -3456,7 +2711,7 @@
         <v>52</v>
       </c>
       <c r="S2" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="T2" t="s">
         <v>53</v>
@@ -3467,37 +2722,37 @@
         <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>64</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>67</v>
@@ -3518,10 +2773,10 @@
         <v>72</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -3532,25 +2787,25 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B4)&amp;"-任务-"&amp;地狱道任务!D4</f>
-        <v>黑绳-任务-1</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B4)&amp;"-任务-"&amp;地狱道任务!D4</f>
+        <v>等活-任务-1</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -3561,7 +2816,7 @@
         <v>30</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P4" s="4">
         <v>30000</v>
@@ -3569,7 +2824,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="5" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="T4" s="5">
         <v>301</v>
@@ -3583,32 +2838,32 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B5)&amp;"-任务-"&amp;地狱道任务!D5</f>
-        <v>黑绳-任务-2</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B5)&amp;"-任务-"&amp;地狱道任务!D5</f>
+        <v>等活-任务-2</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4">
         <v>3</v>
       </c>
       <c r="K5" s="4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="5" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="N5" s="4">
         <v>30</v>
@@ -3620,13 +2875,13 @@
         <v>20</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R5" s="4">
         <v>20000</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="T5" s="5"/>
     </row>
@@ -3638,21 +2893,21 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
       </c>
       <c r="E6" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B6)&amp;"-任务-"&amp;地狱道任务!D6</f>
-        <v>黑绳-任务-3</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B6)&amp;"-任务-"&amp;地狱道任务!D6</f>
+        <v>等活-任务-3</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4">
@@ -3673,7 +2928,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="5" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="T6" s="4">
         <v>101</v>
@@ -3687,25 +2942,23 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D7" s="4">
         <v>4</v>
       </c>
       <c r="E7" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B7)&amp;"-任务-"&amp;地狱道任务!D7</f>
-        <v>黑绳-任务-4</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B7)&amp;"-任务-"&amp;地狱道任务!D7</f>
+        <v>等活-任务-4</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="I7" s="4"/>
       <c r="J7" s="4">
         <v>1</v>
       </c>
@@ -3714,7 +2967,7 @@
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="5" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="N7" s="4">
         <v>1</v>
@@ -3724,7 +2977,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="5" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="T7" s="4">
         <v>207</v>
@@ -3739,32 +2992,30 @@
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B8)&amp;"-任务-"&amp;地狱道任务!D8</f>
-        <v>黑绳+1-任务-1</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B8)&amp;"-任务-"&amp;地狱道任务!D8</f>
+        <v>黑绳-任务-1</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="4" t="s">
-        <v>193</v>
+      <c r="G8" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4">
-        <v>3</v>
-      </c>
-      <c r="K8" s="4">
-        <v>3</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="5" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="N8" s="4">
         <v>100</v>
@@ -3774,7 +3025,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="5" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="T8" s="5"/>
     </row>
@@ -3787,25 +3038,23 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B9)&amp;"-任务-"&amp;地狱道任务!D9</f>
-        <v>黑绳+1-任务-2</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B9)&amp;"-任务-"&amp;地狱道任务!D9</f>
+        <v>黑绳-任务-2</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="7" t="s">
-        <v>194</v>
+      <c r="G9" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="I9" s="4"/>
       <c r="J9" s="4">
         <v>3</v>
       </c>
@@ -3814,7 +3063,7 @@
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N9" s="4">
         <v>10000</v>
@@ -3824,7 +3073,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="T9" s="4"/>
     </row>
@@ -3837,32 +3086,32 @@
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B10)&amp;"-任务-"&amp;地狱道任务!D10</f>
-        <v>黑绳+1-任务-3</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B10)&amp;"-任务-"&amp;地狱道任务!D10</f>
+        <v>黑绳-任务-3</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="5" t="s">
-        <v>197</v>
+      <c r="G10" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K10" s="4">
         <v>103</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N10" s="4">
         <v>1</v>
@@ -3872,7 +3121,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="5" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="T10" s="5">
         <v>103</v>
@@ -3887,25 +3136,23 @@
         <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D11" s="4">
         <v>4</v>
       </c>
       <c r="E11" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B11)&amp;"-任务-"&amp;地狱道任务!D11</f>
-        <v>黑绳+1-任务-4</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B11)&amp;"-任务-"&amp;地狱道任务!D11</f>
+        <v>黑绳-任务-4</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>199</v>
+      <c r="G11" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="I11" s="4"/>
       <c r="J11" s="4">
         <v>40000</v>
       </c>
@@ -3933,30 +3180,30 @@
         <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
       </c>
       <c r="E12" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B12)&amp;"-任务-"&amp;地狱道任务!D12</f>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B12)&amp;"-任务-"&amp;地狱道任务!D12</f>
         <v>众合-任务-1</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="6" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N12" s="4">
         <v>1</v>
@@ -3966,7 +3213,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="5" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="T12" s="5">
         <v>303</v>
@@ -3981,21 +3228,21 @@
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
       </c>
       <c r="E13" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B13)&amp;"-任务-"&amp;地狱道任务!D13</f>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B13)&amp;"-任务-"&amp;地狱道任务!D13</f>
         <v>众合-任务-2</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4">
@@ -4006,7 +3253,7 @@
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N13" s="4">
         <v>1</v>
@@ -4016,7 +3263,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="5" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="T13" s="4"/>
     </row>
@@ -4029,21 +3276,21 @@
         <v>4</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
       </c>
       <c r="E14" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B14)&amp;"-任务-"&amp;地狱道任务!D14</f>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B14)&amp;"-任务-"&amp;地狱道任务!D14</f>
         <v>众合-任务-3</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="5" t="s">
-        <v>203</v>
+      <c r="G14" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4">
@@ -4054,7 +3301,7 @@
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N14" s="4">
         <v>1</v>
@@ -4064,7 +3311,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="5" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="T14" s="4">
         <v>104</v>
@@ -4079,21 +3326,21 @@
         <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D15" s="4">
         <v>4</v>
       </c>
       <c r="E15" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B15)&amp;"-任务-"&amp;地狱道任务!D15</f>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B15)&amp;"-任务-"&amp;地狱道任务!D15</f>
         <v>众合-任务-4</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>204</v>
+      <c r="G15" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4">
@@ -4104,7 +3351,7 @@
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N15" s="4">
         <v>1</v>
@@ -4114,7 +3361,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="T15" s="4"/>
     </row>
@@ -4123,34 +3370,34 @@
         <v>401</v>
       </c>
       <c r="B16" s="4">
-        <f t="shared" ref="B16:B72" si="0">B12+1</f>
+        <f>B14+1</f>
         <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
       </c>
       <c r="E16" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B16)&amp;"-任务-"&amp;地狱道任务!D16</f>
-        <v>众合+1-任务-1</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4" t="s">
-        <v>207</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B16)&amp;"-任务-"&amp;地狱道任务!D16</f>
+        <v>叫唤-任务-1</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N16" s="4">
         <v>1</v>
@@ -4160,45 +3407,45 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="T16" s="4"/>
+        <v>154</v>
+      </c>
+      <c r="T16" s="4">
+        <v>203</v>
+      </c>
     </row>
     <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>402</v>
       </c>
       <c r="B17" s="4">
-        <f t="shared" si="0"/>
+        <f>B12+1</f>
         <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
       </c>
       <c r="E17" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B17)&amp;"-任务-"&amp;地狱道任务!D17</f>
-        <v>众合+1-任务-2</v>
-      </c>
-      <c r="F17" s="4"/>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B17)&amp;"-任务-"&amp;地狱道任务!D17</f>
+        <v>叫唤-任务-2</v>
+      </c>
+      <c r="F17" s="5"/>
       <c r="G17" s="4" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4">
         <v>10</v>
       </c>
-      <c r="K17" s="4">
-        <v>2</v>
-      </c>
+      <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N17" s="4">
         <v>1</v>
@@ -4208,47 +3455,45 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="T17" s="4">
-        <v>2</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="T17" s="4"/>
     </row>
     <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>403</v>
       </c>
       <c r="B18" s="4">
-        <f t="shared" si="0"/>
+        <f>B13+1</f>
         <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D18" s="4">
         <v>3</v>
       </c>
       <c r="E18" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B18)&amp;"-任务-"&amp;地狱道任务!D18</f>
-        <v>众合+1-任务-3</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B18)&amp;"-任务-"&amp;地狱道任务!D18</f>
+        <v>叫唤-任务-3</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4">
         <v>10</v>
       </c>
       <c r="K18" s="4">
-        <v>203</v>
+        <v>2</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N18" s="4">
         <v>1</v>
@@ -4258,10 +3503,10 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="5" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="T18" s="4">
-        <v>203</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -4269,25 +3514,25 @@
         <v>404</v>
       </c>
       <c r="B19" s="4">
-        <f t="shared" si="0"/>
+        <f>B15+1</f>
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D19" s="4">
         <v>4</v>
       </c>
       <c r="E19" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B19)&amp;"-任务-"&amp;地狱道任务!D19</f>
-        <v>众合+1-任务-4</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B19)&amp;"-任务-"&amp;地狱道任务!D19</f>
+        <v>叫唤-任务-4</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="4" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4">
@@ -4298,7 +3543,7 @@
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N19" s="4">
         <v>1</v>
@@ -4315,34 +3560,34 @@
         <v>501</v>
       </c>
       <c r="B20" s="4">
-        <f t="shared" si="0"/>
+        <f>B19+1</f>
         <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
       </c>
       <c r="E20" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B20)&amp;"-任务-"&amp;地狱道任务!D20</f>
-        <v>众合+2-任务-1</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B20)&amp;"-任务-"&amp;地狱道任务!D20</f>
+        <v>大叫唤-任务-1</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="4" t="s">
-        <v>216</v>
+      <c r="G20" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N20" s="4">
         <v>1</v>
@@ -4352,43 +3597,45 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="T20" s="4"/>
-    </row>
-    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="T20" s="4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>502</v>
       </c>
       <c r="B21" s="4">
-        <f t="shared" si="0"/>
+        <f>B17+1</f>
         <v>6</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
       </c>
       <c r="E21" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B21)&amp;"-任务-"&amp;地狱道任务!D21</f>
-        <v>众合+2-任务-2</v>
-      </c>
-      <c r="F21" s="4"/>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B21)&amp;"-任务-"&amp;地狱道任务!D21</f>
+        <v>大叫唤-任务-2</v>
+      </c>
+      <c r="F21" s="5"/>
       <c r="G21" s="4" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N21" s="4">
         <v>1</v>
@@ -4398,47 +3645,43 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="T21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>503</v>
       </c>
       <c r="B22" s="4">
-        <f t="shared" si="0"/>
+        <f>B18+1</f>
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D22" s="4">
         <v>3</v>
       </c>
       <c r="E22" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B22)&amp;"-任务-"&amp;地狱道任务!D22</f>
-        <v>众合+2-任务-3</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B22)&amp;"-任务-"&amp;地狱道任务!D22</f>
+        <v>大叫唤-任务-3</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4">
-        <v>2</v>
-      </c>
-      <c r="K22" s="4">
-        <v>502</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N22" s="4">
         <v>1</v>
@@ -4448,10 +3691,10 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="5" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="T22" s="4">
-        <v>502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -4459,36 +3702,36 @@
         <v>504</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" si="0"/>
+        <f>B16+1</f>
         <v>6</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D23" s="4">
         <v>4</v>
       </c>
       <c r="E23" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B23)&amp;"-任务-"&amp;地狱道任务!D23</f>
-        <v>众合+2-任务-4</v>
-      </c>
-      <c r="F23" s="5"/>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B23)&amp;"-任务-"&amp;地狱道任务!D23</f>
+        <v>大叫唤-任务-4</v>
+      </c>
+      <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K23" s="4">
-        <v>205</v>
+        <v>502</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N23" s="4">
         <v>1</v>
@@ -4498,10 +3741,10 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="T23" s="4">
-        <v>205</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -4509,34 +3752,34 @@
         <v>601</v>
       </c>
       <c r="B24" s="4">
-        <f t="shared" si="0"/>
+        <f>B21+1</f>
         <v>7</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
       </c>
       <c r="E24" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B24)&amp;"-任务-"&amp;地狱道任务!D24</f>
-        <v>叫唤-任务-1</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B24)&amp;"-任务-"&amp;地狱道任务!D24</f>
+        <v>焦热-任务-1</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="6" t="s">
         <v>226</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N24" s="4">
         <v>1</v>
@@ -4546,7 +3789,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="5" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="T24" s="5">
         <v>306</v>
@@ -4557,25 +3800,25 @@
         <v>602</v>
       </c>
       <c r="B25" s="4">
-        <f t="shared" si="0"/>
+        <f>B22+1</f>
         <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D25" s="4">
         <v>2</v>
       </c>
       <c r="E25" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B25)&amp;"-任务-"&amp;地狱道任务!D25</f>
-        <v>叫唤-任务-2</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B25)&amp;"-任务-"&amp;地狱道任务!D25</f>
+        <v>焦热-任务-2</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="5" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4">
@@ -4586,7 +3829,7 @@
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N25" s="4">
         <v>1</v>
@@ -4596,7 +3839,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="5" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="T25" s="4"/>
     </row>
@@ -4605,25 +3848,25 @@
         <v>603</v>
       </c>
       <c r="B26" s="4">
-        <f t="shared" si="0"/>
+        <f>B23+1</f>
         <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D26" s="4">
         <v>3</v>
       </c>
       <c r="E26" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B26)&amp;"-任务-"&amp;地狱道任务!D26</f>
-        <v>叫唤-任务-3</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B26)&amp;"-任务-"&amp;地狱道任务!D26</f>
+        <v>焦热-任务-3</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="5" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4">
@@ -4634,7 +3877,7 @@
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N26" s="4">
         <v>1</v>
@@ -4644,7 +3887,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="5" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="T26" s="4">
         <v>109</v>
@@ -4655,25 +3898,25 @@
         <v>604</v>
       </c>
       <c r="B27" s="4">
-        <f t="shared" si="0"/>
+        <f>B20+1</f>
         <v>7</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D27" s="4">
         <v>4</v>
       </c>
       <c r="E27" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B27)&amp;"-任务-"&amp;地狱道任务!D27</f>
-        <v>叫唤-任务-4</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B27)&amp;"-任务-"&amp;地狱道任务!D27</f>
+        <v>焦热-任务-4</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4">
@@ -4684,7 +3927,7 @@
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N27" s="4">
         <v>1</v>
@@ -4701,34 +3944,34 @@
         <v>701</v>
       </c>
       <c r="B28" s="4">
-        <f t="shared" si="0"/>
+        <f>B25+1</f>
         <v>8</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B28)&amp;"-任务-"&amp;地狱道任务!D28</f>
-        <v>叫唤+1-任务-1</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="4" t="s">
-        <v>231</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B28)&amp;"-任务-"&amp;地狱道任务!D28</f>
+        <v>大焦热-任务-1</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N28" s="4">
         <v>1</v>
@@ -4738,10 +3981,10 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="5" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="T28" s="4">
-        <v>1</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -4749,36 +3992,34 @@
         <v>702</v>
       </c>
       <c r="B29" s="4">
-        <f t="shared" si="0"/>
+        <f>B24+1</f>
         <v>8</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D29" s="4">
         <v>2</v>
       </c>
       <c r="E29" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B29)&amp;"-任务-"&amp;地狱道任务!D29</f>
-        <v>叫唤+1-任务-2</v>
-      </c>
-      <c r="F29" s="4"/>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B29)&amp;"-任务-"&amp;地狱道任务!D29</f>
+        <v>大焦热-任务-2</v>
+      </c>
+      <c r="F29" s="5"/>
       <c r="G29" s="4" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4">
-        <v>10</v>
-      </c>
-      <c r="K29" s="4">
-        <v>208</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N29" s="4">
         <v>1</v>
@@ -4788,10 +4029,10 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="T29" s="4">
-        <v>208</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -4799,25 +4040,25 @@
         <v>703</v>
       </c>
       <c r="B30" s="4">
-        <f t="shared" si="0"/>
+        <f>B26+1</f>
         <v>8</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D30" s="4">
         <v>3</v>
       </c>
       <c r="E30" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B30)&amp;"-任务-"&amp;地狱道任务!D30</f>
-        <v>叫唤+1-任务-3</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B30)&amp;"-任务-"&amp;地狱道任务!D30</f>
+        <v>大焦热-任务-3</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4">
@@ -4828,7 +4069,7 @@
       </c>
       <c r="L30" s="4"/>
       <c r="M30" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N30" s="4">
         <v>1</v>
@@ -4838,7 +4079,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="5" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="T30" s="4"/>
     </row>
@@ -4847,25 +4088,25 @@
         <v>704</v>
       </c>
       <c r="B31" s="4">
-        <f t="shared" si="0"/>
+        <f>B27+1</f>
         <v>8</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D31" s="4">
         <v>4</v>
       </c>
       <c r="E31" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B31)&amp;"-任务-"&amp;地狱道任务!D31</f>
-        <v>叫唤+1-任务-4</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B31)&amp;"-任务-"&amp;地狱道任务!D31</f>
+        <v>大焦热-任务-4</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="4" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4">
@@ -4878,7 +4119,7 @@
         <v>2</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N31" s="4">
         <v>1</v>
@@ -4888,7 +4129,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="5" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="T31" s="4"/>
     </row>
@@ -4897,34 +4138,34 @@
         <v>801</v>
       </c>
       <c r="B32" s="4">
-        <f t="shared" si="0"/>
+        <f>B29+1</f>
         <v>9</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
       </c>
       <c r="E32" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B32)&amp;"-任务-"&amp;地狱道任务!D32</f>
-        <v>叫唤+2-任务-1</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B32)&amp;"-任务-"&amp;地狱道任务!D32</f>
+        <v>无间-任务-1</v>
       </c>
       <c r="F32" s="5"/>
-      <c r="G32" s="4" t="s">
-        <v>239</v>
+      <c r="G32" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N32" s="4">
         <v>1</v>
@@ -4945,25 +4186,25 @@
         <v>802</v>
       </c>
       <c r="B33" s="4">
-        <f t="shared" si="0"/>
+        <f>B28+1</f>
         <v>9</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D33" s="4">
         <v>2</v>
       </c>
       <c r="E33" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B33)&amp;"-任务-"&amp;地狱道任务!D33</f>
-        <v>叫唤+2-任务-2</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B33)&amp;"-任务-"&amp;地狱道任务!D33</f>
+        <v>无间-任务-2</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4">
@@ -4972,7 +4213,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N33" s="4">
         <v>1</v>
@@ -4982,7 +4223,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="5" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="T33" s="4">
         <v>2</v>
@@ -4993,25 +4234,25 @@
         <v>803</v>
       </c>
       <c r="B34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B34:B39" si="0">B30+1</f>
         <v>9</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D34" s="4">
         <v>3</v>
       </c>
       <c r="E34" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B34)&amp;"-任务-"&amp;地狱道任务!D34</f>
-        <v>叫唤+2-任务-3</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B34)&amp;"-任务-"&amp;地狱道任务!D34</f>
+        <v>无间-任务-3</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4">
@@ -5022,7 +4263,7 @@
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N34" s="4">
         <v>1</v>
@@ -5032,7 +4273,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="5" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="T34" s="4"/>
     </row>
@@ -5045,21 +4286,21 @@
         <v>9</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D35" s="4">
         <v>4</v>
       </c>
       <c r="E35" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B35)&amp;"-任务-"&amp;地狱道任务!D35</f>
-        <v>叫唤+2-任务-4</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B35)&amp;"-任务-"&amp;地狱道任务!D35</f>
+        <v>无间-任务-4</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4">
@@ -5070,7 +4311,7 @@
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N35" s="4">
         <v>1</v>
@@ -5091,30 +4332,30 @@
         <v>10</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
       </c>
       <c r="E36" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B36)&amp;"-任务-"&amp;地狱道任务!D36</f>
-        <v>大叫唤-任务-1</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B36)&amp;"-任务-"&amp;地狱道任务!D36</f>
+        <v>无我相-任务-1</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="6" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N36" s="4">
         <v>1</v>
@@ -5124,7 +4365,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="5" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="T36" s="5">
         <v>311</v>
@@ -5139,21 +4380,21 @@
         <v>10</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D37" s="4">
         <v>2</v>
       </c>
       <c r="E37" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B37)&amp;"-任务-"&amp;地狱道任务!D37</f>
-        <v>大叫唤-任务-2</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B37)&amp;"-任务-"&amp;地狱道任务!D37</f>
+        <v>无我相-任务-2</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4">
@@ -5164,7 +4405,7 @@
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N37" s="4">
         <v>1</v>
@@ -5174,7 +4415,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="5" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="T37" s="4"/>
     </row>
@@ -5187,21 +4428,21 @@
         <v>10</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D38" s="4">
         <v>3</v>
       </c>
       <c r="E38" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B38)&amp;"-任务-"&amp;地狱道任务!D38</f>
-        <v>大叫唤-任务-3</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B38)&amp;"-任务-"&amp;地狱道任务!D38</f>
+        <v>无我相-任务-3</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4">
@@ -5212,7 +4453,7 @@
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N38" s="4">
         <v>1</v>
@@ -5222,7 +4463,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="5" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="T38" s="4">
         <v>113</v>
@@ -5237,21 +4478,21 @@
         <v>10</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D39" s="4">
         <v>4</v>
       </c>
       <c r="E39" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B39)&amp;"-任务-"&amp;地狱道任务!D39</f>
-        <v>大叫唤-任务-4</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B39)&amp;"-任务-"&amp;地狱道任务!D39</f>
+        <v>无我相-任务-4</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="4" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4">
@@ -5260,7 +4501,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N39" s="4">
         <v>1</v>
@@ -5277,36 +4518,36 @@
         <v>1001</v>
       </c>
       <c r="B40" s="4">
-        <f t="shared" si="0"/>
+        <f>B39+1</f>
         <v>11</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
       </c>
       <c r="E40" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B40)&amp;"-任务-"&amp;地狱道任务!D40</f>
-        <v>大叫唤+1-任务-1</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B40)&amp;"-任务-"&amp;地狱道任务!D40</f>
+        <v>无众生相-任务-1</v>
       </c>
       <c r="F40" s="5"/>
-      <c r="G40" s="4" t="s">
-        <v>248</v>
+      <c r="G40" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4">
-        <v>3</v>
-      </c>
-      <c r="K40" s="4">
-        <v>507</v>
-      </c>
-      <c r="L40" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4">
+        <v>2</v>
+      </c>
       <c r="M40" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N40" s="4">
         <v>1</v>
@@ -5316,45 +4557,45 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="T40" s="4">
-        <v>507</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="T40" s="4"/>
     </row>
     <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>1002</v>
       </c>
       <c r="B41" s="4">
-        <f t="shared" si="0"/>
+        <f>B36+1</f>
         <v>11</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D41" s="4">
         <v>2</v>
       </c>
       <c r="E41" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B41)&amp;"-任务-"&amp;地狱道任务!D41</f>
-        <v>大叫唤+1-任务-2</v>
-      </c>
-      <c r="F41" s="4"/>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B41)&amp;"-任务-"&amp;地狱道任务!D41</f>
+        <v>无众生相-任务-2</v>
+      </c>
+      <c r="F41" s="5"/>
       <c r="G41" s="4" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4">
-        <v>7</v>
-      </c>
-      <c r="K41" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="K41" s="4">
+        <v>507</v>
+      </c>
       <c r="L41" s="4"/>
       <c r="M41" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N41" s="4">
         <v>1</v>
@@ -5363,42 +4604,46 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="4"/>
+      <c r="S41" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="T41" s="4">
+        <v>507</v>
+      </c>
     </row>
     <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>1003</v>
       </c>
       <c r="B42" s="4">
-        <f t="shared" si="0"/>
+        <f>B37+1</f>
         <v>11</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D42" s="4">
         <v>3</v>
       </c>
       <c r="E42" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B42)&amp;"-任务-"&amp;地狱道任务!D42</f>
-        <v>大叫唤+1-任务-3</v>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B42)&amp;"-任务-"&amp;地狱道任务!D42</f>
+        <v>无众生相-任务-3</v>
       </c>
       <c r="F42" s="4"/>
-      <c r="G42" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>252</v>
+      <c r="G42" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N42" s="4">
         <v>1</v>
@@ -5415,38 +4660,34 @@
         <v>1004</v>
       </c>
       <c r="B43" s="4">
-        <f t="shared" si="0"/>
+        <f>B38+1</f>
         <v>11</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D43" s="4">
         <v>4</v>
       </c>
       <c r="E43" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B43)&amp;"-任务-"&amp;地狱道任务!D43</f>
-        <v>大叫唤+1-任务-4</v>
-      </c>
-      <c r="F43" s="5"/>
+        <f>INDEX(地狱道!$K$4:$K$14,地狱道任务!B43)&amp;"-任务-"&amp;地狱道任务!D43</f>
+        <v>无众生相-任务-4</v>
+      </c>
+      <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4">
-        <v>48</v>
-      </c>
-      <c r="K43" s="4">
-        <v>4</v>
-      </c>
-      <c r="L43" s="4">
-        <v>2</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
       <c r="M43" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="N43" s="4">
         <v>1</v>
@@ -5455,1749 +4696,17 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
-      <c r="S43" s="5" t="s">
-        <v>206</v>
-      </c>
+      <c r="S43" s="5"/>
       <c r="T43" s="4"/>
     </row>
-    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>1101</v>
-      </c>
-      <c r="B44" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D44" s="4">
-        <v>1</v>
-      </c>
-      <c r="E44" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B44)&amp;"-任务-"&amp;地狱道任务!D44</f>
-        <v>大叫唤+2-任务-1</v>
-      </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4">
-        <v>80</v>
-      </c>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N44" s="4">
-        <v>1</v>
-      </c>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="T44" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>1102</v>
-      </c>
-      <c r="B45" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D45" s="4">
-        <v>2</v>
-      </c>
-      <c r="E45" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B45)&amp;"-任务-"&amp;地狱道任务!D45</f>
-        <v>大叫唤+2-任务-2</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4">
-        <v>80</v>
-      </c>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N45" s="4">
-        <v>1</v>
-      </c>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="T45" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <v>1103</v>
-      </c>
-      <c r="B46" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D46" s="4">
-        <v>3</v>
-      </c>
-      <c r="E46" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B46)&amp;"-任务-"&amp;地狱道任务!D46</f>
-        <v>大叫唤+2-任务-3</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4">
-        <v>10</v>
-      </c>
-      <c r="K46" s="4">
-        <v>501</v>
-      </c>
-      <c r="L46" s="4"/>
-      <c r="M46" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N46" s="4">
-        <v>1</v>
-      </c>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="T46" s="4">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <v>1104</v>
-      </c>
-      <c r="B47" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" s="4">
-        <v>4</v>
-      </c>
-      <c r="E47" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B47)&amp;"-任务-"&amp;地狱道任务!D47</f>
-        <v>大叫唤+2-任务-4</v>
-      </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4">
-        <v>3</v>
-      </c>
-      <c r="K47" s="4">
-        <v>2</v>
-      </c>
-      <c r="L47" s="4">
-        <v>5</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N47" s="4">
-        <v>1</v>
-      </c>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="4"/>
-    </row>
-    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>1201</v>
-      </c>
-      <c r="B48" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1</v>
-      </c>
-      <c r="E48" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B48)&amp;"-任务-"&amp;地狱道任务!D48</f>
-        <v>焦热-任务-1</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4">
-        <v>90</v>
-      </c>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N48" s="4">
-        <v>1</v>
-      </c>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="T48" s="5">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>1202</v>
-      </c>
-      <c r="B49" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D49" s="4">
-        <v>2</v>
-      </c>
-      <c r="E49" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B49)&amp;"-任务-"&amp;地狱道任务!D49</f>
-        <v>焦热-任务-2</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4">
-        <v>3</v>
-      </c>
-      <c r="K49" s="4">
-        <v>13</v>
-      </c>
-      <c r="L49" s="4"/>
-      <c r="M49" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N49" s="4">
-        <v>1</v>
-      </c>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="T49" s="4"/>
-    </row>
-    <row r="50" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>1203</v>
-      </c>
-      <c r="B50" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D50" s="4">
-        <v>3</v>
-      </c>
-      <c r="E50" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B50)&amp;"-任务-"&amp;地狱道任务!D50</f>
-        <v>焦热-任务-3</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4">
-        <v>10</v>
-      </c>
-      <c r="K50" s="4">
-        <v>117</v>
-      </c>
-      <c r="L50" s="4"/>
-      <c r="M50" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N50" s="4">
-        <v>1</v>
-      </c>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="T50" s="4">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>1204</v>
-      </c>
-      <c r="B51" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D51" s="4">
-        <v>4</v>
-      </c>
-      <c r="E51" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B51)&amp;"-任务-"&amp;地狱道任务!D51</f>
-        <v>焦热-任务-4</v>
-      </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4">
-        <v>48</v>
-      </c>
-      <c r="K51" s="4">
-        <v>80</v>
-      </c>
-      <c r="L51" s="4"/>
-      <c r="M51" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N51" s="4">
-        <v>1</v>
-      </c>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="4"/>
-    </row>
-    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>1301</v>
-      </c>
-      <c r="B52" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D52" s="4">
-        <v>1</v>
-      </c>
-      <c r="E52" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B52)&amp;"-任务-"&amp;地狱道任务!D52</f>
-        <v>焦热+1-任务-1</v>
-      </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="8">
-        <v>120</v>
-      </c>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N52" s="4">
-        <v>1</v>
-      </c>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="T52" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>1302</v>
-      </c>
-      <c r="B53" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D53" s="4">
-        <v>2</v>
-      </c>
-      <c r="E53" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B53)&amp;"-任务-"&amp;地狱道任务!D53</f>
-        <v>焦热+1-任务-2</v>
-      </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4">
-        <v>10</v>
-      </c>
-      <c r="K53" s="4">
-        <v>215</v>
-      </c>
-      <c r="L53" s="4"/>
-      <c r="M53" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N53" s="4">
-        <v>1</v>
-      </c>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="T53" s="4">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>1303</v>
-      </c>
-      <c r="B54" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D54" s="4">
-        <v>3</v>
-      </c>
-      <c r="E54" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B54)&amp;"-任务-"&amp;地狱道任务!D54</f>
-        <v>焦热+1-任务-3</v>
-      </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4">
-        <v>3</v>
-      </c>
-      <c r="K54" s="4">
-        <v>4</v>
-      </c>
-      <c r="L54" s="4">
-        <v>1</v>
-      </c>
-      <c r="M54" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N54" s="4">
-        <v>1</v>
-      </c>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="4"/>
-    </row>
-    <row r="55" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>1304</v>
-      </c>
-      <c r="B55" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D55" s="4">
-        <v>4</v>
-      </c>
-      <c r="E55" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B55)&amp;"-任务-"&amp;地狱道任务!D55</f>
-        <v>焦热+1-任务-4</v>
-      </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4">
-        <v>8</v>
-      </c>
-      <c r="K55" s="4">
-        <v>4</v>
-      </c>
-      <c r="L55" s="4">
-        <v>5</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N55" s="4">
-        <v>1</v>
-      </c>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="T55" s="4"/>
-    </row>
-    <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <v>1401</v>
-      </c>
-      <c r="B56" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D56" s="4">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B56)&amp;"-任务-"&amp;地狱道任务!D56</f>
-        <v>焦热+2-任务-1</v>
-      </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4">
-        <v>1500</v>
-      </c>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N56" s="4">
-        <v>1</v>
-      </c>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="T56" s="4"/>
-    </row>
-    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
-        <v>1402</v>
-      </c>
-      <c r="B57" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D57" s="4">
-        <v>2</v>
-      </c>
-      <c r="E57" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B57)&amp;"-任务-"&amp;地狱道任务!D57</f>
-        <v>焦热+2-任务-2</v>
-      </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4">
-        <v>150</v>
-      </c>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N57" s="4">
-        <v>1</v>
-      </c>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="T57" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
-        <v>1403</v>
-      </c>
-      <c r="B58" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D58" s="4">
-        <v>3</v>
-      </c>
-      <c r="E58" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B58)&amp;"-任务-"&amp;地狱道任务!D58</f>
-        <v>焦热+2-任务-3</v>
-      </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4">
-        <v>21</v>
-      </c>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N58" s="4">
-        <v>1</v>
-      </c>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="4"/>
-    </row>
-    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
-        <v>1404</v>
-      </c>
-      <c r="B59" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D59" s="4">
-        <v>4</v>
-      </c>
-      <c r="E59" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B59)&amp;"-任务-"&amp;地狱道任务!D59</f>
-        <v>焦热+2-任务-4</v>
-      </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4">
-        <v>3</v>
-      </c>
-      <c r="K59" s="4">
-        <v>4</v>
-      </c>
-      <c r="L59" s="4"/>
-      <c r="M59" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N59" s="4">
-        <v>1</v>
-      </c>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="T59" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
-        <v>1501</v>
-      </c>
-      <c r="B60" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D60" s="4">
-        <v>1</v>
-      </c>
-      <c r="E60" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B60)&amp;"-任务-"&amp;地狱道任务!D60</f>
-        <v>大焦热-任务-1</v>
-      </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4">
-        <v>120</v>
-      </c>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N60" s="4">
-        <v>1</v>
-      </c>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="T60" s="5">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
-        <v>1502</v>
-      </c>
-      <c r="B61" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D61" s="4">
-        <v>2</v>
-      </c>
-      <c r="E61" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B61)&amp;"-任务-"&amp;地狱道任务!D61</f>
-        <v>大焦热-任务-2</v>
-      </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4">
-        <v>3</v>
-      </c>
-      <c r="K61" s="4">
-        <v>16</v>
-      </c>
-      <c r="L61" s="4"/>
-      <c r="M61" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N61" s="4">
-        <v>1</v>
-      </c>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="T61" s="4"/>
-    </row>
-    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
-        <v>1503</v>
-      </c>
-      <c r="B62" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D62" s="4">
-        <v>3</v>
-      </c>
-      <c r="E62" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B62)&amp;"-任务-"&amp;地狱道任务!D62</f>
-        <v>大焦热-任务-3</v>
-      </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4">
-        <v>10</v>
-      </c>
-      <c r="K62" s="4">
-        <v>122</v>
-      </c>
-      <c r="L62" s="4"/>
-      <c r="M62" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N62" s="4">
-        <v>1</v>
-      </c>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="T62" s="4">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
-        <v>1504</v>
-      </c>
-      <c r="B63" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D63" s="4">
-        <v>4</v>
-      </c>
-      <c r="E63" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B63)&amp;"-任务-"&amp;地狱道任务!D63</f>
-        <v>大焦热-任务-4</v>
-      </c>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4">
-        <v>48</v>
-      </c>
-      <c r="K63" s="4">
-        <v>4</v>
-      </c>
-      <c r="L63" s="4">
-        <v>5</v>
-      </c>
-      <c r="M63" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N63" s="4">
-        <v>1</v>
-      </c>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="T63" s="4"/>
-    </row>
-    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
-        <v>1601</v>
-      </c>
-      <c r="B64" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D64" s="4">
-        <v>1</v>
-      </c>
-      <c r="E64" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B64)&amp;"-任务-"&amp;地狱道任务!D64</f>
-        <v>大焦热+1-任务-1</v>
-      </c>
-      <c r="F64" s="5"/>
-      <c r="G64" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4">
-        <v>10</v>
-      </c>
-      <c r="K64" s="4">
-        <v>220</v>
-      </c>
-      <c r="L64" s="4"/>
-      <c r="M64" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N64" s="4">
-        <v>1</v>
-      </c>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="T64" s="4">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
-        <v>1602</v>
-      </c>
-      <c r="B65" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D65" s="4">
-        <v>2</v>
-      </c>
-      <c r="E65" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B65)&amp;"-任务-"&amp;地狱道任务!D65</f>
-        <v>大焦热+1-任务-2</v>
-      </c>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4">
-        <v>3</v>
-      </c>
-      <c r="K65" s="4">
-        <v>103</v>
-      </c>
-      <c r="L65" s="4"/>
-      <c r="M65" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N65" s="4">
-        <v>1</v>
-      </c>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-      <c r="S65" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="T65" s="4"/>
-    </row>
-    <row r="66" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
-        <v>1603</v>
-      </c>
-      <c r="B66" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D66" s="4">
-        <v>3</v>
-      </c>
-      <c r="E66" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B66)&amp;"-任务-"&amp;地狱道任务!D66</f>
-        <v>大焦热+1-任务-3</v>
-      </c>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4">
-        <v>3</v>
-      </c>
-      <c r="K66" s="4">
-        <v>104</v>
-      </c>
-      <c r="L66" s="4"/>
-      <c r="M66" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N66" s="4">
-        <v>1</v>
-      </c>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="T66" s="4"/>
-    </row>
-    <row r="67" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>1604</v>
-      </c>
-      <c r="B67" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D67" s="4">
-        <v>4</v>
-      </c>
-      <c r="E67" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B67)&amp;"-任务-"&amp;地狱道任务!D67</f>
-        <v>大焦热+1-任务-4</v>
-      </c>
-      <c r="F67" s="5"/>
-      <c r="G67" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4">
-        <v>3</v>
-      </c>
-      <c r="K67" s="4">
-        <v>105</v>
-      </c>
-      <c r="L67" s="4"/>
-      <c r="M67" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N67" s="4">
-        <v>1</v>
-      </c>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="4"/>
-      <c r="S67" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="T67" s="4"/>
-    </row>
-    <row r="68" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>1701</v>
-      </c>
-      <c r="B68" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D68" s="4">
-        <v>1</v>
-      </c>
-      <c r="E68" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B68)&amp;"-任务-"&amp;地狱道任务!D68</f>
-        <v>大焦热+2-任务-1</v>
-      </c>
-      <c r="F68" s="5"/>
-      <c r="G68" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4">
-        <v>135</v>
-      </c>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N68" s="4">
-        <v>1</v>
-      </c>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-      <c r="S68" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="T68" s="5">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
-        <v>1702</v>
-      </c>
-      <c r="B69" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D69" s="4">
-        <v>2</v>
-      </c>
-      <c r="E69" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B69)&amp;"-任务-"&amp;地狱道任务!D69</f>
-        <v>大焦热+2-任务-2</v>
-      </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4">
-        <v>200</v>
-      </c>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N69" s="4">
-        <v>1</v>
-      </c>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="T69" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
-        <v>1703</v>
-      </c>
-      <c r="B70" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D70" s="4">
-        <v>3</v>
-      </c>
-      <c r="E70" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B70)&amp;"-任务-"&amp;地狱道任务!D70</f>
-        <v>大焦热+2-任务-3</v>
-      </c>
-      <c r="F70" s="4"/>
-      <c r="G70" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4">
-        <v>30</v>
-      </c>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N70" s="4">
-        <v>1</v>
-      </c>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="4"/>
-    </row>
-    <row r="71" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
-        <v>1704</v>
-      </c>
-      <c r="B71" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D71" s="4">
-        <v>4</v>
-      </c>
-      <c r="E71" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B71)&amp;"-任务-"&amp;地狱道任务!D71</f>
-        <v>大焦热+2-任务-4</v>
-      </c>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4">
-        <v>24</v>
-      </c>
-      <c r="K71" s="4">
-        <v>4</v>
-      </c>
-      <c r="L71" s="4">
-        <v>8</v>
-      </c>
-      <c r="M71" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N71" s="4">
-        <v>1</v>
-      </c>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="T71" s="4"/>
-    </row>
-    <row r="72" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
-        <v>1801</v>
-      </c>
-      <c r="B72" s="4">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D72" s="4">
-        <v>1</v>
-      </c>
-      <c r="E72" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B72)&amp;"-任务-"&amp;地狱道任务!D72</f>
-        <v>无间-任务-1</v>
-      </c>
-      <c r="F72" s="5"/>
-      <c r="G72" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4">
-        <v>140</v>
-      </c>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N72" s="4">
-        <v>1</v>
-      </c>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-      <c r="S72" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="T72" s="4">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
-        <v>1802</v>
-      </c>
-      <c r="B73" s="4">
-        <f t="shared" ref="B73:B79" si="1">B69+1</f>
-        <v>19</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D73" s="4">
-        <v>2</v>
-      </c>
-      <c r="E73" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B73)&amp;"-任务-"&amp;地狱道任务!D73</f>
-        <v>无间-任务-2</v>
-      </c>
-      <c r="F73" s="4"/>
-      <c r="G73" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4">
-        <v>3</v>
-      </c>
-      <c r="K73" s="4">
-        <v>19</v>
-      </c>
-      <c r="L73" s="4"/>
-      <c r="M73" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N73" s="4">
-        <v>1</v>
-      </c>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-      <c r="S73" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="T73" s="4"/>
-    </row>
-    <row r="74" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
-        <v>1803</v>
-      </c>
-      <c r="B74" s="4">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D74" s="4">
-        <v>3</v>
-      </c>
-      <c r="E74" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B74)&amp;"-任务-"&amp;地狱道任务!D74</f>
-        <v>无间-任务-3</v>
-      </c>
-      <c r="F74" s="4"/>
-      <c r="G74" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4">
-        <v>10</v>
-      </c>
-      <c r="K74" s="4">
-        <v>127</v>
-      </c>
-      <c r="L74" s="4"/>
-      <c r="M74" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N74" s="4">
-        <v>1</v>
-      </c>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-      <c r="S74" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="T74" s="4">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
-        <v>1804</v>
-      </c>
-      <c r="B75" s="4">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D75" s="4">
-        <v>4</v>
-      </c>
-      <c r="E75" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B75)&amp;"-任务-"&amp;地狱道任务!D75</f>
-        <v>无间-任务-4</v>
-      </c>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4">
-        <v>48</v>
-      </c>
-      <c r="K75" s="4">
-        <v>120</v>
-      </c>
-      <c r="L75" s="4"/>
-      <c r="M75" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N75" s="4">
-        <v>1</v>
-      </c>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
-    </row>
-    <row r="76" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
-        <v>1901</v>
-      </c>
-      <c r="B76" s="4">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D76" s="4">
-        <v>1</v>
-      </c>
-      <c r="E76" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B76)&amp;"-任务-"&amp;地狱道任务!D76</f>
-        <v>无间+1-任务-1</v>
-      </c>
-      <c r="F76" s="5"/>
-      <c r="G76" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4">
-        <v>150</v>
-      </c>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N76" s="4">
-        <v>1</v>
-      </c>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-      <c r="S76" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="T76" s="4">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
-        <v>1902</v>
-      </c>
-      <c r="B77" s="4">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D77" s="4">
-        <v>2</v>
-      </c>
-      <c r="E77" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B77)&amp;"-任务-"&amp;地狱道任务!D77</f>
-        <v>无间+1-任务-2</v>
-      </c>
-      <c r="F77" s="4"/>
-      <c r="G77" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4">
-        <v>3</v>
-      </c>
-      <c r="K77" s="4">
-        <v>106</v>
-      </c>
-      <c r="L77" s="4"/>
-      <c r="M77" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N77" s="4">
-        <v>1</v>
-      </c>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="T77" s="4"/>
-    </row>
-    <row r="78" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
-        <v>1903</v>
-      </c>
-      <c r="B78" s="4">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D78" s="4">
-        <v>3</v>
-      </c>
-      <c r="E78" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B78)&amp;"-任务-"&amp;地狱道任务!D78</f>
-        <v>无间+1-任务-3</v>
-      </c>
-      <c r="F78" s="4"/>
-      <c r="G78" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4">
-        <v>3</v>
-      </c>
-      <c r="K78" s="4">
-        <v>107</v>
-      </c>
-      <c r="L78" s="4"/>
-      <c r="M78" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N78" s="4">
-        <v>1</v>
-      </c>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-      <c r="S78" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="T78" s="4"/>
-    </row>
-    <row r="79" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
-        <v>1904</v>
-      </c>
-      <c r="B79" s="4">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D79" s="4">
-        <v>4</v>
-      </c>
-      <c r="E79" s="4" t="str">
-        <f>INDEX(地狱道!$K$4:$K$23,地狱道任务!B79)&amp;"-任务-"&amp;地狱道任务!D79</f>
-        <v>无间+1-任务-4</v>
-      </c>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4">
-        <v>40</v>
-      </c>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N79" s="4">
-        <v>1</v>
-      </c>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
-      <c r="S79" s="4"/>
-      <c r="T79" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:T79"/>
+  <autoFilter ref="A1:T43"/>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="W41:W43">
+  <conditionalFormatting sqref="W42:W43 W40">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>